--- a/Sezon/Ekstraklasa2025_26.xlsx
+++ b/Sezon/Ekstraklasa2025_26.xlsx
@@ -526,25 +526,25 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>78.2303063991</v>
+        <v>78.1152817748</v>
       </c>
       <c r="H2" t="n">
-        <v>80.81818352160001</v>
+        <v>80.7147350508</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3051637349583555</v>
+        <v>0.3046739297909349</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2824537662770913</v>
+        <v>0.2826528740687256</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4123824987645532</v>
+        <v>0.4126731961403394</v>
       </c>
       <c r="L2" t="n">
-        <v>1.32787370363962</v>
+        <v>1.326694985513144</v>
       </c>
       <c r="M2" t="n">
-        <v>1.259743797595827</v>
+        <v>1.260631818346516</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
@@ -671,25 +671,25 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>79.7511030622</v>
+        <v>79.6434051169</v>
       </c>
       <c r="H5" t="n">
-        <v>78.2303063991</v>
+        <v>78.1152817748</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4434470046283038</v>
+        <v>0.4435534408753876</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2262410550291448</v>
+        <v>0.2261977882620376</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3303119403425513</v>
+        <v>0.3302487708625749</v>
       </c>
       <c r="L5" t="n">
-        <v>1.660652954227463</v>
+        <v>1.660909093488738</v>
       </c>
       <c r="M5" t="n">
-        <v>1.009035105429986</v>
+        <v>1.008842135648687</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -763,25 +763,25 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>76.1703535819</v>
+        <v>76.0461790084</v>
       </c>
       <c r="H7" t="n">
-        <v>78.2303063991</v>
+        <v>78.1152817748</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3188240715219527</v>
+        <v>0.3183862532493983</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2769007839341656</v>
+        <v>0.277078758841708</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4042751445438817</v>
+        <v>0.4045349879088936</v>
       </c>
       <c r="L7" t="n">
-        <v>1.36074735910974</v>
+        <v>1.359693747657089</v>
       </c>
       <c r="M7" t="n">
-        <v>1.234977496346378</v>
+        <v>1.235771264434018</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -802,25 +802,25 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>78.2303063991</v>
+        <v>78.1152817748</v>
       </c>
       <c r="H8" t="n">
-        <v>77.3260662476</v>
+        <v>77.2073524466</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4197124644761781</v>
+        <v>0.4196807398835293</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2358892420828544</v>
+        <v>0.2359021382587279</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3443982934409675</v>
+        <v>0.3444171218577427</v>
       </c>
       <c r="L8" t="n">
-        <v>1.603535686869502</v>
+        <v>1.603459341508331</v>
       </c>
       <c r="M8" t="n">
-        <v>1.052066019689531</v>
+        <v>1.052123536633926</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -947,25 +947,25 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>76.6464298348</v>
+        <v>76.5239745157</v>
       </c>
       <c r="H11" t="n">
-        <v>78.2303063991</v>
+        <v>78.1152817748</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3343780046228064</v>
+        <v>0.3339861137551036</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2705780469012982</v>
+        <v>0.2707373521320717</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3950439484758954</v>
+        <v>0.3952765341128247</v>
       </c>
       <c r="L11" t="n">
-        <v>1.398177962344314</v>
+        <v>1.397234875378135</v>
       </c>
       <c r="M11" t="n">
-        <v>1.20677808917979</v>
+        <v>1.20748859050904</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -1039,25 +1039,25 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>73.51107550330001</v>
+        <v>73.3755724322</v>
       </c>
       <c r="H13" t="n">
-        <v>78.2303063991</v>
+        <v>78.1152817748</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2667152505602525</v>
+        <v>0.2663757163438717</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3438804836217789</v>
+        <v>0.3447157377940757</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3894042658179686</v>
+        <v>0.3889085458620527</v>
       </c>
       <c r="L13" t="n">
-        <v>1.189550017498726</v>
+        <v>1.188035694893668</v>
       </c>
       <c r="M13" t="n">
-        <v>1.421045716683305</v>
+        <v>1.42305575924428</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1078,25 +1078,25 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
-        <v>78.2303063991</v>
+        <v>78.1152817748</v>
       </c>
       <c r="H14" t="n">
-        <v>74.0542942929</v>
+        <v>73.9206940458</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5357991710451612</v>
+        <v>0.5362956710863083</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1886995239653816</v>
+        <v>0.1884976946803625</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2755013049894572</v>
+        <v>0.2752066342333293</v>
       </c>
       <c r="L14" t="n">
-        <v>1.882898818124941</v>
+        <v>1.884093647492254</v>
       </c>
       <c r="M14" t="n">
-        <v>0.8415998768856021</v>
+        <v>0.8406997182744168</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1223,25 +1223,25 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
-        <v>78.0253083711</v>
+        <v>77.9089917772</v>
       </c>
       <c r="H17" t="n">
-        <v>78.2303063991</v>
+        <v>78.1152817748</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3814052588766959</v>
+        <v>0.3812049149549819</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2514612768793918</v>
+        <v>0.2515427174979749</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3671334642439121</v>
+        <v>0.3672523675470433</v>
       </c>
       <c r="L17" t="n">
-        <v>1.511349240874</v>
+        <v>1.510867112411989</v>
       </c>
       <c r="M17" t="n">
-        <v>1.121517294882088</v>
+        <v>1.121880520040968</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1262,25 +1262,25 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
-        <v>78.2303063991</v>
+        <v>78.1152817748</v>
       </c>
       <c r="H18" t="n">
-        <v>74.47767864879999</v>
+        <v>74.3462291957</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5207277764831796</v>
+        <v>0.5211493160458809</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1948261071206587</v>
+        <v>0.1946547495748452</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2844461163961617</v>
+        <v>0.284195934379274</v>
       </c>
       <c r="L18" t="n">
-        <v>1.846629445845701</v>
+        <v>1.847643882516917</v>
       </c>
       <c r="M18" t="n">
-        <v>0.8689244377581378</v>
+        <v>0.8681601831038095</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1301,25 +1301,25 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
-        <v>74.47767864879999</v>
+        <v>74.3462291957</v>
       </c>
       <c r="H19" t="n">
-        <v>78.2303063991</v>
+        <v>78.1152817748</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2795764142770327</v>
+        <v>0.2793058554864293</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3122420208784997</v>
+        <v>0.3129075955033839</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4081815648444677</v>
+        <v>0.4077865490101868</v>
       </c>
       <c r="L19" t="n">
-        <v>1.246910807675566</v>
+        <v>1.245704115469475</v>
       </c>
       <c r="M19" t="n">
-        <v>1.344907627479967</v>
+        <v>1.346509335520338</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1393,25 +1393,25 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
-        <v>75.28751987059999</v>
+        <v>75.15952321419999</v>
       </c>
       <c r="H21" t="n">
-        <v>78.2303063991</v>
+        <v>78.1152817748</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2910386312734277</v>
+        <v>0.2905056344991137</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2881956783441351</v>
+        <v>0.2884123436995473</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4207656903824372</v>
+        <v>0.421082021801339</v>
       </c>
       <c r="L21" t="n">
-        <v>1.29388158420272</v>
+        <v>1.29259892529868</v>
       </c>
       <c r="M21" t="n">
-        <v>1.285352725414842</v>
+        <v>1.286319052899981</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1432,25 +1432,25 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="n">
-        <v>78.2303063991</v>
+        <v>78.1152817748</v>
       </c>
       <c r="H22" t="n">
-        <v>75.0941474344</v>
+        <v>74.96532166999999</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4987229231718896</v>
+        <v>0.4990514985014148</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2037711694423213</v>
+        <v>0.2036376022351973</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2975059073857891</v>
+        <v>0.297310899263388</v>
       </c>
       <c r="L22" t="n">
-        <v>1.793674676901458</v>
+        <v>1.794465394767632</v>
       </c>
       <c r="M22" t="n">
-        <v>0.9088194157127532</v>
+        <v>0.9082237059689797</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1471,25 +1471,25 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
-        <v>75.0941474344</v>
+        <v>74.96532166999999</v>
       </c>
       <c r="H23" t="n">
-        <v>78.2303063991</v>
+        <v>78.1152817748</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2874312121535901</v>
+        <v>0.2872031087002659</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2929192181021685</v>
+        <v>0.2934803525973456</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4196495697442414</v>
+        <v>0.4193165387023883</v>
       </c>
       <c r="L23" t="n">
-        <v>1.281943206205012</v>
+        <v>1.280925864803186</v>
       </c>
       <c r="M23" t="n">
-        <v>1.298407224050747</v>
+        <v>1.299757596494425</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -1563,25 +1563,25 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="n">
-        <v>72.93121279970001</v>
+        <v>72.79331362630001</v>
       </c>
       <c r="H25" t="n">
-        <v>78.2303063991</v>
+        <v>78.1152817748</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2587109288549663</v>
+        <v>0.258329231481614</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3635711150167832</v>
+        <v>0.3645100905552296</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3777179561282507</v>
+        <v>0.3771606779631564</v>
       </c>
       <c r="L25" t="n">
-        <v>1.153850742693149</v>
+        <v>1.152148372407998</v>
       </c>
       <c r="M25" t="n">
-        <v>1.4684313011786</v>
+        <v>1.470690949628845</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -1602,25 +1602,25 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="n">
-        <v>78.2303063991</v>
+        <v>78.1152817748</v>
       </c>
       <c r="H26" t="n">
-        <v>73.2274991857</v>
+        <v>73.0904549923</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5650186829981335</v>
+        <v>0.5656301566379826</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1768216735779945</v>
+        <v>0.1765731070577307</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2581596434238719</v>
+        <v>0.2577967363042868</v>
       </c>
       <c r="L26" t="n">
-        <v>1.953215692418273</v>
+        <v>1.954687206218234</v>
       </c>
       <c r="M26" t="n">
-        <v>0.7886246641578554</v>
+        <v>0.7875160574774788</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -1747,25 +1747,25 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="n">
-        <v>74.8241892188</v>
+        <v>74.693844517</v>
       </c>
       <c r="H29" t="n">
-        <v>78.2303063991</v>
+        <v>78.1152817748</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2840265260052208</v>
+        <v>0.2837753512195487</v>
       </c>
       <c r="J29" t="n">
-        <v>0.3012947460271568</v>
+        <v>0.3019126359999103</v>
       </c>
       <c r="K29" t="n">
-        <v>0.4146787279676223</v>
+        <v>0.4143120127805411</v>
       </c>
       <c r="L29" t="n">
-        <v>1.266758305983285</v>
+        <v>1.265638066439187</v>
       </c>
       <c r="M29" t="n">
-        <v>1.318562966049093</v>
+        <v>1.320049920780272</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -1786,25 +1786,25 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="n">
-        <v>78.2303063991</v>
+        <v>78.1152817748</v>
       </c>
       <c r="H30" t="n">
-        <v>75.60425593550001</v>
+        <v>75.47725709149999</v>
       </c>
       <c r="I30" t="n">
-        <v>0.4805146328996556</v>
+        <v>0.4807775681598676</v>
       </c>
       <c r="J30" t="n">
-        <v>0.2111729134554246</v>
+        <v>0.2110660292033059</v>
       </c>
       <c r="K30" t="n">
-        <v>0.3083124536449199</v>
+        <v>0.3081564026368265</v>
       </c>
       <c r="L30" t="n">
-        <v>1.749856352343887</v>
+        <v>1.750489107116429</v>
       </c>
       <c r="M30" t="n">
-        <v>0.9418311940111936</v>
+        <v>0.9413544902467441</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -1825,25 +1825,25 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="n">
-        <v>75.60425593550001</v>
+        <v>75.47725709149999</v>
       </c>
       <c r="H31" t="n">
-        <v>78.2303063991</v>
+        <v>78.1152817748</v>
       </c>
       <c r="I31" t="n">
-        <v>0.3008429354406431</v>
+        <v>0.3003307392822075</v>
       </c>
       <c r="J31" t="n">
-        <v>0.2842101888452671</v>
+        <v>0.2844183986657693</v>
       </c>
       <c r="K31" t="n">
-        <v>0.4149468757140899</v>
+        <v>0.4152508620520232</v>
       </c>
       <c r="L31" t="n">
-        <v>1.317475682036019</v>
+        <v>1.316243079898646</v>
       </c>
       <c r="M31" t="n">
-        <v>1.267577442249891</v>
+        <v>1.268506058049331</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -1864,25 +1864,25 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="n">
-        <v>78.2303063991</v>
+        <v>78.1152817748</v>
       </c>
       <c r="H32" t="n">
-        <v>73.1844927514</v>
+        <v>73.0472709085</v>
       </c>
       <c r="I32" t="n">
-        <v>0.5665280470225786</v>
+        <v>0.5671452545948306</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1762081109664315</v>
+        <v>0.1759572135793372</v>
       </c>
       <c r="K32" t="n">
-        <v>0.25726384201099</v>
+        <v>0.2568975318258322</v>
       </c>
       <c r="L32" t="n">
-        <v>1.956847983078726</v>
+        <v>1.958333295610324</v>
       </c>
       <c r="M32" t="n">
-        <v>0.7858881749102843</v>
+        <v>0.7847691725638437</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -1956,25 +1956,25 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="n">
-        <v>78.2303063991</v>
+        <v>78.1152817748</v>
       </c>
       <c r="H34" t="n">
-        <v>71.66134089419999</v>
+        <v>71.5179233722</v>
       </c>
       <c r="I34" t="n">
-        <v>0.618996867660587</v>
+        <v>0.6197981254822114</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1548793220891923</v>
+        <v>0.1545536075275564</v>
       </c>
       <c r="K34" t="n">
-        <v>0.2261238102502207</v>
+        <v>0.2256482669902323</v>
       </c>
       <c r="L34" t="n">
-        <v>2.083114413231982</v>
+        <v>2.085042643436867</v>
       </c>
       <c r="M34" t="n">
-        <v>0.6907617765177976</v>
+        <v>0.6893090895729014</v>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
@@ -2048,25 +2048,25 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="n">
-        <v>80.81818352160001</v>
+        <v>80.7147350508</v>
       </c>
       <c r="H36" t="n">
-        <v>79.7511030622</v>
+        <v>79.6434051169</v>
       </c>
       <c r="I36" t="n">
-        <v>0.4290071523189622</v>
+        <v>0.4290110554346587</v>
       </c>
       <c r="J36" t="n">
-        <v>0.2321109136914788</v>
+        <v>0.2321093270590818</v>
       </c>
       <c r="K36" t="n">
-        <v>0.338881933989559</v>
+        <v>0.3388796175062594</v>
       </c>
       <c r="L36" t="n">
-        <v>1.625903390946446</v>
+        <v>1.625912783810236</v>
       </c>
       <c r="M36" t="n">
-        <v>1.035214675063995</v>
+        <v>1.035207598683505</v>
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
@@ -2140,25 +2140,25 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="n">
-        <v>80.81818352160001</v>
+        <v>80.7147350508</v>
       </c>
       <c r="H38" t="n">
-        <v>76.1703535819</v>
+        <v>76.0461790084</v>
       </c>
       <c r="I38" t="n">
-        <v>0.5561700371742349</v>
+        <v>0.5567549167764815</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1804186840755143</v>
+        <v>0.1801809281396417</v>
       </c>
       <c r="K38" t="n">
-        <v>0.2634112787502509</v>
+        <v>0.2630641550838768</v>
       </c>
       <c r="L38" t="n">
-        <v>1.931921390272956</v>
+        <v>1.933328905413321</v>
       </c>
       <c r="M38" t="n">
-        <v>0.8046673309767938</v>
+        <v>0.8036069395028018</v>
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
@@ -2285,25 +2285,25 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="n">
-        <v>77.3260662476</v>
+        <v>77.2073524466</v>
       </c>
       <c r="H41" t="n">
-        <v>80.81818352160001</v>
+        <v>80.7147350508</v>
       </c>
       <c r="I41" t="n">
-        <v>0.2841985253559349</v>
+        <v>0.2839539101850068</v>
       </c>
       <c r="J41" t="n">
-        <v>0.3008716276244002</v>
+        <v>0.3014733809448835</v>
       </c>
       <c r="K41" t="n">
-        <v>0.414929847019665</v>
+        <v>0.4145727088701098</v>
       </c>
       <c r="L41" t="n">
-        <v>1.26752542308747</v>
+        <v>1.26643443942513</v>
       </c>
       <c r="M41" t="n">
-        <v>1.317544729892866</v>
+        <v>1.31899285170476</v>
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
@@ -2324,25 +2324,25 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="n">
-        <v>80.81818352160001</v>
+        <v>80.7147350508</v>
       </c>
       <c r="H42" t="n">
-        <v>76.6464298348</v>
+        <v>76.5239745157</v>
       </c>
       <c r="I42" t="n">
-        <v>0.539324031421594</v>
+        <v>0.5398517349145919</v>
       </c>
       <c r="J42" t="n">
-        <v>0.187266653893661</v>
+        <v>0.1870521402786212</v>
       </c>
       <c r="K42" t="n">
-        <v>0.2734093146847451</v>
+        <v>0.2730961248067869</v>
       </c>
       <c r="L42" t="n">
-        <v>1.891381408949527</v>
+        <v>1.892651329550563</v>
       </c>
       <c r="M42" t="n">
-        <v>0.8352092763657281</v>
+        <v>0.8342525456426504</v>
       </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
@@ -2469,25 +2469,25 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="n">
-        <v>73.51107550330001</v>
+        <v>73.3755724322</v>
       </c>
       <c r="H45" t="n">
-        <v>80.81818352160001</v>
+        <v>80.7147350508</v>
       </c>
       <c r="I45" t="n">
-        <v>0.231159210564802</v>
+        <v>0.2306252141562025</v>
       </c>
       <c r="J45" t="n">
-        <v>0.4313483420105872</v>
+        <v>0.4326619731757418</v>
       </c>
       <c r="K45" t="n">
-        <v>0.3374924474246108</v>
+        <v>0.3367128126680556</v>
       </c>
       <c r="L45" t="n">
-        <v>1.030970079119017</v>
+        <v>1.028588455136663</v>
       </c>
       <c r="M45" t="n">
-        <v>1.631537473456373</v>
+        <v>1.634698732195281</v>
       </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
@@ -2508,25 +2508,25 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="n">
-        <v>80.81818352160001</v>
+        <v>80.7147350508</v>
       </c>
       <c r="H46" t="n">
-        <v>74.0542942929</v>
+        <v>73.9206940458</v>
       </c>
       <c r="I46" t="n">
-        <v>0.6289994253133779</v>
+        <v>0.6298662326227401</v>
       </c>
       <c r="J46" t="n">
-        <v>0.1508132417425293</v>
+        <v>0.1504608810476666</v>
       </c>
       <c r="K46" t="n">
-        <v>0.2201873329440928</v>
+        <v>0.2196728863295933</v>
       </c>
       <c r="L46" t="n">
-        <v>2.107185608884226</v>
+        <v>2.109271584197814</v>
       </c>
       <c r="M46" t="n">
-        <v>0.6726270581716807</v>
+        <v>0.6710555294725931</v>
       </c>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
@@ -2653,25 +2653,25 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="n">
-        <v>78.0253083711</v>
+        <v>77.9089917772</v>
       </c>
       <c r="H49" t="n">
-        <v>80.81818352160001</v>
+        <v>80.7147350508</v>
       </c>
       <c r="I49" t="n">
-        <v>0.2987442899979459</v>
+        <v>0.2982201918217424</v>
       </c>
       <c r="J49" t="n">
-        <v>0.2850632967488025</v>
+        <v>0.2852763447879096</v>
       </c>
       <c r="K49" t="n">
-        <v>0.4161924132532516</v>
+        <v>0.416503463390348</v>
       </c>
       <c r="L49" t="n">
-        <v>1.312425283247089</v>
+        <v>1.311164038855575</v>
       </c>
       <c r="M49" t="n">
-        <v>1.271382303499659</v>
+        <v>1.272332497754077</v>
       </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
@@ -2692,25 +2692,25 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="n">
-        <v>80.81818352160001</v>
+        <v>80.7147350508</v>
       </c>
       <c r="H50" t="n">
-        <v>74.47767864879999</v>
+        <v>74.3462291957</v>
       </c>
       <c r="I50" t="n">
-        <v>0.6147784301847381</v>
+        <v>0.615585454634853</v>
       </c>
       <c r="J50" t="n">
-        <v>0.1565941340712447</v>
+        <v>0.1562660753516858</v>
       </c>
       <c r="K50" t="n">
-        <v>0.2286274357440173</v>
+        <v>0.2281484700134612</v>
       </c>
       <c r="L50" t="n">
-        <v>2.072962726298232</v>
+        <v>2.07490483391802</v>
       </c>
       <c r="M50" t="n">
-        <v>0.6984098379577515</v>
+        <v>0.6969466960685187</v>
       </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
@@ -2731,25 +2731,25 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="n">
-        <v>74.47767864879999</v>
+        <v>74.3462291957</v>
       </c>
       <c r="H51" t="n">
-        <v>80.81818352160001</v>
+        <v>80.7147350508</v>
       </c>
       <c r="I51" t="n">
-        <v>0.245314666225998</v>
+        <v>0.2448522655337837</v>
       </c>
       <c r="J51" t="n">
-        <v>0.3965259210840449</v>
+        <v>0.397663426786892</v>
       </c>
       <c r="K51" t="n">
-        <v>0.358159412689957</v>
+        <v>0.3574843076793243</v>
       </c>
       <c r="L51" t="n">
-        <v>1.094103411367951</v>
+        <v>1.092041104280675</v>
       </c>
       <c r="M51" t="n">
-        <v>1.547737175942092</v>
+        <v>1.55047458804</v>
       </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
@@ -2770,25 +2770,25 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="n">
-        <v>80.81818352160001</v>
+        <v>80.7147350508</v>
       </c>
       <c r="H52" t="n">
-        <v>75.28751987059999</v>
+        <v>75.15952321419999</v>
       </c>
       <c r="I52" t="n">
-        <v>0.5870422846645126</v>
+        <v>0.5877489514348123</v>
       </c>
       <c r="J52" t="n">
-        <v>0.1678689899737754</v>
+        <v>0.1675817270590194</v>
       </c>
       <c r="K52" t="n">
-        <v>0.245088725361712</v>
+        <v>0.2446693215061682</v>
       </c>
       <c r="L52" t="n">
-        <v>2.00621557935525</v>
+        <v>2.007916175810605</v>
       </c>
       <c r="M52" t="n">
-        <v>0.7486956952830381</v>
+        <v>0.7474145026832263</v>
       </c>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
@@ -2862,25 +2862,25 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="n">
-        <v>80.81818352160001</v>
+        <v>80.7147350508</v>
       </c>
       <c r="H54" t="n">
-        <v>75.0941474344</v>
+        <v>74.96532166999999</v>
       </c>
       <c r="I54" t="n">
-        <v>0.5937226610865456</v>
+        <v>0.5944543486723051</v>
       </c>
       <c r="J54" t="n">
-        <v>0.1651533898022172</v>
+        <v>0.1648559558242662</v>
       </c>
       <c r="K54" t="n">
-        <v>0.2411239491112372</v>
+        <v>0.2406896955034286</v>
       </c>
       <c r="L54" t="n">
-        <v>2.022291932370874</v>
+        <v>2.024052741520344</v>
       </c>
       <c r="M54" t="n">
-        <v>0.7365841185178889</v>
+        <v>0.7352575629762272</v>
       </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
@@ -2954,25 +2954,25 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="n">
-        <v>80.81818352160001</v>
+        <v>80.7147350508</v>
       </c>
       <c r="H56" t="n">
-        <v>72.93121279970001</v>
+        <v>72.79331362630001</v>
       </c>
       <c r="I56" t="n">
-        <v>0.6656035470698739</v>
+        <v>0.6665666945065019</v>
       </c>
       <c r="J56" t="n">
-        <v>0.1359335174512708</v>
+        <v>0.135541994103048</v>
       </c>
       <c r="K56" t="n">
-        <v>0.1984629354788554</v>
+        <v>0.1978913113904501</v>
       </c>
       <c r="L56" t="n">
-        <v>2.195273576688477</v>
+        <v>2.197591394909955</v>
       </c>
       <c r="M56" t="n">
-        <v>0.6062634878326678</v>
+        <v>0.6045172936995943</v>
       </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
@@ -3099,25 +3099,25 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="n">
-        <v>73.2274991857</v>
+        <v>73.0904549923</v>
       </c>
       <c r="H59" t="n">
-        <v>80.81818352160001</v>
+        <v>80.7147350508</v>
       </c>
       <c r="I59" t="n">
-        <v>0.226946727767804</v>
+        <v>0.2263869301752122</v>
       </c>
       <c r="J59" t="n">
-        <v>0.4417110496912021</v>
+        <v>0.4430881517689778</v>
       </c>
       <c r="K59" t="n">
-        <v>0.3313422225409939</v>
+        <v>0.3305249180558099</v>
       </c>
       <c r="L59" t="n">
-        <v>1.012182405844406</v>
+        <v>1.009685708581447</v>
       </c>
       <c r="M59" t="n">
-        <v>1.6564753716146</v>
+        <v>1.659789373362743</v>
       </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
@@ -3138,25 +3138,25 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="n">
-        <v>80.81818352160001</v>
+        <v>80.7147350508</v>
       </c>
       <c r="H60" t="n">
-        <v>74.8241892188</v>
+        <v>74.693844517</v>
       </c>
       <c r="I60" t="n">
-        <v>0.6029906220514039</v>
+        <v>0.6037686714548343</v>
       </c>
       <c r="J60" t="n">
-        <v>0.1613859259953643</v>
+        <v>0.1610696457500674</v>
       </c>
       <c r="K60" t="n">
-        <v>0.2356234519532319</v>
+        <v>0.2351616827950984</v>
       </c>
       <c r="L60" t="n">
-        <v>2.044595318107444</v>
+        <v>2.046467697159601</v>
       </c>
       <c r="M60" t="n">
-        <v>0.7197812299393248</v>
+        <v>0.7183706200453006</v>
       </c>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
@@ -3177,25 +3177,25 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="n">
-        <v>74.8241892188</v>
+        <v>74.693844517</v>
       </c>
       <c r="H61" t="n">
-        <v>80.81818352160001</v>
+        <v>80.7147350508</v>
       </c>
       <c r="I61" t="n">
-        <v>0.2502948358581619</v>
+        <v>0.2498534015807064</v>
       </c>
       <c r="J61" t="n">
-        <v>0.3842747037889218</v>
+        <v>0.3853606321114621</v>
       </c>
       <c r="K61" t="n">
-        <v>0.3654304603529163</v>
+        <v>0.3647859663078314</v>
       </c>
       <c r="L61" t="n">
-        <v>1.116314967927402</v>
+        <v>1.114346171049951</v>
       </c>
       <c r="M61" t="n">
-        <v>1.518254571719682</v>
+        <v>1.520867862642218</v>
       </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
@@ -3269,25 +3269,25 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="n">
-        <v>75.60425593550001</v>
+        <v>75.47725709149999</v>
       </c>
       <c r="H63" t="n">
-        <v>80.81818352160001</v>
+        <v>80.7147350508</v>
       </c>
       <c r="I63" t="n">
-        <v>0.2612822465797093</v>
+        <v>0.2609002511317493</v>
       </c>
       <c r="J63" t="n">
-        <v>0.3572456734139151</v>
+        <v>0.358185382215897</v>
       </c>
       <c r="K63" t="n">
-        <v>0.3814720800063756</v>
+        <v>0.3809143666523538</v>
       </c>
       <c r="L63" t="n">
-        <v>1.165318819745504</v>
+        <v>1.163615120047601</v>
       </c>
       <c r="M63" t="n">
-        <v>1.453209100248121</v>
+        <v>1.455470513300045</v>
       </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
@@ -3308,25 +3308,25 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="n">
-        <v>80.81818352160001</v>
+        <v>80.7147350508</v>
       </c>
       <c r="H64" t="n">
-        <v>73.1844927514</v>
+        <v>73.0472709085</v>
       </c>
       <c r="I64" t="n">
-        <v>0.6575024744570264</v>
+        <v>0.6584552221988217</v>
       </c>
       <c r="J64" t="n">
-        <v>0.1392266363995828</v>
+        <v>0.1388393405695847</v>
       </c>
       <c r="K64" t="n">
-        <v>0.2032708891433908</v>
+        <v>0.2027054372315936</v>
       </c>
       <c r="L64" t="n">
-        <v>2.17577831251447</v>
+        <v>2.178071103828059</v>
       </c>
       <c r="M64" t="n">
-        <v>0.6209507983421392</v>
+        <v>0.6192234589403477</v>
       </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
@@ -3347,25 +3347,25 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="n">
-        <v>73.1844927514</v>
+        <v>73.0472709085</v>
       </c>
       <c r="H65" t="n">
-        <v>80.81818352160001</v>
+        <v>80.7147350508</v>
       </c>
       <c r="I65" t="n">
-        <v>0.226305973917453</v>
+        <v>0.2257431203286815</v>
       </c>
       <c r="J65" t="n">
-        <v>0.4432873041630655</v>
+        <v>0.4446719239914434</v>
       </c>
       <c r="K65" t="n">
-        <v>0.3304067219194814</v>
+        <v>0.3295849556798751</v>
       </c>
       <c r="L65" t="n">
-        <v>1.009324643671841</v>
+        <v>1.00681431666592</v>
       </c>
       <c r="M65" t="n">
-        <v>1.660268634408678</v>
+        <v>1.663600727654205</v>
       </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
@@ -3386,25 +3386,25 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="n">
-        <v>80.81818352160001</v>
+        <v>80.7147350508</v>
       </c>
       <c r="H66" t="n">
-        <v>71.66134089419999</v>
+        <v>71.5179233722</v>
       </c>
       <c r="I66" t="n">
-        <v>0.7046993393651799</v>
+        <v>0.7057634205664455</v>
       </c>
       <c r="J66" t="n">
-        <v>0.1200409189572439</v>
+        <v>0.1196083656233962</v>
       </c>
       <c r="K66" t="n">
-        <v>0.1752597416775761</v>
+        <v>0.1746282138101584</v>
       </c>
       <c r="L66" t="n">
-        <v>2.289357759773115</v>
+        <v>2.291918475509495</v>
       </c>
       <c r="M66" t="n">
-        <v>0.5353824985493078</v>
+        <v>0.533453310680347</v>
       </c>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
@@ -3478,25 +3478,25 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="n">
-        <v>79.7511030622</v>
+        <v>79.6434051169</v>
       </c>
       <c r="H68" t="n">
-        <v>76.1703535819</v>
+        <v>76.0461790084</v>
       </c>
       <c r="I68" t="n">
-        <v>0.5167674300347603</v>
+        <v>0.5172015253300372</v>
       </c>
       <c r="J68" t="n">
-        <v>0.1964360040509104</v>
+        <v>0.1962595425487654</v>
       </c>
       <c r="K68" t="n">
-        <v>0.2867965659143293</v>
+        <v>0.2865389321211975</v>
       </c>
       <c r="L68" t="n">
-        <v>1.83709885601861</v>
+        <v>1.838143508111309</v>
       </c>
       <c r="M68" t="n">
-        <v>0.8761045780670607</v>
+        <v>0.8753175597674936</v>
       </c>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
@@ -3570,25 +3570,25 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="n">
-        <v>79.7511030622</v>
+        <v>79.6434051169</v>
       </c>
       <c r="H70" t="n">
-        <v>77.3260662476</v>
+        <v>77.2073524466</v>
       </c>
       <c r="I70" t="n">
-        <v>0.4755178609167917</v>
+        <v>0.4757568613485872</v>
       </c>
       <c r="J70" t="n">
-        <v>0.21320412157854</v>
+        <v>0.2131069669314686</v>
       </c>
       <c r="K70" t="n">
-        <v>0.3112780175046683</v>
+        <v>0.3111361717199441</v>
       </c>
       <c r="L70" t="n">
-        <v>1.737831600255044</v>
+        <v>1.738406755765706</v>
       </c>
       <c r="M70" t="n">
-        <v>0.9508903822402882</v>
+        <v>0.95045707251435</v>
       </c>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
@@ -3715,25 +3715,25 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="n">
-        <v>76.6464298348</v>
+        <v>76.5239745157</v>
       </c>
       <c r="H73" t="n">
-        <v>79.7511030622</v>
+        <v>79.6434051169</v>
       </c>
       <c r="I73" t="n">
-        <v>0.2885536078296305</v>
+        <v>0.2883183712264476</v>
       </c>
       <c r="J73" t="n">
-        <v>0.2901581247391091</v>
+        <v>0.290736806782939</v>
       </c>
       <c r="K73" t="n">
-        <v>0.4212882674312605</v>
+        <v>0.4209448219906134</v>
       </c>
       <c r="L73" t="n">
-        <v>1.286949090920152</v>
+        <v>1.285899935669956</v>
       </c>
       <c r="M73" t="n">
-        <v>1.291762641648588</v>
+        <v>1.29315524233943</v>
       </c>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
@@ -3754,25 +3754,25 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="n">
-        <v>79.7511030622</v>
+        <v>79.6434051169</v>
       </c>
       <c r="H74" t="n">
-        <v>73.51107550330001</v>
+        <v>73.3755724322</v>
       </c>
       <c r="I74" t="n">
-        <v>0.6099237573460919</v>
+        <v>0.6107220877054566</v>
       </c>
       <c r="J74" t="n">
-        <v>0.1585675783145968</v>
+        <v>0.1582430537782697</v>
       </c>
       <c r="K74" t="n">
-        <v>0.2315086643393113</v>
+        <v>0.2310348585162738</v>
       </c>
       <c r="L74" t="n">
-        <v>2.061279936377587</v>
+        <v>2.063201121632643</v>
       </c>
       <c r="M74" t="n">
-        <v>0.7072113992831017</v>
+        <v>0.7057640198510828</v>
       </c>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
@@ -3793,25 +3793,25 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="n">
-        <v>73.51107550330001</v>
+        <v>73.3755724322</v>
       </c>
       <c r="H75" t="n">
-        <v>79.7511030622</v>
+        <v>79.6434051169</v>
       </c>
       <c r="I75" t="n">
-        <v>0.2461728469118892</v>
+        <v>0.245711762504972</v>
       </c>
       <c r="J75" t="n">
-        <v>0.3944147965967527</v>
+        <v>0.3955490642377689</v>
       </c>
       <c r="K75" t="n">
-        <v>0.3594123564913582</v>
+        <v>0.3587391732572591</v>
       </c>
       <c r="L75" t="n">
-        <v>1.097930897227026</v>
+        <v>1.095874460772175</v>
       </c>
       <c r="M75" t="n">
-        <v>1.542656746281616</v>
+        <v>1.545386365970566</v>
       </c>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
@@ -3832,25 +3832,25 @@
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="n">
-        <v>79.7511030622</v>
+        <v>79.6434051169</v>
       </c>
       <c r="H76" t="n">
-        <v>74.0542942929</v>
+        <v>73.9206940458</v>
       </c>
       <c r="I76" t="n">
-        <v>0.5913113463110523</v>
+        <v>0.5920566425170349</v>
       </c>
       <c r="J76" t="n">
-        <v>0.1661335990605479</v>
+        <v>0.1658306331231565</v>
       </c>
       <c r="K76" t="n">
-        <v>0.2425550546283999</v>
+        <v>0.2421127243598085</v>
       </c>
       <c r="L76" t="n">
-        <v>2.016489093561557</v>
+        <v>2.018282651910913</v>
       </c>
       <c r="M76" t="n">
-        <v>0.7409558518100434</v>
+        <v>0.7396046237292782</v>
       </c>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
@@ -3871,25 +3871,25 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="n">
-        <v>74.0542942929</v>
+        <v>73.9206940458</v>
       </c>
       <c r="H77" t="n">
-        <v>79.7511030622</v>
+        <v>79.6434051169</v>
       </c>
       <c r="I77" t="n">
-        <v>0.2539386189748037</v>
+        <v>0.2535129599651172</v>
       </c>
       <c r="J77" t="n">
-        <v>0.3753109973219829</v>
+        <v>0.3763581184858118</v>
       </c>
       <c r="K77" t="n">
-        <v>0.3707503837032134</v>
+        <v>0.3701289215490711</v>
       </c>
       <c r="L77" t="n">
-        <v>1.132566240627625</v>
+        <v>1.130667801444423</v>
       </c>
       <c r="M77" t="n">
-        <v>1.496683375669162</v>
+        <v>1.499203277006506</v>
       </c>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
@@ -3910,25 +3910,25 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="n">
-        <v>79.7511030622</v>
+        <v>79.6434051169</v>
       </c>
       <c r="H78" t="n">
-        <v>78.0253083711</v>
+        <v>77.9089917772</v>
       </c>
       <c r="I78" t="n">
-        <v>0.450686172875704</v>
+        <v>0.4508386345910501</v>
       </c>
       <c r="J78" t="n">
-        <v>0.2232983037090635</v>
+        <v>0.2232363274020122</v>
       </c>
       <c r="K78" t="n">
-        <v>0.3260155234152327</v>
+        <v>0.3259250380069378</v>
       </c>
       <c r="L78" t="n">
-        <v>1.678074042042345</v>
+        <v>1.678440941780088</v>
       </c>
       <c r="M78" t="n">
-        <v>0.995910434542423</v>
+        <v>0.9956340202129743</v>
       </c>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
@@ -4002,25 +4002,25 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="n">
-        <v>79.7511030622</v>
+        <v>79.6434051169</v>
       </c>
       <c r="H80" t="n">
-        <v>74.47767864879999</v>
+        <v>74.3462291957</v>
       </c>
       <c r="I80" t="n">
-        <v>0.5766181040876556</v>
+        <v>0.577296067530175</v>
       </c>
       <c r="J80" t="n">
-        <v>0.1721064617529856</v>
+        <v>0.1718308668576524</v>
       </c>
       <c r="K80" t="n">
-        <v>0.2512754341593589</v>
+        <v>0.2508730656121726</v>
       </c>
       <c r="L80" t="n">
-        <v>1.981129746422325</v>
+        <v>1.982761268202698</v>
       </c>
       <c r="M80" t="n">
-        <v>0.7675948194183155</v>
+        <v>0.7663656661851299</v>
       </c>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
@@ -4147,25 +4147,25 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="n">
-        <v>75.28751987059999</v>
+        <v>75.15952321419999</v>
       </c>
       <c r="H83" t="n">
-        <v>79.7511030622</v>
+        <v>79.6434051169</v>
       </c>
       <c r="I83" t="n">
-        <v>0.2709642092792667</v>
+        <v>0.2706359405258704</v>
       </c>
       <c r="J83" t="n">
-        <v>0.3334280451730041</v>
+        <v>0.3342355863063588</v>
       </c>
       <c r="K83" t="n">
-        <v>0.3956077455477293</v>
+        <v>0.3951284731677708</v>
       </c>
       <c r="L83" t="n">
-        <v>1.208500373385529</v>
+        <v>1.207036294745382</v>
       </c>
       <c r="M83" t="n">
-        <v>1.395891881066742</v>
+        <v>1.397835232086847</v>
       </c>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
@@ -4186,25 +4186,25 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="n">
-        <v>79.7511030622</v>
+        <v>79.6434051169</v>
       </c>
       <c r="H84" t="n">
-        <v>75.0941474344</v>
+        <v>74.96532166999999</v>
       </c>
       <c r="I84" t="n">
-        <v>0.5549863626912085</v>
+        <v>0.5555797297720767</v>
       </c>
       <c r="J84" t="n">
-        <v>0.1808998525645494</v>
+        <v>0.1806586464341152</v>
       </c>
       <c r="K84" t="n">
-        <v>0.2641137847442421</v>
+        <v>0.2637616237938082</v>
       </c>
       <c r="L84" t="n">
-        <v>1.929072872817867</v>
+        <v>1.930500813110038</v>
       </c>
       <c r="M84" t="n">
-        <v>0.8068133424378903</v>
+        <v>0.8057375630961537</v>
       </c>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
@@ -4331,25 +4331,25 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="n">
-        <v>72.93121279970001</v>
+        <v>72.79331362630001</v>
       </c>
       <c r="H87" t="n">
-        <v>79.7511030622</v>
+        <v>79.6434051169</v>
       </c>
       <c r="I87" t="n">
-        <v>0.2377365588115331</v>
+        <v>0.2372327261698945</v>
       </c>
       <c r="J87" t="n">
-        <v>0.4151680653236284</v>
+        <v>0.4164074936220595</v>
       </c>
       <c r="K87" t="n">
-        <v>0.3470953758648384</v>
+        <v>0.346359780208046</v>
       </c>
       <c r="L87" t="n">
-        <v>1.060305052299438</v>
+        <v>1.058057958717729</v>
       </c>
       <c r="M87" t="n">
-        <v>1.592599571835724</v>
+        <v>1.595582261074225</v>
       </c>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
@@ -4423,25 +4423,25 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="n">
-        <v>73.2274991857</v>
+        <v>73.0904549923</v>
       </c>
       <c r="H89" t="n">
-        <v>79.7511030622</v>
+        <v>79.6434051169</v>
       </c>
       <c r="I89" t="n">
-        <v>0.2420644695338014</v>
+        <v>0.241577043511592</v>
       </c>
       <c r="J89" t="n">
-        <v>0.4045214049468486</v>
+        <v>0.4057204729614838</v>
       </c>
       <c r="K89" t="n">
-        <v>0.35341412551935</v>
+        <v>0.3527024835269243</v>
       </c>
       <c r="L89" t="n">
-        <v>1.079607534120754</v>
+        <v>1.0774336140617</v>
       </c>
       <c r="M89" t="n">
-        <v>1.566978340359896</v>
+        <v>1.569863902411376</v>
       </c>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
@@ -4462,25 +4462,25 @@
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="n">
-        <v>79.7511030622</v>
+        <v>79.6434051169</v>
       </c>
       <c r="H90" t="n">
-        <v>74.8241892188</v>
+        <v>74.693844517</v>
       </c>
       <c r="I90" t="n">
-        <v>0.5644897942936064</v>
+        <v>0.5651337479362695</v>
       </c>
       <c r="J90" t="n">
-        <v>0.1770366689863389</v>
+        <v>0.1767748992128986</v>
       </c>
       <c r="K90" t="n">
-        <v>0.2584735367200548</v>
+        <v>0.2580913528508319</v>
       </c>
       <c r="L90" t="n">
-        <v>1.951942919600874</v>
+        <v>1.95349259665964</v>
       </c>
       <c r="M90" t="n">
-        <v>0.7895835436790715</v>
+        <v>0.7884160504895277</v>
       </c>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
@@ -4501,25 +4501,25 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="n">
-        <v>74.8241892188</v>
+        <v>74.693844517</v>
       </c>
       <c r="H91" t="n">
-        <v>79.7511030622</v>
+        <v>79.6434051169</v>
       </c>
       <c r="I91" t="n">
-        <v>0.2646752971337986</v>
+        <v>0.26430753662224</v>
       </c>
       <c r="J91" t="n">
-        <v>0.3488987690508553</v>
+        <v>0.3498034599092895</v>
       </c>
       <c r="K91" t="n">
-        <v>0.3864259338153461</v>
+        <v>0.3858890034684705</v>
       </c>
       <c r="L91" t="n">
-        <v>1.180451825216742</v>
+        <v>1.178811613335191</v>
       </c>
       <c r="M91" t="n">
-        <v>1.433122240967912</v>
+        <v>1.435299383196339</v>
       </c>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
@@ -4540,25 +4540,25 @@
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="n">
-        <v>79.7511030622</v>
+        <v>79.6434051169</v>
       </c>
       <c r="H92" t="n">
-        <v>75.60425593550001</v>
+        <v>75.47725709149999</v>
       </c>
       <c r="I92" t="n">
-        <v>0.5369241495203746</v>
+        <v>0.5374566506175594</v>
       </c>
       <c r="J92" t="n">
-        <v>0.1882422156421241</v>
+        <v>0.1880257517814799</v>
       </c>
       <c r="K92" t="n">
-        <v>0.2748336348375013</v>
+        <v>0.2745175976009607</v>
       </c>
       <c r="L92" t="n">
-        <v>1.885606083398625</v>
+        <v>1.886887549453639</v>
       </c>
       <c r="M92" t="n">
-        <v>0.8395602817638737</v>
+        <v>0.8385948529454004</v>
       </c>
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
@@ -4685,25 +4685,25 @@
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="n">
-        <v>73.1844927514</v>
+        <v>73.0472709085</v>
       </c>
       <c r="H95" t="n">
-        <v>79.7511030622</v>
+        <v>79.6434051169</v>
       </c>
       <c r="I95" t="n">
-        <v>0.2414384255593384</v>
+        <v>0.2409478229826239</v>
       </c>
       <c r="J95" t="n">
-        <v>0.4060614731240276</v>
+        <v>0.407268355462745</v>
       </c>
       <c r="K95" t="n">
-        <v>0.3525001013166341</v>
+        <v>0.351783821554631</v>
       </c>
       <c r="L95" t="n">
-        <v>1.076815377994649</v>
+        <v>1.074627290502503</v>
       </c>
       <c r="M95" t="n">
-        <v>1.570684520688717</v>
+        <v>1.573588887942866</v>
       </c>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
@@ -4777,25 +4777,25 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="n">
-        <v>71.66134089419999</v>
+        <v>71.5179233722</v>
       </c>
       <c r="H97" t="n">
-        <v>79.7511030622</v>
+        <v>79.6434051169</v>
       </c>
       <c r="I97" t="n">
-        <v>0.2188689972130501</v>
+        <v>0.218270553676703</v>
       </c>
       <c r="J97" t="n">
-        <v>0.4615822668558965</v>
+        <v>0.4630544379553107</v>
       </c>
       <c r="K97" t="n">
-        <v>0.3195487359310533</v>
+        <v>0.3186750083679863</v>
       </c>
       <c r="L97" t="n">
-        <v>0.9761557275702036</v>
+        <v>0.9734866693980953</v>
       </c>
       <c r="M97" t="n">
-        <v>1.704295536498743</v>
+        <v>1.707838322233918</v>
       </c>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
@@ -4816,25 +4816,25 @@
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="n">
-        <v>76.1703535819</v>
+        <v>76.0461790084</v>
       </c>
       <c r="H98" t="n">
-        <v>77.3260662476</v>
+        <v>77.2073524466</v>
       </c>
       <c r="I98" t="n">
-        <v>0.3475096317258418</v>
+        <v>0.3471719286436667</v>
       </c>
       <c r="J98" t="n">
-        <v>0.2652399871033164</v>
+        <v>0.2653772647789973</v>
       </c>
       <c r="K98" t="n">
-        <v>0.3872503811708419</v>
+        <v>0.387450806577336</v>
       </c>
       <c r="L98" t="n">
-        <v>1.429779276348367</v>
+        <v>1.428966592508336</v>
       </c>
       <c r="M98" t="n">
-        <v>1.182970342480791</v>
+        <v>1.183582600914328</v>
       </c>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
@@ -4961,25 +4961,25 @@
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="n">
-        <v>76.6464298348</v>
+        <v>76.5239745157</v>
       </c>
       <c r="H101" t="n">
-        <v>76.1703535819</v>
+        <v>76.0461790084</v>
       </c>
       <c r="I101" t="n">
-        <v>0.4027136561430153</v>
+        <v>0.4026044249826246</v>
       </c>
       <c r="J101" t="n">
-        <v>0.242799326771132</v>
+        <v>0.24284372968186</v>
       </c>
       <c r="K101" t="n">
-        <v>0.3544870170858527</v>
+        <v>0.3545518453355155</v>
       </c>
       <c r="L101" t="n">
-        <v>1.562627985514899</v>
+        <v>1.562365120283389</v>
       </c>
       <c r="M101" t="n">
-        <v>1.082884997399249</v>
+        <v>1.083083034381096</v>
       </c>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
@@ -5053,25 +5053,25 @@
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="n">
-        <v>73.51107550330001</v>
+        <v>73.3755724322</v>
       </c>
       <c r="H103" t="n">
-        <v>76.1703535819</v>
+        <v>76.0461790084</v>
       </c>
       <c r="I103" t="n">
-        <v>0.2973404049820279</v>
+        <v>0.2968407512140148</v>
       </c>
       <c r="J103" t="n">
-        <v>0.2856339817146228</v>
+        <v>0.285837093002433</v>
       </c>
       <c r="K103" t="n">
-        <v>0.4170256133033493</v>
+        <v>0.4173221557835522</v>
       </c>
       <c r="L103" t="n">
-        <v>1.309046828249433</v>
+        <v>1.307844409425597</v>
       </c>
       <c r="M103" t="n">
-        <v>1.273927558447218</v>
+        <v>1.274833434790851</v>
       </c>
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr"/>
@@ -5092,25 +5092,25 @@
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="n">
-        <v>76.1703535819</v>
+        <v>76.0461790084</v>
       </c>
       <c r="H104" t="n">
-        <v>74.0542942929</v>
+        <v>73.9206940458</v>
       </c>
       <c r="I104" t="n">
-        <v>0.4594373376893289</v>
+        <v>0.4595955327211199</v>
       </c>
       <c r="J104" t="n">
-        <v>0.2197409196384841</v>
+        <v>0.2196766127149919</v>
       </c>
       <c r="K104" t="n">
-        <v>0.3208217426721868</v>
+        <v>0.3207278545638882</v>
       </c>
       <c r="L104" t="n">
-        <v>1.699133755740174</v>
+        <v>1.699514452727248</v>
       </c>
       <c r="M104" t="n">
-        <v>0.9800445015876393</v>
+        <v>0.9797576927088639</v>
       </c>
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
@@ -5131,25 +5131,25 @@
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="n">
-        <v>74.0542942929</v>
+        <v>73.9206940458</v>
       </c>
       <c r="H105" t="n">
-        <v>76.1703535819</v>
+        <v>76.0461790084</v>
       </c>
       <c r="I105" t="n">
-        <v>0.3144733288688839</v>
+        <v>0.3140186432807663</v>
       </c>
       <c r="J105" t="n">
-        <v>0.2786693785085838</v>
+        <v>0.278854210048469</v>
       </c>
       <c r="K105" t="n">
-        <v>0.4068572926225323</v>
+        <v>0.4071271466707647</v>
       </c>
       <c r="L105" t="n">
-        <v>1.350277279229184</v>
+        <v>1.349183076513063</v>
       </c>
       <c r="M105" t="n">
-        <v>1.242865428148284</v>
+        <v>1.243689776816172</v>
       </c>
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr"/>
@@ -5223,25 +5223,25 @@
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="n">
-        <v>78.0253083711</v>
+        <v>77.9089917772</v>
       </c>
       <c r="H107" t="n">
-        <v>76.1703535819</v>
+        <v>76.0461790084</v>
       </c>
       <c r="I107" t="n">
-        <v>0.4528136115889653</v>
+        <v>0.4529270700596204</v>
       </c>
       <c r="J107" t="n">
-        <v>0.2224334912239979</v>
+        <v>0.2223873698944632</v>
       </c>
       <c r="K107" t="n">
-        <v>0.3247528971870369</v>
+        <v>0.3246855600459163</v>
       </c>
       <c r="L107" t="n">
-        <v>1.683193731953933</v>
+        <v>1.683466770224777</v>
       </c>
       <c r="M107" t="n">
-        <v>0.9920533708590304</v>
+        <v>0.991847669729306</v>
       </c>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr"/>
@@ -5315,25 +5315,25 @@
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="n">
-        <v>74.47767864879999</v>
+        <v>74.3462291957</v>
       </c>
       <c r="H109" t="n">
-        <v>76.1703535819</v>
+        <v>76.0461790084</v>
       </c>
       <c r="I109" t="n">
-        <v>0.3281894562816892</v>
+        <v>0.3277948265336087</v>
       </c>
       <c r="J109" t="n">
-        <v>0.273093716958663</v>
+        <v>0.2732541355554436</v>
       </c>
       <c r="K109" t="n">
-        <v>0.3987168267596479</v>
+        <v>0.3989510379109477</v>
       </c>
       <c r="L109" t="n">
-        <v>1.383285195604716</v>
+        <v>1.382335517511774</v>
       </c>
       <c r="M109" t="n">
-        <v>1.217997977635637</v>
+        <v>1.218713444577279</v>
       </c>
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr"/>
@@ -5354,25 +5354,25 @@
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="n">
-        <v>76.1703535819</v>
+        <v>76.0461790084</v>
       </c>
       <c r="H110" t="n">
-        <v>75.28751987059999</v>
+        <v>75.15952321419999</v>
       </c>
       <c r="I110" t="n">
-        <v>0.4161051105181323</v>
+        <v>0.4160653729492041</v>
       </c>
       <c r="J110" t="n">
-        <v>0.2373556461308406</v>
+        <v>0.2373717996141447</v>
       </c>
       <c r="K110" t="n">
-        <v>0.3465392433510273</v>
+        <v>0.3465628274366512</v>
       </c>
       <c r="L110" t="n">
-        <v>1.594854574905424</v>
+        <v>1.594758946284264</v>
       </c>
       <c r="M110" t="n">
-        <v>1.058606181743549</v>
+        <v>1.058678226279085</v>
       </c>
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr"/>
@@ -5446,25 +5446,25 @@
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="n">
-        <v>76.1703535819</v>
+        <v>76.0461790084</v>
       </c>
       <c r="H112" t="n">
-        <v>75.0941474344</v>
+        <v>74.96532166999999</v>
       </c>
       <c r="I112" t="n">
-        <v>0.4228319992702768</v>
+        <v>0.4228209896657675</v>
       </c>
       <c r="J112" t="n">
-        <v>0.2346211385080176</v>
+        <v>0.2346256139570051</v>
       </c>
       <c r="K112" t="n">
-        <v>0.3425468622217056</v>
+        <v>0.3425533963772274</v>
       </c>
       <c r="L112" t="n">
-        <v>1.611042860032536</v>
+        <v>1.61101636537453</v>
       </c>
       <c r="M112" t="n">
-        <v>1.046410277745758</v>
+        <v>1.046430238248243</v>
       </c>
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
@@ -5538,25 +5538,25 @@
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="n">
-        <v>76.1703535819</v>
+        <v>76.0461790084</v>
       </c>
       <c r="H114" t="n">
-        <v>72.93121279970001</v>
+        <v>72.79331362630001</v>
       </c>
       <c r="I114" t="n">
-        <v>0.4994580529217347</v>
+        <v>0.4997708247598382</v>
       </c>
       <c r="J114" t="n">
-        <v>0.203472336210677</v>
+        <v>0.2033451931870577</v>
       </c>
       <c r="K114" t="n">
-        <v>0.2970696108675883</v>
+        <v>0.2968839820531042</v>
       </c>
       <c r="L114" t="n">
-        <v>1.795443769632793</v>
+        <v>1.796196456332619</v>
       </c>
       <c r="M114" t="n">
-        <v>0.9074866194996192</v>
+        <v>0.9069195616142771</v>
       </c>
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr"/>
@@ -5683,25 +5683,25 @@
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="n">
-        <v>73.2274991857</v>
+        <v>73.0904549923</v>
       </c>
       <c r="H117" t="n">
-        <v>76.1703535819</v>
+        <v>76.0461790084</v>
       </c>
       <c r="I117" t="n">
-        <v>0.2888531413775124</v>
+        <v>0.2886338518026667</v>
       </c>
       <c r="J117" t="n">
-        <v>0.2894212722113194</v>
+        <v>0.2899607245654401</v>
       </c>
       <c r="K117" t="n">
-        <v>0.4217255864111682</v>
+        <v>0.4214054236318933</v>
       </c>
       <c r="L117" t="n">
-        <v>1.288285010543705</v>
+        <v>1.287306979039893</v>
       </c>
       <c r="M117" t="n">
-        <v>1.289989403045126</v>
+        <v>1.291287597328214</v>
       </c>
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
@@ -5722,25 +5722,25 @@
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="n">
-        <v>76.1703535819</v>
+        <v>76.0461790084</v>
       </c>
       <c r="H118" t="n">
-        <v>74.8241892188</v>
+        <v>74.693844517</v>
       </c>
       <c r="I118" t="n">
-        <v>0.4322706303889586</v>
+        <v>0.4323128119070954</v>
       </c>
       <c r="J118" t="n">
-        <v>0.2307842965898542</v>
+        <v>0.230767149631262</v>
       </c>
       <c r="K118" t="n">
-        <v>0.3369450730211872</v>
+        <v>0.3369200384616426</v>
       </c>
       <c r="L118" t="n">
-        <v>1.633756964188063</v>
+        <v>1.633858474182929</v>
       </c>
       <c r="M118" t="n">
-        <v>1.02929796279075</v>
+        <v>1.029221487355429</v>
       </c>
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr"/>
@@ -5761,25 +5761,25 @@
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="n">
-        <v>74.8241892188</v>
+        <v>74.693844517</v>
       </c>
       <c r="H119" t="n">
-        <v>76.1703535819</v>
+        <v>76.0461790084</v>
       </c>
       <c r="I119" t="n">
-        <v>0.3396389141471694</v>
+        <v>0.3392742616160977</v>
       </c>
       <c r="J119" t="n">
-        <v>0.2684394657938336</v>
+        <v>0.2685876985300416</v>
       </c>
       <c r="K119" t="n">
-        <v>0.391921620058997</v>
+        <v>0.3921380398538607</v>
       </c>
       <c r="L119" t="n">
-        <v>1.410838362500505</v>
+        <v>1.409960824702154</v>
       </c>
       <c r="M119" t="n">
-        <v>1.197240017440498</v>
+        <v>1.197901135443985</v>
       </c>
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr"/>
@@ -5800,25 +5800,25 @@
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="n">
-        <v>76.1703535819</v>
+        <v>76.0461790084</v>
       </c>
       <c r="H120" t="n">
-        <v>75.60425593550001</v>
+        <v>75.47725709149999</v>
       </c>
       <c r="I120" t="n">
-        <v>0.4051550152294911</v>
+        <v>0.4050812454877925</v>
       </c>
       <c r="J120" t="n">
-        <v>0.2418069043782557</v>
+        <v>0.2418368920781331</v>
       </c>
       <c r="K120" t="n">
-        <v>0.3530380803922533</v>
+        <v>0.3530818624340744</v>
       </c>
       <c r="L120" t="n">
-        <v>1.568503126080727</v>
+        <v>1.568325598897452</v>
       </c>
       <c r="M120" t="n">
-        <v>1.07845879352702</v>
+        <v>1.078592538668474</v>
       </c>
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr"/>
@@ -5892,25 +5892,25 @@
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="n">
-        <v>76.1703535819</v>
+        <v>76.0461790084</v>
       </c>
       <c r="H122" t="n">
-        <v>73.1844927514</v>
+        <v>73.0472709085</v>
       </c>
       <c r="I122" t="n">
-        <v>0.4904135150807564</v>
+        <v>0.490701993816879</v>
       </c>
       <c r="J122" t="n">
-        <v>0.2071489776094486</v>
+        <v>0.207031709830537</v>
       </c>
       <c r="K122" t="n">
-        <v>0.3024375073097949</v>
+        <v>0.302266296352584</v>
       </c>
       <c r="L122" t="n">
-        <v>1.773678052552064</v>
+        <v>1.774372277803221</v>
       </c>
       <c r="M122" t="n">
-        <v>0.9238844401381406</v>
+        <v>0.9233614258441948</v>
       </c>
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr"/>
@@ -5984,25 +5984,25 @@
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="n">
-        <v>76.1703535819</v>
+        <v>76.0461790084</v>
       </c>
       <c r="H124" t="n">
-        <v>71.66134089419999</v>
+        <v>71.5179233722</v>
       </c>
       <c r="I124" t="n">
-        <v>0.5446910324852882</v>
+        <v>0.5451967688108794</v>
       </c>
       <c r="J124" t="n">
-        <v>0.1850849461441918</v>
+        <v>0.1848793622720003</v>
       </c>
       <c r="K124" t="n">
-        <v>0.27022402137052</v>
+        <v>0.2699238689171204</v>
       </c>
       <c r="L124" t="n">
-        <v>1.904297118826385</v>
+        <v>1.905514175349759</v>
       </c>
       <c r="M124" t="n">
-        <v>0.8254788598030953</v>
+        <v>0.8245619557331213</v>
       </c>
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr"/>
@@ -6076,25 +6076,25 @@
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="n">
-        <v>77.3260662476</v>
+        <v>77.2073524466</v>
       </c>
       <c r="H126" t="n">
-        <v>76.6464298348</v>
+        <v>76.5239745157</v>
       </c>
       <c r="I126" t="n">
-        <v>0.4106673687594585</v>
+        <v>0.410632551773698</v>
       </c>
       <c r="J126" t="n">
-        <v>0.2395661102603827</v>
+        <v>0.2395802635066268</v>
       </c>
       <c r="K126" t="n">
-        <v>0.3497665209801588</v>
+        <v>0.3497871847196752</v>
       </c>
       <c r="L126" t="n">
-        <v>1.581768627258534</v>
+        <v>1.581684840040769</v>
       </c>
       <c r="M126" t="n">
-        <v>1.068464851761307</v>
+        <v>1.068527975239556</v>
       </c>
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr"/>
@@ -6168,25 +6168,25 @@
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="n">
-        <v>77.3260662476</v>
+        <v>77.2073524466</v>
       </c>
       <c r="H128" t="n">
-        <v>73.51107550330001</v>
+        <v>73.3755724322</v>
       </c>
       <c r="I128" t="n">
-        <v>0.5216615734295981</v>
+        <v>0.5220907758636285</v>
       </c>
       <c r="J128" t="n">
-        <v>0.1944465148660171</v>
+        <v>0.1942720423318584</v>
       </c>
       <c r="K128" t="n">
-        <v>0.2838919117043849</v>
+        <v>0.2836371818045132</v>
       </c>
       <c r="L128" t="n">
-        <v>1.848876631993179</v>
+        <v>1.849909509395399</v>
       </c>
       <c r="M128" t="n">
-        <v>0.8672314563024361</v>
+        <v>0.8664533088000883</v>
       </c>
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr"/>
@@ -6207,25 +6207,25 @@
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="n">
-        <v>73.51107550330001</v>
+        <v>73.3755724322</v>
       </c>
       <c r="H129" t="n">
-        <v>77.3260662476</v>
+        <v>77.2073524466</v>
       </c>
       <c r="I129" t="n">
-        <v>0.2783131253072237</v>
+        <v>0.2780345010541015</v>
       </c>
       <c r="J129" t="n">
-        <v>0.3153497117442297</v>
+        <v>0.3160351274069102</v>
       </c>
       <c r="K129" t="n">
-        <v>0.4063371629485465</v>
+        <v>0.4059303715389883</v>
       </c>
       <c r="L129" t="n">
-        <v>1.241276538870218</v>
+        <v>1.240033874701293</v>
       </c>
       <c r="M129" t="n">
-        <v>1.352386298181236</v>
+        <v>1.354035753759719</v>
       </c>
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr"/>
@@ -6299,25 +6299,25 @@
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="n">
-        <v>74.0542942929</v>
+        <v>73.9206940458</v>
       </c>
       <c r="H131" t="n">
-        <v>77.3260662476</v>
+        <v>77.2073524466</v>
       </c>
       <c r="I131" t="n">
-        <v>0.2852886950858081</v>
+        <v>0.2850426934109421</v>
       </c>
       <c r="J131" t="n">
-        <v>0.2981898100889122</v>
+        <v>0.2987949742090825</v>
       </c>
       <c r="K131" t="n">
-        <v>0.4165214948252798</v>
+        <v>0.4161623323799754</v>
       </c>
       <c r="L131" t="n">
-        <v>1.272387580082704</v>
+        <v>1.271290412612802</v>
       </c>
       <c r="M131" t="n">
-        <v>1.311090925092016</v>
+        <v>1.312547255007223</v>
       </c>
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr"/>
@@ -6338,25 +6338,25 @@
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="n">
-        <v>77.3260662476</v>
+        <v>77.2073524466</v>
       </c>
       <c r="H132" t="n">
-        <v>78.0253083711</v>
+        <v>77.9089917772</v>
       </c>
       <c r="I132" t="n">
-        <v>0.3639663977492333</v>
+        <v>0.3637301153663894</v>
       </c>
       <c r="J132" t="n">
-        <v>0.2585502448173848</v>
+        <v>0.2586462945665084</v>
       </c>
       <c r="K132" t="n">
-        <v>0.3774833574333818</v>
+        <v>0.3776235900671022</v>
       </c>
       <c r="L132" t="n">
-        <v>1.469382550681082</v>
+        <v>1.468813936166271</v>
       </c>
       <c r="M132" t="n">
-        <v>1.153134091885536</v>
+        <v>1.153562473766627</v>
       </c>
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr"/>
@@ -6430,25 +6430,25 @@
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="n">
-        <v>77.3260662476</v>
+        <v>77.2073524466</v>
       </c>
       <c r="H134" t="n">
-        <v>74.47767864879999</v>
+        <v>74.3462291957</v>
       </c>
       <c r="I134" t="n">
-        <v>0.4871564259432126</v>
+        <v>0.4874414954447188</v>
       </c>
       <c r="J134" t="n">
-        <v>0.2084729975840599</v>
+        <v>0.2083571156728786</v>
       </c>
       <c r="K134" t="n">
-        <v>0.3043705764727275</v>
+        <v>0.3042013888824027</v>
       </c>
       <c r="L134" t="n">
-        <v>1.765839854302365</v>
+        <v>1.766525875216559</v>
       </c>
       <c r="M134" t="n">
-        <v>0.9297895692249074</v>
+        <v>0.9292727359010384</v>
       </c>
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr"/>
@@ -6469,25 +6469,25 @@
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="n">
-        <v>74.47767864879999</v>
+        <v>74.3462291957</v>
       </c>
       <c r="H135" t="n">
-        <v>77.3260662476</v>
+        <v>77.2073524466</v>
       </c>
       <c r="I135" t="n">
-        <v>0.2928697040683708</v>
+        <v>0.2923376408536326</v>
       </c>
       <c r="J135" t="n">
-        <v>0.2874513398096054</v>
+        <v>0.2876676256692551</v>
       </c>
       <c r="K135" t="n">
-        <v>0.4196789561220238</v>
+        <v>0.4199947334771124</v>
       </c>
       <c r="L135" t="n">
-        <v>1.298288068327136</v>
+        <v>1.29700765603801</v>
       </c>
       <c r="M135" t="n">
-        <v>1.28203297555084</v>
+        <v>1.282997610484878</v>
       </c>
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr"/>
@@ -6508,25 +6508,25 @@
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="n">
-        <v>77.3260662476</v>
+        <v>77.2073524466</v>
       </c>
       <c r="H136" t="n">
-        <v>75.28751987059999</v>
+        <v>75.15952321419999</v>
       </c>
       <c r="I136" t="n">
-        <v>0.4583275938301538</v>
+        <v>0.4584884126822824</v>
       </c>
       <c r="J136" t="n">
-        <v>0.2201920350283928</v>
+        <v>0.2201266615112674</v>
       </c>
       <c r="K136" t="n">
-        <v>0.3214803711414534</v>
+        <v>0.3213849258064503</v>
       </c>
       <c r="L136" t="n">
-        <v>1.696463152631915</v>
+        <v>1.696850163853297</v>
       </c>
       <c r="M136" t="n">
-        <v>0.9820564762266317</v>
+        <v>0.9817649103402524</v>
       </c>
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr"/>
@@ -6653,25 +6653,25 @@
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="n">
-        <v>75.0941474344</v>
+        <v>74.96532166999999</v>
       </c>
       <c r="H139" t="n">
-        <v>77.3260662476</v>
+        <v>77.2073524466</v>
       </c>
       <c r="I139" t="n">
-        <v>0.312190682706346</v>
+        <v>0.3117226151011621</v>
       </c>
       <c r="J139" t="n">
-        <v>0.2795972834527049</v>
+        <v>0.279787554836926</v>
       </c>
       <c r="K139" t="n">
-        <v>0.4082120338409491</v>
+        <v>0.4084898300619119</v>
       </c>
       <c r="L139" t="n">
-        <v>1.344784081959987</v>
+        <v>1.343657675365398</v>
       </c>
       <c r="M139" t="n">
-        <v>1.247003884199064</v>
+        <v>1.24785249457269</v>
       </c>
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr"/>
@@ -6692,25 +6692,25 @@
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="n">
-        <v>77.3260662476</v>
+        <v>77.2073524466</v>
       </c>
       <c r="H140" t="n">
-        <v>72.93121279970001</v>
+        <v>72.79331362630001</v>
       </c>
       <c r="I140" t="n">
-        <v>0.5422832919988974</v>
+        <v>0.5427951605847332</v>
       </c>
       <c r="J140" t="n">
-        <v>0.1860637024394727</v>
+        <v>0.1858556257785637</v>
       </c>
       <c r="K140" t="n">
-        <v>0.27165300556163</v>
+        <v>0.2713492136367031</v>
       </c>
       <c r="L140" t="n">
-        <v>1.898502881558322</v>
+        <v>1.899734695390903</v>
       </c>
       <c r="M140" t="n">
-        <v>0.829844112880048</v>
+        <v>0.8289160909723943</v>
       </c>
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr"/>
@@ -6784,25 +6784,25 @@
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="n">
-        <v>77.3260662476</v>
+        <v>77.2073524466</v>
       </c>
       <c r="H142" t="n">
-        <v>73.2274991857</v>
+        <v>73.0904549923</v>
       </c>
       <c r="I142" t="n">
-        <v>0.5317600476264007</v>
+        <v>0.5322431262889035</v>
       </c>
       <c r="J142" t="n">
-        <v>0.1903414440543087</v>
+        <v>0.1901450706142669</v>
       </c>
       <c r="K142" t="n">
-        <v>0.2778985083192906</v>
+        <v>0.2776118030968296</v>
       </c>
       <c r="L142" t="n">
-        <v>1.873178651198493</v>
+        <v>1.87434118196354</v>
       </c>
       <c r="M142" t="n">
-        <v>0.8489228404822167</v>
+        <v>0.8480470149396303</v>
       </c>
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr"/>
@@ -6823,25 +6823,25 @@
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="n">
-        <v>73.2274991857</v>
+        <v>73.0904549923</v>
       </c>
       <c r="H143" t="n">
-        <v>77.3260662476</v>
+        <v>77.2073524466</v>
       </c>
       <c r="I143" t="n">
-        <v>0.2745869912243694</v>
+        <v>0.2742836888991248</v>
       </c>
       <c r="J143" t="n">
-        <v>0.3245160015880514</v>
+        <v>0.325262125308153</v>
       </c>
       <c r="K143" t="n">
-        <v>0.4008970071875793</v>
+        <v>0.4004541857927222</v>
       </c>
       <c r="L143" t="n">
-        <v>1.224657980860687</v>
+        <v>1.223305252490097</v>
       </c>
       <c r="M143" t="n">
-        <v>1.374445011951734</v>
+        <v>1.376240561717181</v>
       </c>
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr"/>
@@ -6862,25 +6862,25 @@
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="n">
-        <v>77.3260662476</v>
+        <v>77.2073524466</v>
       </c>
       <c r="H144" t="n">
-        <v>74.8241892188</v>
+        <v>74.693844517</v>
       </c>
       <c r="I144" t="n">
-        <v>0.4747995934263375</v>
+        <v>0.4750447732645452</v>
       </c>
       <c r="J144" t="n">
-        <v>0.2134961002331961</v>
+        <v>0.2133964336322987</v>
       </c>
       <c r="K144" t="n">
-        <v>0.3117043063404664</v>
+        <v>0.3115587931031561</v>
       </c>
       <c r="L144" t="n">
-        <v>1.736103086619479</v>
+        <v>1.736693112896792</v>
       </c>
       <c r="M144" t="n">
-        <v>0.9521926070400548</v>
+        <v>0.9517480940000522</v>
       </c>
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr"/>
@@ -6954,25 +6954,25 @@
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="n">
-        <v>77.3260662476</v>
+        <v>77.2073524466</v>
       </c>
       <c r="H146" t="n">
-        <v>75.60425593550001</v>
+        <v>75.47725709149999</v>
       </c>
       <c r="I146" t="n">
-        <v>0.4471172195301577</v>
+        <v>0.4472421132400316</v>
       </c>
       <c r="J146" t="n">
-        <v>0.2247490977519684</v>
+        <v>0.2246983279512066</v>
       </c>
       <c r="K146" t="n">
-        <v>0.3281336827178739</v>
+        <v>0.3280595588087617</v>
       </c>
       <c r="L146" t="n">
-        <v>1.669485341308347</v>
+        <v>1.669785898528856</v>
       </c>
       <c r="M146" t="n">
-        <v>1.002380975973779</v>
+        <v>1.002154542662382</v>
       </c>
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr"/>
@@ -7099,25 +7099,25 @@
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="n">
-        <v>73.1844927514</v>
+        <v>73.0472709085</v>
       </c>
       <c r="H149" t="n">
-        <v>77.3260662476</v>
+        <v>77.2073524466</v>
       </c>
       <c r="I149" t="n">
-        <v>0.2740169968606745</v>
+        <v>0.2737106578458551</v>
       </c>
       <c r="J149" t="n">
-        <v>0.3259181877227408</v>
+        <v>0.3266717816991964</v>
       </c>
       <c r="K149" t="n">
-        <v>0.4000648154165847</v>
+        <v>0.3996175604549485</v>
       </c>
       <c r="L149" t="n">
-        <v>1.222115805998608</v>
+        <v>1.220749533992514</v>
       </c>
       <c r="M149" t="n">
-        <v>1.377819378584807</v>
+        <v>1.379632905552538</v>
       </c>
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr"/>
@@ -7191,25 +7191,25 @@
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="n">
-        <v>71.66134089419999</v>
+        <v>71.5179233722</v>
       </c>
       <c r="H151" t="n">
-        <v>77.3260662476</v>
+        <v>77.2073524466</v>
       </c>
       <c r="I151" t="n">
-        <v>0.2530712463678259</v>
+        <v>0.2526556424482128</v>
       </c>
       <c r="J151" t="n">
-        <v>0.3774447339351483</v>
+        <v>0.3784671195773964</v>
       </c>
       <c r="K151" t="n">
-        <v>0.3694840196970258</v>
+        <v>0.3688772379743907</v>
       </c>
       <c r="L151" t="n">
-        <v>1.128697758800503</v>
+        <v>1.126844165319029</v>
       </c>
       <c r="M151" t="n">
-        <v>1.501818221502471</v>
+        <v>1.50427859670658</v>
       </c>
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr"/>
@@ -7230,25 +7230,25 @@
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="n">
-        <v>76.6464298348</v>
+        <v>76.5239745157</v>
       </c>
       <c r="H152" t="n">
-        <v>73.51107550330001</v>
+        <v>73.3755724322</v>
       </c>
       <c r="I152" t="n">
-        <v>0.4964315632765617</v>
+        <v>0.4967226046006439</v>
       </c>
       <c r="J152" t="n">
-        <v>0.2047026165542432</v>
+        <v>0.204584307072909</v>
       </c>
       <c r="K152" t="n">
-        <v>0.2988658201691951</v>
+        <v>0.2986930883264471</v>
       </c>
       <c r="L152" t="n">
-        <v>1.78816050999888</v>
+        <v>1.788860902128379</v>
       </c>
       <c r="M152" t="n">
-        <v>0.9129736698319246</v>
+        <v>0.9124460095451741</v>
       </c>
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr"/>
@@ -7269,25 +7269,25 @@
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="n">
-        <v>73.51107550330001</v>
+        <v>73.3755724322</v>
       </c>
       <c r="H153" t="n">
-        <v>76.6464298348</v>
+        <v>76.5239745157</v>
       </c>
       <c r="I153" t="n">
-        <v>0.2866778711740148</v>
+        <v>0.2864548044015131</v>
       </c>
       <c r="J153" t="n">
-        <v>0.2947724369119235</v>
+        <v>0.2953211811722777</v>
       </c>
       <c r="K153" t="n">
-        <v>0.4185496919140617</v>
+        <v>0.4182240144262091</v>
       </c>
       <c r="L153" t="n">
-        <v>1.278583305436106</v>
+        <v>1.277588427630748</v>
       </c>
       <c r="M153" t="n">
-        <v>1.302867002649832</v>
+        <v>1.304187557943042</v>
       </c>
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr"/>
@@ -7308,25 +7308,25 @@
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="n">
-        <v>76.6464298348</v>
+        <v>76.5239745157</v>
       </c>
       <c r="H154" t="n">
-        <v>74.0542942929</v>
+        <v>73.9206940458</v>
       </c>
       <c r="I154" t="n">
-        <v>0.4770469755184139</v>
+        <v>0.4772696068896862</v>
       </c>
       <c r="J154" t="n">
-        <v>0.2125825302770675</v>
+        <v>0.2124920297196398</v>
       </c>
       <c r="K154" t="n">
-        <v>0.3103704942045186</v>
+        <v>0.3102383633906741</v>
       </c>
       <c r="L154" t="n">
-        <v>1.74151142075976</v>
+        <v>1.742047184059732</v>
       </c>
       <c r="M154" t="n">
-        <v>0.948118085035721</v>
+        <v>0.9477144525495935</v>
       </c>
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr"/>
@@ -7453,25 +7453,25 @@
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="n">
-        <v>78.0253083711</v>
+        <v>77.9089917772</v>
       </c>
       <c r="H157" t="n">
-        <v>76.6464298348</v>
+        <v>76.5239745157</v>
       </c>
       <c r="I157" t="n">
-        <v>0.4360226752429541</v>
+        <v>0.4360748806326356</v>
       </c>
       <c r="J157" t="n">
-        <v>0.2292590751044902</v>
+        <v>0.2292378534013676</v>
       </c>
       <c r="K157" t="n">
-        <v>0.3347182496525556</v>
+        <v>0.3346872659659967</v>
       </c>
       <c r="L157" t="n">
-        <v>1.642786275381418</v>
+        <v>1.642911907863904</v>
       </c>
       <c r="M157" t="n">
-        <v>1.022495474966026</v>
+        <v>1.0224008261701</v>
       </c>
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr"/>
@@ -7492,25 +7492,25 @@
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="n">
-        <v>76.6464298348</v>
+        <v>76.5239745157</v>
       </c>
       <c r="H158" t="n">
-        <v>74.47767864879999</v>
+        <v>74.3462291957</v>
       </c>
       <c r="I158" t="n">
-        <v>0.4619834750923175</v>
+        <v>0.4621289155596681</v>
       </c>
       <c r="J158" t="n">
-        <v>0.2187059044340172</v>
+        <v>0.2186467822928179</v>
       </c>
       <c r="K158" t="n">
-        <v>0.3193106204736652</v>
+        <v>0.3192243021475141</v>
       </c>
       <c r="L158" t="n">
-        <v>1.705261045750618</v>
+        <v>1.705611048826518</v>
       </c>
       <c r="M158" t="n">
-        <v>0.9754283337757168</v>
+        <v>0.9751646490259678</v>
       </c>
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr"/>
@@ -7584,25 +7584,25 @@
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="n">
-        <v>76.6464298348</v>
+        <v>76.5239745157</v>
       </c>
       <c r="H160" t="n">
-        <v>75.28751987059999</v>
+        <v>75.15952321419999</v>
       </c>
       <c r="I160" t="n">
-        <v>0.4333854484714545</v>
+        <v>0.4334080096480679</v>
       </c>
       <c r="J160" t="n">
-        <v>0.2303311185075388</v>
+        <v>0.2303219472975334</v>
       </c>
       <c r="K160" t="n">
-        <v>0.3362834330210067</v>
+        <v>0.3362700430543987</v>
       </c>
       <c r="L160" t="n">
-        <v>1.63643977843537</v>
+        <v>1.636494071998602</v>
       </c>
       <c r="M160" t="n">
-        <v>1.027276788543623</v>
+        <v>1.027235884946999</v>
       </c>
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr"/>
@@ -7623,25 +7623,25 @@
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="n">
-        <v>75.28751987059999</v>
+        <v>75.15952321419999</v>
       </c>
       <c r="H161" t="n">
-        <v>76.6464298348</v>
+        <v>76.5239745157</v>
       </c>
       <c r="I161" t="n">
-        <v>0.3398243778043629</v>
+        <v>0.3394827791185405</v>
       </c>
       <c r="J161" t="n">
-        <v>0.2683640740632671</v>
+        <v>0.2685029353176664</v>
       </c>
       <c r="K161" t="n">
-        <v>0.39181154813237</v>
+        <v>0.392014285563793</v>
       </c>
       <c r="L161" t="n">
-        <v>1.411284681545458</v>
+        <v>1.410462622919414</v>
       </c>
       <c r="M161" t="n">
-        <v>1.196903770322171</v>
+        <v>1.197523091516792</v>
       </c>
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr"/>
@@ -7662,25 +7662,25 @@
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="n">
-        <v>76.6464298348</v>
+        <v>76.5239745157</v>
       </c>
       <c r="H162" t="n">
-        <v>75.0941474344</v>
+        <v>74.96532166999999</v>
       </c>
       <c r="I162" t="n">
-        <v>0.4401810958523562</v>
+        <v>0.4402329236531293</v>
       </c>
       <c r="J162" t="n">
-        <v>0.2275686602226194</v>
+        <v>0.2275475920109231</v>
       </c>
       <c r="K162" t="n">
-        <v>0.3322502439250243</v>
+        <v>0.3322194843359477</v>
       </c>
       <c r="L162" t="n">
-        <v>1.652793531482093</v>
+        <v>1.652918255295335</v>
       </c>
       <c r="M162" t="n">
-        <v>1.014956224592883</v>
+        <v>1.014862260368717</v>
       </c>
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr"/>
@@ -7807,25 +7807,25 @@
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="n">
-        <v>72.93121279970001</v>
+        <v>72.79331362630001</v>
       </c>
       <c r="H165" t="n">
-        <v>76.6464298348</v>
+        <v>76.5239745157</v>
       </c>
       <c r="I165" t="n">
-        <v>0.2792713297540765</v>
+        <v>0.2790094555113833</v>
       </c>
       <c r="J165" t="n">
-        <v>0.3129925288049717</v>
+        <v>0.313636739441997</v>
       </c>
       <c r="K165" t="n">
-        <v>0.4077361414409517</v>
+        <v>0.4073538050466197</v>
       </c>
       <c r="L165" t="n">
-        <v>1.245550130703181</v>
+        <v>1.24438217158077</v>
       </c>
       <c r="M165" t="n">
-        <v>1.346713727855867</v>
+        <v>1.348264023372611</v>
       </c>
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr"/>
@@ -7899,25 +7899,25 @@
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="n">
-        <v>73.2274991857</v>
+        <v>73.0904549923</v>
       </c>
       <c r="H167" t="n">
-        <v>76.6464298348</v>
+        <v>76.5239745157</v>
       </c>
       <c r="I167" t="n">
-        <v>0.2830870567022453</v>
+        <v>0.2828404881494642</v>
       </c>
       <c r="J167" t="n">
-        <v>0.3036058405124766</v>
+        <v>0.304212399152318</v>
       </c>
       <c r="K167" t="n">
-        <v>0.413307102785278</v>
+        <v>0.4129471126982178</v>
       </c>
       <c r="L167" t="n">
-        <v>1.262568272892014</v>
+        <v>1.261468577146611</v>
       </c>
       <c r="M167" t="n">
-        <v>1.324124624322708</v>
+        <v>1.325584310155172</v>
       </c>
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr"/>
@@ -7991,25 +7991,25 @@
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="n">
-        <v>74.8241892188</v>
+        <v>74.693844517</v>
       </c>
       <c r="H169" t="n">
-        <v>76.6464298348</v>
+        <v>76.5239745157</v>
       </c>
       <c r="I169" t="n">
-        <v>0.3245554553620005</v>
+        <v>0.3241452378064553</v>
       </c>
       <c r="J169" t="n">
-        <v>0.2745709531048778</v>
+        <v>0.274737708208758</v>
       </c>
       <c r="K169" t="n">
-        <v>0.4008735915331216</v>
+        <v>0.4011170539847868</v>
       </c>
       <c r="L169" t="n">
-        <v>1.374539957619123</v>
+        <v>1.373552767404153</v>
       </c>
       <c r="M169" t="n">
-        <v>1.224586450847755</v>
+        <v>1.225330178611061</v>
       </c>
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr"/>
@@ -8030,25 +8030,25 @@
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="n">
-        <v>76.6464298348</v>
+        <v>76.5239745157</v>
       </c>
       <c r="H170" t="n">
-        <v>75.60425593550001</v>
+        <v>75.47725709149999</v>
       </c>
       <c r="I170" t="n">
-        <v>0.4223095086152897</v>
+        <v>0.4222971470730154</v>
       </c>
       <c r="J170" t="n">
-        <v>0.2348335330832156</v>
+        <v>0.2348385581004003</v>
       </c>
       <c r="K170" t="n">
-        <v>0.3428569583014948</v>
+        <v>0.3428642948265844</v>
       </c>
       <c r="L170" t="n">
-        <v>1.609785484147364</v>
+        <v>1.60975573604563</v>
       </c>
       <c r="M170" t="n">
-        <v>1.047357557551142</v>
+        <v>1.047379969127785</v>
       </c>
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr"/>
@@ -8069,25 +8069,25 @@
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="n">
-        <v>75.60425593550001</v>
+        <v>75.47725709149999</v>
       </c>
       <c r="H171" t="n">
-        <v>76.6464298348</v>
+        <v>76.5239745157</v>
       </c>
       <c r="I171" t="n">
-        <v>0.3504597329449954</v>
+        <v>0.3501468449437217</v>
       </c>
       <c r="J171" t="n">
-        <v>0.264040758965449</v>
+        <v>0.2641679492098692</v>
       </c>
       <c r="K171" t="n">
-        <v>0.3854995080895556</v>
+        <v>0.3856852058464091</v>
       </c>
       <c r="L171" t="n">
-        <v>1.436878706924542</v>
+        <v>1.436125740677574</v>
       </c>
       <c r="M171" t="n">
-        <v>1.177621784985903</v>
+        <v>1.178189053476017</v>
       </c>
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr"/>
@@ -8108,25 +8108,25 @@
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="n">
-        <v>76.6464298348</v>
+        <v>76.5239745157</v>
       </c>
       <c r="H172" t="n">
-        <v>73.1844927514</v>
+        <v>73.0472709085</v>
       </c>
       <c r="I172" t="n">
-        <v>0.5080944651517171</v>
+        <v>0.5084468083846382</v>
       </c>
       <c r="J172" t="n">
-        <v>0.1999615995318223</v>
+        <v>0.1998183705753503</v>
       </c>
       <c r="K172" t="n">
-        <v>0.2919439353164606</v>
+        <v>0.2917348210400115</v>
       </c>
       <c r="L172" t="n">
-        <v>1.816227330771612</v>
+        <v>1.817075246193926</v>
       </c>
       <c r="M172" t="n">
-        <v>0.8918287339119275</v>
+        <v>0.8911899327660626</v>
       </c>
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr"/>
@@ -8253,25 +8253,25 @@
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="n">
-        <v>71.66134089419999</v>
+        <v>71.5179233722</v>
       </c>
       <c r="H175" t="n">
-        <v>76.6464298348</v>
+        <v>76.5239745157</v>
       </c>
       <c r="I175" t="n">
-        <v>0.2622292463677324</v>
+        <v>0.2618740716646648</v>
       </c>
       <c r="J175" t="n">
-        <v>0.3549160539353784</v>
+        <v>0.3557897837049246</v>
       </c>
       <c r="K175" t="n">
-        <v>0.3828546996968892</v>
+        <v>0.3823361446304105</v>
       </c>
       <c r="L175" t="n">
-        <v>1.169542438800086</v>
+        <v>1.167958359624405</v>
       </c>
       <c r="M175" t="n">
-        <v>1.447602861503024</v>
+        <v>1.449705495745184</v>
       </c>
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr"/>
@@ -8345,25 +8345,25 @@
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="n">
-        <v>74.0542942929</v>
+        <v>73.9206940458</v>
       </c>
       <c r="H177" t="n">
-        <v>73.51107550330001</v>
+        <v>73.3755724322</v>
       </c>
       <c r="I177" t="n">
-        <v>0.4014586026519582</v>
+        <v>0.4013404824970407</v>
       </c>
       <c r="J177" t="n">
-        <v>0.2433095111170902</v>
+        <v>0.2433575274402273</v>
       </c>
       <c r="K177" t="n">
-        <v>0.3552318862309516</v>
+        <v>0.3553019900627319</v>
       </c>
       <c r="L177" t="n">
-        <v>1.559607694186826</v>
+        <v>1.559323437553854</v>
       </c>
       <c r="M177" t="n">
-        <v>1.085160419582222</v>
+        <v>1.085374572383414</v>
       </c>
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr"/>
@@ -8384,25 +8384,25 @@
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="n">
-        <v>73.51107550330001</v>
+        <v>73.3755724322</v>
       </c>
       <c r="H178" t="n">
-        <v>78.0253083711</v>
+        <v>77.9089917772</v>
       </c>
       <c r="I178" t="n">
-        <v>0.2693888420124704</v>
+        <v>0.2690692455536705</v>
       </c>
       <c r="J178" t="n">
-        <v>0.3373034486493228</v>
+        <v>0.3380896559379705</v>
       </c>
       <c r="K178" t="n">
-        <v>0.3933077093382068</v>
+        <v>0.392841098508359</v>
       </c>
       <c r="L178" t="n">
-        <v>1.201474235375618</v>
+        <v>1.200048835169371</v>
       </c>
       <c r="M178" t="n">
-        <v>1.405218055286175</v>
+        <v>1.40711006632227</v>
       </c>
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr"/>
@@ -8529,25 +8529,25 @@
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="n">
-        <v>74.47767864879999</v>
+        <v>74.3462291957</v>
       </c>
       <c r="H181" t="n">
-        <v>73.51107550330001</v>
+        <v>73.3755724322</v>
       </c>
       <c r="I181" t="n">
-        <v>0.4166627256369426</v>
+        <v>0.4166209082897877</v>
       </c>
       <c r="J181" t="n">
-        <v>0.237128973318316</v>
+        <v>0.2371459722399237</v>
       </c>
       <c r="K181" t="n">
-        <v>0.3462083010447414</v>
+        <v>0.3462331194702886</v>
       </c>
       <c r="L181" t="n">
-        <v>1.596196477955569</v>
+        <v>1.596095844339652</v>
       </c>
       <c r="M181" t="n">
-        <v>1.05759522099969</v>
+        <v>1.05767103619006</v>
       </c>
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr"/>
@@ -8568,25 +8568,25 @@
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="n">
-        <v>73.51107550330001</v>
+        <v>73.3755724322</v>
       </c>
       <c r="H182" t="n">
-        <v>75.28751987059999</v>
+        <v>75.15952321419999</v>
       </c>
       <c r="I182" t="n">
-        <v>0.3243447805331937</v>
+        <v>0.3239402276996884</v>
       </c>
       <c r="J182" t="n">
-        <v>0.2746565932791896</v>
+        <v>0.2748210456505331</v>
       </c>
       <c r="K182" t="n">
-        <v>0.4009986261876168</v>
+        <v>0.4012387266497784</v>
       </c>
       <c r="L182" t="n">
-        <v>1.374032967787198</v>
+        <v>1.373059409748844</v>
       </c>
       <c r="M182" t="n">
-        <v>1.224968406025186</v>
+        <v>1.225701863601378</v>
       </c>
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr"/>
@@ -8713,25 +8713,25 @@
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="n">
-        <v>75.0941474344</v>
+        <v>74.96532166999999</v>
       </c>
       <c r="H185" t="n">
-        <v>73.51107550330001</v>
+        <v>73.3755724322</v>
       </c>
       <c r="I185" t="n">
-        <v>0.4390794731934009</v>
+        <v>0.4391331041859094</v>
       </c>
       <c r="J185" t="n">
-        <v>0.2280164743116257</v>
+        <v>0.2279946730951588</v>
       </c>
       <c r="K185" t="n">
-        <v>0.3329040524949735</v>
+        <v>0.3328722227189319</v>
       </c>
       <c r="L185" t="n">
-        <v>1.650142472075176</v>
+        <v>1.65027153527666</v>
       </c>
       <c r="M185" t="n">
-        <v>1.016953475429851</v>
+        <v>1.016856242004408</v>
       </c>
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr"/>
@@ -8805,25 +8805,25 @@
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="n">
-        <v>72.93121279970001</v>
+        <v>72.79331362630001</v>
       </c>
       <c r="H187" t="n">
-        <v>73.51107550330001</v>
+        <v>73.3755724322</v>
       </c>
       <c r="I187" t="n">
-        <v>0.362102777091015</v>
+        <v>0.3618417372033442</v>
       </c>
       <c r="J187" t="n">
-        <v>0.2593078141906444</v>
+        <v>0.2594139279661202</v>
       </c>
       <c r="K187" t="n">
-        <v>0.3785894087183407</v>
+        <v>0.3787443348305355</v>
       </c>
       <c r="L187" t="n">
-        <v>1.464897739991386</v>
+        <v>1.464269546440568</v>
       </c>
       <c r="M187" t="n">
-        <v>1.156512851290274</v>
+        <v>1.156986118728896</v>
       </c>
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr"/>
@@ -8844,25 +8844,25 @@
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="n">
-        <v>73.51107550330001</v>
+        <v>73.3755724322</v>
       </c>
       <c r="H188" t="n">
-        <v>73.2274991857</v>
+        <v>73.0904549923</v>
       </c>
       <c r="I188" t="n">
-        <v>0.3918393454332453</v>
+        <v>0.3917073003842457</v>
       </c>
       <c r="J188" t="n">
-        <v>0.2472197782791686</v>
+        <v>0.2472734551283554</v>
       </c>
       <c r="K188" t="n">
-        <v>0.360940876287586</v>
+        <v>0.3610192444873989</v>
       </c>
       <c r="L188" t="n">
-        <v>1.536458912587322</v>
+        <v>1.536141145640136</v>
       </c>
       <c r="M188" t="n">
-        <v>1.102600211125092</v>
+        <v>1.102839609872465</v>
       </c>
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr"/>
@@ -8936,25 +8936,25 @@
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="n">
-        <v>73.51107550330001</v>
+        <v>73.3755724322</v>
       </c>
       <c r="H190" t="n">
-        <v>74.8241892188</v>
+        <v>74.693844517</v>
       </c>
       <c r="I190" t="n">
-        <v>0.3390152369728669</v>
+        <v>0.3386766808534374</v>
       </c>
       <c r="J190" t="n">
-        <v>0.2686929931004606</v>
+        <v>0.2688306175392531</v>
       </c>
       <c r="K190" t="n">
-        <v>0.3922917699266725</v>
+        <v>0.3924927016073095</v>
       </c>
       <c r="L190" t="n">
-        <v>1.409337480845273</v>
+        <v>1.408522744167622</v>
       </c>
       <c r="M190" t="n">
-        <v>1.198370749228054</v>
+        <v>1.198984554225069</v>
       </c>
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr"/>
@@ -9081,25 +9081,25 @@
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="n">
-        <v>75.60425593550001</v>
+        <v>75.47725709149999</v>
       </c>
       <c r="H193" t="n">
-        <v>73.51107550330001</v>
+        <v>73.3755724322</v>
       </c>
       <c r="I193" t="n">
-        <v>0.4578226563560718</v>
+        <v>0.4579440841158802</v>
       </c>
       <c r="J193" t="n">
-        <v>0.2203972941641985</v>
+        <v>0.2203479332862276</v>
       </c>
       <c r="K193" t="n">
-        <v>0.3217800494797298</v>
+        <v>0.3217079825978923</v>
       </c>
       <c r="L193" t="n">
-        <v>1.695248018547945</v>
+        <v>1.695540234945533</v>
       </c>
       <c r="M193" t="n">
-        <v>0.9829719319723252</v>
+        <v>0.982751782456575</v>
       </c>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
@@ -9173,25 +9173,25 @@
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="n">
-        <v>73.1844927514</v>
+        <v>73.0472709085</v>
       </c>
       <c r="H195" t="n">
-        <v>73.51107550330001</v>
+        <v>73.3755724322</v>
       </c>
       <c r="I195" t="n">
-        <v>0.3708390588629639</v>
+        <v>0.3705988523324462</v>
       </c>
       <c r="J195" t="n">
-        <v>0.2557564801370065</v>
+        <v>0.2558541250681113</v>
       </c>
       <c r="K195" t="n">
-        <v>0.3734044610000295</v>
+        <v>0.3735470225994425</v>
       </c>
       <c r="L195" t="n">
-        <v>1.485921637588921</v>
+        <v>1.485343579596781</v>
       </c>
       <c r="M195" t="n">
-        <v>1.140673901411049</v>
+        <v>1.141109397803777</v>
       </c>
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr"/>
@@ -9265,25 +9265,25 @@
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="n">
-        <v>71.66134089419999</v>
+        <v>71.5179233722</v>
       </c>
       <c r="H197" t="n">
-        <v>73.51107550330001</v>
+        <v>73.3755724322</v>
       </c>
       <c r="I197" t="n">
-        <v>0.3197511228957526</v>
+        <v>0.3193270911270129</v>
       </c>
       <c r="J197" t="n">
-        <v>0.2765239337822144</v>
+        <v>0.2766963044199134</v>
       </c>
       <c r="K197" t="n">
-        <v>0.403724943322033</v>
+        <v>0.4039766044530736</v>
       </c>
       <c r="L197" t="n">
-        <v>1.362978312009291</v>
+        <v>1.361957877834112</v>
       </c>
       <c r="M197" t="n">
-        <v>1.233296744668676</v>
+        <v>1.234065517712814</v>
       </c>
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
@@ -9304,25 +9304,25 @@
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="n">
-        <v>74.0542942929</v>
+        <v>73.9206940458</v>
       </c>
       <c r="H198" t="n">
-        <v>78.0253083711</v>
+        <v>77.9089917772</v>
       </c>
       <c r="I198" t="n">
-        <v>0.2766234065174544</v>
+        <v>0.276337540018773</v>
       </c>
       <c r="J198" t="n">
-        <v>0.3195064199670622</v>
+        <v>0.3202096515538183</v>
       </c>
       <c r="K198" t="n">
-        <v>0.4038701735154834</v>
+        <v>0.4034528084274086</v>
       </c>
       <c r="L198" t="n">
-        <v>1.233740393067847</v>
+        <v>1.232465428483728</v>
       </c>
       <c r="M198" t="n">
-        <v>1.36238943341667</v>
+        <v>1.364081763088864</v>
       </c>
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr"/>
@@ -9449,25 +9449,25 @@
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="n">
-        <v>74.47767864879999</v>
+        <v>74.3462291957</v>
       </c>
       <c r="H201" t="n">
-        <v>74.0542942929</v>
+        <v>73.9206940458</v>
       </c>
       <c r="I201" t="n">
-        <v>0.3979315505273713</v>
+        <v>0.3978252088492219</v>
       </c>
       <c r="J201" t="n">
-        <v>0.244743272143345</v>
+        <v>0.244786500467796</v>
       </c>
       <c r="K201" t="n">
-        <v>0.3573251773292837</v>
+        <v>0.3573882906829821</v>
       </c>
       <c r="L201" t="n">
-        <v>1.551119828911398</v>
+        <v>1.550863917230648</v>
       </c>
       <c r="M201" t="n">
-        <v>1.091554993759319</v>
+        <v>1.09174779208637</v>
       </c>
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr"/>
@@ -9541,25 +9541,25 @@
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr"/>
       <c r="G203" t="n">
-        <v>75.28751987059999</v>
+        <v>75.15952321419999</v>
       </c>
       <c r="H203" t="n">
-        <v>74.0542942929</v>
+        <v>73.9206940458</v>
       </c>
       <c r="I203" t="n">
-        <v>0.4270807030827032</v>
+        <v>0.4270976116021613</v>
       </c>
       <c r="J203" t="n">
-        <v>0.2328940231371125</v>
+        <v>0.2328871497552189</v>
       </c>
       <c r="K203" t="n">
-        <v>0.3400252737801843</v>
+        <v>0.3400152386426197</v>
       </c>
       <c r="L203" t="n">
-        <v>1.621267383028294</v>
+        <v>1.621308073449104</v>
       </c>
       <c r="M203" t="n">
-        <v>1.038707343191522</v>
+        <v>1.038676687908276</v>
       </c>
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr"/>
@@ -9633,25 +9633,25 @@
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="inlineStr"/>
       <c r="G205" t="n">
-        <v>75.0941474344</v>
+        <v>74.96532166999999</v>
       </c>
       <c r="H205" t="n">
-        <v>74.0542942929</v>
+        <v>73.9206940458</v>
       </c>
       <c r="I205" t="n">
-        <v>0.4200662375021562</v>
+        <v>0.420053063520137</v>
       </c>
       <c r="J205" t="n">
-        <v>0.2357454319096926</v>
+        <v>0.2357507871869362</v>
       </c>
       <c r="K205" t="n">
-        <v>0.3441883305881512</v>
+        <v>0.3441961492929268</v>
       </c>
       <c r="L205" t="n">
-        <v>1.60438704309462</v>
+        <v>1.604355339853338</v>
       </c>
       <c r="M205" t="n">
-        <v>1.051424626317229</v>
+        <v>1.051448510853735</v>
       </c>
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr"/>
@@ -9672,25 +9672,25 @@
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr"/>
       <c r="G206" t="n">
-        <v>74.0542942929</v>
+        <v>73.9206940458</v>
       </c>
       <c r="H206" t="n">
-        <v>72.93121279970001</v>
+        <v>72.79331362630001</v>
       </c>
       <c r="I206" t="n">
-        <v>0.4215158564892482</v>
+        <v>0.4214794521400091</v>
       </c>
       <c r="J206" t="n">
-        <v>0.2351561558986796</v>
+        <v>0.2351709544146305</v>
       </c>
       <c r="K206" t="n">
-        <v>0.3433279876120722</v>
+        <v>0.3433495934453605</v>
       </c>
       <c r="L206" t="n">
-        <v>1.607875557079817</v>
+        <v>1.607787949865388</v>
       </c>
       <c r="M206" t="n">
-        <v>1.048796455308111</v>
+        <v>1.048862456689252</v>
       </c>
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr"/>
@@ -9764,25 +9764,25 @@
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr"/>
       <c r="G208" t="n">
-        <v>74.0542942929</v>
+        <v>73.9206940458</v>
       </c>
       <c r="H208" t="n">
-        <v>73.2274991857</v>
+        <v>73.0904549923</v>
       </c>
       <c r="I208" t="n">
-        <v>0.4112306244538491</v>
+        <v>0.4111649055533314</v>
       </c>
       <c r="J208" t="n">
-        <v>0.2393371445309556</v>
+        <v>0.2393638595311661</v>
       </c>
       <c r="K208" t="n">
-        <v>0.3494322310151952</v>
+        <v>0.3494712349155025</v>
       </c>
       <c r="L208" t="n">
-        <v>1.583124104376743</v>
+        <v>1.582965951575497</v>
       </c>
       <c r="M208" t="n">
-        <v>1.067443664608062</v>
+        <v>1.067562813509001</v>
       </c>
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr"/>
@@ -9909,25 +9909,25 @@
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr"/>
       <c r="G211" t="n">
-        <v>74.8241892188</v>
+        <v>74.693844517</v>
       </c>
       <c r="H211" t="n">
-        <v>74.0542942929</v>
+        <v>73.9206940458</v>
       </c>
       <c r="I211" t="n">
-        <v>0.410328010947642</v>
+        <v>0.410260324883979</v>
       </c>
       <c r="J211" t="n">
-        <v>0.2397040605903894</v>
+        <v>0.2397315752504151</v>
       </c>
       <c r="K211" t="n">
-        <v>0.3499679284619686</v>
+        <v>0.3500080998656059</v>
       </c>
       <c r="L211" t="n">
-        <v>1.580951961304895</v>
+        <v>1.580789074517543</v>
       </c>
       <c r="M211" t="n">
-        <v>1.069080110233137</v>
+        <v>1.069202825616851</v>
       </c>
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr"/>
@@ -9948,25 +9948,25 @@
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="n">
-        <v>74.0542942929</v>
+        <v>73.9206940458</v>
       </c>
       <c r="H212" t="n">
-        <v>75.60425593550001</v>
+        <v>75.47725709149999</v>
       </c>
       <c r="I212" t="n">
-        <v>0.332163282548404</v>
+        <v>0.3317848394660521</v>
       </c>
       <c r="J212" t="n">
-        <v>0.271478340427478</v>
+        <v>0.2716321790788406</v>
       </c>
       <c r="K212" t="n">
-        <v>0.3963583770241179</v>
+        <v>0.3965829814551073</v>
       </c>
       <c r="L212" t="n">
-        <v>1.39284822466933</v>
+        <v>1.391937499853264</v>
       </c>
       <c r="M212" t="n">
-        <v>1.210793398306552</v>
+        <v>1.211479518691629</v>
       </c>
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr"/>
@@ -10093,25 +10093,25 @@
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="n">
-        <v>73.1844927514</v>
+        <v>73.0472709085</v>
       </c>
       <c r="H215" t="n">
-        <v>74.0542942929</v>
+        <v>73.9206940458</v>
       </c>
       <c r="I215" t="n">
-        <v>0.3529215804252094</v>
+        <v>0.3526244174732172</v>
       </c>
       <c r="J215" t="n">
-        <v>0.2630400079572319</v>
+        <v>0.2631608059051962</v>
       </c>
       <c r="K215" t="n">
-        <v>0.3840384116175586</v>
+        <v>0.3842147766215865</v>
       </c>
       <c r="L215" t="n">
-        <v>1.442803152893187</v>
+        <v>1.442088029041238</v>
       </c>
       <c r="M215" t="n">
-        <v>1.173158435489254</v>
+        <v>1.173697194337175</v>
       </c>
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr"/>
@@ -10132,25 +10132,25 @@
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr"/>
       <c r="G216" t="n">
-        <v>74.0542942929</v>
+        <v>73.9206940458</v>
       </c>
       <c r="H216" t="n">
-        <v>71.66134089419999</v>
+        <v>71.5179233722</v>
       </c>
       <c r="I216" t="n">
-        <v>0.4662654605501418</v>
+        <v>0.4664244962006987</v>
       </c>
       <c r="J216" t="n">
-        <v>0.2169652599389668</v>
+        <v>0.216900611300529</v>
       </c>
       <c r="K216" t="n">
-        <v>0.3167692795108915</v>
+        <v>0.3166748924987723</v>
       </c>
       <c r="L216" t="n">
-        <v>1.715565661161317</v>
+        <v>1.715948381100868</v>
       </c>
       <c r="M216" t="n">
-        <v>0.9676650593277918</v>
+        <v>0.9673767264003592</v>
       </c>
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr"/>
@@ -10224,25 +10224,25 @@
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr"/>
       <c r="G218" t="n">
-        <v>78.0253083711</v>
+        <v>77.9089917772</v>
       </c>
       <c r="H218" t="n">
-        <v>74.47767864879999</v>
+        <v>74.3462291957</v>
       </c>
       <c r="I218" t="n">
-        <v>0.5131224361411866</v>
+        <v>0.5134964636071004</v>
       </c>
       <c r="J218" t="n">
-        <v>0.1979177088856965</v>
+        <v>0.1977656652003657</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2889598549731169</v>
+        <v>0.288737871192534</v>
       </c>
       <c r="L218" t="n">
-        <v>1.828327163396677</v>
+        <v>1.829227262013835</v>
       </c>
       <c r="M218" t="n">
-        <v>0.8827129816302065</v>
+        <v>0.8820348667936311</v>
       </c>
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr"/>
@@ -10316,25 +10316,25 @@
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="n">
-        <v>78.0253083711</v>
+        <v>77.9089917772</v>
       </c>
       <c r="H220" t="n">
-        <v>75.28751987059999</v>
+        <v>75.15952321419999</v>
       </c>
       <c r="I220" t="n">
-        <v>0.4842078039296997</v>
+        <v>0.4844585360407133</v>
       </c>
       <c r="J220" t="n">
-        <v>0.2096716244188213</v>
+        <v>0.209569700796458</v>
       </c>
       <c r="K220" t="n">
-        <v>0.306120571651479</v>
+        <v>0.3059717631628287</v>
       </c>
       <c r="L220" t="n">
-        <v>1.758743983440578</v>
+        <v>1.759347371284969</v>
       </c>
       <c r="M220" t="n">
-        <v>0.9351354449079428</v>
+        <v>0.9346808655522028</v>
       </c>
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr"/>
@@ -10408,25 +10408,25 @@
       <c r="E222" t="inlineStr"/>
       <c r="F222" t="inlineStr"/>
       <c r="G222" t="n">
-        <v>78.0253083711</v>
+        <v>77.9089917772</v>
       </c>
       <c r="H222" t="n">
-        <v>75.0941474344</v>
+        <v>74.96532166999999</v>
       </c>
       <c r="I222" t="n">
-        <v>0.4911096450100336</v>
+        <v>0.4913901485966683</v>
       </c>
       <c r="J222" t="n">
-        <v>0.206865997963401</v>
+        <v>0.2067519721151755</v>
       </c>
       <c r="K222" t="n">
-        <v>0.3020243570265654</v>
+        <v>0.3018578792881562</v>
       </c>
       <c r="L222" t="n">
-        <v>1.775353292056666</v>
+        <v>1.776028325078161</v>
       </c>
       <c r="M222" t="n">
-        <v>0.9226223509167683</v>
+        <v>0.9221137956336828</v>
       </c>
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr"/>
@@ -10447,25 +10447,25 @@
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr"/>
       <c r="G223" t="n">
-        <v>75.0941474344</v>
+        <v>74.96532166999999</v>
       </c>
       <c r="H223" t="n">
-        <v>78.0253083711</v>
+        <v>77.9089917772</v>
       </c>
       <c r="I223" t="n">
-        <v>0.2911533284473315</v>
+        <v>0.2906328630940982</v>
       </c>
       <c r="J223" t="n">
-        <v>0.2881490534766945</v>
+        <v>0.2883606247584967</v>
       </c>
       <c r="K223" t="n">
-        <v>0.4206976180759739</v>
+        <v>0.4210065121474051</v>
       </c>
       <c r="L223" t="n">
-        <v>1.294157603417969</v>
+        <v>1.2929051014297</v>
       </c>
       <c r="M223" t="n">
-        <v>1.285144778506057</v>
+        <v>1.286088386422895</v>
       </c>
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr"/>
@@ -10539,25 +10539,25 @@
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr"/>
       <c r="G225" t="n">
-        <v>72.93121279970001</v>
+        <v>72.79331362630001</v>
       </c>
       <c r="H225" t="n">
-        <v>78.0253083711</v>
+        <v>77.9089917772</v>
       </c>
       <c r="I225" t="n">
-        <v>0.2614543543035479</v>
+        <v>0.2610929976540995</v>
       </c>
       <c r="J225" t="n">
-        <v>0.3568222884132725</v>
+        <v>0.3577112257709153</v>
       </c>
       <c r="K225" t="n">
-        <v>0.3817233572831798</v>
+        <v>0.3811957765749852</v>
       </c>
       <c r="L225" t="n">
-        <v>1.166086420193823</v>
+        <v>1.164474769537284</v>
       </c>
       <c r="M225" t="n">
-        <v>1.452190222522997</v>
+        <v>1.454329453887731</v>
       </c>
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr"/>
@@ -10631,25 +10631,25 @@
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="n">
-        <v>73.2274991857</v>
+        <v>73.0904549923</v>
       </c>
       <c r="H227" t="n">
-        <v>78.0253083711</v>
+        <v>77.9089917772</v>
       </c>
       <c r="I227" t="n">
-        <v>0.2655346962107819</v>
+        <v>0.2651897206418368</v>
       </c>
       <c r="J227" t="n">
-        <v>0.3467846473214766</v>
+        <v>0.3476332872210814</v>
       </c>
       <c r="K227" t="n">
-        <v>0.3876806564677415</v>
+        <v>0.3871769921370818</v>
       </c>
       <c r="L227" t="n">
-        <v>1.184284745100087</v>
+        <v>1.182746154062592</v>
       </c>
       <c r="M227" t="n">
-        <v>1.428034598432171</v>
+        <v>1.430076853800326</v>
       </c>
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr"/>
@@ -10670,25 +10670,25 @@
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="n">
-        <v>78.0253083711</v>
+        <v>77.9089917772</v>
       </c>
       <c r="H228" t="n">
-        <v>74.8241892188</v>
+        <v>74.693844517</v>
       </c>
       <c r="I228" t="n">
-        <v>0.5007500722064115</v>
+        <v>0.5010849083573068</v>
       </c>
       <c r="J228" t="n">
-        <v>0.2029471251193449</v>
+        <v>0.2028110128628834</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2963028026742436</v>
+        <v>0.2961040787798098</v>
       </c>
       <c r="L228" t="n">
-        <v>1.798553019293478</v>
+        <v>1.79935880385173</v>
       </c>
       <c r="M228" t="n">
-        <v>0.9051441780322784</v>
+        <v>0.90453711736846</v>
       </c>
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr"/>
@@ -10762,25 +10762,25 @@
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr"/>
       <c r="G230" t="n">
-        <v>78.0253083711</v>
+        <v>77.9089917772</v>
       </c>
       <c r="H230" t="n">
-        <v>75.60425593550001</v>
+        <v>75.47725709149999</v>
       </c>
       <c r="I230" t="n">
-        <v>0.4729170804332856</v>
+        <v>0.4731317959972214</v>
       </c>
       <c r="J230" t="n">
-        <v>0.2142613494173636</v>
+        <v>0.2141740666677962</v>
       </c>
       <c r="K230" t="n">
-        <v>0.3128215701493509</v>
+        <v>0.3126941373349824</v>
       </c>
       <c r="L230" t="n">
-        <v>1.731572811449207</v>
+        <v>1.732089525326647</v>
       </c>
       <c r="M230" t="n">
-        <v>0.9556056184014416</v>
+        <v>0.955216337338371</v>
       </c>
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr"/>
@@ -10801,25 +10801,25 @@
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="inlineStr"/>
       <c r="G231" t="n">
-        <v>75.60425593550001</v>
+        <v>75.47725709149999</v>
       </c>
       <c r="H231" t="n">
-        <v>78.0253083711</v>
+        <v>77.9089917772</v>
       </c>
       <c r="I231" t="n">
-        <v>0.3070384215384664</v>
+        <v>0.3065595357631056</v>
       </c>
       <c r="J231" t="n">
-        <v>0.281691698561599</v>
+        <v>0.2818863675759734</v>
       </c>
       <c r="K231" t="n">
-        <v>0.4112698798999346</v>
+        <v>0.4115540966609211</v>
       </c>
       <c r="L231" t="n">
-        <v>1.332385144515334</v>
+        <v>1.331232703950238</v>
       </c>
       <c r="M231" t="n">
-        <v>1.256344975584732</v>
+        <v>1.257213199388841</v>
       </c>
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr"/>
@@ -10893,25 +10893,25 @@
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr"/>
       <c r="G233" t="n">
-        <v>73.1844927514</v>
+        <v>73.0472709085</v>
       </c>
       <c r="H233" t="n">
-        <v>78.0253083711</v>
+        <v>77.9089917772</v>
       </c>
       <c r="I233" t="n">
-        <v>0.264945752529683</v>
+        <v>0.2645976680030711</v>
       </c>
       <c r="J233" t="n">
-        <v>0.34823344877698</v>
+        <v>0.3490897367124452</v>
       </c>
       <c r="K233" t="n">
-        <v>0.3868207986933371</v>
+        <v>0.3863125952844837</v>
       </c>
       <c r="L233" t="n">
-        <v>1.181658056282386</v>
+        <v>1.180105599293697</v>
       </c>
       <c r="M233" t="n">
-        <v>1.431521145024277</v>
+        <v>1.433581805421819</v>
       </c>
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr"/>
@@ -10985,25 +10985,25 @@
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr"/>
       <c r="G235" t="n">
-        <v>71.66134089419999</v>
+        <v>71.5179233722</v>
       </c>
       <c r="H235" t="n">
-        <v>78.0253083711</v>
+        <v>77.9089917772</v>
       </c>
       <c r="I235" t="n">
-        <v>0.2434194114563898</v>
+        <v>0.2429610820497476</v>
       </c>
       <c r="J235" t="n">
-        <v>0.4011882478172812</v>
+        <v>0.4023157381576211</v>
       </c>
       <c r="K235" t="n">
-        <v>0.355392340726329</v>
+        <v>0.3547231797926314</v>
       </c>
       <c r="L235" t="n">
-        <v>1.085650575095498</v>
+        <v>1.083606425941874</v>
       </c>
       <c r="M235" t="n">
-        <v>1.558957084178173</v>
+        <v>1.561670394265495</v>
       </c>
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr"/>
@@ -11077,25 +11077,25 @@
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr"/>
       <c r="G237" t="n">
-        <v>75.28751987059999</v>
+        <v>75.15952321419999</v>
       </c>
       <c r="H237" t="n">
-        <v>74.47767864879999</v>
+        <v>74.3462291957</v>
       </c>
       <c r="I237" t="n">
-        <v>0.4123508921478348</v>
+        <v>0.4122931847312073</v>
       </c>
       <c r="J237" t="n">
-        <v>0.2388817511594167</v>
+        <v>0.2389052094588589</v>
       </c>
       <c r="K237" t="n">
-        <v>0.3487673566927484</v>
+        <v>0.3488016058099339</v>
       </c>
       <c r="L237" t="n">
-        <v>1.585820033136253</v>
+        <v>1.585681160003556</v>
       </c>
       <c r="M237" t="n">
-        <v>1.065412610170999</v>
+        <v>1.06551723418651</v>
       </c>
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr"/>
@@ -11116,25 +11116,25 @@
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="inlineStr"/>
       <c r="G238" t="n">
-        <v>74.47767864879999</v>
+        <v>74.3462291957</v>
       </c>
       <c r="H238" t="n">
-        <v>75.0941474344</v>
+        <v>74.96532166999999</v>
       </c>
       <c r="I238" t="n">
-        <v>0.3629364686981324</v>
+        <v>0.3626761734006786</v>
       </c>
       <c r="J238" t="n">
-        <v>0.2589689151633608</v>
+        <v>0.2590747262598868</v>
       </c>
       <c r="K238" t="n">
-        <v>0.3780946161385068</v>
+        <v>0.3782491003394347</v>
       </c>
       <c r="L238" t="n">
-        <v>1.466904022232904</v>
+        <v>1.46627762054147</v>
       </c>
       <c r="M238" t="n">
-        <v>1.155001361628589</v>
+        <v>1.155473279119095</v>
       </c>
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr"/>
@@ -11208,25 +11208,25 @@
       <c r="E240" t="inlineStr"/>
       <c r="F240" t="inlineStr"/>
       <c r="G240" t="n">
-        <v>74.47767864879999</v>
+        <v>74.3462291957</v>
       </c>
       <c r="H240" t="n">
-        <v>72.93121279970001</v>
+        <v>72.79331362630001</v>
       </c>
       <c r="I240" t="n">
-        <v>0.4369250876956892</v>
+        <v>0.4369669730402032</v>
       </c>
       <c r="J240" t="n">
-        <v>0.2288922407741101</v>
+        <v>0.2288752142112996</v>
       </c>
       <c r="K240" t="n">
-        <v>0.3341826715302007</v>
+        <v>0.3341578127484973</v>
       </c>
       <c r="L240" t="n">
-        <v>1.644957934617268</v>
+        <v>1.645058731869107</v>
       </c>
       <c r="M240" t="n">
-        <v>1.020859393852531</v>
+        <v>1.020783455382396</v>
       </c>
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr"/>
@@ -11247,25 +11247,25 @@
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr"/>
       <c r="G241" t="n">
-        <v>72.93121279970001</v>
+        <v>72.79331362630001</v>
       </c>
       <c r="H241" t="n">
-        <v>74.47767864879999</v>
+        <v>74.3462291957</v>
       </c>
       <c r="I241" t="n">
-        <v>0.3308517477605769</v>
+        <v>0.330473418676624</v>
       </c>
       <c r="J241" t="n">
-        <v>0.2720114846501721</v>
+        <v>0.272165276960722</v>
       </c>
       <c r="K241" t="n">
-        <v>0.3971367675892511</v>
+        <v>0.397361304362654</v>
       </c>
       <c r="L241" t="n">
-        <v>1.389692010870982</v>
+        <v>1.388781560392526</v>
       </c>
       <c r="M241" t="n">
-        <v>1.213171221539767</v>
+        <v>1.21385713524482</v>
       </c>
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr"/>
@@ -11339,25 +11339,25 @@
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="inlineStr"/>
       <c r="G243" t="n">
-        <v>73.2274991857</v>
+        <v>73.0904549923</v>
       </c>
       <c r="H243" t="n">
-        <v>74.47767864879999</v>
+        <v>74.3462291957</v>
       </c>
       <c r="I243" t="n">
-        <v>0.3406687281234944</v>
+        <v>0.3403133986765576</v>
       </c>
       <c r="J243" t="n">
-        <v>0.2680208422262218</v>
+        <v>0.2681652850908303</v>
       </c>
       <c r="K243" t="n">
-        <v>0.3913104296502838</v>
+        <v>0.3915213162326122</v>
       </c>
       <c r="L243" t="n">
-        <v>1.413316614020767</v>
+        <v>1.412461512262285</v>
       </c>
       <c r="M243" t="n">
-        <v>1.195372956328949</v>
+        <v>1.196017171505103</v>
       </c>
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr"/>
@@ -11378,25 +11378,25 @@
       <c r="E244" t="inlineStr"/>
       <c r="F244" t="inlineStr"/>
       <c r="G244" t="n">
-        <v>74.47767864879999</v>
+        <v>74.3462291957</v>
       </c>
       <c r="H244" t="n">
-        <v>74.8241892188</v>
+        <v>74.693844517</v>
       </c>
       <c r="I244" t="n">
-        <v>0.3718995944220104</v>
+        <v>0.371687294615536</v>
       </c>
       <c r="J244" t="n">
-        <v>0.255325368121134</v>
+        <v>0.2554116688554732</v>
       </c>
       <c r="K244" t="n">
-        <v>0.3727750374568556</v>
+        <v>0.3729010365289909</v>
       </c>
       <c r="L244" t="n">
-        <v>1.488473820722887</v>
+        <v>1.487962920375599</v>
       </c>
       <c r="M244" t="n">
-        <v>1.138751141820257</v>
+        <v>1.13913604309541</v>
       </c>
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr"/>
@@ -11470,25 +11470,25 @@
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="inlineStr"/>
       <c r="G246" t="n">
-        <v>74.47767864879999</v>
+        <v>74.3462291957</v>
       </c>
       <c r="H246" t="n">
-        <v>75.60425593550001</v>
+        <v>75.47725709149999</v>
       </c>
       <c r="I246" t="n">
-        <v>0.3462612571702326</v>
+        <v>0.3459473700765263</v>
       </c>
       <c r="J246" t="n">
-        <v>0.2657474564348648</v>
+        <v>0.2658750528144203</v>
       </c>
       <c r="K246" t="n">
-        <v>0.3879912863949027</v>
+        <v>0.3881775771090536</v>
       </c>
       <c r="L246" t="n">
-        <v>1.4267750579056</v>
+        <v>1.426019687338632</v>
       </c>
       <c r="M246" t="n">
-        <v>1.185233655699497</v>
+        <v>1.185802735552314</v>
       </c>
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr"/>
@@ -11562,25 +11562,25 @@
       <c r="E248" t="inlineStr"/>
       <c r="F248" t="inlineStr"/>
       <c r="G248" t="n">
-        <v>74.47767864879999</v>
+        <v>74.3462291957</v>
       </c>
       <c r="H248" t="n">
-        <v>73.1844927514</v>
+        <v>73.0472709085</v>
       </c>
       <c r="I248" t="n">
-        <v>0.4280445628430678</v>
+        <v>0.428062554296604</v>
       </c>
       <c r="J248" t="n">
-        <v>0.2325022102263952</v>
+        <v>0.2324948966273968</v>
       </c>
       <c r="K248" t="n">
-        <v>0.339453226930537</v>
+        <v>0.3394425490759993</v>
       </c>
       <c r="L248" t="n">
-        <v>1.62358691545974</v>
+        <v>1.623630211965811</v>
       </c>
       <c r="M248" t="n">
-        <v>1.036959857609723</v>
+        <v>1.03692723895819</v>
       </c>
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr"/>
@@ -11707,25 +11707,25 @@
       <c r="E251" t="inlineStr"/>
       <c r="F251" t="inlineStr"/>
       <c r="G251" t="n">
-        <v>71.66134089419999</v>
+        <v>71.5179233722</v>
       </c>
       <c r="H251" t="n">
-        <v>74.47767864879999</v>
+        <v>74.3462291957</v>
       </c>
       <c r="I251" t="n">
-        <v>0.2904907214303938</v>
+        <v>0.2899697039619608</v>
       </c>
       <c r="J251" t="n">
-        <v>0.2884184059226041</v>
+        <v>0.2886302016414793</v>
       </c>
       <c r="K251" t="n">
-        <v>0.4210908726470021</v>
+        <v>0.4214000943965598</v>
       </c>
       <c r="L251" t="n">
-        <v>1.292563036938184</v>
+        <v>1.291309206282442</v>
       </c>
       <c r="M251" t="n">
-        <v>1.286346090414815</v>
+        <v>1.287290699320998</v>
       </c>
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr"/>
@@ -11799,25 +11799,25 @@
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="inlineStr"/>
       <c r="G253" t="n">
-        <v>75.0941474344</v>
+        <v>74.96532166999999</v>
       </c>
       <c r="H253" t="n">
-        <v>75.28751987059999</v>
+        <v>75.15952321419999</v>
       </c>
       <c r="I253" t="n">
-        <v>0.3778517301807526</v>
+        <v>0.3776508540273625</v>
       </c>
       <c r="J253" t="n">
-        <v>0.2529058007395315</v>
+        <v>0.2529874577124542</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3692424690797159</v>
+        <v>0.3693616882601832</v>
       </c>
       <c r="L253" t="n">
-        <v>1.502797659621974</v>
+        <v>1.502314250342271</v>
       </c>
       <c r="M253" t="n">
-        <v>1.12795987129831</v>
+        <v>1.128324061397546</v>
       </c>
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr"/>
@@ -11838,25 +11838,25 @@
       <c r="E254" t="inlineStr"/>
       <c r="F254" t="inlineStr"/>
       <c r="G254" t="n">
-        <v>75.28751987059999</v>
+        <v>75.15952321419999</v>
       </c>
       <c r="H254" t="n">
-        <v>72.93121279970001</v>
+        <v>72.79331362630001</v>
       </c>
       <c r="I254" t="n">
-        <v>0.4667163795125346</v>
+        <v>0.4668864354400026</v>
       </c>
       <c r="J254" t="n">
-        <v>0.2167819595477502</v>
+        <v>0.2167128311219502</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3165016609397152</v>
+        <v>0.3164007334380472</v>
       </c>
       <c r="L254" t="n">
-        <v>1.716650799477319</v>
+        <v>1.717060039758055</v>
       </c>
       <c r="M254" t="n">
-        <v>0.9668475395829658</v>
+        <v>0.9665392268038977</v>
       </c>
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr"/>
@@ -11877,25 +11877,25 @@
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="inlineStr"/>
       <c r="G255" t="n">
-        <v>72.93121279970001</v>
+        <v>72.79331362630001</v>
       </c>
       <c r="H255" t="n">
-        <v>75.28751987059999</v>
+        <v>75.15952321419999</v>
       </c>
       <c r="I255" t="n">
-        <v>0.3057579586373033</v>
+        <v>0.3052906042048574</v>
       </c>
       <c r="J255" t="n">
-        <v>0.2822122119360556</v>
+        <v>0.2824021934126596</v>
       </c>
       <c r="K255" t="n">
-        <v>0.4120298294266411</v>
+        <v>0.4123072023824829</v>
       </c>
       <c r="L255" t="n">
-        <v>1.329303705338551</v>
+        <v>1.328179014997055</v>
       </c>
       <c r="M255" t="n">
-        <v>1.258666465234808</v>
+        <v>1.259513782620462</v>
       </c>
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr"/>
@@ -11969,25 +11969,25 @@
       <c r="E257" t="inlineStr"/>
       <c r="F257" t="inlineStr"/>
       <c r="G257" t="n">
-        <v>73.2274991857</v>
+        <v>73.0904549923</v>
       </c>
       <c r="H257" t="n">
-        <v>75.28751987059999</v>
+        <v>75.15952321419999</v>
       </c>
       <c r="I257" t="n">
-        <v>0.3151810703784434</v>
+        <v>0.3147332375252793</v>
       </c>
       <c r="J257" t="n">
-        <v>0.2783816787079498</v>
+        <v>0.2785637245832198</v>
       </c>
       <c r="K257" t="n">
-        <v>0.4064372509136068</v>
+        <v>0.4067030378915009</v>
       </c>
       <c r="L257" t="n">
-        <v>1.351980462048937</v>
+        <v>1.350902750467339</v>
       </c>
       <c r="M257" t="n">
-        <v>1.241582287037456</v>
+        <v>1.24239421164116</v>
       </c>
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr"/>
@@ -12008,25 +12008,25 @@
       <c r="E258" t="inlineStr"/>
       <c r="F258" t="inlineStr"/>
       <c r="G258" t="n">
-        <v>75.28751987059999</v>
+        <v>75.15952321419999</v>
       </c>
       <c r="H258" t="n">
-        <v>74.8241892188</v>
+        <v>74.693844517</v>
       </c>
       <c r="I258" t="n">
-        <v>0.4004100500764117</v>
+        <v>0.4003149875612432</v>
       </c>
       <c r="J258" t="n">
-        <v>0.2437357520014587</v>
+        <v>0.2437743953003076</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3558541979221296</v>
+        <v>0.3559106171384491</v>
       </c>
       <c r="L258" t="n">
-        <v>1.557084348151365</v>
+        <v>1.556855579822179</v>
       </c>
       <c r="M258" t="n">
-        <v>1.087061453926506</v>
+        <v>1.087233803039372</v>
       </c>
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr"/>
@@ -12100,25 +12100,25 @@
       <c r="E260" t="inlineStr"/>
       <c r="F260" t="inlineStr"/>
       <c r="G260" t="n">
-        <v>75.28751987059999</v>
+        <v>75.15952321419999</v>
       </c>
       <c r="H260" t="n">
-        <v>75.60425593550001</v>
+        <v>75.47725709149999</v>
       </c>
       <c r="I260" t="n">
-        <v>0.3739764974623204</v>
+        <v>0.3737719115565408</v>
       </c>
       <c r="J260" t="n">
-        <v>0.2544810985925527</v>
+        <v>0.2545642635949021</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3715424039451269</v>
+        <v>0.371663824848557</v>
       </c>
       <c r="L260" t="n">
-        <v>1.493471896332088</v>
+        <v>1.492979559518179</v>
       </c>
       <c r="M260" t="n">
-        <v>1.134985699722785</v>
+        <v>1.135356615633263</v>
       </c>
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr"/>
@@ -12192,25 +12192,25 @@
       <c r="E262" t="inlineStr"/>
       <c r="F262" t="inlineStr"/>
       <c r="G262" t="n">
-        <v>75.28751987059999</v>
+        <v>75.15952321419999</v>
       </c>
       <c r="H262" t="n">
-        <v>73.1844927514</v>
+        <v>73.0472709085</v>
       </c>
       <c r="I262" t="n">
-        <v>0.4577225627142344</v>
+        <v>0.4578681366461867</v>
       </c>
       <c r="J262" t="n">
-        <v>0.2204379826364901</v>
+        <v>0.2203788062413875</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3218394546492755</v>
+        <v>0.3217530571124257</v>
       </c>
       <c r="L262" t="n">
-        <v>1.695007142791979</v>
+        <v>1.695357467050986</v>
       </c>
       <c r="M262" t="n">
-        <v>0.9831534025587458</v>
+        <v>0.9828894758365883</v>
       </c>
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr"/>
@@ -12284,25 +12284,25 @@
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="inlineStr"/>
       <c r="G264" t="n">
-        <v>75.28751987059999</v>
+        <v>75.15952321419999</v>
       </c>
       <c r="H264" t="n">
-        <v>71.66134089419999</v>
+        <v>71.5179233722</v>
       </c>
       <c r="I264" t="n">
-        <v>0.5120173395389849</v>
+        <v>0.5123850132851614</v>
       </c>
       <c r="J264" t="n">
-        <v>0.1983669351467542</v>
+        <v>0.1982174742743246</v>
       </c>
       <c r="K264" t="n">
-        <v>0.2896157253142611</v>
+        <v>0.289397512440514</v>
       </c>
       <c r="L264" t="n">
-        <v>1.825667743931216</v>
+        <v>1.826552552295998</v>
       </c>
       <c r="M264" t="n">
-        <v>0.8847165307545235</v>
+        <v>0.8840499352634879</v>
       </c>
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr"/>
@@ -12376,25 +12376,25 @@
       <c r="E266" t="inlineStr"/>
       <c r="F266" t="inlineStr"/>
       <c r="G266" t="n">
-        <v>75.0941474344</v>
+        <v>74.96532166999999</v>
       </c>
       <c r="H266" t="n">
-        <v>72.93121279970001</v>
+        <v>72.79331362630001</v>
       </c>
       <c r="I266" t="n">
-        <v>0.4595731232843056</v>
+        <v>0.4597122246307638</v>
       </c>
       <c r="J266" t="n">
-        <v>0.2196857222421522</v>
+        <v>0.2196291769793643</v>
       </c>
       <c r="K266" t="n">
-        <v>0.3207411544735422</v>
+        <v>0.3206585983898719</v>
       </c>
       <c r="L266" t="n">
-        <v>1.699460524326459</v>
+        <v>1.699795272282163</v>
       </c>
       <c r="M266" t="n">
-        <v>0.979798321199999</v>
+        <v>0.9795461293279648</v>
       </c>
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr"/>
@@ -12468,25 +12468,25 @@
       <c r="E268" t="inlineStr"/>
       <c r="F268" t="inlineStr"/>
       <c r="G268" t="n">
-        <v>75.0941474344</v>
+        <v>74.96532166999999</v>
       </c>
       <c r="H268" t="n">
-        <v>73.2274991857</v>
+        <v>73.0904549923</v>
       </c>
       <c r="I268" t="n">
-        <v>0.4490801637720886</v>
+        <v>0.4491885092648517</v>
       </c>
       <c r="J268" t="n">
-        <v>0.2239511529381753</v>
+        <v>0.2239071100549384</v>
       </c>
       <c r="K268" t="n">
-        <v>0.326968683289736</v>
+        <v>0.32690438068021</v>
       </c>
       <c r="L268" t="n">
-        <v>1.674209174606002</v>
+        <v>1.674469908474765</v>
       </c>
       <c r="M268" t="n">
-        <v>0.998822142104262</v>
+        <v>0.9986257108450252</v>
       </c>
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr"/>
@@ -12613,25 +12613,25 @@
       <c r="E271" t="inlineStr"/>
       <c r="F271" t="inlineStr"/>
       <c r="G271" t="n">
-        <v>74.8241892188</v>
+        <v>74.693844517</v>
       </c>
       <c r="H271" t="n">
-        <v>75.0941474344</v>
+        <v>74.96532166999999</v>
       </c>
       <c r="I271" t="n">
-        <v>0.3749216306170092</v>
+        <v>0.374696250522305</v>
       </c>
       <c r="J271" t="n">
-        <v>0.254096898123167</v>
+        <v>0.2541885160478435</v>
       </c>
       <c r="K271" t="n">
-        <v>0.3709814712598238</v>
+        <v>0.3711152334298515</v>
       </c>
       <c r="L271" t="n">
-        <v>1.495746363110851</v>
+        <v>1.495203984996766</v>
       </c>
       <c r="M271" t="n">
-        <v>1.133272165629325</v>
+        <v>1.133680781573382</v>
       </c>
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr"/>
@@ -12705,25 +12705,25 @@
       <c r="E273" t="inlineStr"/>
       <c r="F273" t="inlineStr"/>
       <c r="G273" t="n">
-        <v>75.60425593550001</v>
+        <v>75.47725709149999</v>
       </c>
       <c r="H273" t="n">
-        <v>75.0941474344</v>
+        <v>74.96532166999999</v>
       </c>
       <c r="I273" t="n">
-        <v>0.4024506515854528</v>
+        <v>0.4023388990992652</v>
       </c>
       <c r="J273" t="n">
-        <v>0.2429062391929054</v>
+        <v>0.242951667032819</v>
       </c>
       <c r="K273" t="n">
-        <v>0.3546431092216418</v>
+        <v>0.3547094338679157</v>
       </c>
       <c r="L273" t="n">
-        <v>1.561995063978</v>
+        <v>1.561726131165712</v>
       </c>
       <c r="M273" t="n">
-        <v>1.083361826800358</v>
+        <v>1.083564434966373</v>
       </c>
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr"/>
@@ -12744,25 +12744,25 @@
       <c r="E274" t="inlineStr"/>
       <c r="F274" t="inlineStr"/>
       <c r="G274" t="n">
-        <v>75.0941474344</v>
+        <v>74.96532166999999</v>
       </c>
       <c r="H274" t="n">
-        <v>73.1844927514</v>
+        <v>73.0472709085</v>
       </c>
       <c r="I274" t="n">
-        <v>0.450600648974402</v>
+        <v>0.4507153441665203</v>
       </c>
       <c r="J274" t="n">
-        <v>0.2233330695226008</v>
+        <v>0.2232864454607641</v>
       </c>
       <c r="K274" t="n">
-        <v>0.3260662815029972</v>
+        <v>0.3259982103727155</v>
       </c>
       <c r="L274" t="n">
-        <v>1.677868228426203</v>
+        <v>1.678144242872276</v>
       </c>
       <c r="M274" t="n">
-        <v>0.9960654900707995</v>
+        <v>0.9958575467550077</v>
       </c>
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr"/>
@@ -12889,25 +12889,25 @@
       <c r="E277" t="inlineStr"/>
       <c r="F277" t="inlineStr"/>
       <c r="G277" t="n">
-        <v>71.66134089419999</v>
+        <v>71.5179233722</v>
       </c>
       <c r="H277" t="n">
-        <v>75.0941474344</v>
+        <v>74.96532166999999</v>
       </c>
       <c r="I277" t="n">
-        <v>0.2821454950985766</v>
+        <v>0.2818946908481225</v>
       </c>
       <c r="J277" t="n">
-        <v>0.3059220820575015</v>
+        <v>0.3065390605136185</v>
       </c>
       <c r="K277" t="n">
-        <v>0.4119324228439219</v>
+        <v>0.411566248638259</v>
       </c>
       <c r="L277" t="n">
-        <v>1.258368908139652</v>
+        <v>1.257250321182626</v>
       </c>
       <c r="M277" t="n">
-        <v>1.329698669016427</v>
+        <v>1.331183430179114</v>
       </c>
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr"/>
@@ -12928,25 +12928,25 @@
       <c r="E278" t="inlineStr"/>
       <c r="F278" t="inlineStr"/>
       <c r="G278" t="n">
-        <v>72.93121279970001</v>
+        <v>72.79331362630001</v>
       </c>
       <c r="H278" t="n">
-        <v>73.2274991857</v>
+        <v>73.0904549923</v>
       </c>
       <c r="I278" t="n">
-        <v>0.3715114350840023</v>
+        <v>0.3712989518343568</v>
       </c>
       <c r="J278" t="n">
-        <v>0.2554831564699178</v>
+        <v>0.2555695317746517</v>
       </c>
       <c r="K278" t="n">
-        <v>0.3730054084460799</v>
+        <v>0.3731315163909915</v>
       </c>
       <c r="L278" t="n">
-        <v>1.487539713698087</v>
+        <v>1.487028371894062</v>
       </c>
       <c r="M278" t="n">
-        <v>1.139454877855833</v>
+        <v>1.139840111714947</v>
       </c>
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr"/>
@@ -13073,25 +13073,25 @@
       <c r="E281" t="inlineStr"/>
       <c r="F281" t="inlineStr"/>
       <c r="G281" t="n">
-        <v>74.8241892188</v>
+        <v>74.693844517</v>
       </c>
       <c r="H281" t="n">
-        <v>72.93121279970001</v>
+        <v>72.79331362630001</v>
       </c>
       <c r="I281" t="n">
-        <v>0.4496291104473702</v>
+        <v>0.4497118592743092</v>
       </c>
       <c r="J281" t="n">
-        <v>0.2237280038831828</v>
+        <v>0.2236943661486548</v>
       </c>
       <c r="K281" t="n">
-        <v>0.3266428856694469</v>
+        <v>0.326593774577036</v>
       </c>
       <c r="L281" t="n">
-        <v>1.675530217011558</v>
+        <v>1.675729352399963</v>
       </c>
       <c r="M281" t="n">
-        <v>0.9978268973189954</v>
+        <v>0.9976768730230003</v>
       </c>
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr"/>
@@ -13165,25 +13165,25 @@
       <c r="E283" t="inlineStr"/>
       <c r="F283" t="inlineStr"/>
       <c r="G283" t="n">
-        <v>75.60425593550001</v>
+        <v>75.47725709149999</v>
       </c>
       <c r="H283" t="n">
-        <v>72.93121279970001</v>
+        <v>72.79331362630001</v>
       </c>
       <c r="I283" t="n">
-        <v>0.4784449368496186</v>
+        <v>0.4786524247910728</v>
       </c>
       <c r="J283" t="n">
-        <v>0.2120142533131632</v>
+        <v>0.2119299086215151</v>
       </c>
       <c r="K283" t="n">
-        <v>0.3095408098372183</v>
+        <v>0.309417666587412</v>
       </c>
       <c r="L283" t="n">
-        <v>1.744875620386074</v>
+        <v>1.745374940960631</v>
       </c>
       <c r="M283" t="n">
-        <v>0.9455835697767079</v>
+        <v>0.9452073924519573</v>
       </c>
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr"/>
@@ -13257,25 +13257,25 @@
       <c r="E285" t="inlineStr"/>
       <c r="F285" t="inlineStr"/>
       <c r="G285" t="n">
-        <v>73.1844927514</v>
+        <v>73.0472709085</v>
       </c>
       <c r="H285" t="n">
-        <v>72.93121279970001</v>
+        <v>72.79331362630001</v>
       </c>
       <c r="I285" t="n">
-        <v>0.3903642432892421</v>
+        <v>0.3902006768993169</v>
       </c>
       <c r="J285" t="n">
-        <v>0.247819413297056</v>
+        <v>0.2478859036994647</v>
       </c>
       <c r="K285" t="n">
-        <v>0.3618163434137018</v>
+        <v>0.3619134194012184</v>
       </c>
       <c r="L285" t="n">
-        <v>1.532909073281428</v>
+        <v>1.532515450099169</v>
       </c>
       <c r="M285" t="n">
-        <v>1.10527458330487</v>
+        <v>1.105571130499612</v>
       </c>
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr"/>
@@ -13296,25 +13296,25 @@
       <c r="E286" t="inlineStr"/>
       <c r="F286" t="inlineStr"/>
       <c r="G286" t="n">
-        <v>72.93121279970001</v>
+        <v>72.79331362630001</v>
       </c>
       <c r="H286" t="n">
-        <v>71.66134089419999</v>
+        <v>71.5179233722</v>
       </c>
       <c r="I286" t="n">
-        <v>0.4250683241783402</v>
+        <v>0.4250684073274187</v>
       </c>
       <c r="J286" t="n">
-        <v>0.2337120633421381</v>
+        <v>0.2337120295416997</v>
       </c>
       <c r="K286" t="n">
-        <v>0.3412196124795217</v>
+        <v>0.3412195631308815</v>
       </c>
       <c r="L286" t="n">
-        <v>1.616424585014542</v>
+        <v>1.616424785113138</v>
       </c>
       <c r="M286" t="n">
-        <v>1.042355802505936</v>
+        <v>1.04235565175598</v>
       </c>
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr"/>
@@ -13388,25 +13388,25 @@
       <c r="E288" t="inlineStr"/>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="n">
-        <v>73.2274991857</v>
+        <v>73.0904549923</v>
       </c>
       <c r="H288" t="n">
-        <v>74.8241892188</v>
+        <v>74.693844517</v>
       </c>
       <c r="I288" t="n">
-        <v>0.3296392614958776</v>
+        <v>0.3292548354435864</v>
       </c>
       <c r="J288" t="n">
-        <v>0.2725043652455782</v>
+        <v>0.2726606359985421</v>
       </c>
       <c r="K288" t="n">
-        <v>0.3978563732585441</v>
+        <v>0.3980845285578715</v>
       </c>
       <c r="L288" t="n">
-        <v>1.386774157746177</v>
+        <v>1.385849034888631</v>
       </c>
       <c r="M288" t="n">
-        <v>1.215369468995279</v>
+        <v>1.216066436553498</v>
       </c>
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr"/>
@@ -13533,25 +13533,25 @@
       <c r="E291" t="inlineStr"/>
       <c r="F291" t="inlineStr"/>
       <c r="G291" t="n">
-        <v>75.60425593550001</v>
+        <v>75.47725709149999</v>
       </c>
       <c r="H291" t="n">
-        <v>73.2274991857</v>
+        <v>73.0904549923</v>
       </c>
       <c r="I291" t="n">
-        <v>0.467894147217378</v>
+        <v>0.4680707556107402</v>
       </c>
       <c r="J291" t="n">
-        <v>0.2163031921880577</v>
+        <v>0.2162314001582357</v>
       </c>
       <c r="K291" t="n">
-        <v>0.3158026605945642</v>
+        <v>0.3156978442310241</v>
       </c>
       <c r="L291" t="n">
-        <v>1.719485102246698</v>
+        <v>1.719910111063245</v>
       </c>
       <c r="M291" t="n">
-        <v>0.9647122371587372</v>
+        <v>0.9643920447057313</v>
       </c>
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr"/>
@@ -13625,25 +13625,25 @@
       <c r="E293" t="inlineStr"/>
       <c r="F293" t="inlineStr"/>
       <c r="G293" t="n">
-        <v>73.1844927514</v>
+        <v>73.0472709085</v>
       </c>
       <c r="H293" t="n">
-        <v>73.2274991857</v>
+        <v>73.0904549923</v>
       </c>
       <c r="I293" t="n">
-        <v>0.3803393698262727</v>
+        <v>0.3801486034942076</v>
       </c>
       <c r="J293" t="n">
-        <v>0.2518945651112713</v>
+        <v>0.2519721124007286</v>
       </c>
       <c r="K293" t="n">
-        <v>0.367766065062456</v>
+        <v>0.3678792841050638</v>
       </c>
       <c r="L293" t="n">
-        <v>1.508784174541274</v>
+        <v>1.508325094587687</v>
       </c>
       <c r="M293" t="n">
-        <v>1.12344976039627</v>
+        <v>1.12379562130725</v>
       </c>
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr"/>
@@ -13664,25 +13664,25 @@
       <c r="E294" t="inlineStr"/>
       <c r="F294" t="inlineStr"/>
       <c r="G294" t="n">
-        <v>73.2274991857</v>
+        <v>73.0904549923</v>
       </c>
       <c r="H294" t="n">
-        <v>71.66134089419999</v>
+        <v>71.5179233722</v>
       </c>
       <c r="I294" t="n">
-        <v>0.4358599405223006</v>
+        <v>0.4358912582611938</v>
       </c>
       <c r="J294" t="n">
-        <v>0.2293252274299591</v>
+        <v>0.2293124966417911</v>
       </c>
       <c r="K294" t="n">
-        <v>0.3348148320477403</v>
+        <v>0.334796245097015</v>
       </c>
       <c r="L294" t="n">
-        <v>1.642394653614642</v>
+        <v>1.642470019880597</v>
       </c>
       <c r="M294" t="n">
-        <v>1.022790514337617</v>
+        <v>1.022733735022388</v>
       </c>
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr"/>
@@ -13703,25 +13703,25 @@
       <c r="E295" t="inlineStr"/>
       <c r="F295" t="inlineStr"/>
       <c r="G295" t="n">
-        <v>71.66134089419999</v>
+        <v>71.5179233722</v>
       </c>
       <c r="H295" t="n">
-        <v>73.2274991857</v>
+        <v>73.0904549923</v>
       </c>
       <c r="I295" t="n">
-        <v>0.3286262560477275</v>
+        <v>0.3282446766443574</v>
       </c>
       <c r="J295" t="n">
-        <v>0.2729161560781596</v>
+        <v>0.2730712696567653</v>
       </c>
       <c r="K295" t="n">
-        <v>0.3984575878741129</v>
+        <v>0.3986840536988773</v>
       </c>
       <c r="L295" t="n">
-        <v>1.384336356017295</v>
+        <v>1.38341808363195</v>
       </c>
       <c r="M295" t="n">
-        <v>1.217206056108592</v>
+        <v>1.217897862669173</v>
       </c>
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr"/>
@@ -13742,25 +13742,25 @@
       <c r="E296" t="inlineStr"/>
       <c r="F296" t="inlineStr"/>
       <c r="G296" t="n">
-        <v>74.8241892188</v>
+        <v>74.693844517</v>
       </c>
       <c r="H296" t="n">
-        <v>75.60425593550001</v>
+        <v>75.47725709149999</v>
       </c>
       <c r="I296" t="n">
-        <v>0.3580052082143503</v>
+        <v>0.3577242102640377</v>
       </c>
       <c r="J296" t="n">
-        <v>0.2609734925957926</v>
+        <v>0.2610877194048627</v>
       </c>
       <c r="K296" t="n">
-        <v>0.3810212991898571</v>
+        <v>0.3811880703310995</v>
       </c>
       <c r="L296" t="n">
-        <v>1.455036923832908</v>
+        <v>1.454360701123213</v>
       </c>
       <c r="M296" t="n">
-        <v>1.163941776977235</v>
+        <v>1.164451228545688</v>
       </c>
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr"/>
@@ -13887,25 +13887,25 @@
       <c r="E299" t="inlineStr"/>
       <c r="F299" t="inlineStr"/>
       <c r="G299" t="n">
-        <v>73.1844927514</v>
+        <v>73.0472709085</v>
       </c>
       <c r="H299" t="n">
-        <v>74.8241892188</v>
+        <v>74.693844517</v>
       </c>
       <c r="I299" t="n">
-        <v>0.3282288615592225</v>
+        <v>0.3278394597615816</v>
       </c>
       <c r="J299" t="n">
-        <v>0.2730776985531616</v>
+        <v>0.2732359919668368</v>
       </c>
       <c r="K299" t="n">
-        <v>0.3986934398876159</v>
+        <v>0.3989245482715816</v>
       </c>
       <c r="L299" t="n">
-        <v>1.383380024565283</v>
+        <v>1.382442927556326</v>
       </c>
       <c r="M299" t="n">
-        <v>1.217926535547101</v>
+        <v>1.218632524172092</v>
       </c>
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr"/>
@@ -13926,25 +13926,25 @@
       <c r="E300" t="inlineStr"/>
       <c r="F300" t="inlineStr"/>
       <c r="G300" t="n">
-        <v>74.8241892188</v>
+        <v>74.693844517</v>
       </c>
       <c r="H300" t="n">
-        <v>71.66134089419999</v>
+        <v>71.5179233722</v>
       </c>
       <c r="I300" t="n">
-        <v>0.4948104164986327</v>
+        <v>0.4950910675863931</v>
       </c>
       <c r="J300" t="n">
-        <v>0.2053616193094989</v>
+        <v>0.2052475335014662</v>
       </c>
       <c r="K300" t="n">
-        <v>0.2998279641918684</v>
+        <v>0.2996613989121407</v>
       </c>
       <c r="L300" t="n">
-        <v>1.784259213687767</v>
+        <v>1.78493460167132</v>
       </c>
       <c r="M300" t="n">
-        <v>0.915912822120365</v>
+        <v>0.9154039994165393</v>
       </c>
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr"/>
@@ -14018,25 +14018,25 @@
       <c r="E302" t="inlineStr"/>
       <c r="F302" t="inlineStr"/>
       <c r="G302" t="n">
-        <v>75.60425593550001</v>
+        <v>75.47725709149999</v>
       </c>
       <c r="H302" t="n">
-        <v>73.1844927514</v>
+        <v>73.0472709085</v>
       </c>
       <c r="I302" t="n">
-        <v>0.4694240553460877</v>
+        <v>0.4696070527505383</v>
       </c>
       <c r="J302" t="n">
-        <v>0.2156812783145985</v>
+        <v>0.2156068891257975</v>
       </c>
       <c r="K302" t="n">
-        <v>0.3148946663393137</v>
+        <v>0.3147860581236643</v>
       </c>
       <c r="L302" t="n">
-        <v>1.723166832377577</v>
+        <v>1.723607216375279</v>
       </c>
       <c r="M302" t="n">
-        <v>0.9619385012831091</v>
+        <v>0.9616067255010567</v>
       </c>
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr"/>
@@ -14163,25 +14163,25 @@
       <c r="E305" t="inlineStr"/>
       <c r="F305" t="inlineStr"/>
       <c r="G305" t="n">
-        <v>71.66134089419999</v>
+        <v>71.5179233722</v>
       </c>
       <c r="H305" t="n">
-        <v>75.60425593550001</v>
+        <v>75.47725709149999</v>
       </c>
       <c r="I305" t="n">
-        <v>0.2757681540340356</v>
+        <v>0.2754872873850652</v>
       </c>
       <c r="J305" t="n">
-        <v>0.3216103410762725</v>
+        <v>0.3223012730327395</v>
       </c>
       <c r="K305" t="n">
-        <v>0.402621504889692</v>
+        <v>0.4022114395821952</v>
       </c>
       <c r="L305" t="n">
-        <v>1.229925966991799</v>
+        <v>1.228673301737391</v>
       </c>
       <c r="M305" t="n">
-        <v>1.367452528118509</v>
+        <v>1.369115258680414</v>
       </c>
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr"/>
@@ -14202,25 +14202,25 @@
       <c r="E306" t="inlineStr"/>
       <c r="F306" t="inlineStr"/>
       <c r="G306" t="n">
-        <v>73.1844927514</v>
+        <v>73.0472709085</v>
       </c>
       <c r="H306" t="n">
-        <v>71.66134089419999</v>
+        <v>71.5179233722</v>
       </c>
       <c r="I306" t="n">
-        <v>0.4342894938060711</v>
+        <v>0.434314301035186</v>
       </c>
       <c r="J306" t="n">
-        <v>0.2299636204040361</v>
+        <v>0.2299535361645585</v>
       </c>
       <c r="K306" t="n">
-        <v>0.3357468857898928</v>
+        <v>0.3357321628002555</v>
       </c>
       <c r="L306" t="n">
-        <v>1.638615367208106</v>
+        <v>1.638675065905814</v>
       </c>
       <c r="M306" t="n">
-        <v>1.025637747002001</v>
+        <v>1.025592771293931</v>
       </c>
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr"/>
@@ -14241,25 +14241,25 @@
       <c r="E307" t="inlineStr"/>
       <c r="F307" t="inlineStr"/>
       <c r="G307" t="n">
-        <v>71.66134089419999</v>
+        <v>71.5179233722</v>
       </c>
       <c r="H307" t="n">
-        <v>73.1844927514</v>
+        <v>73.0472709085</v>
       </c>
       <c r="I307" t="n">
-        <v>0.3299831882290904</v>
+        <v>0.3296064145143391</v>
       </c>
       <c r="J307" t="n">
-        <v>0.2723645576304511</v>
+        <v>0.2725177176770979</v>
       </c>
       <c r="K307" t="n">
-        <v>0.3976522541404585</v>
+        <v>0.3978758678085629</v>
       </c>
       <c r="L307" t="n">
-        <v>1.38760181882773</v>
+        <v>1.38669511135158</v>
       </c>
       <c r="M307" t="n">
-        <v>1.214745927031812</v>
+        <v>1.215429020839857</v>
       </c>
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr"/>

--- a/Sezon/Ekstraklasa2025_26.xlsx
+++ b/Sezon/Ekstraklasa2025_26.xlsx
@@ -526,25 +526,25 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>78.1152817748</v>
+        <v>78.1056291295</v>
       </c>
       <c r="H2" t="n">
-        <v>80.7147350508</v>
+        <v>80.7061902235</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3046739297909349</v>
+        <v>0.3046287196239059</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2826528740687256</v>
+        <v>0.2826712521854041</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4126731961403394</v>
+        <v>0.41270002819069</v>
       </c>
       <c r="L2" t="n">
-        <v>1.326694985513144</v>
+        <v>1.326586187062408</v>
       </c>
       <c r="M2" t="n">
-        <v>1.260631818346516</v>
+        <v>1.260713784746902</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
@@ -671,25 +671,25 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>79.6434051169</v>
+        <v>79.6344023087</v>
       </c>
       <c r="H5" t="n">
-        <v>78.1152817748</v>
+        <v>78.1056291295</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4435534408753876</v>
+        <v>0.4435636563375183</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2261977882620376</v>
+        <v>0.2261936356351552</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3302487708625749</v>
+        <v>0.3302427080273265</v>
       </c>
       <c r="L5" t="n">
-        <v>1.660909093488738</v>
+        <v>1.660933677039881</v>
       </c>
       <c r="M5" t="n">
-        <v>1.008842135648687</v>
+        <v>1.008823614932792</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -763,25 +763,25 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>76.0461790084</v>
+        <v>76.03565305799999</v>
       </c>
       <c r="H7" t="n">
-        <v>78.1152817748</v>
+        <v>78.1056291295</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3183862532493983</v>
+        <v>0.3183461269192686</v>
       </c>
       <c r="J7" t="n">
-        <v>0.277078758841708</v>
+        <v>0.2770950703580209</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4045349879088936</v>
+        <v>0.4045588027227105</v>
       </c>
       <c r="L7" t="n">
-        <v>1.359693747657089</v>
+        <v>1.359597183480516</v>
       </c>
       <c r="M7" t="n">
-        <v>1.235771264434018</v>
+        <v>1.235844013796773</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -802,25 +802,25 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>78.1152817748</v>
+        <v>78.1056291295</v>
       </c>
       <c r="H8" t="n">
-        <v>77.2073524466</v>
+        <v>77.1973156457</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4196807398835293</v>
+        <v>0.4196806720304128</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2359021382587279</v>
+        <v>0.2359021658412956</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3444171218577427</v>
+        <v>0.3444171621282916</v>
       </c>
       <c r="L8" t="n">
-        <v>1.603459341508331</v>
+        <v>1.60345917821953</v>
       </c>
       <c r="M8" t="n">
-        <v>1.052123536633926</v>
+        <v>1.052123659652178</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -947,25 +947,25 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>76.5239745157</v>
+        <v>76.5136495429</v>
       </c>
       <c r="H11" t="n">
-        <v>78.1152817748</v>
+        <v>78.1056291295</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3339861137551036</v>
+        <v>0.3339516261650831</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2707373521320717</v>
+        <v>0.2707513714776086</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3952765341128247</v>
+        <v>0.3952970023573085</v>
       </c>
       <c r="L11" t="n">
-        <v>1.397234875378135</v>
+        <v>1.397151880852558</v>
       </c>
       <c r="M11" t="n">
-        <v>1.20748859050904</v>
+        <v>1.207551116790134</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -1039,25 +1039,25 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>73.3755724322</v>
+        <v>73.36393093540001</v>
       </c>
       <c r="H13" t="n">
-        <v>78.1152817748</v>
+        <v>78.1056291295</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2663757163438717</v>
+        <v>0.2663435170465818</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3447157377940757</v>
+        <v>0.3447949480654088</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3889085458620527</v>
+        <v>0.3888615348880095</v>
       </c>
       <c r="L13" t="n">
-        <v>1.188035694893668</v>
+        <v>1.187892086027755</v>
       </c>
       <c r="M13" t="n">
-        <v>1.42305575924428</v>
+        <v>1.423246379084236</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1078,25 +1078,25 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
-        <v>78.1152817748</v>
+        <v>78.1056291295</v>
       </c>
       <c r="H14" t="n">
-        <v>73.9206940458</v>
+        <v>73.90964547350001</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5362956710863083</v>
+        <v>0.5363315458959853</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1884976946803625</v>
+        <v>0.1884831114243962</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2752066342333293</v>
+        <v>0.2751853426796185</v>
       </c>
       <c r="L14" t="n">
-        <v>1.884093647492254</v>
+        <v>1.884179980367574</v>
       </c>
       <c r="M14" t="n">
-        <v>0.8406997182744168</v>
+        <v>0.8406346769528071</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1223,25 +1223,25 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
-        <v>77.9089917772</v>
+        <v>77.89925171980001</v>
       </c>
       <c r="H17" t="n">
-        <v>78.1152817748</v>
+        <v>78.1056291295</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3812049149549819</v>
+        <v>0.3811888405362596</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2515427174979749</v>
+        <v>0.2515492518145286</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3672523675470433</v>
+        <v>0.3672619076492118</v>
       </c>
       <c r="L17" t="n">
-        <v>1.510867112411989</v>
+        <v>1.510828429257991</v>
       </c>
       <c r="M17" t="n">
-        <v>1.121880520040968</v>
+        <v>1.121909663092798</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1262,25 +1262,25 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
-        <v>78.1152817748</v>
+        <v>78.1056291295</v>
       </c>
       <c r="H18" t="n">
-        <v>74.3462291957</v>
+        <v>74.3349916019</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5211493160458809</v>
+        <v>0.5211920550963106</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1946547495748452</v>
+        <v>0.1946373759771095</v>
       </c>
       <c r="K18" t="n">
-        <v>0.284195934379274</v>
+        <v>0.2841705689265798</v>
       </c>
       <c r="L18" t="n">
-        <v>1.847643882516917</v>
+        <v>1.847746734215512</v>
       </c>
       <c r="M18" t="n">
-        <v>0.8681601831038095</v>
+        <v>0.8680826968579083</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1301,25 +1301,25 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
-        <v>74.3462291957</v>
+        <v>74.3349916019</v>
       </c>
       <c r="H19" t="n">
-        <v>78.1152817748</v>
+        <v>78.1056291295</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2793058554864293</v>
+        <v>0.2792804534099014</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3129075955033839</v>
+        <v>0.3129700846116425</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4077865490101868</v>
+        <v>0.4077494619784561</v>
       </c>
       <c r="L19" t="n">
-        <v>1.245704115469475</v>
+        <v>1.24559082220816</v>
       </c>
       <c r="M19" t="n">
-        <v>1.346509335520338</v>
+        <v>1.346659715813384</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1393,25 +1393,25 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
-        <v>75.15952321419999</v>
+        <v>75.14862541559999</v>
       </c>
       <c r="H21" t="n">
-        <v>78.1152817748</v>
+        <v>78.1056291295</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2905056344991137</v>
+        <v>0.2904561387172426</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2884123436995473</v>
+        <v>0.2884324639360802</v>
       </c>
       <c r="K21" t="n">
-        <v>0.421082021801339</v>
+        <v>0.4211113973466772</v>
       </c>
       <c r="L21" t="n">
-        <v>1.29259892529868</v>
+        <v>1.292479813498405</v>
       </c>
       <c r="M21" t="n">
-        <v>1.286319052899981</v>
+        <v>1.286408789154918</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1432,25 +1432,25 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="n">
-        <v>78.1152817748</v>
+        <v>78.1056291295</v>
       </c>
       <c r="H22" t="n">
-        <v>74.96532166999999</v>
+        <v>74.9543426211</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4990514985014148</v>
+        <v>0.4990850804486507</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2036376022351973</v>
+        <v>0.2036239510371338</v>
       </c>
       <c r="K22" t="n">
-        <v>0.297310899263388</v>
+        <v>0.2972909685142154</v>
       </c>
       <c r="L22" t="n">
-        <v>1.794465394767632</v>
+        <v>1.794546209860167</v>
       </c>
       <c r="M22" t="n">
-        <v>0.9082237059689797</v>
+        <v>0.908162821625617</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1471,25 +1471,25 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
-        <v>74.96532166999999</v>
+        <v>74.9543426211</v>
       </c>
       <c r="H23" t="n">
-        <v>78.1152817748</v>
+        <v>78.1056291295</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2872031087002659</v>
+        <v>0.2871818480473998</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2934803525973456</v>
+        <v>0.2935326538033965</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4193165387023883</v>
+        <v>0.4192854981492037</v>
       </c>
       <c r="L23" t="n">
-        <v>1.280925864803186</v>
+        <v>1.280831042291403</v>
       </c>
       <c r="M23" t="n">
-        <v>1.299757596494425</v>
+        <v>1.299883459559393</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -1563,25 +1563,25 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="n">
-        <v>72.79331362630001</v>
+        <v>72.7814307125</v>
       </c>
       <c r="H25" t="n">
-        <v>78.1152817748</v>
+        <v>78.1056291295</v>
       </c>
       <c r="I25" t="n">
-        <v>0.258329231481614</v>
+        <v>0.2582928341960129</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3645100905552296</v>
+        <v>0.3645996278778082</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3771606779631564</v>
+        <v>0.3771075379261788</v>
       </c>
       <c r="L25" t="n">
-        <v>1.152148372407998</v>
+        <v>1.151986040514217</v>
       </c>
       <c r="M25" t="n">
-        <v>1.470690949628845</v>
+        <v>1.470906421559603</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -1602,25 +1602,25 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="n">
-        <v>78.1152817748</v>
+        <v>78.1056291295</v>
       </c>
       <c r="H26" t="n">
-        <v>73.0904549923</v>
+        <v>73.0786951976</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5656301566379826</v>
+        <v>0.5656905624938092</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1765731070577307</v>
+        <v>0.1765485518317849</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2577967363042868</v>
+        <v>0.2577608856744059</v>
       </c>
       <c r="L26" t="n">
-        <v>1.954687206218234</v>
+        <v>1.954832573155834</v>
       </c>
       <c r="M26" t="n">
-        <v>0.7875160574774788</v>
+        <v>0.7874065411697605</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -1747,25 +1747,25 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="n">
-        <v>74.693844517</v>
+        <v>74.6831184939</v>
       </c>
       <c r="H29" t="n">
-        <v>78.1152817748</v>
+        <v>78.1056291295</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2837753512195487</v>
+        <v>0.283756961827561</v>
       </c>
       <c r="J29" t="n">
-        <v>0.3019126359999103</v>
+        <v>0.3019578739041999</v>
       </c>
       <c r="K29" t="n">
-        <v>0.4143120127805411</v>
+        <v>0.4142851642682391</v>
       </c>
       <c r="L29" t="n">
-        <v>1.265638066439187</v>
+        <v>1.265556049750922</v>
       </c>
       <c r="M29" t="n">
-        <v>1.320049920780272</v>
+        <v>1.320158785980839</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -1786,25 +1786,25 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="n">
-        <v>78.1152817748</v>
+        <v>78.1056291295</v>
       </c>
       <c r="H30" t="n">
-        <v>75.47725709149999</v>
+        <v>75.466492378</v>
       </c>
       <c r="I30" t="n">
-        <v>0.4807775681598676</v>
+        <v>0.4808034571189587</v>
       </c>
       <c r="J30" t="n">
-        <v>0.2110660292033059</v>
+        <v>0.2110555052361957</v>
       </c>
       <c r="K30" t="n">
-        <v>0.3081564026368265</v>
+        <v>0.3081410376448456</v>
       </c>
       <c r="L30" t="n">
-        <v>1.750489107116429</v>
+        <v>1.750551409001722</v>
       </c>
       <c r="M30" t="n">
-        <v>0.9413544902467441</v>
+        <v>0.9413075533534325</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -1825,25 +1825,25 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="n">
-        <v>75.47725709149999</v>
+        <v>75.466492378</v>
       </c>
       <c r="H31" t="n">
-        <v>78.1152817748</v>
+        <v>78.1056291295</v>
       </c>
       <c r="I31" t="n">
-        <v>0.3003307392822075</v>
+        <v>0.3002844324866727</v>
       </c>
       <c r="J31" t="n">
-        <v>0.2844183986657693</v>
+        <v>0.2844372225663932</v>
       </c>
       <c r="K31" t="n">
-        <v>0.4152508620520232</v>
+        <v>0.4152783449469341</v>
       </c>
       <c r="L31" t="n">
-        <v>1.316243079898646</v>
+        <v>1.316131642406952</v>
       </c>
       <c r="M31" t="n">
-        <v>1.268506058049331</v>
+        <v>1.268590012646114</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -1864,25 +1864,25 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="n">
-        <v>78.1152817748</v>
+        <v>78.1056291295</v>
       </c>
       <c r="H32" t="n">
-        <v>73.0472709085</v>
+        <v>73.0354932101</v>
       </c>
       <c r="I32" t="n">
-        <v>0.5671452545948306</v>
+        <v>0.5672062388349763</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1759572135793372</v>
+        <v>0.1759324232378145</v>
       </c>
       <c r="K32" t="n">
-        <v>0.2568975318258322</v>
+        <v>0.2568613379272092</v>
       </c>
       <c r="L32" t="n">
-        <v>1.958333295610324</v>
+        <v>1.958480054432138</v>
       </c>
       <c r="M32" t="n">
-        <v>0.7847691725638437</v>
+        <v>0.7846586076406528</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -1956,25 +1956,25 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="n">
-        <v>78.1152817748</v>
+        <v>78.1056291295</v>
       </c>
       <c r="H34" t="n">
-        <v>71.5179233722</v>
+        <v>71.5055139725</v>
       </c>
       <c r="I34" t="n">
-        <v>0.6197981254822114</v>
+        <v>0.6198779278963833</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1545536075275564</v>
+        <v>0.1545211675217954</v>
       </c>
       <c r="K34" t="n">
-        <v>0.2256482669902323</v>
+        <v>0.2256009045818212</v>
       </c>
       <c r="L34" t="n">
-        <v>2.085042643436867</v>
+        <v>2.085234688270971</v>
       </c>
       <c r="M34" t="n">
-        <v>0.6893090895729014</v>
+        <v>0.6891644071472074</v>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
@@ -2048,25 +2048,25 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="n">
-        <v>80.7147350508</v>
+        <v>80.7061902235</v>
       </c>
       <c r="H36" t="n">
-        <v>79.6434051169</v>
+        <v>79.6344023087</v>
       </c>
       <c r="I36" t="n">
-        <v>0.4290110554346587</v>
+        <v>0.4290151213582556</v>
       </c>
       <c r="J36" t="n">
-        <v>0.2321093270590818</v>
+        <v>0.2321076742446116</v>
       </c>
       <c r="K36" t="n">
-        <v>0.3388796175062594</v>
+        <v>0.3388772043971329</v>
       </c>
       <c r="L36" t="n">
-        <v>1.625912783810236</v>
+        <v>1.6259225684719</v>
       </c>
       <c r="M36" t="n">
-        <v>1.035207598683505</v>
+        <v>1.035200227130968</v>
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
@@ -2140,25 +2140,25 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="n">
-        <v>80.7147350508</v>
+        <v>80.7061902235</v>
       </c>
       <c r="H38" t="n">
-        <v>76.0461790084</v>
+        <v>76.03565305799999</v>
       </c>
       <c r="I38" t="n">
-        <v>0.5567549167764815</v>
+        <v>0.5568127091541278</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1801809281396417</v>
+        <v>0.1801574353032001</v>
       </c>
       <c r="K38" t="n">
-        <v>0.2630641550838768</v>
+        <v>0.2630298555426721</v>
       </c>
       <c r="L38" t="n">
-        <v>1.933328905413321</v>
+        <v>1.933467983005056</v>
       </c>
       <c r="M38" t="n">
-        <v>0.8036069395028018</v>
+        <v>0.8035021614522723</v>
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
@@ -2285,25 +2285,25 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="n">
-        <v>77.2073524466</v>
+        <v>77.1973156457</v>
       </c>
       <c r="H41" t="n">
-        <v>80.7147350508</v>
+        <v>80.7061902235</v>
       </c>
       <c r="I41" t="n">
-        <v>0.2839539101850068</v>
+        <v>0.2839307535769564</v>
       </c>
       <c r="J41" t="n">
-        <v>0.3014733809448835</v>
+        <v>0.3015303462006875</v>
       </c>
       <c r="K41" t="n">
-        <v>0.4145727088701098</v>
+        <v>0.4145389002223562</v>
       </c>
       <c r="L41" t="n">
-        <v>1.26643443942513</v>
+        <v>1.266331160953225</v>
       </c>
       <c r="M41" t="n">
-        <v>1.31899285170476</v>
+        <v>1.319129938824419</v>
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
@@ -2324,25 +2324,25 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="n">
-        <v>80.7147350508</v>
+        <v>80.7061902235</v>
       </c>
       <c r="H42" t="n">
-        <v>76.5239745157</v>
+        <v>76.5136495429</v>
       </c>
       <c r="I42" t="n">
-        <v>0.5398517349145919</v>
+        <v>0.5399027778917407</v>
       </c>
       <c r="J42" t="n">
-        <v>0.1870521402786212</v>
+        <v>0.1870313911009184</v>
       </c>
       <c r="K42" t="n">
-        <v>0.2730961248067869</v>
+        <v>0.2730658310073409</v>
       </c>
       <c r="L42" t="n">
-        <v>1.892651329550563</v>
+        <v>1.892774164682563</v>
       </c>
       <c r="M42" t="n">
-        <v>0.8342525456426504</v>
+        <v>0.8341600043100961</v>
       </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
@@ -2469,25 +2469,25 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="n">
-        <v>73.3755724322</v>
+        <v>73.36393093540001</v>
       </c>
       <c r="H45" t="n">
-        <v>80.7147350508</v>
+        <v>80.7061902235</v>
       </c>
       <c r="I45" t="n">
-        <v>0.2306252141562025</v>
+        <v>0.2305744325517191</v>
       </c>
       <c r="J45" t="n">
-        <v>0.4326619731757418</v>
+        <v>0.4327868959227711</v>
       </c>
       <c r="K45" t="n">
-        <v>0.3367128126680556</v>
+        <v>0.3366386715255099</v>
       </c>
       <c r="L45" t="n">
-        <v>1.028588455136663</v>
+        <v>1.028361969180667</v>
       </c>
       <c r="M45" t="n">
-        <v>1.634698732195281</v>
+        <v>1.634999359293823</v>
       </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
@@ -2508,25 +2508,25 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="n">
-        <v>80.7147350508</v>
+        <v>80.7061902235</v>
       </c>
       <c r="H46" t="n">
-        <v>73.9206940458</v>
+        <v>73.90964547350001</v>
       </c>
       <c r="I46" t="n">
-        <v>0.6298662326227401</v>
+        <v>0.6299382334689435</v>
       </c>
       <c r="J46" t="n">
-        <v>0.1504608810476666</v>
+        <v>0.1504316124109986</v>
       </c>
       <c r="K46" t="n">
-        <v>0.2196728863295933</v>
+        <v>0.2196301541200579</v>
       </c>
       <c r="L46" t="n">
-        <v>2.109271584197814</v>
+        <v>2.109444854526889</v>
       </c>
       <c r="M46" t="n">
-        <v>0.6710555294725931</v>
+        <v>0.6709249913530537</v>
       </c>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
@@ -2653,25 +2653,25 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="n">
-        <v>77.9089917772</v>
+        <v>77.89925171980001</v>
       </c>
       <c r="H49" t="n">
-        <v>80.7147350508</v>
+        <v>80.7061902235</v>
       </c>
       <c r="I49" t="n">
-        <v>0.2982201918217424</v>
+        <v>0.2981728109145176</v>
       </c>
       <c r="J49" t="n">
-        <v>0.2852763447879096</v>
+        <v>0.2852956053193018</v>
       </c>
       <c r="K49" t="n">
-        <v>0.416503463390348</v>
+        <v>0.4165315837661805</v>
       </c>
       <c r="L49" t="n">
-        <v>1.311164038855575</v>
+        <v>1.311050016509733</v>
       </c>
       <c r="M49" t="n">
-        <v>1.272332497754077</v>
+        <v>1.272418399724086</v>
       </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
@@ -2692,25 +2692,25 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="n">
-        <v>80.7147350508</v>
+        <v>80.7061902235</v>
       </c>
       <c r="H50" t="n">
-        <v>74.3462291957</v>
+        <v>74.3349916019</v>
       </c>
       <c r="I50" t="n">
-        <v>0.615585454634853</v>
+        <v>0.6156649278851966</v>
       </c>
       <c r="J50" t="n">
-        <v>0.1562660753516858</v>
+        <v>0.1562337691523591</v>
       </c>
       <c r="K50" t="n">
-        <v>0.2281484700134612</v>
+        <v>0.2281013029624443</v>
       </c>
       <c r="L50" t="n">
-        <v>2.07490483391802</v>
+        <v>2.075096086618034</v>
       </c>
       <c r="M50" t="n">
-        <v>0.6969466960685187</v>
+        <v>0.6968026104195217</v>
       </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
@@ -2731,25 +2731,25 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="n">
-        <v>74.3462291957</v>
+        <v>74.3349916019</v>
       </c>
       <c r="H51" t="n">
-        <v>80.7147350508</v>
+        <v>80.7061902235</v>
       </c>
       <c r="I51" t="n">
-        <v>0.2448522655337837</v>
+        <v>0.2448085550900511</v>
       </c>
       <c r="J51" t="n">
-        <v>0.397663426786892</v>
+        <v>0.3977709544784742</v>
       </c>
       <c r="K51" t="n">
-        <v>0.3574843076793243</v>
+        <v>0.3574204904314747</v>
       </c>
       <c r="L51" t="n">
-        <v>1.092041104280675</v>
+        <v>1.091846155701628</v>
       </c>
       <c r="M51" t="n">
-        <v>1.55047458804</v>
+        <v>1.550733353866897</v>
       </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
@@ -2770,25 +2770,25 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="n">
-        <v>80.7147350508</v>
+        <v>80.7061902235</v>
       </c>
       <c r="H52" t="n">
-        <v>75.15952321419999</v>
+        <v>75.14862541559999</v>
       </c>
       <c r="I52" t="n">
-        <v>0.5877489514348123</v>
+        <v>0.5878185652113114</v>
       </c>
       <c r="J52" t="n">
-        <v>0.1675817270590194</v>
+        <v>0.1675534287758897</v>
       </c>
       <c r="K52" t="n">
-        <v>0.2446693215061682</v>
+        <v>0.244628006012799</v>
       </c>
       <c r="L52" t="n">
-        <v>2.007916175810605</v>
+        <v>2.008083701646733</v>
       </c>
       <c r="M52" t="n">
-        <v>0.7474145026832263</v>
+        <v>0.7472882923404681</v>
       </c>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
@@ -2862,25 +2862,25 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="n">
-        <v>80.7147350508</v>
+        <v>80.7061902235</v>
       </c>
       <c r="H54" t="n">
-        <v>74.96532166999999</v>
+        <v>74.9543426211</v>
       </c>
       <c r="I54" t="n">
-        <v>0.5944543486723051</v>
+        <v>0.5945264093895731</v>
       </c>
       <c r="J54" t="n">
-        <v>0.1648559558242662</v>
+        <v>0.164826662849767</v>
       </c>
       <c r="K54" t="n">
-        <v>0.2406896955034286</v>
+        <v>0.2406469277606598</v>
       </c>
       <c r="L54" t="n">
-        <v>2.024052741520344</v>
+        <v>2.024226155929379</v>
       </c>
       <c r="M54" t="n">
-        <v>0.7352575629762272</v>
+        <v>0.7351269163099607</v>
       </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
@@ -2954,25 +2954,25 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="n">
-        <v>80.7147350508</v>
+        <v>80.7061902235</v>
       </c>
       <c r="H56" t="n">
-        <v>72.79331362630001</v>
+        <v>72.7814307125</v>
       </c>
       <c r="I56" t="n">
-        <v>0.6665666945065019</v>
+        <v>0.6666618224081298</v>
       </c>
       <c r="J56" t="n">
-        <v>0.135541994103048</v>
+        <v>0.1355033242243375</v>
       </c>
       <c r="K56" t="n">
-        <v>0.1978913113904501</v>
+        <v>0.1978348533675327</v>
       </c>
       <c r="L56" t="n">
-        <v>2.197591394909955</v>
+        <v>2.197820320591922</v>
       </c>
       <c r="M56" t="n">
-        <v>0.6045172936995943</v>
+        <v>0.6043448260405452</v>
       </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
@@ -3099,25 +3099,25 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="n">
-        <v>73.0904549923</v>
+        <v>73.0786951976</v>
       </c>
       <c r="H59" t="n">
-        <v>80.7147350508</v>
+        <v>80.7061902235</v>
       </c>
       <c r="I59" t="n">
-        <v>0.2263869301752122</v>
+        <v>0.2263341177303895</v>
       </c>
       <c r="J59" t="n">
-        <v>0.4430881517689778</v>
+        <v>0.4432180703832419</v>
       </c>
       <c r="K59" t="n">
-        <v>0.3305249180558099</v>
+        <v>0.3304478118863686</v>
       </c>
       <c r="L59" t="n">
-        <v>1.009685708581447</v>
+        <v>1.009450165077537</v>
       </c>
       <c r="M59" t="n">
-        <v>1.659789373362743</v>
+        <v>1.660102023036095</v>
       </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
@@ -3138,25 +3138,25 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="n">
-        <v>80.7147350508</v>
+        <v>80.7061902235</v>
       </c>
       <c r="H60" t="n">
-        <v>74.693844517</v>
+        <v>74.6831184939</v>
       </c>
       <c r="I60" t="n">
-        <v>0.6037686714548343</v>
+        <v>0.6038315331838485</v>
       </c>
       <c r="J60" t="n">
-        <v>0.1610696457500674</v>
+        <v>0.1610440922016876</v>
       </c>
       <c r="K60" t="n">
-        <v>0.2351616827950984</v>
+        <v>0.2351243746144639</v>
       </c>
       <c r="L60" t="n">
-        <v>2.046467697159601</v>
+        <v>2.046618974166009</v>
       </c>
       <c r="M60" t="n">
-        <v>0.7183706200453006</v>
+        <v>0.7182566512195268</v>
       </c>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
@@ -3177,25 +3177,25 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="n">
-        <v>74.693844517</v>
+        <v>74.6831184939</v>
       </c>
       <c r="H61" t="n">
-        <v>80.7147350508</v>
+        <v>80.7061902235</v>
       </c>
       <c r="I61" t="n">
-        <v>0.2498534015807064</v>
+        <v>0.2498174967380201</v>
       </c>
       <c r="J61" t="n">
-        <v>0.3853606321114621</v>
+        <v>0.3854489580244705</v>
       </c>
       <c r="K61" t="n">
-        <v>0.3647859663078314</v>
+        <v>0.3647335452375094</v>
       </c>
       <c r="L61" t="n">
-        <v>1.114346171049951</v>
+        <v>1.11418603545157</v>
       </c>
       <c r="M61" t="n">
-        <v>1.520867862642218</v>
+        <v>1.521080419310921</v>
       </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
@@ -3269,25 +3269,25 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="n">
-        <v>75.47725709149999</v>
+        <v>75.466492378</v>
       </c>
       <c r="H63" t="n">
-        <v>80.7147350508</v>
+        <v>80.7061902235</v>
       </c>
       <c r="I63" t="n">
-        <v>0.2609002511317493</v>
+        <v>0.260864865145834</v>
       </c>
       <c r="J63" t="n">
-        <v>0.358185382215897</v>
+        <v>0.3582724317412481</v>
       </c>
       <c r="K63" t="n">
-        <v>0.3809143666523538</v>
+        <v>0.3808627031129178</v>
       </c>
       <c r="L63" t="n">
-        <v>1.163615120047601</v>
+        <v>1.16345729855042</v>
       </c>
       <c r="M63" t="n">
-        <v>1.455470513300045</v>
+        <v>1.455679998336662</v>
       </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
@@ -3308,25 +3308,25 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="n">
-        <v>80.7147350508</v>
+        <v>80.7061902235</v>
       </c>
       <c r="H64" t="n">
-        <v>73.0472709085</v>
+        <v>73.0354932101</v>
       </c>
       <c r="I64" t="n">
-        <v>0.6584552221988217</v>
+        <v>0.6585480989977651</v>
       </c>
       <c r="J64" t="n">
-        <v>0.1388393405695847</v>
+        <v>0.1388015857732662</v>
       </c>
       <c r="K64" t="n">
-        <v>0.2027054372315936</v>
+        <v>0.2026503152289686</v>
       </c>
       <c r="L64" t="n">
-        <v>2.178071103828059</v>
+        <v>2.178294612222264</v>
       </c>
       <c r="M64" t="n">
-        <v>0.6192234589403477</v>
+        <v>0.6190550725487671</v>
       </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
@@ -3347,25 +3347,25 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="n">
-        <v>73.0472709085</v>
+        <v>73.0354932101</v>
       </c>
       <c r="H65" t="n">
-        <v>80.7147350508</v>
+        <v>80.7061902235</v>
       </c>
       <c r="I65" t="n">
-        <v>0.2257431203286815</v>
+        <v>0.2256900028542107</v>
       </c>
       <c r="J65" t="n">
-        <v>0.4446719239914434</v>
+        <v>0.4448025929786419</v>
       </c>
       <c r="K65" t="n">
-        <v>0.3295849556798751</v>
+        <v>0.3295074041671475</v>
       </c>
       <c r="L65" t="n">
-        <v>1.00681431666592</v>
+        <v>1.00657741272978</v>
       </c>
       <c r="M65" t="n">
-        <v>1.663600727654205</v>
+        <v>1.663915183103073</v>
       </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
@@ -3386,25 +3386,25 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="n">
-        <v>80.7147350508</v>
+        <v>80.7061902235</v>
       </c>
       <c r="H66" t="n">
-        <v>71.5179233722</v>
+        <v>71.5055139725</v>
       </c>
       <c r="I66" t="n">
-        <v>0.7057634205664455</v>
+        <v>0.7058679162200039</v>
       </c>
       <c r="J66" t="n">
-        <v>0.1196083656233962</v>
+        <v>0.1195658877154455</v>
       </c>
       <c r="K66" t="n">
-        <v>0.1746282138101584</v>
+        <v>0.1745661960645505</v>
       </c>
       <c r="L66" t="n">
-        <v>2.291918475509495</v>
+        <v>2.292169944724562</v>
       </c>
       <c r="M66" t="n">
-        <v>0.533453310680347</v>
+        <v>0.5332638592108871</v>
       </c>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
@@ -3478,25 +3478,25 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="n">
-        <v>79.6434051169</v>
+        <v>79.6344023087</v>
       </c>
       <c r="H68" t="n">
-        <v>76.0461790084</v>
+        <v>76.03565305799999</v>
       </c>
       <c r="I68" t="n">
-        <v>0.5172015253300372</v>
+        <v>0.5172430128308304</v>
       </c>
       <c r="J68" t="n">
-        <v>0.1962595425487654</v>
+        <v>0.1962426777110446</v>
       </c>
       <c r="K68" t="n">
-        <v>0.2865389321211975</v>
+        <v>0.2865143094581251</v>
       </c>
       <c r="L68" t="n">
-        <v>1.838143508111309</v>
+        <v>1.838243347950616</v>
       </c>
       <c r="M68" t="n">
-        <v>0.8753175597674936</v>
+        <v>0.8752423425912588</v>
       </c>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
@@ -3570,25 +3570,25 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="n">
-        <v>79.6434051169</v>
+        <v>79.6344023087</v>
       </c>
       <c r="H70" t="n">
-        <v>77.2073524466</v>
+        <v>77.1973156457</v>
       </c>
       <c r="I70" t="n">
-        <v>0.4757568613485872</v>
+        <v>0.4757808719808119</v>
       </c>
       <c r="J70" t="n">
-        <v>0.2131069669314686</v>
+        <v>0.2130972065118651</v>
       </c>
       <c r="K70" t="n">
-        <v>0.3111361717199441</v>
+        <v>0.311121921507323</v>
       </c>
       <c r="L70" t="n">
-        <v>1.738406755765706</v>
+        <v>1.738464537449759</v>
       </c>
       <c r="M70" t="n">
-        <v>0.95045707251435</v>
+        <v>0.9504135410429184</v>
       </c>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
@@ -3715,25 +3715,25 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="n">
-        <v>76.5239745157</v>
+        <v>76.5136495429</v>
       </c>
       <c r="H73" t="n">
-        <v>79.6434051169</v>
+        <v>79.6344023087</v>
       </c>
       <c r="I73" t="n">
-        <v>0.2883183712264476</v>
+        <v>0.2882975916244627</v>
       </c>
       <c r="J73" t="n">
-        <v>0.290736806782939</v>
+        <v>0.2907879246038219</v>
       </c>
       <c r="K73" t="n">
-        <v>0.4209448219906134</v>
+        <v>0.4209144837717155</v>
       </c>
       <c r="L73" t="n">
-        <v>1.285899935669956</v>
+        <v>1.285807258645103</v>
       </c>
       <c r="M73" t="n">
-        <v>1.29315524233943</v>
+        <v>1.293278257583181</v>
       </c>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
@@ -3754,25 +3754,25 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="n">
-        <v>79.6434051169</v>
+        <v>79.6344023087</v>
       </c>
       <c r="H74" t="n">
-        <v>73.3755724322</v>
+        <v>73.36393093540001</v>
       </c>
       <c r="I74" t="n">
-        <v>0.6107220877054566</v>
+        <v>0.6107994720777459</v>
       </c>
       <c r="J74" t="n">
-        <v>0.1582430537782697</v>
+        <v>0.1582115967163635</v>
       </c>
       <c r="K74" t="n">
-        <v>0.2310348585162738</v>
+        <v>0.2309889312058906</v>
       </c>
       <c r="L74" t="n">
-        <v>2.063201121632643</v>
+        <v>2.063387347439128</v>
       </c>
       <c r="M74" t="n">
-        <v>0.7057640198510828</v>
+        <v>0.705623721354981</v>
       </c>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
@@ -3793,25 +3793,25 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="n">
-        <v>73.3755724322</v>
+        <v>73.36393093540001</v>
       </c>
       <c r="H75" t="n">
-        <v>79.6434051169</v>
+        <v>79.6344023087</v>
       </c>
       <c r="I75" t="n">
-        <v>0.245711762504972</v>
+        <v>0.2456686583787981</v>
       </c>
       <c r="J75" t="n">
-        <v>0.3955490642377689</v>
+        <v>0.3956551003881567</v>
       </c>
       <c r="K75" t="n">
-        <v>0.3587391732572591</v>
+        <v>0.3586762412330452</v>
       </c>
       <c r="L75" t="n">
-        <v>1.095874460772175</v>
+        <v>1.09568221636944</v>
       </c>
       <c r="M75" t="n">
-        <v>1.545386365970566</v>
+        <v>1.545641542397515</v>
       </c>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
@@ -3832,25 +3832,25 @@
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="n">
-        <v>79.6434051169</v>
+        <v>79.6344023087</v>
       </c>
       <c r="H76" t="n">
-        <v>73.9206940458</v>
+        <v>73.90964547350001</v>
       </c>
       <c r="I76" t="n">
-        <v>0.5920566425170349</v>
+        <v>0.59211480237215</v>
       </c>
       <c r="J76" t="n">
-        <v>0.1658306331231565</v>
+        <v>0.1658069909056301</v>
       </c>
       <c r="K76" t="n">
-        <v>0.2421127243598085</v>
+        <v>0.24207820672222</v>
       </c>
       <c r="L76" t="n">
-        <v>2.018282651910913</v>
+        <v>2.01842261383867</v>
       </c>
       <c r="M76" t="n">
-        <v>0.7396046237292782</v>
+        <v>0.7394991794391104</v>
       </c>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
@@ -3871,25 +3871,25 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="n">
-        <v>73.9206940458</v>
+        <v>73.90964547350001</v>
       </c>
       <c r="H77" t="n">
-        <v>79.6434051169</v>
+        <v>79.6344023087</v>
       </c>
       <c r="I77" t="n">
-        <v>0.2535129599651172</v>
+        <v>0.2534790504390017</v>
       </c>
       <c r="J77" t="n">
-        <v>0.3763581184858118</v>
+        <v>0.376441535920056</v>
       </c>
       <c r="K77" t="n">
-        <v>0.3701289215490711</v>
+        <v>0.3700794136409423</v>
       </c>
       <c r="L77" t="n">
-        <v>1.130667801444423</v>
+        <v>1.130516564957947</v>
       </c>
       <c r="M77" t="n">
-        <v>1.499203277006506</v>
+        <v>1.49940402140111</v>
       </c>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
@@ -3910,25 +3910,25 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="n">
-        <v>79.6434051169</v>
+        <v>79.6344023087</v>
       </c>
       <c r="H78" t="n">
-        <v>77.9089917772</v>
+        <v>77.89925171980001</v>
       </c>
       <c r="I78" t="n">
-        <v>0.4508386345910501</v>
+        <v>0.450851973589031</v>
       </c>
       <c r="J78" t="n">
-        <v>0.2232363274020122</v>
+        <v>0.2232309050451094</v>
       </c>
       <c r="K78" t="n">
-        <v>0.3259250380069378</v>
+        <v>0.3259171213658597</v>
       </c>
       <c r="L78" t="n">
-        <v>1.678440941780088</v>
+        <v>1.678473042132953</v>
       </c>
       <c r="M78" t="n">
-        <v>0.9956340202129743</v>
+        <v>0.9956098365011878</v>
       </c>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
@@ -4002,25 +4002,25 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="n">
-        <v>79.6434051169</v>
+        <v>79.6344023087</v>
       </c>
       <c r="H80" t="n">
-        <v>74.3462291957</v>
+        <v>74.3349916019</v>
       </c>
       <c r="I80" t="n">
-        <v>0.577296067530175</v>
+        <v>0.5773614187114323</v>
       </c>
       <c r="J80" t="n">
-        <v>0.1718308668576524</v>
+        <v>0.1718043013368161</v>
       </c>
       <c r="K80" t="n">
-        <v>0.2508730656121726</v>
+        <v>0.2508342799517515</v>
       </c>
       <c r="L80" t="n">
-        <v>1.982761268202698</v>
+        <v>1.982918536086048</v>
       </c>
       <c r="M80" t="n">
-        <v>0.7663656661851299</v>
+        <v>0.7662471839621998</v>
       </c>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
@@ -4147,25 +4147,25 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="n">
-        <v>75.15952321419999</v>
+        <v>75.14862541559999</v>
       </c>
       <c r="H83" t="n">
-        <v>79.6434051169</v>
+        <v>79.6344023087</v>
       </c>
       <c r="I83" t="n">
-        <v>0.2706359405258704</v>
+        <v>0.2706058182233901</v>
       </c>
       <c r="J83" t="n">
-        <v>0.3342355863063588</v>
+        <v>0.3343096871704606</v>
       </c>
       <c r="K83" t="n">
-        <v>0.3951284731677708</v>
+        <v>0.3950844946061495</v>
       </c>
       <c r="L83" t="n">
-        <v>1.207036294745382</v>
+        <v>1.20690194927632</v>
       </c>
       <c r="M83" t="n">
-        <v>1.397835232086847</v>
+        <v>1.398013556117531</v>
       </c>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
@@ -4186,25 +4186,25 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="n">
-        <v>79.6434051169</v>
+        <v>79.6344023087</v>
       </c>
       <c r="H84" t="n">
-        <v>74.96532166999999</v>
+        <v>74.9543426211</v>
       </c>
       <c r="I84" t="n">
-        <v>0.5555797297720767</v>
+        <v>0.5556367347118454</v>
       </c>
       <c r="J84" t="n">
-        <v>0.1806586464341152</v>
+        <v>0.1806354736943718</v>
       </c>
       <c r="K84" t="n">
-        <v>0.2637616237938082</v>
+        <v>0.2637277915937828</v>
       </c>
       <c r="L84" t="n">
-        <v>1.930500813110038</v>
+        <v>1.930637995729319</v>
       </c>
       <c r="M84" t="n">
-        <v>0.8057375630961537</v>
+        <v>0.8056342126768983</v>
       </c>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
@@ -4331,25 +4331,25 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="n">
-        <v>72.79331362630001</v>
+        <v>72.7814307125</v>
       </c>
       <c r="H87" t="n">
-        <v>79.6434051169</v>
+        <v>79.6344023087</v>
       </c>
       <c r="I87" t="n">
-        <v>0.2372327261698945</v>
+        <v>0.2371853718441312</v>
       </c>
       <c r="J87" t="n">
-        <v>0.4164074936220595</v>
+        <v>0.4165239852634371</v>
       </c>
       <c r="K87" t="n">
-        <v>0.346359780208046</v>
+        <v>0.3462906428924316</v>
       </c>
       <c r="L87" t="n">
-        <v>1.058057958717729</v>
+        <v>1.057846758424825</v>
       </c>
       <c r="M87" t="n">
-        <v>1.595582261074225</v>
+        <v>1.595862598682743</v>
       </c>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
@@ -4423,25 +4423,25 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="n">
-        <v>73.0904549923</v>
+        <v>73.0786951976</v>
       </c>
       <c r="H89" t="n">
-        <v>79.6434051169</v>
+        <v>79.6344023087</v>
       </c>
       <c r="I89" t="n">
-        <v>0.241577043511592</v>
+        <v>0.2415318523724714</v>
       </c>
       <c r="J89" t="n">
-        <v>0.4057204729614838</v>
+        <v>0.4058316431637204</v>
       </c>
       <c r="K89" t="n">
-        <v>0.3527024835269243</v>
+        <v>0.3526365044638082</v>
       </c>
       <c r="L89" t="n">
-        <v>1.0774336140617</v>
+        <v>1.077232061581222</v>
       </c>
       <c r="M89" t="n">
-        <v>1.569863902411376</v>
+        <v>1.570131433954969</v>
       </c>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
@@ -4462,25 +4462,25 @@
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="n">
-        <v>79.6434051169</v>
+        <v>79.6344023087</v>
       </c>
       <c r="H90" t="n">
-        <v>74.693844517</v>
+        <v>74.6831184939</v>
       </c>
       <c r="I90" t="n">
-        <v>0.5651337479362695</v>
+        <v>0.5651816034448135</v>
       </c>
       <c r="J90" t="n">
-        <v>0.1767748992128986</v>
+        <v>0.1767554457541409</v>
       </c>
       <c r="K90" t="n">
-        <v>0.2580913528508319</v>
+        <v>0.2580629508010457</v>
       </c>
       <c r="L90" t="n">
-        <v>1.95349259665964</v>
+        <v>1.953607761135486</v>
       </c>
       <c r="M90" t="n">
-        <v>0.7884160504895277</v>
+        <v>0.7883292880634682</v>
       </c>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
@@ -4501,25 +4501,25 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="n">
-        <v>74.693844517</v>
+        <v>74.6831184939</v>
       </c>
       <c r="H91" t="n">
-        <v>79.6434051169</v>
+        <v>79.6344023087</v>
       </c>
       <c r="I91" t="n">
-        <v>0.26430753662224</v>
+        <v>0.2642791084097913</v>
       </c>
       <c r="J91" t="n">
-        <v>0.3498034599092895</v>
+        <v>0.3498733933119135</v>
       </c>
       <c r="K91" t="n">
-        <v>0.3858890034684705</v>
+        <v>0.3858474982782952</v>
       </c>
       <c r="L91" t="n">
-        <v>1.178811613335191</v>
+        <v>1.178684823507669</v>
       </c>
       <c r="M91" t="n">
-        <v>1.435299383196339</v>
+        <v>1.435467678214036</v>
       </c>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
@@ -4540,25 +4540,25 @@
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="n">
-        <v>79.6434051169</v>
+        <v>79.6344023087</v>
       </c>
       <c r="H92" t="n">
-        <v>75.47725709149999</v>
+        <v>75.466492378</v>
       </c>
       <c r="I92" t="n">
-        <v>0.5374566506175594</v>
+        <v>0.5375064333191926</v>
       </c>
       <c r="J92" t="n">
-        <v>0.1880257517814799</v>
+        <v>0.1880055149108973</v>
       </c>
       <c r="K92" t="n">
-        <v>0.2745175976009607</v>
+        <v>0.2744880517699101</v>
       </c>
       <c r="L92" t="n">
-        <v>1.886887549453639</v>
+        <v>1.887007351727488</v>
       </c>
       <c r="M92" t="n">
-        <v>0.8385948529454004</v>
+        <v>0.838504596502602</v>
       </c>
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
@@ -4685,25 +4685,25 @@
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="n">
-        <v>73.0472709085</v>
+        <v>73.0354932101</v>
       </c>
       <c r="H95" t="n">
-        <v>79.6434051169</v>
+        <v>79.6344023087</v>
       </c>
       <c r="I95" t="n">
-        <v>0.2409478229826239</v>
+        <v>0.2409023165734557</v>
       </c>
       <c r="J95" t="n">
-        <v>0.407268355462745</v>
+        <v>0.4073803012292991</v>
       </c>
       <c r="K95" t="n">
-        <v>0.351783821554631</v>
+        <v>0.3517173821972453</v>
       </c>
       <c r="L95" t="n">
-        <v>1.074627290502503</v>
+        <v>1.074424331917612</v>
       </c>
       <c r="M95" t="n">
-        <v>1.573588887942866</v>
+        <v>1.573858285885142</v>
       </c>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
@@ -4777,25 +4777,25 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="n">
-        <v>71.5179233722</v>
+        <v>71.5055139725</v>
       </c>
       <c r="H97" t="n">
-        <v>79.6434051169</v>
+        <v>79.6344023087</v>
       </c>
       <c r="I97" t="n">
-        <v>0.218270553676703</v>
+        <v>0.2182141986020147</v>
       </c>
       <c r="J97" t="n">
-        <v>0.4630544379553107</v>
+        <v>0.4631930714390438</v>
       </c>
       <c r="K97" t="n">
-        <v>0.3186750083679863</v>
+        <v>0.3185927299589415</v>
       </c>
       <c r="L97" t="n">
-        <v>0.9734866693980953</v>
+        <v>0.9732353257649856</v>
       </c>
       <c r="M97" t="n">
-        <v>1.707838322233918</v>
+        <v>1.708171944276073</v>
       </c>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
@@ -4816,25 +4816,25 @@
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="n">
-        <v>76.0461790084</v>
+        <v>76.03565305799999</v>
       </c>
       <c r="H98" t="n">
-        <v>77.2073524466</v>
+        <v>77.1973156457</v>
       </c>
       <c r="I98" t="n">
-        <v>0.3471719286436667</v>
+        <v>0.3471424594925042</v>
       </c>
       <c r="J98" t="n">
-        <v>0.2653772647789973</v>
+        <v>0.2653892441087382</v>
       </c>
       <c r="K98" t="n">
-        <v>0.387450806577336</v>
+        <v>0.3874682963987577</v>
       </c>
       <c r="L98" t="n">
-        <v>1.428966592508336</v>
+        <v>1.42889567487627</v>
       </c>
       <c r="M98" t="n">
-        <v>1.183582600914328</v>
+        <v>1.183636028724972</v>
       </c>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
@@ -4961,25 +4961,25 @@
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="n">
-        <v>76.5239745157</v>
+        <v>76.5136495429</v>
       </c>
       <c r="H101" t="n">
-        <v>76.0461790084</v>
+        <v>76.03565305799999</v>
       </c>
       <c r="I101" t="n">
-        <v>0.4026044249826246</v>
+        <v>0.4025971401304793</v>
       </c>
       <c r="J101" t="n">
-        <v>0.24284372968186</v>
+        <v>0.2428466910038702</v>
       </c>
       <c r="K101" t="n">
-        <v>0.3545518453355155</v>
+        <v>0.3545561688656504</v>
       </c>
       <c r="L101" t="n">
-        <v>1.562365120283389</v>
+        <v>1.562347589257088</v>
       </c>
       <c r="M101" t="n">
-        <v>1.083083034381096</v>
+        <v>1.083096241877261</v>
       </c>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
@@ -5053,25 +5053,25 @@
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="n">
-        <v>73.3755724322</v>
+        <v>73.36393093540001</v>
       </c>
       <c r="H103" t="n">
-        <v>76.0461790084</v>
+        <v>76.03565305799999</v>
       </c>
       <c r="I103" t="n">
-        <v>0.2968407512140148</v>
+        <v>0.2967936048969861</v>
       </c>
       <c r="J103" t="n">
-        <v>0.285837093002433</v>
+        <v>0.2858562581719569</v>
       </c>
       <c r="K103" t="n">
-        <v>0.4173221557835522</v>
+        <v>0.417350136931057</v>
       </c>
       <c r="L103" t="n">
-        <v>1.307844409425597</v>
+        <v>1.307730951622015</v>
       </c>
       <c r="M103" t="n">
-        <v>1.274833434790851</v>
+        <v>1.274918911446928</v>
       </c>
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr"/>
@@ -5092,25 +5092,25 @@
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="n">
-        <v>76.0461790084</v>
+        <v>76.03565305799999</v>
       </c>
       <c r="H104" t="n">
-        <v>73.9206940458</v>
+        <v>73.90964547350001</v>
       </c>
       <c r="I104" t="n">
-        <v>0.4595955327211199</v>
+        <v>0.4595991370279724</v>
       </c>
       <c r="J104" t="n">
-        <v>0.2196766127149919</v>
+        <v>0.2196751475496047</v>
       </c>
       <c r="K104" t="n">
-        <v>0.3207278545638882</v>
+        <v>0.3207257154224228</v>
       </c>
       <c r="L104" t="n">
-        <v>1.699514452727248</v>
+        <v>1.69952312650634</v>
       </c>
       <c r="M104" t="n">
-        <v>0.9797576927088639</v>
+        <v>0.9797511580712368</v>
       </c>
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
@@ -5131,25 +5131,25 @@
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="n">
-        <v>73.9206940458</v>
+        <v>73.90964547350001</v>
       </c>
       <c r="H105" t="n">
-        <v>76.0461790084</v>
+        <v>76.03565305799999</v>
       </c>
       <c r="I105" t="n">
-        <v>0.3140186432807663</v>
+        <v>0.3139889614980964</v>
       </c>
       <c r="J105" t="n">
-        <v>0.278854210048469</v>
+        <v>0.2788662758137819</v>
       </c>
       <c r="K105" t="n">
-        <v>0.4071271466707647</v>
+        <v>0.4071447626881216</v>
       </c>
       <c r="L105" t="n">
-        <v>1.349183076513063</v>
+        <v>1.349111647182411</v>
       </c>
       <c r="M105" t="n">
-        <v>1.243689776816172</v>
+        <v>1.243743590129467</v>
       </c>
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr"/>
@@ -5223,25 +5223,25 @@
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="n">
-        <v>77.9089917772</v>
+        <v>77.89925171980001</v>
       </c>
       <c r="H107" t="n">
-        <v>76.0461790084</v>
+        <v>76.03565305799999</v>
       </c>
       <c r="I107" t="n">
-        <v>0.4529270700596204</v>
+        <v>0.4529410978899988</v>
       </c>
       <c r="J107" t="n">
-        <v>0.2223873698944632</v>
+        <v>0.2223816675243908</v>
       </c>
       <c r="K107" t="n">
-        <v>0.3246855600459163</v>
+        <v>0.3246772345856105</v>
       </c>
       <c r="L107" t="n">
-        <v>1.683466770224777</v>
+        <v>1.683500528255607</v>
       </c>
       <c r="M107" t="n">
-        <v>0.991847669729306</v>
+        <v>0.9918222371587828</v>
       </c>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr"/>
@@ -5315,25 +5315,25 @@
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="n">
-        <v>74.3462291957</v>
+        <v>74.3349916019</v>
       </c>
       <c r="H109" t="n">
-        <v>76.0461790084</v>
+        <v>76.03565305799999</v>
       </c>
       <c r="I109" t="n">
-        <v>0.3277948265336087</v>
+        <v>0.3277582770908172</v>
       </c>
       <c r="J109" t="n">
-        <v>0.2732541355554436</v>
+        <v>0.2732689930525133</v>
       </c>
       <c r="K109" t="n">
-        <v>0.3989510379109477</v>
+        <v>0.3989727298566695</v>
       </c>
       <c r="L109" t="n">
-        <v>1.382335517511774</v>
+        <v>1.382247561129121</v>
       </c>
       <c r="M109" t="n">
-        <v>1.218713444577279</v>
+        <v>1.218779709014209</v>
       </c>
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr"/>
@@ -5354,25 +5354,25 @@
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="n">
-        <v>76.0461790084</v>
+        <v>76.03565305799999</v>
       </c>
       <c r="H110" t="n">
-        <v>75.15952321419999</v>
+        <v>75.14862541559999</v>
       </c>
       <c r="I110" t="n">
-        <v>0.4160653729492041</v>
+        <v>0.4160636656772561</v>
       </c>
       <c r="J110" t="n">
-        <v>0.2373717996141447</v>
+        <v>0.2373724936271317</v>
       </c>
       <c r="K110" t="n">
-        <v>0.3465628274366512</v>
+        <v>0.3465638406956122</v>
       </c>
       <c r="L110" t="n">
-        <v>1.594758946284264</v>
+        <v>1.594754837727381</v>
       </c>
       <c r="M110" t="n">
-        <v>1.058678226279085</v>
+        <v>1.058681321577007</v>
       </c>
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr"/>
@@ -5446,25 +5446,25 @@
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="n">
-        <v>76.0461790084</v>
+        <v>76.03565305799999</v>
       </c>
       <c r="H112" t="n">
-        <v>74.96532166999999</v>
+        <v>74.9543426211</v>
       </c>
       <c r="I112" t="n">
-        <v>0.4228209896657675</v>
+        <v>0.4228221074018099</v>
       </c>
       <c r="J112" t="n">
-        <v>0.2346256139570051</v>
+        <v>0.2346251595927603</v>
       </c>
       <c r="K112" t="n">
-        <v>0.3425533963772274</v>
+        <v>0.3425527330054299</v>
       </c>
       <c r="L112" t="n">
-        <v>1.61101636537453</v>
+        <v>1.611019055210859</v>
       </c>
       <c r="M112" t="n">
-        <v>1.046430238248243</v>
+        <v>1.046428211783711</v>
       </c>
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
@@ -5538,25 +5538,25 @@
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="n">
-        <v>76.0461790084</v>
+        <v>76.03565305799999</v>
       </c>
       <c r="H114" t="n">
-        <v>72.79331362630001</v>
+        <v>72.7814307125</v>
       </c>
       <c r="I114" t="n">
-        <v>0.4997708247598382</v>
+        <v>0.4998042506603617</v>
       </c>
       <c r="J114" t="n">
-        <v>0.2033451931870577</v>
+        <v>0.2033316054226172</v>
       </c>
       <c r="K114" t="n">
-        <v>0.2968839820531042</v>
+        <v>0.2968641439170211</v>
       </c>
       <c r="L114" t="n">
-        <v>1.796196456332619</v>
+        <v>1.796276895898106</v>
       </c>
       <c r="M114" t="n">
-        <v>0.9069195616142771</v>
+        <v>0.9068589601848726</v>
       </c>
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr"/>
@@ -5683,25 +5683,25 @@
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="n">
-        <v>73.0904549923</v>
+        <v>73.0786951976</v>
       </c>
       <c r="H117" t="n">
-        <v>76.0461790084</v>
+        <v>76.03565305799999</v>
       </c>
       <c r="I117" t="n">
-        <v>0.2886338518026667</v>
+        <v>0.2886134747970303</v>
       </c>
       <c r="J117" t="n">
-        <v>0.2899607245654401</v>
+        <v>0.2900108519993057</v>
       </c>
       <c r="K117" t="n">
-        <v>0.4214054236318933</v>
+        <v>0.4213756732036641</v>
       </c>
       <c r="L117" t="n">
-        <v>1.287306979039893</v>
+        <v>1.287216097594755</v>
       </c>
       <c r="M117" t="n">
-        <v>1.291287597328214</v>
+        <v>1.291408229201581</v>
       </c>
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
@@ -5722,25 +5722,25 @@
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="n">
-        <v>76.0461790084</v>
+        <v>76.03565305799999</v>
       </c>
       <c r="H118" t="n">
-        <v>74.693844517</v>
+        <v>74.6831184939</v>
       </c>
       <c r="I118" t="n">
-        <v>0.4323128119070954</v>
+        <v>0.4323050649287689</v>
       </c>
       <c r="J118" t="n">
-        <v>0.230767149631262</v>
+        <v>0.2307702988094436</v>
       </c>
       <c r="K118" t="n">
-        <v>0.3369200384616426</v>
+        <v>0.3369246362617875</v>
       </c>
       <c r="L118" t="n">
-        <v>1.633858474182929</v>
+        <v>1.633839831048094</v>
       </c>
       <c r="M118" t="n">
-        <v>1.029221487355429</v>
+        <v>1.029235532690118</v>
       </c>
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr"/>
@@ -5761,25 +5761,25 @@
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="n">
-        <v>74.693844517</v>
+        <v>74.6831184939</v>
       </c>
       <c r="H119" t="n">
-        <v>76.0461790084</v>
+        <v>76.03565305799999</v>
       </c>
       <c r="I119" t="n">
-        <v>0.3392742616160977</v>
+        <v>0.3392541152410018</v>
       </c>
       <c r="J119" t="n">
-        <v>0.2685876985300416</v>
+        <v>0.2685958881134139</v>
       </c>
       <c r="K119" t="n">
-        <v>0.3921380398538607</v>
+        <v>0.3921499966455843</v>
       </c>
       <c r="L119" t="n">
-        <v>1.409960824702154</v>
+        <v>1.40991234236859</v>
       </c>
       <c r="M119" t="n">
-        <v>1.197901135443985</v>
+        <v>1.197937660985826</v>
       </c>
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr"/>
@@ -5800,25 +5800,25 @@
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="n">
-        <v>76.0461790084</v>
+        <v>76.03565305799999</v>
       </c>
       <c r="H120" t="n">
-        <v>75.47725709149999</v>
+        <v>75.466492378</v>
       </c>
       <c r="I120" t="n">
-        <v>0.4050812454877925</v>
+        <v>0.4050749702875319</v>
       </c>
       <c r="J120" t="n">
-        <v>0.2418368920781331</v>
+        <v>0.241839442972548</v>
       </c>
       <c r="K120" t="n">
-        <v>0.3530818624340744</v>
+        <v>0.35308558673992</v>
       </c>
       <c r="L120" t="n">
-        <v>1.568325598897452</v>
+        <v>1.568310497602516</v>
       </c>
       <c r="M120" t="n">
-        <v>1.078592538668474</v>
+        <v>1.078603915657564</v>
       </c>
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr"/>
@@ -5892,25 +5892,25 @@
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="n">
-        <v>76.0461790084</v>
+        <v>76.03565305799999</v>
       </c>
       <c r="H122" t="n">
-        <v>73.0472709085</v>
+        <v>73.0354932101</v>
       </c>
       <c r="I122" t="n">
-        <v>0.490701993816879</v>
+        <v>0.4907316518036687</v>
       </c>
       <c r="J122" t="n">
-        <v>0.207031709830537</v>
+        <v>0.2070196537383461</v>
       </c>
       <c r="K122" t="n">
-        <v>0.302266296352584</v>
+        <v>0.3022486944579852</v>
       </c>
       <c r="L122" t="n">
-        <v>1.774372277803221</v>
+        <v>1.774443649868992</v>
       </c>
       <c r="M122" t="n">
-        <v>0.9233614258441948</v>
+        <v>0.9233076556730235</v>
       </c>
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr"/>
@@ -5984,25 +5984,25 @@
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="n">
-        <v>76.0461790084</v>
+        <v>76.03565305799999</v>
       </c>
       <c r="H124" t="n">
-        <v>71.5179233722</v>
+        <v>71.5055139725</v>
       </c>
       <c r="I124" t="n">
-        <v>0.5451967688108794</v>
+        <v>0.5452485705334771</v>
       </c>
       <c r="J124" t="n">
-        <v>0.1848793622720003</v>
+        <v>0.1848583046611882</v>
       </c>
       <c r="K124" t="n">
-        <v>0.2699238689171204</v>
+        <v>0.2698931248053348</v>
       </c>
       <c r="L124" t="n">
-        <v>1.905514175349759</v>
+        <v>1.905638836405766</v>
       </c>
       <c r="M124" t="n">
-        <v>0.8245619557331213</v>
+        <v>0.8244680387888994</v>
       </c>
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr"/>
@@ -6076,25 +6076,25 @@
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="n">
-        <v>77.2073524466</v>
+        <v>77.1973156457</v>
       </c>
       <c r="H126" t="n">
-        <v>76.5239745157</v>
+        <v>76.5136495429</v>
       </c>
       <c r="I126" t="n">
-        <v>0.410632551773698</v>
+        <v>0.4106286346139591</v>
       </c>
       <c r="J126" t="n">
-        <v>0.2395802635066268</v>
+        <v>0.2395818558479841</v>
       </c>
       <c r="K126" t="n">
-        <v>0.3497871847196752</v>
+        <v>0.3497895095380568</v>
       </c>
       <c r="L126" t="n">
-        <v>1.581684840040769</v>
+        <v>1.581675413379934</v>
       </c>
       <c r="M126" t="n">
-        <v>1.068527975239556</v>
+        <v>1.068535077082009</v>
       </c>
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr"/>
@@ -6168,25 +6168,25 @@
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="n">
-        <v>77.2073524466</v>
+        <v>77.1973156457</v>
       </c>
       <c r="H128" t="n">
-        <v>73.3755724322</v>
+        <v>73.36393093540001</v>
       </c>
       <c r="I128" t="n">
-        <v>0.5220907758636285</v>
+        <v>0.5221336640992258</v>
       </c>
       <c r="J128" t="n">
-        <v>0.1942720423318584</v>
+        <v>0.1942546080897457</v>
       </c>
       <c r="K128" t="n">
-        <v>0.2836371818045132</v>
+        <v>0.2836117278110286</v>
       </c>
       <c r="L128" t="n">
-        <v>1.849909509395399</v>
+        <v>1.850012720108706</v>
       </c>
       <c r="M128" t="n">
-        <v>0.8664533088000883</v>
+        <v>0.8663755520802656</v>
       </c>
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr"/>
@@ -6207,25 +6207,25 @@
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="n">
-        <v>73.3755724322</v>
+        <v>73.36393093540001</v>
       </c>
       <c r="H129" t="n">
-        <v>77.2073524466</v>
+        <v>77.1973156457</v>
       </c>
       <c r="I129" t="n">
-        <v>0.2780345010541015</v>
+        <v>0.2780085111536036</v>
       </c>
       <c r="J129" t="n">
-        <v>0.3160351274069102</v>
+        <v>0.3160990625621352</v>
       </c>
       <c r="K129" t="n">
-        <v>0.4059303715389883</v>
+        <v>0.4058924262842613</v>
       </c>
       <c r="L129" t="n">
-        <v>1.240033874701293</v>
+        <v>1.239917959745072</v>
       </c>
       <c r="M129" t="n">
-        <v>1.354035753759719</v>
+        <v>1.354189613970667</v>
       </c>
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr"/>
@@ -6299,25 +6299,25 @@
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="n">
-        <v>73.9206940458</v>
+        <v>73.90964547350001</v>
       </c>
       <c r="H131" t="n">
-        <v>77.2073524466</v>
+        <v>77.1973156457</v>
       </c>
       <c r="I131" t="n">
-        <v>0.2850426934109421</v>
+        <v>0.2850250052627835</v>
       </c>
       <c r="J131" t="n">
-        <v>0.2987949742090825</v>
+        <v>0.2988384870535527</v>
       </c>
       <c r="K131" t="n">
-        <v>0.4161623323799754</v>
+        <v>0.4161365076836638</v>
       </c>
       <c r="L131" t="n">
-        <v>1.271290412612802</v>
+        <v>1.271211523472014</v>
       </c>
       <c r="M131" t="n">
-        <v>1.312547255007223</v>
+        <v>1.312651968844322</v>
       </c>
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr"/>
@@ -6338,25 +6338,25 @@
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="n">
-        <v>77.2073524466</v>
+        <v>77.1973156457</v>
       </c>
       <c r="H132" t="n">
-        <v>77.9089917772</v>
+        <v>77.89925171980001</v>
       </c>
       <c r="I132" t="n">
-        <v>0.3637301153663894</v>
+        <v>0.3637070316253759</v>
       </c>
       <c r="J132" t="n">
-        <v>0.2586462945665084</v>
+        <v>0.2586556782010667</v>
       </c>
       <c r="K132" t="n">
-        <v>0.3776235900671022</v>
+        <v>0.3776372901735574</v>
       </c>
       <c r="L132" t="n">
-        <v>1.468813936166271</v>
+        <v>1.468758385049685</v>
       </c>
       <c r="M132" t="n">
-        <v>1.153562473766627</v>
+        <v>1.153604324776758</v>
       </c>
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr"/>
@@ -6430,25 +6430,25 @@
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="n">
-        <v>77.2073524466</v>
+        <v>77.1973156457</v>
       </c>
       <c r="H134" t="n">
-        <v>74.3462291957</v>
+        <v>74.3349916019</v>
       </c>
       <c r="I134" t="n">
-        <v>0.4874414954447188</v>
+        <v>0.4874700246499263</v>
       </c>
       <c r="J134" t="n">
-        <v>0.2083571156728786</v>
+        <v>0.2083455184349893</v>
       </c>
       <c r="K134" t="n">
-        <v>0.3042013888824027</v>
+        <v>0.3041844569150844</v>
       </c>
       <c r="L134" t="n">
-        <v>1.766525875216559</v>
+        <v>1.766594530864863</v>
       </c>
       <c r="M134" t="n">
-        <v>0.9292727359010384</v>
+        <v>0.9292210122200524</v>
       </c>
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr"/>
@@ -6469,25 +6469,25 @@
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="n">
-        <v>74.3462291957</v>
+        <v>74.3349916019</v>
       </c>
       <c r="H135" t="n">
-        <v>77.2073524466</v>
+        <v>77.1973156457</v>
       </c>
       <c r="I135" t="n">
-        <v>0.2923376408536326</v>
+        <v>0.2922888707645535</v>
       </c>
       <c r="J135" t="n">
-        <v>0.2876676256692551</v>
+        <v>0.2876874509087182</v>
       </c>
       <c r="K135" t="n">
-        <v>0.4199947334771124</v>
+        <v>0.4200236783267285</v>
       </c>
       <c r="L135" t="n">
-        <v>1.29700765603801</v>
+        <v>1.296890290620389</v>
       </c>
       <c r="M135" t="n">
-        <v>1.282997610484878</v>
+        <v>1.283086031052883</v>
       </c>
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr"/>
@@ -6508,25 +6508,25 @@
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="n">
-        <v>77.2073524466</v>
+        <v>77.1973156457</v>
       </c>
       <c r="H136" t="n">
-        <v>75.15952321419999</v>
+        <v>75.14862541559999</v>
       </c>
       <c r="I136" t="n">
-        <v>0.4584884126822824</v>
+        <v>0.4585047112346798</v>
       </c>
       <c r="J136" t="n">
-        <v>0.2201266615112674</v>
+        <v>0.2201200360834635</v>
       </c>
       <c r="K136" t="n">
-        <v>0.3213849258064503</v>
+        <v>0.3213752526818567</v>
       </c>
       <c r="L136" t="n">
-        <v>1.696850163853297</v>
+        <v>1.696889386385896</v>
       </c>
       <c r="M136" t="n">
-        <v>0.9817649103402524</v>
+        <v>0.9817353609322472</v>
       </c>
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr"/>
@@ -6653,25 +6653,25 @@
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="n">
-        <v>74.96532166999999</v>
+        <v>74.9543426211</v>
       </c>
       <c r="H139" t="n">
-        <v>77.2073524466</v>
+        <v>77.1973156457</v>
       </c>
       <c r="I139" t="n">
-        <v>0.3117226151011621</v>
+        <v>0.311680276138324</v>
       </c>
       <c r="J139" t="n">
-        <v>0.279787554836926</v>
+        <v>0.2798047657974292</v>
       </c>
       <c r="K139" t="n">
-        <v>0.4084898300619119</v>
+        <v>0.4085149580642468</v>
       </c>
       <c r="L139" t="n">
-        <v>1.343657675365398</v>
+        <v>1.343555786479219</v>
       </c>
       <c r="M139" t="n">
-        <v>1.24785249457269</v>
+        <v>1.247929255456535</v>
       </c>
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr"/>
@@ -6692,25 +6692,25 @@
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="n">
-        <v>77.2073524466</v>
+        <v>77.1973156457</v>
       </c>
       <c r="H140" t="n">
-        <v>72.79331362630001</v>
+        <v>72.7814307125</v>
       </c>
       <c r="I140" t="n">
-        <v>0.5427951605847332</v>
+        <v>0.5428463764841438</v>
       </c>
       <c r="J140" t="n">
-        <v>0.1858556257785637</v>
+        <v>0.1858348063072587</v>
       </c>
       <c r="K140" t="n">
-        <v>0.2713492136367031</v>
+        <v>0.2713188172085976</v>
       </c>
       <c r="L140" t="n">
-        <v>1.899734695390903</v>
+        <v>1.899857946661029</v>
       </c>
       <c r="M140" t="n">
-        <v>0.8289160909723943</v>
+        <v>0.8288232361303737</v>
       </c>
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr"/>
@@ -6784,25 +6784,25 @@
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="n">
-        <v>77.2073524466</v>
+        <v>77.1973156457</v>
       </c>
       <c r="H142" t="n">
-        <v>73.0904549923</v>
+        <v>73.0786951976</v>
       </c>
       <c r="I142" t="n">
-        <v>0.5322431262889035</v>
+        <v>0.5322901269400374</v>
       </c>
       <c r="J142" t="n">
-        <v>0.1901450706142669</v>
+        <v>0.1901259646585214</v>
       </c>
       <c r="K142" t="n">
-        <v>0.2776118030968296</v>
+        <v>0.2775839084014412</v>
       </c>
       <c r="L142" t="n">
-        <v>1.87434118196354</v>
+        <v>1.874454289221553</v>
       </c>
       <c r="M142" t="n">
-        <v>0.8480470149396303</v>
+        <v>0.8479618023770054</v>
       </c>
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr"/>
@@ -6823,25 +6823,25 @@
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="n">
-        <v>73.0904549923</v>
+        <v>73.0786951976</v>
       </c>
       <c r="H143" t="n">
-        <v>77.2073524466</v>
+        <v>77.1973156457</v>
       </c>
       <c r="I143" t="n">
-        <v>0.2742836888991248</v>
+        <v>0.2742557329527653</v>
       </c>
       <c r="J143" t="n">
-        <v>0.325262125308153</v>
+        <v>0.3253308969361972</v>
       </c>
       <c r="K143" t="n">
-        <v>0.4004541857927222</v>
+        <v>0.4004133701110374</v>
       </c>
       <c r="L143" t="n">
-        <v>1.223305252490097</v>
+        <v>1.223180568969334</v>
       </c>
       <c r="M143" t="n">
-        <v>1.376240561717181</v>
+        <v>1.376406060919629</v>
       </c>
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr"/>
@@ -6862,25 +6862,25 @@
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="n">
-        <v>77.2073524466</v>
+        <v>77.1973156457</v>
       </c>
       <c r="H144" t="n">
-        <v>74.693844517</v>
+        <v>74.6831184939</v>
       </c>
       <c r="I144" t="n">
-        <v>0.4750447732645452</v>
+        <v>0.4750550244665958</v>
       </c>
       <c r="J144" t="n">
-        <v>0.2133964336322987</v>
+        <v>0.2133922664769936</v>
       </c>
       <c r="K144" t="n">
-        <v>0.3115587931031561</v>
+        <v>0.3115527090564107</v>
       </c>
       <c r="L144" t="n">
-        <v>1.736693112896792</v>
+        <v>1.736717782456198</v>
       </c>
       <c r="M144" t="n">
-        <v>0.9517480940000522</v>
+        <v>0.9517295084873916</v>
       </c>
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr"/>
@@ -6954,25 +6954,25 @@
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="n">
-        <v>77.2073524466</v>
+        <v>77.1973156457</v>
       </c>
       <c r="H146" t="n">
-        <v>75.47725709149999</v>
+        <v>75.466492378</v>
       </c>
       <c r="I146" t="n">
-        <v>0.4472421132400316</v>
+        <v>0.447253642058122</v>
       </c>
       <c r="J146" t="n">
-        <v>0.2246983279512066</v>
+        <v>0.2246936414397878</v>
       </c>
       <c r="K146" t="n">
-        <v>0.3280595588087617</v>
+        <v>0.3280527165020902</v>
       </c>
       <c r="L146" t="n">
-        <v>1.669785898528856</v>
+        <v>1.669813642676456</v>
       </c>
       <c r="M146" t="n">
-        <v>1.002154542662382</v>
+        <v>1.002133640821454</v>
       </c>
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr"/>
@@ -7099,25 +7099,25 @@
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="n">
-        <v>73.0472709085</v>
+        <v>73.0354932101</v>
       </c>
       <c r="H149" t="n">
-        <v>77.2073524466</v>
+        <v>77.1973156457</v>
       </c>
       <c r="I149" t="n">
-        <v>0.2737106578458551</v>
+        <v>0.2736824015477517</v>
       </c>
       <c r="J149" t="n">
-        <v>0.3266717816991964</v>
+        <v>0.3267412921925309</v>
       </c>
       <c r="K149" t="n">
-        <v>0.3996175604549485</v>
+        <v>0.3995763062597174</v>
       </c>
       <c r="L149" t="n">
-        <v>1.220749533992514</v>
+        <v>1.220623510902973</v>
       </c>
       <c r="M149" t="n">
-        <v>1.379632905552538</v>
+        <v>1.37980018283731</v>
       </c>
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr"/>
@@ -7191,25 +7191,25 @@
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="n">
-        <v>71.5179233722</v>
+        <v>71.5055139725</v>
       </c>
       <c r="H151" t="n">
-        <v>77.2073524466</v>
+        <v>77.1973156457</v>
       </c>
       <c r="I151" t="n">
-        <v>0.2526556424482128</v>
+        <v>0.2526164495413739</v>
       </c>
       <c r="J151" t="n">
-        <v>0.3784671195773964</v>
+        <v>0.3785635341282203</v>
       </c>
       <c r="K151" t="n">
-        <v>0.3688772379743907</v>
+        <v>0.3688200163304059</v>
       </c>
       <c r="L151" t="n">
-        <v>1.126844165319029</v>
+        <v>1.126669364954527</v>
       </c>
       <c r="M151" t="n">
-        <v>1.50427859670658</v>
+        <v>1.504510618715067</v>
       </c>
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr"/>
@@ -7230,25 +7230,25 @@
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="n">
-        <v>76.5239745157</v>
+        <v>76.5136495429</v>
       </c>
       <c r="H152" t="n">
-        <v>73.3755724322</v>
+        <v>73.36393093540001</v>
       </c>
       <c r="I152" t="n">
-        <v>0.4967226046006439</v>
+        <v>0.4967548719809557</v>
       </c>
       <c r="J152" t="n">
-        <v>0.204584307072909</v>
+        <v>0.2045711902516441</v>
       </c>
       <c r="K152" t="n">
-        <v>0.2986930883264471</v>
+        <v>0.2986739377674003</v>
       </c>
       <c r="L152" t="n">
-        <v>1.788860902128379</v>
+        <v>1.788938553710268</v>
       </c>
       <c r="M152" t="n">
-        <v>0.9124460095451741</v>
+        <v>0.9123875085223325</v>
       </c>
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr"/>
@@ -7269,25 +7269,25 @@
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="n">
-        <v>73.3755724322</v>
+        <v>73.36393093540001</v>
       </c>
       <c r="H153" t="n">
-        <v>76.5239745157</v>
+        <v>76.5136495429</v>
       </c>
       <c r="I153" t="n">
-        <v>0.2864548044015131</v>
+        <v>0.2864332652889353</v>
       </c>
       <c r="J153" t="n">
-        <v>0.2953211811722777</v>
+        <v>0.2953741673892192</v>
       </c>
       <c r="K153" t="n">
-        <v>0.4182240144262091</v>
+        <v>0.4181925673218455</v>
       </c>
       <c r="L153" t="n">
-        <v>1.277588427630748</v>
+        <v>1.277492363188651</v>
       </c>
       <c r="M153" t="n">
-        <v>1.304187557943042</v>
+        <v>1.304315069489503</v>
       </c>
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr"/>
@@ -7308,25 +7308,25 @@
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="n">
-        <v>76.5239745157</v>
+        <v>76.5136495429</v>
       </c>
       <c r="H154" t="n">
-        <v>73.9206940458</v>
+        <v>73.90964547350001</v>
       </c>
       <c r="I154" t="n">
-        <v>0.4772696068896862</v>
+        <v>0.4772806768535282</v>
       </c>
       <c r="J154" t="n">
-        <v>0.2124920297196398</v>
+        <v>0.2124875297343381</v>
       </c>
       <c r="K154" t="n">
-        <v>0.3102383633906741</v>
+        <v>0.3102317934121336</v>
       </c>
       <c r="L154" t="n">
-        <v>1.742047184059732</v>
+        <v>1.742073823972718</v>
       </c>
       <c r="M154" t="n">
-        <v>0.9477144525495935</v>
+        <v>0.947694382615148</v>
       </c>
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr"/>
@@ -7453,25 +7453,25 @@
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="n">
-        <v>77.9089917772</v>
+        <v>77.89925171980001</v>
       </c>
       <c r="H157" t="n">
-        <v>76.5239745157</v>
+        <v>76.5136495429</v>
       </c>
       <c r="I157" t="n">
-        <v>0.4360748806326356</v>
+        <v>0.436081742094081</v>
       </c>
       <c r="J157" t="n">
-        <v>0.2292378534013676</v>
+        <v>0.229235064189398</v>
       </c>
       <c r="K157" t="n">
-        <v>0.3346872659659967</v>
+        <v>0.3346831937165211</v>
       </c>
       <c r="L157" t="n">
-        <v>1.642911907863904</v>
+        <v>1.642928419998764</v>
       </c>
       <c r="M157" t="n">
-        <v>1.0224008261701</v>
+        <v>1.022388386284715</v>
       </c>
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr"/>
@@ -7492,25 +7492,25 @@
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="n">
-        <v>76.5239745157</v>
+        <v>76.5136495429</v>
       </c>
       <c r="H158" t="n">
-        <v>74.3462291957</v>
+        <v>74.3349916019</v>
       </c>
       <c r="I158" t="n">
-        <v>0.4621289155596681</v>
+        <v>0.4621466568868288</v>
       </c>
       <c r="J158" t="n">
-        <v>0.2186467822928179</v>
+        <v>0.2186395703712078</v>
       </c>
       <c r="K158" t="n">
-        <v>0.3192243021475141</v>
+        <v>0.3192137727419634</v>
       </c>
       <c r="L158" t="n">
-        <v>1.705611048826518</v>
+        <v>1.70565374340245</v>
       </c>
       <c r="M158" t="n">
-        <v>0.9751646490259678</v>
+        <v>0.9751324838555868</v>
       </c>
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr"/>
@@ -7584,25 +7584,25 @@
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="n">
-        <v>76.5239745157</v>
+        <v>76.5136495429</v>
       </c>
       <c r="H160" t="n">
-        <v>75.15952321419999</v>
+        <v>75.14862541559999</v>
       </c>
       <c r="I160" t="n">
-        <v>0.4334080096480679</v>
+        <v>0.4334136165095574</v>
       </c>
       <c r="J160" t="n">
-        <v>0.2303219472975334</v>
+        <v>0.2303196680855457</v>
       </c>
       <c r="K160" t="n">
-        <v>0.3362700430543987</v>
+        <v>0.3362667154048968</v>
       </c>
       <c r="L160" t="n">
-        <v>1.636494071998602</v>
+        <v>1.636507564933569</v>
       </c>
       <c r="M160" t="n">
-        <v>1.027235884946999</v>
+        <v>1.027225719661534</v>
       </c>
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr"/>
@@ -7623,25 +7623,25 @@
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="n">
-        <v>75.15952321419999</v>
+        <v>75.14862541559999</v>
       </c>
       <c r="H161" t="n">
-        <v>76.5239745157</v>
+        <v>76.5136495429</v>
       </c>
       <c r="I161" t="n">
-        <v>0.3394827791185405</v>
+        <v>0.3394504665055998</v>
       </c>
       <c r="J161" t="n">
-        <v>0.2685029353176664</v>
+        <v>0.268516070526179</v>
       </c>
       <c r="K161" t="n">
-        <v>0.392014285563793</v>
+        <v>0.3920334629682212</v>
       </c>
       <c r="L161" t="n">
-        <v>1.410462622919414</v>
+        <v>1.410384862485021</v>
       </c>
       <c r="M161" t="n">
-        <v>1.197523091516792</v>
+        <v>1.197581674546758</v>
       </c>
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr"/>
@@ -7662,25 +7662,25 @@
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="n">
-        <v>76.5239745157</v>
+        <v>76.5136495429</v>
       </c>
       <c r="H162" t="n">
-        <v>74.96532166999999</v>
+        <v>74.9543426211</v>
       </c>
       <c r="I162" t="n">
-        <v>0.4402329236531293</v>
+        <v>0.440241410548362</v>
       </c>
       <c r="J162" t="n">
-        <v>0.2275475920109231</v>
+        <v>0.2275441420535114</v>
       </c>
       <c r="K162" t="n">
-        <v>0.3322194843359477</v>
+        <v>0.3322144473981266</v>
       </c>
       <c r="L162" t="n">
-        <v>1.652918255295335</v>
+        <v>1.652938679043213</v>
       </c>
       <c r="M162" t="n">
-        <v>1.014862260368717</v>
+        <v>1.014846873558661</v>
       </c>
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr"/>
@@ -7807,25 +7807,25 @@
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="n">
-        <v>72.79331362630001</v>
+        <v>72.7814307125</v>
       </c>
       <c r="H165" t="n">
-        <v>76.5239745157</v>
+        <v>76.5136495429</v>
       </c>
       <c r="I165" t="n">
-        <v>0.2790094555113833</v>
+        <v>0.2789840362040071</v>
       </c>
       <c r="J165" t="n">
-        <v>0.313636739441997</v>
+        <v>0.3136992709381428</v>
       </c>
       <c r="K165" t="n">
-        <v>0.4073538050466197</v>
+        <v>0.4073166928578503</v>
       </c>
       <c r="L165" t="n">
-        <v>1.24438217158077</v>
+        <v>1.244268801469872</v>
       </c>
       <c r="M165" t="n">
-        <v>1.348264023372611</v>
+        <v>1.348414505672278</v>
       </c>
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr"/>
@@ -7899,25 +7899,25 @@
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="n">
-        <v>73.0904549923</v>
+        <v>73.0786951976</v>
       </c>
       <c r="H167" t="n">
-        <v>76.5239745157</v>
+        <v>76.5136495429</v>
       </c>
       <c r="I167" t="n">
-        <v>0.2828404881494642</v>
+        <v>0.2828170681283122</v>
       </c>
       <c r="J167" t="n">
-        <v>0.304212399152318</v>
+        <v>0.304270012404352</v>
       </c>
       <c r="K167" t="n">
-        <v>0.4129471126982178</v>
+        <v>0.4129129194673358</v>
       </c>
       <c r="L167" t="n">
-        <v>1.261468577146611</v>
+        <v>1.261364123852272</v>
       </c>
       <c r="M167" t="n">
-        <v>1.325584310155172</v>
+        <v>1.325722956680392</v>
       </c>
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr"/>
@@ -7991,25 +7991,25 @@
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="n">
-        <v>74.693844517</v>
+        <v>74.6831184939</v>
       </c>
       <c r="H169" t="n">
-        <v>76.5239745157</v>
+        <v>76.5136495429</v>
       </c>
       <c r="I169" t="n">
-        <v>0.3241452378064553</v>
+        <v>0.3241192594453615</v>
       </c>
       <c r="J169" t="n">
-        <v>0.274737708208758</v>
+        <v>0.2747482685181458</v>
       </c>
       <c r="K169" t="n">
-        <v>0.4011170539847868</v>
+        <v>0.4011324720364928</v>
       </c>
       <c r="L169" t="n">
-        <v>1.373552767404153</v>
+        <v>1.373490250372577</v>
       </c>
       <c r="M169" t="n">
-        <v>1.225330178611061</v>
+        <v>1.22537727759093</v>
       </c>
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr"/>
@@ -8030,25 +8030,25 @@
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="n">
-        <v>76.5239745157</v>
+        <v>76.5136495429</v>
       </c>
       <c r="H170" t="n">
-        <v>75.47725709149999</v>
+        <v>75.466492378</v>
       </c>
       <c r="I170" t="n">
-        <v>0.4222971470730154</v>
+        <v>0.4222980790714653</v>
       </c>
       <c r="J170" t="n">
-        <v>0.2348385581004003</v>
+        <v>0.2348381792392418</v>
       </c>
       <c r="K170" t="n">
-        <v>0.3428642948265844</v>
+        <v>0.342863741689293</v>
       </c>
       <c r="L170" t="n">
-        <v>1.60975573604563</v>
+        <v>1.609757978903689</v>
       </c>
       <c r="M170" t="n">
-        <v>1.047379969127785</v>
+        <v>1.047378279407018</v>
       </c>
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr"/>
@@ -8069,25 +8069,25 @@
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="n">
-        <v>75.47725709149999</v>
+        <v>75.466492378</v>
       </c>
       <c r="H171" t="n">
-        <v>76.5239745157</v>
+        <v>76.5136495429</v>
       </c>
       <c r="I171" t="n">
-        <v>0.3501468449437217</v>
+        <v>0.35011855429595</v>
       </c>
       <c r="J171" t="n">
-        <v>0.2641679492098692</v>
+        <v>0.2641794494731911</v>
       </c>
       <c r="K171" t="n">
-        <v>0.3856852058464091</v>
+        <v>0.3857019962308589</v>
       </c>
       <c r="L171" t="n">
-        <v>1.436125740677574</v>
+        <v>1.436057659118709</v>
       </c>
       <c r="M171" t="n">
-        <v>1.178189053476017</v>
+        <v>1.178240344650432</v>
       </c>
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr"/>
@@ -8108,25 +8108,25 @@
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="n">
-        <v>76.5239745157</v>
+        <v>76.5136495429</v>
       </c>
       <c r="H172" t="n">
-        <v>73.0472709085</v>
+        <v>73.0354932101</v>
       </c>
       <c r="I172" t="n">
-        <v>0.5084468083846382</v>
+        <v>0.5084839308364213</v>
       </c>
       <c r="J172" t="n">
-        <v>0.1998183705753503</v>
+        <v>0.1998032801477962</v>
       </c>
       <c r="K172" t="n">
-        <v>0.2917348210400115</v>
+        <v>0.2917127890157824</v>
       </c>
       <c r="L172" t="n">
-        <v>1.817075246193926</v>
+        <v>1.817164581525046</v>
       </c>
       <c r="M172" t="n">
-        <v>0.8911899327660626</v>
+        <v>0.891122629459171</v>
       </c>
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr"/>
@@ -8253,25 +8253,25 @@
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="n">
-        <v>71.5179233722</v>
+        <v>71.5055139725</v>
       </c>
       <c r="H175" t="n">
-        <v>76.5239745157</v>
+        <v>76.5136495429</v>
       </c>
       <c r="I175" t="n">
-        <v>0.2618740716646648</v>
+        <v>0.2618397185707566</v>
       </c>
       <c r="J175" t="n">
-        <v>0.3557897837049246</v>
+        <v>0.3558742923159389</v>
       </c>
       <c r="K175" t="n">
-        <v>0.3823361446304105</v>
+        <v>0.3822859891133045</v>
       </c>
       <c r="L175" t="n">
-        <v>1.167958359624405</v>
+        <v>1.167805144825574</v>
       </c>
       <c r="M175" t="n">
-        <v>1.449705495745184</v>
+        <v>1.449908866061121</v>
       </c>
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr"/>
@@ -8345,25 +8345,25 @@
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="n">
-        <v>73.9206940458</v>
+        <v>73.90964547350001</v>
       </c>
       <c r="H177" t="n">
-        <v>73.3755724322</v>
+        <v>73.36393093540001</v>
       </c>
       <c r="I177" t="n">
-        <v>0.4013404824970407</v>
+        <v>0.4013456647641059</v>
       </c>
       <c r="J177" t="n">
-        <v>0.2433575274402273</v>
+        <v>0.2433554208275992</v>
       </c>
       <c r="K177" t="n">
-        <v>0.3553019900627319</v>
+        <v>0.3552989144082948</v>
       </c>
       <c r="L177" t="n">
-        <v>1.559323437553854</v>
+        <v>1.559335908700612</v>
       </c>
       <c r="M177" t="n">
-        <v>1.085374572383414</v>
+        <v>1.085365176891092</v>
       </c>
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr"/>
@@ -8384,25 +8384,25 @@
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="n">
-        <v>73.3755724322</v>
+        <v>73.36393093540001</v>
       </c>
       <c r="H178" t="n">
-        <v>77.9089917772</v>
+        <v>77.89925171980001</v>
       </c>
       <c r="I178" t="n">
-        <v>0.2690692455536705</v>
+        <v>0.2690384818831829</v>
       </c>
       <c r="J178" t="n">
-        <v>0.3380896559379705</v>
+        <v>0.3381653345673701</v>
       </c>
       <c r="K178" t="n">
-        <v>0.392841098508359</v>
+        <v>0.392796183549447</v>
       </c>
       <c r="L178" t="n">
-        <v>1.200048835169371</v>
+        <v>1.199911629198996</v>
       </c>
       <c r="M178" t="n">
-        <v>1.40711006632227</v>
+        <v>1.407292187251557</v>
       </c>
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr"/>
@@ -8529,25 +8529,25 @@
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="n">
-        <v>74.3462291957</v>
+        <v>74.3349916019</v>
       </c>
       <c r="H181" t="n">
-        <v>73.3755724322</v>
+        <v>73.36393093540001</v>
       </c>
       <c r="I181" t="n">
-        <v>0.4166209082897877</v>
+        <v>0.4166193249808975</v>
       </c>
       <c r="J181" t="n">
-        <v>0.2371459722399237</v>
+        <v>0.2371466158614238</v>
       </c>
       <c r="K181" t="n">
-        <v>0.3462331194702886</v>
+        <v>0.3462340591576787</v>
       </c>
       <c r="L181" t="n">
-        <v>1.596095844339652</v>
+        <v>1.596092034100371</v>
       </c>
       <c r="M181" t="n">
-        <v>1.05767103619006</v>
+        <v>1.05767390674195</v>
       </c>
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr"/>
@@ -8568,25 +8568,25 @@
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="n">
-        <v>73.3755724322</v>
+        <v>73.36393093540001</v>
       </c>
       <c r="H182" t="n">
-        <v>75.15952321419999</v>
+        <v>75.14862541559999</v>
       </c>
       <c r="I182" t="n">
-        <v>0.3239402276996884</v>
+        <v>0.3239023927087074</v>
       </c>
       <c r="J182" t="n">
-        <v>0.2748210456505331</v>
+        <v>0.2748364257281677</v>
       </c>
       <c r="K182" t="n">
-        <v>0.4012387266497784</v>
+        <v>0.4012611815631248</v>
       </c>
       <c r="L182" t="n">
-        <v>1.373059409748844</v>
+        <v>1.372968359689247</v>
       </c>
       <c r="M182" t="n">
-        <v>1.225701863601378</v>
+        <v>1.225770458747628</v>
       </c>
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr"/>
@@ -8713,25 +8713,25 @@
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="n">
-        <v>74.96532166999999</v>
+        <v>74.9543426211</v>
       </c>
       <c r="H185" t="n">
-        <v>73.3755724322</v>
+        <v>73.36393093540001</v>
       </c>
       <c r="I185" t="n">
-        <v>0.4391331041859094</v>
+        <v>0.439140960524151</v>
       </c>
       <c r="J185" t="n">
-        <v>0.2279946730951588</v>
+        <v>0.2279914794617272</v>
       </c>
       <c r="K185" t="n">
-        <v>0.3328722227189319</v>
+        <v>0.3328675600141217</v>
       </c>
       <c r="L185" t="n">
-        <v>1.65027153527666</v>
+        <v>1.650290441586575</v>
       </c>
       <c r="M185" t="n">
-        <v>1.016856242004408</v>
+        <v>1.016841998399303</v>
       </c>
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr"/>
@@ -8805,25 +8805,25 @@
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="n">
-        <v>72.79331362630001</v>
+        <v>72.7814307125</v>
       </c>
       <c r="H187" t="n">
-        <v>73.3755724322</v>
+        <v>73.36393093540001</v>
       </c>
       <c r="I187" t="n">
-        <v>0.3618417372033442</v>
+        <v>0.3618180943108218</v>
       </c>
       <c r="J187" t="n">
-        <v>0.2594139279661202</v>
+        <v>0.2594235388980399</v>
       </c>
       <c r="K187" t="n">
-        <v>0.3787443348305355</v>
+        <v>0.3787583667911383</v>
       </c>
       <c r="L187" t="n">
-        <v>1.464269546440568</v>
+        <v>1.464212649723604</v>
       </c>
       <c r="M187" t="n">
-        <v>1.156986118728896</v>
+        <v>1.157028983485258</v>
       </c>
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr"/>
@@ -8844,25 +8844,25 @@
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="n">
-        <v>73.3755724322</v>
+        <v>73.36393093540001</v>
       </c>
       <c r="H188" t="n">
-        <v>73.0904549923</v>
+        <v>73.0786951976</v>
       </c>
       <c r="I188" t="n">
-        <v>0.3917073003842457</v>
+        <v>0.3916954766089455</v>
       </c>
       <c r="J188" t="n">
-        <v>0.2472734551283554</v>
+        <v>0.247278261541079</v>
       </c>
       <c r="K188" t="n">
-        <v>0.3610192444873989</v>
+        <v>0.3610262618499754</v>
       </c>
       <c r="L188" t="n">
-        <v>1.536141145640136</v>
+        <v>1.536112691676812</v>
       </c>
       <c r="M188" t="n">
-        <v>1.102839609872465</v>
+        <v>1.102861046473212</v>
       </c>
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr"/>
@@ -8936,25 +8936,25 @@
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="n">
-        <v>73.3755724322</v>
+        <v>73.36393093540001</v>
       </c>
       <c r="H190" t="n">
-        <v>74.693844517</v>
+        <v>74.6831184939</v>
       </c>
       <c r="I190" t="n">
-        <v>0.3386766808534374</v>
+        <v>0.3386324909605408</v>
       </c>
       <c r="J190" t="n">
-        <v>0.2688306175392531</v>
+        <v>0.2688485809103493</v>
       </c>
       <c r="K190" t="n">
-        <v>0.3924927016073095</v>
+        <v>0.39251892812911</v>
       </c>
       <c r="L190" t="n">
-        <v>1.408522744167622</v>
+        <v>1.408416401010732</v>
       </c>
       <c r="M190" t="n">
-        <v>1.198984554225069</v>
+        <v>1.199064670860158</v>
       </c>
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr"/>
@@ -9081,25 +9081,25 @@
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="n">
-        <v>75.47725709149999</v>
+        <v>75.466492378</v>
       </c>
       <c r="H193" t="n">
-        <v>73.3755724322</v>
+        <v>73.36393093540001</v>
       </c>
       <c r="I193" t="n">
-        <v>0.4579440841158802</v>
+        <v>0.4579599069447627</v>
       </c>
       <c r="J193" t="n">
-        <v>0.2203479332862276</v>
+        <v>0.2203415012419664</v>
       </c>
       <c r="K193" t="n">
-        <v>0.3217079825978923</v>
+        <v>0.3216985918132709</v>
       </c>
       <c r="L193" t="n">
-        <v>1.695540234945533</v>
+        <v>1.695578312647559</v>
       </c>
       <c r="M193" t="n">
-        <v>0.982751782456575</v>
+        <v>0.9827230955391701</v>
       </c>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
@@ -9173,25 +9173,25 @@
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="n">
-        <v>73.0472709085</v>
+        <v>73.0354932101</v>
       </c>
       <c r="H195" t="n">
-        <v>73.3755724322</v>
+        <v>73.36393093540001</v>
       </c>
       <c r="I195" t="n">
-        <v>0.3705988523324462</v>
+        <v>0.3705786156747751</v>
       </c>
       <c r="J195" t="n">
-        <v>0.2558541250681113</v>
+        <v>0.2558623513517174</v>
       </c>
       <c r="K195" t="n">
-        <v>0.3735470225994425</v>
+        <v>0.3735590329735075</v>
       </c>
       <c r="L195" t="n">
-        <v>1.485343579596781</v>
+        <v>1.485294879997833</v>
       </c>
       <c r="M195" t="n">
-        <v>1.141109397803777</v>
+        <v>1.14114608702866</v>
       </c>
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr"/>
@@ -9265,25 +9265,25 @@
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="n">
-        <v>71.5179233722</v>
+        <v>71.5055139725</v>
       </c>
       <c r="H197" t="n">
-        <v>73.3755724322</v>
+        <v>73.36393093540001</v>
       </c>
       <c r="I197" t="n">
-        <v>0.3193270911270129</v>
+        <v>0.3192878352301659</v>
       </c>
       <c r="J197" t="n">
-        <v>0.2766963044199134</v>
+        <v>0.2767122621015586</v>
       </c>
       <c r="K197" t="n">
-        <v>0.4039766044530736</v>
+        <v>0.4039999026682755</v>
       </c>
       <c r="L197" t="n">
-        <v>1.361957877834112</v>
+        <v>1.361863408358773</v>
       </c>
       <c r="M197" t="n">
-        <v>1.234065517712814</v>
+        <v>1.234136688972951</v>
       </c>
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
@@ -9304,25 +9304,25 @@
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="n">
-        <v>73.9206940458</v>
+        <v>73.90964547350001</v>
       </c>
       <c r="H198" t="n">
-        <v>77.9089917772</v>
+        <v>77.89925171980001</v>
       </c>
       <c r="I198" t="n">
-        <v>0.276337540018773</v>
+        <v>0.2763154117502859</v>
       </c>
       <c r="J198" t="n">
-        <v>0.3202096515538183</v>
+        <v>0.3202640870942968</v>
       </c>
       <c r="K198" t="n">
-        <v>0.4034528084274086</v>
+        <v>0.4034205011554174</v>
       </c>
       <c r="L198" t="n">
-        <v>1.232465428483728</v>
+        <v>1.232366736406275</v>
       </c>
       <c r="M198" t="n">
-        <v>1.364081763088864</v>
+        <v>1.364212762438308</v>
       </c>
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr"/>
@@ -9449,25 +9449,25 @@
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="n">
-        <v>74.3462291957</v>
+        <v>74.3349916019</v>
       </c>
       <c r="H201" t="n">
-        <v>73.9206940458</v>
+        <v>73.90964547350001</v>
       </c>
       <c r="I201" t="n">
-        <v>0.3978252088492219</v>
+        <v>0.3978033568659545</v>
       </c>
       <c r="J201" t="n">
-        <v>0.244786500467796</v>
+        <v>0.2447953833878234</v>
       </c>
       <c r="K201" t="n">
-        <v>0.3573882906829821</v>
+        <v>0.3574012597462221</v>
       </c>
       <c r="L201" t="n">
-        <v>1.550863917230648</v>
+        <v>1.550811330344086</v>
       </c>
       <c r="M201" t="n">
-        <v>1.09174779208637</v>
+        <v>1.091787409909692</v>
       </c>
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr"/>
@@ -9541,25 +9541,25 @@
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr"/>
       <c r="G203" t="n">
-        <v>75.15952321419999</v>
+        <v>75.14862541559999</v>
       </c>
       <c r="H203" t="n">
-        <v>73.9206940458</v>
+        <v>73.90964547350001</v>
       </c>
       <c r="I203" t="n">
-        <v>0.4270976116021613</v>
+        <v>0.4270876446145934</v>
       </c>
       <c r="J203" t="n">
-        <v>0.2328871497552189</v>
+        <v>0.2328912013761815</v>
       </c>
       <c r="K203" t="n">
-        <v>0.3400152386426197</v>
+        <v>0.3400211540092251</v>
       </c>
       <c r="L203" t="n">
-        <v>1.621308073449104</v>
+        <v>1.621284087853005</v>
       </c>
       <c r="M203" t="n">
-        <v>1.038676687908276</v>
+        <v>1.03869475813777</v>
       </c>
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr"/>
@@ -9633,25 +9633,25 @@
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="inlineStr"/>
       <c r="G205" t="n">
-        <v>74.96532166999999</v>
+        <v>74.9543426211</v>
       </c>
       <c r="H205" t="n">
-        <v>73.9206940458</v>
+        <v>73.90964547350001</v>
       </c>
       <c r="I205" t="n">
-        <v>0.420053063520137</v>
+        <v>0.4200401997045191</v>
       </c>
       <c r="J205" t="n">
-        <v>0.2357507871869362</v>
+        <v>0.2357560163802768</v>
       </c>
       <c r="K205" t="n">
-        <v>0.3441961492929268</v>
+        <v>0.3442037839152041</v>
       </c>
       <c r="L205" t="n">
-        <v>1.604355339853338</v>
+        <v>1.604324383028761</v>
       </c>
       <c r="M205" t="n">
-        <v>1.051448510853735</v>
+        <v>1.051471833056035</v>
       </c>
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr"/>
@@ -9672,25 +9672,25 @@
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr"/>
       <c r="G206" t="n">
-        <v>73.9206940458</v>
+        <v>73.90964547350001</v>
       </c>
       <c r="H206" t="n">
-        <v>72.79331362630001</v>
+        <v>72.7814307125</v>
       </c>
       <c r="I206" t="n">
-        <v>0.4214794521400091</v>
+        <v>0.4214931208184031</v>
       </c>
       <c r="J206" t="n">
-        <v>0.2351709544146305</v>
+        <v>0.2351653980412995</v>
       </c>
       <c r="K206" t="n">
-        <v>0.3433495934453605</v>
+        <v>0.3433414811402973</v>
       </c>
       <c r="L206" t="n">
-        <v>1.607787949865388</v>
+        <v>1.607820843595507</v>
       </c>
       <c r="M206" t="n">
-        <v>1.048862456689252</v>
+        <v>1.048837675264196</v>
       </c>
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr"/>
@@ -9764,25 +9764,25 @@
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr"/>
       <c r="G208" t="n">
-        <v>73.9206940458</v>
+        <v>73.90964547350001</v>
       </c>
       <c r="H208" t="n">
-        <v>73.0904549923</v>
+        <v>73.0786951976</v>
       </c>
       <c r="I208" t="n">
-        <v>0.4111649055533314</v>
+        <v>0.4111742191295733</v>
       </c>
       <c r="J208" t="n">
-        <v>0.2393638595311661</v>
+        <v>0.2393600735245637</v>
       </c>
       <c r="K208" t="n">
-        <v>0.3494712349155025</v>
+        <v>0.349465707345863</v>
       </c>
       <c r="L208" t="n">
-        <v>1.582965951575497</v>
+        <v>1.582988364734583</v>
       </c>
       <c r="M208" t="n">
-        <v>1.067562813509001</v>
+        <v>1.067545927919554</v>
       </c>
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr"/>
@@ -9909,25 +9909,25 @@
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr"/>
       <c r="G211" t="n">
-        <v>74.693844517</v>
+        <v>74.6831184939</v>
       </c>
       <c r="H211" t="n">
-        <v>73.9206940458</v>
+        <v>73.90964547350001</v>
       </c>
       <c r="I211" t="n">
-        <v>0.410260324883979</v>
+        <v>0.4102566441274531</v>
       </c>
       <c r="J211" t="n">
-        <v>0.2397315752504151</v>
+        <v>0.2397330714929053</v>
       </c>
       <c r="K211" t="n">
-        <v>0.3500080998656059</v>
+        <v>0.3500102843796417</v>
       </c>
       <c r="L211" t="n">
-        <v>1.580789074517543</v>
+        <v>1.580780216762001</v>
       </c>
       <c r="M211" t="n">
-        <v>1.069202825616851</v>
+        <v>1.069209498858358</v>
       </c>
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr"/>
@@ -9948,25 +9948,25 @@
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="n">
-        <v>73.9206940458</v>
+        <v>73.90964547350001</v>
       </c>
       <c r="H212" t="n">
-        <v>75.47725709149999</v>
+        <v>75.466492378</v>
       </c>
       <c r="I212" t="n">
-        <v>0.3317848394660521</v>
+        <v>0.3317618523110927</v>
       </c>
       <c r="J212" t="n">
-        <v>0.2716321790788406</v>
+        <v>0.2716415234507754</v>
       </c>
       <c r="K212" t="n">
-        <v>0.3965829814551073</v>
+        <v>0.396596624238132</v>
       </c>
       <c r="L212" t="n">
-        <v>1.391937499853264</v>
+        <v>1.39188218117141</v>
       </c>
       <c r="M212" t="n">
-        <v>1.211479518691629</v>
+        <v>1.211521194590458</v>
       </c>
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr"/>
@@ -10093,25 +10093,25 @@
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="n">
-        <v>73.0472709085</v>
+        <v>73.0354932101</v>
       </c>
       <c r="H215" t="n">
-        <v>73.9206940458</v>
+        <v>73.90964547350001</v>
       </c>
       <c r="I215" t="n">
-        <v>0.3526244174732172</v>
+        <v>0.3525852770407866</v>
       </c>
       <c r="J215" t="n">
-        <v>0.2631608059051962</v>
+        <v>0.2631767166500867</v>
       </c>
       <c r="K215" t="n">
-        <v>0.3842147766215865</v>
+        <v>0.3842380063091266</v>
       </c>
       <c r="L215" t="n">
-        <v>1.442088029041238</v>
+        <v>1.441993837431486</v>
       </c>
       <c r="M215" t="n">
-        <v>1.173697194337175</v>
+        <v>1.173768156259387</v>
       </c>
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr"/>
@@ -10132,25 +10132,25 @@
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr"/>
       <c r="G216" t="n">
-        <v>73.9206940458</v>
+        <v>73.90964547350001</v>
       </c>
       <c r="H216" t="n">
-        <v>71.5179233722</v>
+        <v>71.5055139725</v>
       </c>
       <c r="I216" t="n">
-        <v>0.4664244962006987</v>
+        <v>0.4664571656668135</v>
       </c>
       <c r="J216" t="n">
-        <v>0.216900611300529</v>
+        <v>0.2168873310297506</v>
       </c>
       <c r="K216" t="n">
-        <v>0.3166748924987723</v>
+        <v>0.3166555033034358</v>
       </c>
       <c r="L216" t="n">
-        <v>1.715948381100868</v>
+        <v>1.716027000303876</v>
       </c>
       <c r="M216" t="n">
-        <v>0.9673767264003592</v>
+        <v>0.9673174963926876</v>
       </c>
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr"/>
@@ -10224,25 +10224,25 @@
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr"/>
       <c r="G218" t="n">
-        <v>77.9089917772</v>
+        <v>77.89925171980001</v>
       </c>
       <c r="H218" t="n">
-        <v>74.3462291957</v>
+        <v>74.3349916019</v>
       </c>
       <c r="I218" t="n">
-        <v>0.5134964636071004</v>
+        <v>0.513536003766951</v>
       </c>
       <c r="J218" t="n">
-        <v>0.1977656652003657</v>
+        <v>0.1977495919646541</v>
       </c>
       <c r="K218" t="n">
-        <v>0.288737871192534</v>
+        <v>0.2887144042683949</v>
       </c>
       <c r="L218" t="n">
-        <v>1.829227262013835</v>
+        <v>1.829322415569248</v>
       </c>
       <c r="M218" t="n">
-        <v>0.8820348667936311</v>
+        <v>0.8819631801623571</v>
       </c>
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr"/>
@@ -10316,25 +10316,25 @@
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="n">
-        <v>77.9089917772</v>
+        <v>77.89925171980001</v>
       </c>
       <c r="H220" t="n">
-        <v>75.15952321419999</v>
+        <v>75.14862541559999</v>
       </c>
       <c r="I220" t="n">
-        <v>0.4844585360407133</v>
+        <v>0.4844859431148485</v>
       </c>
       <c r="J220" t="n">
-        <v>0.209569700796458</v>
+        <v>0.2095585597094111</v>
       </c>
       <c r="K220" t="n">
-        <v>0.3059717631628287</v>
+        <v>0.3059554971757403</v>
       </c>
       <c r="L220" t="n">
-        <v>1.759347371284969</v>
+        <v>1.759413326520286</v>
       </c>
       <c r="M220" t="n">
-        <v>0.9346808655522028</v>
+        <v>0.9346311763039736</v>
       </c>
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr"/>
@@ -10408,25 +10408,25 @@
       <c r="E222" t="inlineStr"/>
       <c r="F222" t="inlineStr"/>
       <c r="G222" t="n">
-        <v>77.9089917772</v>
+        <v>77.89925171980001</v>
       </c>
       <c r="H222" t="n">
-        <v>74.96532166999999</v>
+        <v>74.9543426211</v>
       </c>
       <c r="I222" t="n">
-        <v>0.4913901485966683</v>
+        <v>0.4914204749620519</v>
       </c>
       <c r="J222" t="n">
-        <v>0.2067519721151755</v>
+        <v>0.2067396443243691</v>
       </c>
       <c r="K222" t="n">
-        <v>0.3018578792881562</v>
+        <v>0.3018398807135789</v>
       </c>
       <c r="L222" t="n">
-        <v>1.776028325078161</v>
+        <v>1.776101305599735</v>
       </c>
       <c r="M222" t="n">
-        <v>0.9221137956336828</v>
+        <v>0.9220588136866863</v>
       </c>
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr"/>
@@ -10447,25 +10447,25 @@
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr"/>
       <c r="G223" t="n">
-        <v>74.96532166999999</v>
+        <v>74.9543426211</v>
       </c>
       <c r="H223" t="n">
-        <v>77.9089917772</v>
+        <v>77.89925171980001</v>
       </c>
       <c r="I223" t="n">
-        <v>0.2906328630940982</v>
+        <v>0.290583440263317</v>
       </c>
       <c r="J223" t="n">
-        <v>0.2883606247584967</v>
+        <v>0.2883807153401151</v>
       </c>
       <c r="K223" t="n">
-        <v>0.4210065121474051</v>
+        <v>0.421035844396568</v>
       </c>
       <c r="L223" t="n">
-        <v>1.2929051014297</v>
+        <v>1.292786165186519</v>
       </c>
       <c r="M223" t="n">
-        <v>1.286088386422895</v>
+        <v>1.286177990416913</v>
       </c>
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr"/>
@@ -10539,25 +10539,25 @@
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr"/>
       <c r="G225" t="n">
-        <v>72.79331362630001</v>
+        <v>72.7814307125</v>
       </c>
       <c r="H225" t="n">
-        <v>77.9089917772</v>
+        <v>77.89925171980001</v>
       </c>
       <c r="I225" t="n">
-        <v>0.2610929976540995</v>
+        <v>0.2610580634225608</v>
       </c>
       <c r="J225" t="n">
-        <v>0.3577112257709153</v>
+        <v>0.3577971639805005</v>
       </c>
       <c r="K225" t="n">
-        <v>0.3811957765749852</v>
+        <v>0.3811447725969387</v>
       </c>
       <c r="L225" t="n">
-        <v>1.164474769537284</v>
+        <v>1.164318962864621</v>
       </c>
       <c r="M225" t="n">
-        <v>1.454329453887731</v>
+        <v>1.45453626453844</v>
       </c>
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr"/>
@@ -10631,25 +10631,25 @@
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="n">
-        <v>73.0904549923</v>
+        <v>73.0786951976</v>
       </c>
       <c r="H227" t="n">
-        <v>77.9089917772</v>
+        <v>77.89925171980001</v>
       </c>
       <c r="I227" t="n">
-        <v>0.2651897206418368</v>
+        <v>0.2651569243004852</v>
       </c>
       <c r="J227" t="n">
-        <v>0.3476332872210814</v>
+        <v>0.3477139662208065</v>
       </c>
       <c r="K227" t="n">
-        <v>0.3871769921370818</v>
+        <v>0.3871291094787084</v>
       </c>
       <c r="L227" t="n">
-        <v>1.182746154062592</v>
+        <v>1.182599882380164</v>
       </c>
       <c r="M227" t="n">
-        <v>1.430076853800326</v>
+        <v>1.430271008141128</v>
       </c>
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr"/>
@@ -10670,25 +10670,25 @@
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="n">
-        <v>77.9089917772</v>
+        <v>77.89925171980001</v>
       </c>
       <c r="H228" t="n">
-        <v>74.693844517</v>
+        <v>74.6831184939</v>
       </c>
       <c r="I228" t="n">
-        <v>0.5010849083573068</v>
+        <v>0.5011062069480489</v>
       </c>
       <c r="J228" t="n">
-        <v>0.2028110128628834</v>
+        <v>0.2028023548991671</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2961040787798098</v>
+        <v>0.2960914381527839</v>
       </c>
       <c r="L228" t="n">
-        <v>1.79935880385173</v>
+        <v>1.79941005899693</v>
       </c>
       <c r="M228" t="n">
-        <v>0.90453711736846</v>
+        <v>0.9044985028502852</v>
       </c>
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr"/>
@@ -10762,25 +10762,25 @@
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr"/>
       <c r="G230" t="n">
-        <v>77.9089917772</v>
+        <v>77.89925171980001</v>
       </c>
       <c r="H230" t="n">
-        <v>75.47725709149999</v>
+        <v>75.466492378</v>
       </c>
       <c r="I230" t="n">
-        <v>0.4731317959972214</v>
+        <v>0.4731544110531038</v>
       </c>
       <c r="J230" t="n">
-        <v>0.2141740666677962</v>
+        <v>0.2141648735556489</v>
       </c>
       <c r="K230" t="n">
-        <v>0.3126941373349824</v>
+        <v>0.3126807153912474</v>
       </c>
       <c r="L230" t="n">
-        <v>1.732089525326647</v>
+        <v>1.732143948550559</v>
       </c>
       <c r="M230" t="n">
-        <v>0.955216337338371</v>
+        <v>0.955175336058194</v>
       </c>
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr"/>
@@ -10801,25 +10801,25 @@
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="inlineStr"/>
       <c r="G231" t="n">
-        <v>75.47725709149999</v>
+        <v>75.466492378</v>
       </c>
       <c r="H231" t="n">
-        <v>77.9089917772</v>
+        <v>77.89925171980001</v>
       </c>
       <c r="I231" t="n">
-        <v>0.3065595357631056</v>
+        <v>0.3065153436760733</v>
       </c>
       <c r="J231" t="n">
-        <v>0.2818863675759734</v>
+        <v>0.2819043318389945</v>
       </c>
       <c r="K231" t="n">
-        <v>0.4115540966609211</v>
+        <v>0.4115803244849321</v>
       </c>
       <c r="L231" t="n">
-        <v>1.331232703950238</v>
+        <v>1.331126355513152</v>
       </c>
       <c r="M231" t="n">
-        <v>1.257213199388841</v>
+        <v>1.257293320001916</v>
       </c>
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr"/>
@@ -10893,25 +10893,25 @@
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr"/>
       <c r="G233" t="n">
-        <v>73.0472709085</v>
+        <v>73.0354932101</v>
       </c>
       <c r="H233" t="n">
-        <v>77.9089917772</v>
+        <v>77.89925171980001</v>
       </c>
       <c r="I233" t="n">
-        <v>0.2645976680030711</v>
+        <v>0.2645645620771362</v>
       </c>
       <c r="J233" t="n">
-        <v>0.3490897367124452</v>
+        <v>0.3491711772902449</v>
       </c>
       <c r="K233" t="n">
-        <v>0.3863125952844837</v>
+        <v>0.3862642606326189</v>
       </c>
       <c r="L233" t="n">
-        <v>1.180105599293697</v>
+        <v>1.179957946864028</v>
       </c>
       <c r="M233" t="n">
-        <v>1.433581805421819</v>
+        <v>1.433777792503354</v>
       </c>
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr"/>
@@ -10985,25 +10985,25 @@
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr"/>
       <c r="G235" t="n">
-        <v>71.5179233722</v>
+        <v>71.5055139725</v>
       </c>
       <c r="H235" t="n">
-        <v>77.9089917772</v>
+        <v>77.89925171980001</v>
       </c>
       <c r="I235" t="n">
-        <v>0.2429610820497476</v>
+        <v>0.2429168744292695</v>
       </c>
       <c r="J235" t="n">
-        <v>0.4023157381576211</v>
+        <v>0.4024244889039971</v>
       </c>
       <c r="K235" t="n">
-        <v>0.3547231797926314</v>
+        <v>0.3546586366667335</v>
       </c>
       <c r="L235" t="n">
-        <v>1.083606425941874</v>
+        <v>1.083409259954542</v>
       </c>
       <c r="M235" t="n">
-        <v>1.561670394265495</v>
+        <v>1.561932103378725</v>
       </c>
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr"/>
@@ -11077,25 +11077,25 @@
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr"/>
       <c r="G237" t="n">
-        <v>75.15952321419999</v>
+        <v>75.14862541559999</v>
       </c>
       <c r="H237" t="n">
-        <v>74.3462291957</v>
+        <v>74.3349916019</v>
       </c>
       <c r="I237" t="n">
-        <v>0.4122931847312073</v>
+        <v>0.4122898576195931</v>
       </c>
       <c r="J237" t="n">
-        <v>0.2389052094588589</v>
+        <v>0.2389065619432548</v>
       </c>
       <c r="K237" t="n">
-        <v>0.3488016058099339</v>
+        <v>0.348803580437152</v>
       </c>
       <c r="L237" t="n">
-        <v>1.585681160003556</v>
+        <v>1.585673153295932</v>
       </c>
       <c r="M237" t="n">
-        <v>1.06551723418651</v>
+        <v>1.065523266266917</v>
       </c>
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr"/>
@@ -11116,25 +11116,25 @@
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="inlineStr"/>
       <c r="G238" t="n">
-        <v>74.3462291957</v>
+        <v>74.3349916019</v>
       </c>
       <c r="H238" t="n">
-        <v>74.96532166999999</v>
+        <v>74.9543426211</v>
       </c>
       <c r="I238" t="n">
-        <v>0.3626761734006786</v>
+        <v>0.3626527937398028</v>
       </c>
       <c r="J238" t="n">
-        <v>0.2590747262598868</v>
+        <v>0.259084230187072</v>
       </c>
       <c r="K238" t="n">
-        <v>0.3782491003394347</v>
+        <v>0.3782629760731251</v>
       </c>
       <c r="L238" t="n">
-        <v>1.46627762054147</v>
+        <v>1.466221357292534</v>
       </c>
       <c r="M238" t="n">
-        <v>1.155473279119095</v>
+        <v>1.155515666634341</v>
       </c>
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr"/>
@@ -11208,25 +11208,25 @@
       <c r="E240" t="inlineStr"/>
       <c r="F240" t="inlineStr"/>
       <c r="G240" t="n">
-        <v>74.3462291957</v>
+        <v>74.3349916019</v>
       </c>
       <c r="H240" t="n">
-        <v>72.79331362630001</v>
+        <v>72.7814307125</v>
       </c>
       <c r="I240" t="n">
-        <v>0.4369669730402032</v>
+        <v>0.4369738553455133</v>
       </c>
       <c r="J240" t="n">
-        <v>0.2288752142112996</v>
+        <v>0.2288724165262141</v>
       </c>
       <c r="K240" t="n">
-        <v>0.3341578127484973</v>
+        <v>0.3341537281282725</v>
       </c>
       <c r="L240" t="n">
-        <v>1.645058731869107</v>
+        <v>1.645075294164812</v>
       </c>
       <c r="M240" t="n">
-        <v>1.020783455382396</v>
+        <v>1.020770977706915</v>
       </c>
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr"/>
@@ -11247,25 +11247,25 @@
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr"/>
       <c r="G241" t="n">
-        <v>72.79331362630001</v>
+        <v>72.7814307125</v>
       </c>
       <c r="H241" t="n">
-        <v>74.3462291957</v>
+        <v>74.3349916019</v>
       </c>
       <c r="I241" t="n">
-        <v>0.330473418676624</v>
+        <v>0.330437997799328</v>
       </c>
       <c r="J241" t="n">
-        <v>0.272165276960722</v>
+        <v>0.2721796756913301</v>
       </c>
       <c r="K241" t="n">
-        <v>0.397361304362654</v>
+        <v>0.3973823265093419</v>
       </c>
       <c r="L241" t="n">
-        <v>1.388781560392526</v>
+        <v>1.388696319907326</v>
       </c>
       <c r="M241" t="n">
-        <v>1.21385713524482</v>
+        <v>1.213921353583332</v>
       </c>
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr"/>
@@ -11339,25 +11339,25 @@
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="inlineStr"/>
       <c r="G243" t="n">
-        <v>73.0904549923</v>
+        <v>73.0786951976</v>
       </c>
       <c r="H243" t="n">
-        <v>74.3462291957</v>
+        <v>74.3349916019</v>
       </c>
       <c r="I243" t="n">
-        <v>0.3403133986765576</v>
+        <v>0.3402815655050777</v>
       </c>
       <c r="J243" t="n">
-        <v>0.2681652850908303</v>
+        <v>0.26817822540444</v>
       </c>
       <c r="K243" t="n">
-        <v>0.3915213162326122</v>
+        <v>0.3915402090904823</v>
       </c>
       <c r="L243" t="n">
-        <v>1.412461512262285</v>
+        <v>1.412384905605715</v>
       </c>
       <c r="M243" t="n">
-        <v>1.196017171505103</v>
+        <v>1.196074885303802</v>
       </c>
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr"/>
@@ -11378,25 +11378,25 @@
       <c r="E244" t="inlineStr"/>
       <c r="F244" t="inlineStr"/>
       <c r="G244" t="n">
-        <v>74.3462291957</v>
+        <v>74.3349916019</v>
       </c>
       <c r="H244" t="n">
-        <v>74.693844517</v>
+        <v>74.6831184939</v>
       </c>
       <c r="I244" t="n">
-        <v>0.371687294615536</v>
+        <v>0.3716552315606205</v>
       </c>
       <c r="J244" t="n">
-        <v>0.2554116688554732</v>
+        <v>0.2554247026176339</v>
       </c>
       <c r="K244" t="n">
-        <v>0.3729010365289909</v>
+        <v>0.3729200658217455</v>
       </c>
       <c r="L244" t="n">
-        <v>1.487962920375599</v>
+        <v>1.487885760503607</v>
       </c>
       <c r="M244" t="n">
-        <v>1.13913604309541</v>
+        <v>1.139194173674647</v>
       </c>
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr"/>
@@ -11470,25 +11470,25 @@
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="inlineStr"/>
       <c r="G246" t="n">
-        <v>74.3462291957</v>
+        <v>74.3349916019</v>
       </c>
       <c r="H246" t="n">
-        <v>75.47725709149999</v>
+        <v>75.466492378</v>
       </c>
       <c r="I246" t="n">
-        <v>0.3459473700765263</v>
+        <v>0.3459175555677269</v>
       </c>
       <c r="J246" t="n">
-        <v>0.2658750528144203</v>
+        <v>0.2658871725334443</v>
       </c>
       <c r="K246" t="n">
-        <v>0.3881775771090536</v>
+        <v>0.3881952718988287</v>
       </c>
       <c r="L246" t="n">
-        <v>1.426019687338632</v>
+        <v>1.425947938602009</v>
       </c>
       <c r="M246" t="n">
-        <v>1.185802735552314</v>
+        <v>1.185856789499162</v>
       </c>
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr"/>
@@ -11562,25 +11562,25 @@
       <c r="E248" t="inlineStr"/>
       <c r="F248" t="inlineStr"/>
       <c r="G248" t="n">
-        <v>74.3462291957</v>
+        <v>74.3349916019</v>
       </c>
       <c r="H248" t="n">
-        <v>73.0472709085</v>
+        <v>73.0354932101</v>
       </c>
       <c r="I248" t="n">
-        <v>0.428062554296604</v>
+        <v>0.4280657230642629</v>
       </c>
       <c r="J248" t="n">
-        <v>0.2324948966273968</v>
+        <v>0.2324936085104622</v>
       </c>
       <c r="K248" t="n">
-        <v>0.3394425490759993</v>
+        <v>0.3394406684252749</v>
       </c>
       <c r="L248" t="n">
-        <v>1.623630211965811</v>
+        <v>1.623637837618064</v>
       </c>
       <c r="M248" t="n">
-        <v>1.03692723895819</v>
+        <v>1.036921493956662</v>
       </c>
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr"/>
@@ -11707,25 +11707,25 @@
       <c r="E251" t="inlineStr"/>
       <c r="F251" t="inlineStr"/>
       <c r="G251" t="n">
-        <v>71.5179233722</v>
+        <v>71.5055139725</v>
       </c>
       <c r="H251" t="n">
-        <v>74.3462291957</v>
+        <v>74.3349916019</v>
       </c>
       <c r="I251" t="n">
-        <v>0.2899697039619608</v>
+        <v>0.2899206410718216</v>
       </c>
       <c r="J251" t="n">
-        <v>0.2886302016414793</v>
+        <v>0.2886501459057636</v>
       </c>
       <c r="K251" t="n">
-        <v>0.4214000943965598</v>
+        <v>0.4214292130224148</v>
       </c>
       <c r="L251" t="n">
-        <v>1.291309206282442</v>
+        <v>1.29119113623788</v>
       </c>
       <c r="M251" t="n">
-        <v>1.287290699320998</v>
+        <v>1.287379650739706</v>
       </c>
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr"/>
@@ -11799,25 +11799,25 @@
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="inlineStr"/>
       <c r="G253" t="n">
-        <v>74.96532166999999</v>
+        <v>74.9543426211</v>
       </c>
       <c r="H253" t="n">
-        <v>75.15952321419999</v>
+        <v>75.14862541559999</v>
       </c>
       <c r="I253" t="n">
-        <v>0.3776508540273625</v>
+        <v>0.3776333809220518</v>
       </c>
       <c r="J253" t="n">
-        <v>0.2529874577124542</v>
+        <v>0.2529945606007919</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3693616882601832</v>
+        <v>0.3693720584771562</v>
       </c>
       <c r="L253" t="n">
-        <v>1.502314250342271</v>
+        <v>1.502272201243312</v>
       </c>
       <c r="M253" t="n">
-        <v>1.128324061397546</v>
+        <v>1.128355740279532</v>
       </c>
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr"/>
@@ -11838,25 +11838,25 @@
       <c r="E254" t="inlineStr"/>
       <c r="F254" t="inlineStr"/>
       <c r="G254" t="n">
-        <v>75.15952321419999</v>
+        <v>75.14862541559999</v>
       </c>
       <c r="H254" t="n">
-        <v>72.79331362630001</v>
+        <v>72.7814307125</v>
       </c>
       <c r="I254" t="n">
-        <v>0.4668864354400026</v>
+        <v>0.4669059638633204</v>
       </c>
       <c r="J254" t="n">
-        <v>0.2167128311219502</v>
+        <v>0.2167048927384877</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3164007334380472</v>
+        <v>0.316389143398192</v>
       </c>
       <c r="L254" t="n">
-        <v>1.717060039758055</v>
+        <v>1.717107034988153</v>
       </c>
       <c r="M254" t="n">
-        <v>0.9665392268038977</v>
+        <v>0.966503821613655</v>
       </c>
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr"/>
@@ -11877,25 +11877,25 @@
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="inlineStr"/>
       <c r="G255" t="n">
-        <v>72.79331362630001</v>
+        <v>72.7814307125</v>
       </c>
       <c r="H255" t="n">
-        <v>75.15952321419999</v>
+        <v>75.14862541559999</v>
       </c>
       <c r="I255" t="n">
-        <v>0.3052906042048574</v>
+        <v>0.3052463573715544</v>
       </c>
       <c r="J255" t="n">
-        <v>0.2824021934126596</v>
+        <v>0.2824201799302624</v>
       </c>
       <c r="K255" t="n">
-        <v>0.4123072023824829</v>
+        <v>0.4123334626981832</v>
       </c>
       <c r="L255" t="n">
-        <v>1.328179014997055</v>
+        <v>1.328072534812846</v>
       </c>
       <c r="M255" t="n">
-        <v>1.259513782620462</v>
+        <v>1.25959400248897</v>
       </c>
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr"/>
@@ -11969,25 +11969,25 @@
       <c r="E257" t="inlineStr"/>
       <c r="F257" t="inlineStr"/>
       <c r="G257" t="n">
-        <v>73.0904549923</v>
+        <v>73.0786951976</v>
       </c>
       <c r="H257" t="n">
-        <v>75.15952321419999</v>
+        <v>75.14862541559999</v>
       </c>
       <c r="I257" t="n">
-        <v>0.3147332375252793</v>
+        <v>0.3146921869169766</v>
       </c>
       <c r="J257" t="n">
-        <v>0.2785637245832198</v>
+        <v>0.2785804118223673</v>
       </c>
       <c r="K257" t="n">
-        <v>0.4067030378915009</v>
+        <v>0.4067274012606562</v>
       </c>
       <c r="L257" t="n">
-        <v>1.350902750467339</v>
+        <v>1.350803962011586</v>
       </c>
       <c r="M257" t="n">
-        <v>1.24239421164116</v>
+        <v>1.242468636727758</v>
       </c>
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr"/>
@@ -12008,25 +12008,25 @@
       <c r="E258" t="inlineStr"/>
       <c r="F258" t="inlineStr"/>
       <c r="G258" t="n">
-        <v>75.15952321419999</v>
+        <v>75.14862541559999</v>
       </c>
       <c r="H258" t="n">
-        <v>74.693844517</v>
+        <v>74.6831184939</v>
       </c>
       <c r="I258" t="n">
-        <v>0.4003149875612432</v>
+        <v>0.4002941472831683</v>
       </c>
       <c r="J258" t="n">
-        <v>0.2437743953003076</v>
+        <v>0.2437828669580616</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3559106171384491</v>
+        <v>0.35592298575877</v>
       </c>
       <c r="L258" t="n">
-        <v>1.556855579822179</v>
+        <v>1.556805427608275</v>
       </c>
       <c r="M258" t="n">
-        <v>1.087233803039372</v>
+        <v>1.087271586632955</v>
       </c>
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr"/>
@@ -12100,25 +12100,25 @@
       <c r="E260" t="inlineStr"/>
       <c r="F260" t="inlineStr"/>
       <c r="G260" t="n">
-        <v>75.15952321419999</v>
+        <v>75.14862541559999</v>
       </c>
       <c r="H260" t="n">
-        <v>75.47725709149999</v>
+        <v>75.466492378</v>
       </c>
       <c r="I260" t="n">
-        <v>0.3737719115565408</v>
+        <v>0.3737528855904306</v>
       </c>
       <c r="J260" t="n">
-        <v>0.2545642635949021</v>
+        <v>0.2545719977274672</v>
       </c>
       <c r="K260" t="n">
-        <v>0.371663824848557</v>
+        <v>0.3716751166821021</v>
       </c>
       <c r="L260" t="n">
-        <v>1.492979559518179</v>
+        <v>1.492933773453394</v>
       </c>
       <c r="M260" t="n">
-        <v>1.135356615633263</v>
+        <v>1.135391109864504</v>
       </c>
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr"/>
@@ -12192,25 +12192,25 @@
       <c r="E262" t="inlineStr"/>
       <c r="F262" t="inlineStr"/>
       <c r="G262" t="n">
-        <v>75.15952321419999</v>
+        <v>75.14862541559999</v>
       </c>
       <c r="H262" t="n">
-        <v>73.0472709085</v>
+        <v>73.0354932101</v>
       </c>
       <c r="I262" t="n">
-        <v>0.4578681366461867</v>
+        <v>0.4578838808088056</v>
       </c>
       <c r="J262" t="n">
-        <v>0.2203788062413875</v>
+        <v>0.2203724061752823</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3217530571124257</v>
+        <v>0.3217437130159121</v>
       </c>
       <c r="L262" t="n">
-        <v>1.695357467050986</v>
+        <v>1.695395355442329</v>
       </c>
       <c r="M262" t="n">
-        <v>0.9828894758365883</v>
+        <v>0.9828609315417589</v>
       </c>
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr"/>
@@ -12284,25 +12284,25 @@
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="inlineStr"/>
       <c r="G264" t="n">
-        <v>75.15952321419999</v>
+        <v>75.14862541559999</v>
       </c>
       <c r="H264" t="n">
-        <v>71.5179233722</v>
+        <v>71.5055139725</v>
       </c>
       <c r="I264" t="n">
-        <v>0.5123850132851614</v>
+        <v>0.512423407110671</v>
       </c>
       <c r="J264" t="n">
-        <v>0.1982174742743246</v>
+        <v>0.1982018670281825</v>
       </c>
       <c r="K264" t="n">
-        <v>0.289397512440514</v>
+        <v>0.2893747258611464</v>
       </c>
       <c r="L264" t="n">
-        <v>1.826552552295998</v>
+        <v>1.826644947193159</v>
       </c>
       <c r="M264" t="n">
-        <v>0.8840499352634879</v>
+        <v>0.883980326945694</v>
       </c>
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr"/>
@@ -12376,25 +12376,25 @@
       <c r="E266" t="inlineStr"/>
       <c r="F266" t="inlineStr"/>
       <c r="G266" t="n">
-        <v>74.96532166999999</v>
+        <v>74.9543426211</v>
       </c>
       <c r="H266" t="n">
-        <v>72.79331362630001</v>
+        <v>72.7814307125</v>
       </c>
       <c r="I266" t="n">
-        <v>0.4597122246307638</v>
+        <v>0.4597287134569157</v>
       </c>
       <c r="J266" t="n">
-        <v>0.2196291769793643</v>
+        <v>0.2196224742045058</v>
       </c>
       <c r="K266" t="n">
-        <v>0.3206585983898719</v>
+        <v>0.3206488123385785</v>
       </c>
       <c r="L266" t="n">
-        <v>1.699795272282163</v>
+        <v>1.699834952709326</v>
       </c>
       <c r="M266" t="n">
-        <v>0.9795461293279648</v>
+        <v>0.9795162349520961</v>
       </c>
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr"/>
@@ -12468,25 +12468,25 @@
       <c r="E268" t="inlineStr"/>
       <c r="F268" t="inlineStr"/>
       <c r="G268" t="n">
-        <v>74.96532166999999</v>
+        <v>74.9543426211</v>
       </c>
       <c r="H268" t="n">
-        <v>73.0904549923</v>
+        <v>73.0786951976</v>
       </c>
       <c r="I268" t="n">
-        <v>0.4491885092648517</v>
+        <v>0.4492005827315338</v>
       </c>
       <c r="J268" t="n">
-        <v>0.2239071100549384</v>
+        <v>0.223902202141653</v>
       </c>
       <c r="K268" t="n">
-        <v>0.32690438068021</v>
+        <v>0.3268972151268133</v>
       </c>
       <c r="L268" t="n">
-        <v>1.674469908474765</v>
+        <v>1.674498963321415</v>
       </c>
       <c r="M268" t="n">
-        <v>0.9986257108450252</v>
+        <v>0.9986038215517721</v>
       </c>
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr"/>
@@ -12613,25 +12613,25 @@
       <c r="E271" t="inlineStr"/>
       <c r="F271" t="inlineStr"/>
       <c r="G271" t="n">
-        <v>74.693844517</v>
+        <v>74.6831184939</v>
       </c>
       <c r="H271" t="n">
-        <v>74.96532166999999</v>
+        <v>74.9543426211</v>
       </c>
       <c r="I271" t="n">
-        <v>0.374696250522305</v>
+        <v>0.3746903590891076</v>
       </c>
       <c r="J271" t="n">
-        <v>0.2541885160478435</v>
+        <v>0.2541909109393872</v>
       </c>
       <c r="K271" t="n">
-        <v>0.3711152334298515</v>
+        <v>0.3711187299715053</v>
       </c>
       <c r="L271" t="n">
-        <v>1.495203984996766</v>
+        <v>1.495189807238828</v>
       </c>
       <c r="M271" t="n">
-        <v>1.133680781573382</v>
+        <v>1.133691462789667</v>
       </c>
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr"/>
@@ -12705,25 +12705,25 @@
       <c r="E273" t="inlineStr"/>
       <c r="F273" t="inlineStr"/>
       <c r="G273" t="n">
-        <v>75.47725709149999</v>
+        <v>75.466492378</v>
       </c>
       <c r="H273" t="n">
-        <v>74.96532166999999</v>
+        <v>74.9543426211</v>
       </c>
       <c r="I273" t="n">
-        <v>0.4023388990992652</v>
+        <v>0.4023314704460423</v>
       </c>
       <c r="J273" t="n">
-        <v>0.242951667032819</v>
+        <v>0.242954686810552</v>
       </c>
       <c r="K273" t="n">
-        <v>0.3547094338679157</v>
+        <v>0.3547138427434058</v>
       </c>
       <c r="L273" t="n">
-        <v>1.561726131165712</v>
+        <v>1.561708254081533</v>
       </c>
       <c r="M273" t="n">
-        <v>1.083564434966373</v>
+        <v>1.083577903175062</v>
       </c>
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr"/>
@@ -12744,25 +12744,25 @@
       <c r="E274" t="inlineStr"/>
       <c r="F274" t="inlineStr"/>
       <c r="G274" t="n">
-        <v>74.96532166999999</v>
+        <v>74.9543426211</v>
       </c>
       <c r="H274" t="n">
-        <v>73.0472709085</v>
+        <v>73.0354932101</v>
       </c>
       <c r="I274" t="n">
-        <v>0.4507153441665203</v>
+        <v>0.4507280582985427</v>
       </c>
       <c r="J274" t="n">
-        <v>0.2232864454607641</v>
+        <v>0.2232812771144136</v>
       </c>
       <c r="K274" t="n">
-        <v>0.3259982103727155</v>
+        <v>0.3259906645870438</v>
       </c>
       <c r="L274" t="n">
-        <v>1.678144242872276</v>
+        <v>1.678174839482672</v>
       </c>
       <c r="M274" t="n">
-        <v>0.9958575467550077</v>
+        <v>0.9958344959302845</v>
       </c>
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr"/>
@@ -12889,25 +12889,25 @@
       <c r="E277" t="inlineStr"/>
       <c r="F277" t="inlineStr"/>
       <c r="G277" t="n">
-        <v>71.5179233722</v>
+        <v>71.5055139725</v>
       </c>
       <c r="H277" t="n">
-        <v>74.96532166999999</v>
+        <v>74.9543426211</v>
       </c>
       <c r="I277" t="n">
-        <v>0.2818946908481225</v>
+        <v>0.2818709050385318</v>
       </c>
       <c r="J277" t="n">
-        <v>0.3065390605136185</v>
+        <v>0.3065975736052116</v>
       </c>
       <c r="K277" t="n">
-        <v>0.411566248638259</v>
+        <v>0.4115315213562565</v>
       </c>
       <c r="L277" t="n">
-        <v>1.257250321182626</v>
+        <v>1.257144236471852</v>
       </c>
       <c r="M277" t="n">
-        <v>1.331183430179114</v>
+        <v>1.331324242171891</v>
       </c>
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr"/>
@@ -12928,25 +12928,25 @@
       <c r="E278" t="inlineStr"/>
       <c r="F278" t="inlineStr"/>
       <c r="G278" t="n">
-        <v>72.79331362630001</v>
+        <v>72.7814307125</v>
       </c>
       <c r="H278" t="n">
-        <v>73.0904549923</v>
+        <v>73.0786951976</v>
       </c>
       <c r="I278" t="n">
-        <v>0.3712989518343568</v>
+        <v>0.3712789954183845</v>
       </c>
       <c r="J278" t="n">
-        <v>0.2555695317746517</v>
+        <v>0.2555776441388681</v>
       </c>
       <c r="K278" t="n">
-        <v>0.3731315163909915</v>
+        <v>0.3731433604427474</v>
       </c>
       <c r="L278" t="n">
-        <v>1.487028371894062</v>
+        <v>1.486980346697901</v>
       </c>
       <c r="M278" t="n">
-        <v>1.139840111714947</v>
+        <v>1.139876292859352</v>
       </c>
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr"/>
@@ -13073,25 +13073,25 @@
       <c r="E281" t="inlineStr"/>
       <c r="F281" t="inlineStr"/>
       <c r="G281" t="n">
-        <v>74.693844517</v>
+        <v>74.6831184939</v>
       </c>
       <c r="H281" t="n">
-        <v>72.79331362630001</v>
+        <v>72.7814307125</v>
       </c>
       <c r="I281" t="n">
-        <v>0.4497118592743092</v>
+        <v>0.4497375910926658</v>
       </c>
       <c r="J281" t="n">
-        <v>0.2236943661486548</v>
+        <v>0.223683906059892</v>
       </c>
       <c r="K281" t="n">
-        <v>0.326593774577036</v>
+        <v>0.3265785028474423</v>
       </c>
       <c r="L281" t="n">
-        <v>1.675729352399963</v>
+        <v>1.67579127612544</v>
       </c>
       <c r="M281" t="n">
-        <v>0.9976768730230003</v>
+        <v>0.9976302210271182</v>
       </c>
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr"/>
@@ -13165,25 +13165,25 @@
       <c r="E283" t="inlineStr"/>
       <c r="F283" t="inlineStr"/>
       <c r="G283" t="n">
-        <v>75.47725709149999</v>
+        <v>75.466492378</v>
       </c>
       <c r="H283" t="n">
-        <v>72.79331362630001</v>
+        <v>72.7814307125</v>
       </c>
       <c r="I283" t="n">
-        <v>0.4786524247910728</v>
+        <v>0.4786769376399245</v>
       </c>
       <c r="J283" t="n">
-        <v>0.2119299086215151</v>
+        <v>0.2119199440488112</v>
       </c>
       <c r="K283" t="n">
-        <v>0.309417666587412</v>
+        <v>0.3094031183112643</v>
       </c>
       <c r="L283" t="n">
-        <v>1.745374940960631</v>
+        <v>1.745433931231038</v>
       </c>
       <c r="M283" t="n">
-        <v>0.9452073924519573</v>
+        <v>0.9451629504576978</v>
       </c>
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr"/>
@@ -13257,25 +13257,25 @@
       <c r="E285" t="inlineStr"/>
       <c r="F285" t="inlineStr"/>
       <c r="G285" t="n">
-        <v>73.0472709085</v>
+        <v>73.0354932101</v>
       </c>
       <c r="H285" t="n">
-        <v>72.79331362630001</v>
+        <v>72.7814307125</v>
       </c>
       <c r="I285" t="n">
-        <v>0.3902006768993169</v>
+        <v>0.3901882395459388</v>
       </c>
       <c r="J285" t="n">
-        <v>0.2478859036994647</v>
+        <v>0.2478909595341712</v>
       </c>
       <c r="K285" t="n">
-        <v>0.3619134194012184</v>
+        <v>0.36192080091989</v>
       </c>
       <c r="L285" t="n">
-        <v>1.532515450099169</v>
+        <v>1.532485519557707</v>
       </c>
       <c r="M285" t="n">
-        <v>1.105571130499612</v>
+        <v>1.105593679522404</v>
       </c>
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr"/>
@@ -13296,25 +13296,25 @@
       <c r="E286" t="inlineStr"/>
       <c r="F286" t="inlineStr"/>
       <c r="G286" t="n">
-        <v>72.79331362630001</v>
+        <v>72.7814307125</v>
       </c>
       <c r="H286" t="n">
-        <v>71.5179233722</v>
+        <v>71.5055139725</v>
       </c>
       <c r="I286" t="n">
-        <v>0.4250684073274187</v>
+        <v>0.4250701937618589</v>
       </c>
       <c r="J286" t="n">
-        <v>0.2337120295416997</v>
+        <v>0.2337113033488379</v>
       </c>
       <c r="K286" t="n">
-        <v>0.3412195631308815</v>
+        <v>0.3412185028893032</v>
       </c>
       <c r="L286" t="n">
-        <v>1.616424785113138</v>
+        <v>1.61642908417488</v>
       </c>
       <c r="M286" t="n">
-        <v>1.04235565175598</v>
+        <v>1.042352412935817</v>
       </c>
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr"/>
@@ -13388,25 +13388,25 @@
       <c r="E288" t="inlineStr"/>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="n">
-        <v>73.0904549923</v>
+        <v>73.0786951976</v>
       </c>
       <c r="H288" t="n">
-        <v>74.693844517</v>
+        <v>74.6831184939</v>
       </c>
       <c r="I288" t="n">
-        <v>0.3292548354435864</v>
+        <v>0.3292073816703921</v>
       </c>
       <c r="J288" t="n">
-        <v>0.2726606359985421</v>
+        <v>0.2726799261502472</v>
       </c>
       <c r="K288" t="n">
-        <v>0.3980845285578715</v>
+        <v>0.3981126921793608</v>
       </c>
       <c r="L288" t="n">
-        <v>1.385849034888631</v>
+        <v>1.385734837190537</v>
       </c>
       <c r="M288" t="n">
-        <v>1.216066436553498</v>
+        <v>1.216152470630102</v>
       </c>
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr"/>
@@ -13533,25 +13533,25 @@
       <c r="E291" t="inlineStr"/>
       <c r="F291" t="inlineStr"/>
       <c r="G291" t="n">
-        <v>75.47725709149999</v>
+        <v>75.466492378</v>
       </c>
       <c r="H291" t="n">
-        <v>73.0904549923</v>
+        <v>73.0786951976</v>
       </c>
       <c r="I291" t="n">
-        <v>0.4680707556107402</v>
+        <v>0.4680908339021292</v>
       </c>
       <c r="J291" t="n">
-        <v>0.2162314001582357</v>
+        <v>0.216223238251167</v>
       </c>
       <c r="K291" t="n">
-        <v>0.3156978442310241</v>
+        <v>0.3156859278467038</v>
       </c>
       <c r="L291" t="n">
-        <v>1.719910111063245</v>
+        <v>1.719958429553091</v>
       </c>
       <c r="M291" t="n">
-        <v>0.9643920447057313</v>
+        <v>0.9643556426002048</v>
       </c>
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr"/>
@@ -13625,25 +13625,25 @@
       <c r="E293" t="inlineStr"/>
       <c r="F293" t="inlineStr"/>
       <c r="G293" t="n">
-        <v>73.0472709085</v>
+        <v>73.0354932101</v>
       </c>
       <c r="H293" t="n">
-        <v>73.0904549923</v>
+        <v>73.0786951976</v>
       </c>
       <c r="I293" t="n">
-        <v>0.3801486034942076</v>
+        <v>0.380132142407586</v>
       </c>
       <c r="J293" t="n">
-        <v>0.2519721124007286</v>
+        <v>0.2519788038993553</v>
       </c>
       <c r="K293" t="n">
-        <v>0.3678792841050638</v>
+        <v>0.3678890536930587</v>
       </c>
       <c r="L293" t="n">
-        <v>1.508325094587687</v>
+        <v>1.508285480915817</v>
       </c>
       <c r="M293" t="n">
-        <v>1.12379562130725</v>
+        <v>1.123825465391124</v>
       </c>
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr"/>
@@ -13664,25 +13664,25 @@
       <c r="E294" t="inlineStr"/>
       <c r="F294" t="inlineStr"/>
       <c r="G294" t="n">
-        <v>73.0904549923</v>
+        <v>73.0786951976</v>
       </c>
       <c r="H294" t="n">
-        <v>71.5179233722</v>
+        <v>71.5055139725</v>
       </c>
       <c r="I294" t="n">
-        <v>0.4358912582611938</v>
+        <v>0.4358975535213985</v>
       </c>
       <c r="J294" t="n">
-        <v>0.2293124966417911</v>
+        <v>0.2293099375929274</v>
       </c>
       <c r="K294" t="n">
-        <v>0.334796245097015</v>
+        <v>0.334792508885674</v>
       </c>
       <c r="L294" t="n">
-        <v>1.642470019880597</v>
+        <v>1.642485169449869</v>
       </c>
       <c r="M294" t="n">
-        <v>1.022733735022388</v>
+        <v>1.022722321664456</v>
       </c>
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr"/>
@@ -13703,25 +13703,25 @@
       <c r="E295" t="inlineStr"/>
       <c r="F295" t="inlineStr"/>
       <c r="G295" t="n">
-        <v>71.5179233722</v>
+        <v>71.5055139725</v>
       </c>
       <c r="H295" t="n">
-        <v>73.0904549923</v>
+        <v>73.0786951976</v>
       </c>
       <c r="I295" t="n">
-        <v>0.3282446766443574</v>
+        <v>0.3282085792404865</v>
       </c>
       <c r="J295" t="n">
-        <v>0.2730712696567653</v>
+        <v>0.2730859433981762</v>
       </c>
       <c r="K295" t="n">
-        <v>0.3986840536988773</v>
+        <v>0.3987054773613373</v>
       </c>
       <c r="L295" t="n">
-        <v>1.38341808363195</v>
+        <v>1.383331215082797</v>
       </c>
       <c r="M295" t="n">
-        <v>1.217897862669173</v>
+        <v>1.217963307555866</v>
       </c>
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr"/>
@@ -13742,25 +13742,25 @@
       <c r="E296" t="inlineStr"/>
       <c r="F296" t="inlineStr"/>
       <c r="G296" t="n">
-        <v>74.693844517</v>
+        <v>74.6831184939</v>
       </c>
       <c r="H296" t="n">
-        <v>75.47725709149999</v>
+        <v>75.466492378</v>
       </c>
       <c r="I296" t="n">
-        <v>0.3577242102640377</v>
+        <v>0.3577113980800607</v>
       </c>
       <c r="J296" t="n">
-        <v>0.2610877194048627</v>
+        <v>0.2610929276097314</v>
       </c>
       <c r="K296" t="n">
-        <v>0.3811880703310995</v>
+        <v>0.3811956743102079</v>
       </c>
       <c r="L296" t="n">
-        <v>1.454360701123213</v>
+        <v>1.45432986855039</v>
       </c>
       <c r="M296" t="n">
-        <v>1.164451228545688</v>
+        <v>1.164474457139402</v>
       </c>
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr"/>
@@ -13887,25 +13887,25 @@
       <c r="E299" t="inlineStr"/>
       <c r="F299" t="inlineStr"/>
       <c r="G299" t="n">
-        <v>73.0472709085</v>
+        <v>73.0354932101</v>
       </c>
       <c r="H299" t="n">
-        <v>74.693844517</v>
+        <v>74.6831184939</v>
       </c>
       <c r="I299" t="n">
-        <v>0.3278394597615816</v>
+        <v>0.3277915241779758</v>
       </c>
       <c r="J299" t="n">
-        <v>0.2732359919668368</v>
+        <v>0.2732554779764326</v>
       </c>
       <c r="K299" t="n">
-        <v>0.3989245482715816</v>
+        <v>0.3989529978455916</v>
       </c>
       <c r="L299" t="n">
-        <v>1.382442927556326</v>
+        <v>1.382327570379519</v>
       </c>
       <c r="M299" t="n">
-        <v>1.218632524172092</v>
+        <v>1.218719431774889</v>
       </c>
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr"/>
@@ -13926,25 +13926,25 @@
       <c r="E300" t="inlineStr"/>
       <c r="F300" t="inlineStr"/>
       <c r="G300" t="n">
-        <v>74.693844517</v>
+        <v>74.6831184939</v>
       </c>
       <c r="H300" t="n">
-        <v>71.5179233722</v>
+        <v>71.5055139725</v>
       </c>
       <c r="I300" t="n">
-        <v>0.4950910675863931</v>
+        <v>0.4951358610103182</v>
       </c>
       <c r="J300" t="n">
-        <v>0.2052475335014662</v>
+        <v>0.2052293247925536</v>
       </c>
       <c r="K300" t="n">
-        <v>0.2996613989121407</v>
+        <v>0.2996348141971283</v>
       </c>
       <c r="L300" t="n">
-        <v>1.78493460167132</v>
+        <v>1.785042397228083</v>
       </c>
       <c r="M300" t="n">
-        <v>0.9154039994165393</v>
+        <v>0.915322788574789</v>
       </c>
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr"/>
@@ -14018,25 +14018,25 @@
       <c r="E302" t="inlineStr"/>
       <c r="F302" t="inlineStr"/>
       <c r="G302" t="n">
-        <v>75.47725709149999</v>
+        <v>75.466492378</v>
       </c>
       <c r="H302" t="n">
-        <v>73.0472709085</v>
+        <v>73.0354932101</v>
       </c>
       <c r="I302" t="n">
-        <v>0.4696070527505383</v>
+        <v>0.4696277758189689</v>
       </c>
       <c r="J302" t="n">
-        <v>0.2156068891257975</v>
+        <v>0.2155984651142403</v>
       </c>
       <c r="K302" t="n">
-        <v>0.3147860581236643</v>
+        <v>0.3147737590667908</v>
       </c>
       <c r="L302" t="n">
-        <v>1.723607216375279</v>
+        <v>1.723657086523697</v>
       </c>
       <c r="M302" t="n">
-        <v>0.9616067255010567</v>
+        <v>0.9615691544095117</v>
       </c>
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr"/>
@@ -14163,25 +14163,25 @@
       <c r="E305" t="inlineStr"/>
       <c r="F305" t="inlineStr"/>
       <c r="G305" t="n">
-        <v>71.5179233722</v>
+        <v>71.5055139725</v>
       </c>
       <c r="H305" t="n">
-        <v>75.47725709149999</v>
+        <v>75.466492378</v>
       </c>
       <c r="I305" t="n">
-        <v>0.2754872873850652</v>
+        <v>0.2754601280941281</v>
       </c>
       <c r="J305" t="n">
-        <v>0.3223012730327395</v>
+        <v>0.3223680848884448</v>
       </c>
       <c r="K305" t="n">
-        <v>0.4022114395821952</v>
+        <v>0.4021717870174271</v>
       </c>
       <c r="L305" t="n">
-        <v>1.228673301737391</v>
+        <v>1.228552171299811</v>
       </c>
       <c r="M305" t="n">
-        <v>1.369115258680414</v>
+        <v>1.369276041682761</v>
       </c>
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr"/>
@@ -14202,25 +14202,25 @@
       <c r="E306" t="inlineStr"/>
       <c r="F306" t="inlineStr"/>
       <c r="G306" t="n">
-        <v>73.0472709085</v>
+        <v>73.0354932101</v>
       </c>
       <c r="H306" t="n">
-        <v>71.5179233722</v>
+        <v>71.5055139725</v>
       </c>
       <c r="I306" t="n">
-        <v>0.434314301035186</v>
+        <v>0.4343199375355512</v>
       </c>
       <c r="J306" t="n">
-        <v>0.2299535361645585</v>
+        <v>0.2299512449042475</v>
       </c>
       <c r="K306" t="n">
-        <v>0.3357321628002555</v>
+        <v>0.3357288175602013</v>
       </c>
       <c r="L306" t="n">
-        <v>1.638675065905814</v>
+        <v>1.638688630166855</v>
       </c>
       <c r="M306" t="n">
-        <v>1.025592771293931</v>
+        <v>1.025582552272944</v>
       </c>
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr"/>
@@ -14241,25 +14241,25 @@
       <c r="E307" t="inlineStr"/>
       <c r="F307" t="inlineStr"/>
       <c r="G307" t="n">
-        <v>71.5179233722</v>
+        <v>71.5055139725</v>
       </c>
       <c r="H307" t="n">
-        <v>73.0472709085</v>
+        <v>73.0354932101</v>
       </c>
       <c r="I307" t="n">
-        <v>0.3296064145143391</v>
+        <v>0.3295708059557295</v>
       </c>
       <c r="J307" t="n">
-        <v>0.2725177176770979</v>
+        <v>0.272532192700923</v>
       </c>
       <c r="K307" t="n">
-        <v>0.3978758678085629</v>
+        <v>0.3978970013433475</v>
       </c>
       <c r="L307" t="n">
-        <v>1.38669511135158</v>
+        <v>1.386609419210536</v>
       </c>
       <c r="M307" t="n">
-        <v>1.215429020839857</v>
+        <v>1.215493579446117</v>
       </c>
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr"/>

--- a/Sezon/Ekstraklasa2025_26.xlsx
+++ b/Sezon/Ekstraklasa2025_26.xlsx
@@ -526,25 +526,25 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>78.1056291295</v>
+        <v>78.1165639772</v>
       </c>
       <c r="H2" t="n">
-        <v>80.7061902235</v>
+        <v>80.7159652396</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3046287196239059</v>
+        <v>0.3046770561184352</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2826712521854041</v>
+        <v>0.2826516032038882</v>
       </c>
       <c r="K2" t="n">
-        <v>0.41270002819069</v>
+        <v>0.4126713406776766</v>
       </c>
       <c r="L2" t="n">
-        <v>1.326586187062408</v>
+        <v>1.326702509032982</v>
       </c>
       <c r="M2" t="n">
-        <v>1.260713784746902</v>
+        <v>1.260626150289341</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
@@ -567,11 +567,11 @@
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Raków Częstochowa</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -596,10 +596,10 @@
         <v>0.9376059848370959</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -620,11 +620,11 @@
         <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lech Poznań</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -649,10 +649,10 @@
         <v>1.199467985142215</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -671,25 +671,25 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>79.6344023087</v>
+        <v>79.6442897348</v>
       </c>
       <c r="H5" t="n">
-        <v>78.1056291295</v>
+        <v>78.1165639772</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4435636563375183</v>
+        <v>0.4435406700698379</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2261936356351552</v>
+        <v>0.2262029796464073</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3302427080273265</v>
+        <v>0.3302563502837547</v>
       </c>
       <c r="L5" t="n">
-        <v>1.660933677039881</v>
+        <v>1.660878360493268</v>
       </c>
       <c r="M5" t="n">
-        <v>1.008823614932792</v>
+        <v>1.008865289222977</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -763,25 +763,25 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>76.03565305799999</v>
+        <v>76.0471336523</v>
       </c>
       <c r="H7" t="n">
-        <v>78.1056291295</v>
+        <v>78.1165639772</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3183461269192686</v>
+        <v>0.3183772820817869</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2770950703580209</v>
+        <v>0.2770824056578102</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4045588027227105</v>
+        <v>0.4045403122604028</v>
       </c>
       <c r="L7" t="n">
-        <v>1.359597183480516</v>
+        <v>1.359672158505763</v>
       </c>
       <c r="M7" t="n">
-        <v>1.235844013796773</v>
+        <v>1.235787529233833</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -802,25 +802,25 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>78.1056291295</v>
+        <v>78.1165639772</v>
       </c>
       <c r="H8" t="n">
-        <v>77.1973156457</v>
+        <v>77.2079182808</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4196806720304128</v>
+        <v>0.4197074489448095</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2359021658412956</v>
+        <v>0.2358912809167441</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3444171621282916</v>
+        <v>0.3444012701384463</v>
       </c>
       <c r="L8" t="n">
-        <v>1.60345917821953</v>
+        <v>1.603523616972875</v>
       </c>
       <c r="M8" t="n">
-        <v>1.052123659652178</v>
+        <v>1.052075112888679</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -947,25 +947,25 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>76.5136495429</v>
+        <v>76.52528694980001</v>
       </c>
       <c r="H11" t="n">
-        <v>78.1056291295</v>
+        <v>78.1165639772</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3339516261650831</v>
+        <v>0.3339887426463321</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2707513714776086</v>
+        <v>0.2707362834771007</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3952970023573085</v>
+        <v>0.3952749738765671</v>
       </c>
       <c r="L11" t="n">
-        <v>1.397151880852558</v>
+        <v>1.397241201815563</v>
       </c>
       <c r="M11" t="n">
-        <v>1.207551116790134</v>
+        <v>1.207483824307869</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -1039,25 +1039,25 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>73.36393093540001</v>
+        <v>73.3765750681</v>
       </c>
       <c r="H13" t="n">
-        <v>78.1056291295</v>
+        <v>78.1165639772</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2663435170465818</v>
+        <v>0.266372575148732</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3447949480654088</v>
+        <v>0.3447234651341193</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3888615348880095</v>
+        <v>0.3889039597171488</v>
       </c>
       <c r="L13" t="n">
-        <v>1.187892086027755</v>
+        <v>1.188021685163345</v>
       </c>
       <c r="M13" t="n">
-        <v>1.423246379084236</v>
+        <v>1.423074355119507</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1078,25 +1078,25 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
-        <v>78.1056291295</v>
+        <v>78.1165639772</v>
       </c>
       <c r="H14" t="n">
-        <v>73.90964547350001</v>
+        <v>73.9220533151</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5363315458959853</v>
+        <v>0.5362947552660958</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1884831114243962</v>
+        <v>0.1884980669650017</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2751853426796185</v>
+        <v>0.2752071777689025</v>
       </c>
       <c r="L14" t="n">
-        <v>1.884179980367574</v>
+        <v>1.88409144356719</v>
       </c>
       <c r="M14" t="n">
-        <v>0.8406346769528071</v>
+        <v>0.8407013786639076</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1169,10 +1169,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1223,25 +1223,25 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
-        <v>77.89925171980001</v>
+        <v>77.9102779676</v>
       </c>
       <c r="H17" t="n">
-        <v>78.1056291295</v>
+        <v>78.1165639772</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3811888405362596</v>
+        <v>0.3812067830398093</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2515492518145286</v>
+        <v>0.2515419581138987</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3672619076492118</v>
+        <v>0.367251258846292</v>
       </c>
       <c r="L17" t="n">
-        <v>1.510828429257991</v>
+        <v>1.51087160796572</v>
       </c>
       <c r="M17" t="n">
-        <v>1.121909663092798</v>
+        <v>1.121877133187988</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1262,31 +1262,33 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
-        <v>78.1056291295</v>
+        <v>78.1165639772</v>
       </c>
       <c r="H18" t="n">
-        <v>74.3349916019</v>
+        <v>74.34721478</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5211920550963106</v>
+        <v>0.5211617190232406</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1946373759771095</v>
+        <v>0.1946497077141299</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2841705689265798</v>
+        <v>0.2841885732626296</v>
       </c>
       <c r="L18" t="n">
-        <v>1.847746734215512</v>
+        <v>1.847673730332351</v>
       </c>
       <c r="M18" t="n">
-        <v>0.8680826968579083</v>
+        <v>0.8681376964050193</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Piast Gliwice</t>
@@ -1297,9 +1299,17 @@
           <t>Lech Poznań</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
       <c r="G19" t="n">
         <v>74.3349916019</v>
       </c>
@@ -1321,8 +1331,12 @@
       <c r="M19" t="n">
         <v>1.346659715813384</v>
       </c>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
+      <c r="N19" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1393,25 +1407,25 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
-        <v>75.14862541559999</v>
+        <v>75.1604941675</v>
       </c>
       <c r="H21" t="n">
-        <v>78.1056291295</v>
+        <v>78.1165639772</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2904561387172426</v>
+        <v>0.2904976135359891</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2884324639360802</v>
+        <v>0.288415604253663</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4211113973466772</v>
+        <v>0.421086782210348</v>
       </c>
       <c r="L21" t="n">
-        <v>1.292479813498405</v>
+        <v>1.292579622818315</v>
       </c>
       <c r="M21" t="n">
-        <v>1.286408789154918</v>
+        <v>1.286333594971337</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1432,25 +1446,25 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="n">
-        <v>78.1056291295</v>
+        <v>78.1165639772</v>
       </c>
       <c r="H22" t="n">
-        <v>74.9543426211</v>
+        <v>74.9662961455</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4990850804486507</v>
+        <v>0.4990643204200369</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2036239510371338</v>
+        <v>0.2036323900731557</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2972909685142154</v>
+        <v>0.2973032895068073</v>
       </c>
       <c r="L22" t="n">
-        <v>1.794546209860167</v>
+        <v>1.794496250766918</v>
       </c>
       <c r="M22" t="n">
-        <v>0.908162821625617</v>
+        <v>0.9082004597262745</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1471,25 +1485,25 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
-        <v>74.9543426211</v>
+        <v>74.9662961455</v>
       </c>
       <c r="H23" t="n">
-        <v>78.1056291295</v>
+        <v>78.1165639772</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2871818480473998</v>
+        <v>0.287199872624963</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2935326538033965</v>
+        <v>0.2934883133425911</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4192854981492037</v>
+        <v>0.419311814032446</v>
       </c>
       <c r="L23" t="n">
-        <v>1.280831042291403</v>
+        <v>1.280911431907335</v>
       </c>
       <c r="M23" t="n">
-        <v>1.299883459559393</v>
+        <v>1.299776754060219</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -1563,25 +1577,25 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="n">
-        <v>72.7814307125</v>
+        <v>72.7943262771</v>
       </c>
       <c r="H25" t="n">
-        <v>78.1056291295</v>
+        <v>78.1165639772</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2582928341960129</v>
+        <v>0.2583261503596836</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3645996278778082</v>
+        <v>0.3645176701151782</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3771075379261788</v>
+        <v>0.3771561795251381</v>
       </c>
       <c r="L25" t="n">
-        <v>1.151986040514217</v>
+        <v>1.152134630604189</v>
       </c>
       <c r="M25" t="n">
-        <v>1.470906421559603</v>
+        <v>1.470709189870673</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -1602,25 +1616,25 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="n">
-        <v>78.1056291295</v>
+        <v>78.1165639772</v>
       </c>
       <c r="H26" t="n">
-        <v>73.0786951976</v>
+        <v>73.09182851769999</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5656905624938092</v>
+        <v>0.5656287514541752</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1765485518317849</v>
+        <v>0.1765736782706605</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2577608856744059</v>
+        <v>0.2577975702751643</v>
       </c>
       <c r="L26" t="n">
-        <v>1.954832573155834</v>
+        <v>1.95468382463769</v>
       </c>
       <c r="M26" t="n">
-        <v>0.7874065411697605</v>
+        <v>0.7875186050871457</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -1747,25 +1761,25 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="n">
-        <v>74.6831184939</v>
+        <v>74.6951902152</v>
       </c>
       <c r="H29" t="n">
-        <v>78.1056291295</v>
+        <v>78.1165639772</v>
       </c>
       <c r="I29" t="n">
-        <v>0.283756961827561</v>
+        <v>0.2837767871795153</v>
       </c>
       <c r="J29" t="n">
-        <v>0.3019578739041999</v>
+        <v>0.3019091035383924</v>
       </c>
       <c r="K29" t="n">
-        <v>0.4142851642682391</v>
+        <v>0.4143141092820923</v>
       </c>
       <c r="L29" t="n">
-        <v>1.265556049750922</v>
+        <v>1.265644470820638</v>
       </c>
       <c r="M29" t="n">
-        <v>1.320158785980839</v>
+        <v>1.320041419897269</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -1786,25 +1800,25 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="n">
-        <v>78.1056291295</v>
+        <v>78.1165639772</v>
       </c>
       <c r="H30" t="n">
-        <v>75.466492378</v>
+        <v>75.47858874710001</v>
       </c>
       <c r="I30" t="n">
-        <v>0.4808034571189587</v>
+        <v>0.4807776335950106</v>
       </c>
       <c r="J30" t="n">
-        <v>0.2110555052361957</v>
+        <v>0.2110660026036542</v>
       </c>
       <c r="K30" t="n">
-        <v>0.3081410376448456</v>
+        <v>0.3081563638013352</v>
       </c>
       <c r="L30" t="n">
-        <v>1.750551409001722</v>
+        <v>1.750489264586367</v>
       </c>
       <c r="M30" t="n">
-        <v>0.9413075533534325</v>
+        <v>0.9413543716122978</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -1825,25 +1839,25 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="n">
-        <v>75.466492378</v>
+        <v>75.47858874710001</v>
       </c>
       <c r="H31" t="n">
-        <v>78.1056291295</v>
+        <v>78.1165639772</v>
       </c>
       <c r="I31" t="n">
-        <v>0.3002844324866727</v>
+        <v>0.3003338228136914</v>
       </c>
       <c r="J31" t="n">
-        <v>0.2844372225663932</v>
+        <v>0.2844171451976864</v>
       </c>
       <c r="K31" t="n">
-        <v>0.4152783449469341</v>
+        <v>0.4152490319886221</v>
       </c>
       <c r="L31" t="n">
-        <v>1.316131642406952</v>
+        <v>1.316250500429696</v>
       </c>
       <c r="M31" t="n">
-        <v>1.268590012646114</v>
+        <v>1.268500467581681</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -1864,25 +1878,25 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="n">
-        <v>78.1056291295</v>
+        <v>78.1165639772</v>
       </c>
       <c r="H32" t="n">
-        <v>73.0354932101</v>
+        <v>73.0486451666</v>
       </c>
       <c r="I32" t="n">
-        <v>0.5672062388349763</v>
+        <v>0.5671438248655769</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1759324232378145</v>
+        <v>0.1759577947700907</v>
       </c>
       <c r="K32" t="n">
-        <v>0.2568613379272092</v>
+        <v>0.2568983803643324</v>
       </c>
       <c r="L32" t="n">
-        <v>1.958480054432138</v>
+        <v>1.958329854961063</v>
       </c>
       <c r="M32" t="n">
-        <v>0.7846586076406528</v>
+        <v>0.7847717646746044</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -1902,10 +1916,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1956,25 +1970,25 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="n">
-        <v>78.1056291295</v>
+        <v>78.1165639772</v>
       </c>
       <c r="H34" t="n">
-        <v>71.5055139725</v>
+        <v>71.5193230042</v>
       </c>
       <c r="I34" t="n">
-        <v>0.6198779278963833</v>
+        <v>0.6197958988882343</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1545211675217954</v>
+        <v>0.1545545126470593</v>
       </c>
       <c r="K34" t="n">
-        <v>0.2256009045818212</v>
+        <v>0.2256495884647065</v>
       </c>
       <c r="L34" t="n">
-        <v>2.085234688270971</v>
+        <v>2.085037285129409</v>
       </c>
       <c r="M34" t="n">
-        <v>0.6891644071472074</v>
+        <v>0.6893131264058844</v>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
@@ -2048,25 +2062,25 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="n">
-        <v>80.7061902235</v>
+        <v>80.7159652396</v>
       </c>
       <c r="H36" t="n">
-        <v>79.6344023087</v>
+        <v>79.6442897348</v>
       </c>
       <c r="I36" t="n">
-        <v>0.4290151213582556</v>
+        <v>0.4290248705120394</v>
       </c>
       <c r="J36" t="n">
-        <v>0.2321076742446116</v>
+        <v>0.2321037111739677</v>
       </c>
       <c r="K36" t="n">
-        <v>0.3388772043971329</v>
+        <v>0.3388714183139929</v>
       </c>
       <c r="L36" t="n">
-        <v>1.6259225684719</v>
+        <v>1.625946029850111</v>
       </c>
       <c r="M36" t="n">
-        <v>1.035200227130968</v>
+        <v>1.035182551835896</v>
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
@@ -2086,14 +2100,14 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
         <v>2</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Raków Częstochowa</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -2118,10 +2132,10 @@
         <v>1.169285750698231</v>
       </c>
       <c r="N37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -2140,25 +2154,25 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="n">
-        <v>80.7061902235</v>
+        <v>80.7159652396</v>
       </c>
       <c r="H38" t="n">
-        <v>76.03565305799999</v>
+        <v>76.0471336523</v>
       </c>
       <c r="I38" t="n">
-        <v>0.5568127091541278</v>
+        <v>0.5567663656100759</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1801574353032001</v>
+        <v>0.1801762741422456</v>
       </c>
       <c r="K38" t="n">
-        <v>0.2630298555426721</v>
+        <v>0.2630573602476786</v>
       </c>
       <c r="L38" t="n">
-        <v>1.933467983005056</v>
+        <v>1.933356457077906</v>
       </c>
       <c r="M38" t="n">
-        <v>0.8035021614522723</v>
+        <v>0.8035861826744154</v>
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
@@ -2234,11 +2248,11 @@
         <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Raków Częstochowa</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -2263,10 +2277,10 @@
         <v>0.8790767589518933</v>
       </c>
       <c r="N40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2285,25 +2299,25 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="n">
-        <v>77.1973156457</v>
+        <v>77.2079182808</v>
       </c>
       <c r="H41" t="n">
-        <v>80.7061902235</v>
+        <v>80.7159652396</v>
       </c>
       <c r="I41" t="n">
-        <v>0.2839307535769564</v>
+        <v>0.2839460622915682</v>
       </c>
       <c r="J41" t="n">
-        <v>0.3015303462006875</v>
+        <v>0.3014926867627424</v>
       </c>
       <c r="K41" t="n">
-        <v>0.4145389002223562</v>
+        <v>0.4145612509456895</v>
       </c>
       <c r="L41" t="n">
-        <v>1.266331160953225</v>
+        <v>1.266399437820394</v>
       </c>
       <c r="M41" t="n">
-        <v>1.319129938824419</v>
+        <v>1.319039311233917</v>
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
@@ -2324,25 +2338,25 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="n">
-        <v>80.7061902235</v>
+        <v>80.7159652396</v>
       </c>
       <c r="H42" t="n">
-        <v>76.5136495429</v>
+        <v>76.52528694980001</v>
       </c>
       <c r="I42" t="n">
-        <v>0.5399027778917407</v>
+        <v>0.5398505624904075</v>
       </c>
       <c r="J42" t="n">
-        <v>0.1870313911009184</v>
+        <v>0.1870526168738181</v>
       </c>
       <c r="K42" t="n">
-        <v>0.2730658310073409</v>
+        <v>0.2730968206357744</v>
       </c>
       <c r="L42" t="n">
-        <v>1.892774164682563</v>
+        <v>1.892648508106997</v>
       </c>
       <c r="M42" t="n">
-        <v>0.8341600043100961</v>
+        <v>0.8342546712572287</v>
       </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
@@ -2469,25 +2483,25 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="n">
-        <v>73.36393093540001</v>
+        <v>73.3765750681</v>
       </c>
       <c r="H45" t="n">
-        <v>80.7061902235</v>
+        <v>80.7159652396</v>
       </c>
       <c r="I45" t="n">
-        <v>0.2305744325517191</v>
+        <v>0.2306225421477625</v>
       </c>
       <c r="J45" t="n">
-        <v>0.4327868959227711</v>
+        <v>0.4326685463165043</v>
       </c>
       <c r="K45" t="n">
-        <v>0.3366386715255099</v>
+        <v>0.3367089115357332</v>
       </c>
       <c r="L45" t="n">
-        <v>1.028361969180667</v>
+        <v>1.028576537979021</v>
       </c>
       <c r="M45" t="n">
-        <v>1.634999359293823</v>
+        <v>1.634714550485246</v>
       </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
@@ -2508,25 +2522,25 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="n">
-        <v>80.7061902235</v>
+        <v>80.7159652396</v>
       </c>
       <c r="H46" t="n">
-        <v>73.90964547350001</v>
+        <v>73.9220533151</v>
       </c>
       <c r="I46" t="n">
-        <v>0.6299382334689435</v>
+        <v>0.629863572452985</v>
       </c>
       <c r="J46" t="n">
-        <v>0.1504316124109986</v>
+        <v>0.1504619624174858</v>
       </c>
       <c r="K46" t="n">
-        <v>0.2196301541200579</v>
+        <v>0.2196744651295293</v>
       </c>
       <c r="L46" t="n">
-        <v>2.109444854526889</v>
+        <v>2.109265182488484</v>
       </c>
       <c r="M46" t="n">
-        <v>0.6709249913530537</v>
+        <v>0.6710603523819867</v>
       </c>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
@@ -2653,25 +2667,25 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="n">
-        <v>77.89925171980001</v>
+        <v>77.9102779676</v>
       </c>
       <c r="H49" t="n">
-        <v>80.7061902235</v>
+        <v>80.7159652396</v>
       </c>
       <c r="I49" t="n">
-        <v>0.2981728109145176</v>
+        <v>0.2982234043316054</v>
       </c>
       <c r="J49" t="n">
-        <v>0.2852956053193018</v>
+        <v>0.2852750388895913</v>
       </c>
       <c r="K49" t="n">
-        <v>0.4165315837661805</v>
+        <v>0.4165015567788033</v>
       </c>
       <c r="L49" t="n">
-        <v>1.311050016509733</v>
+        <v>1.31117176977362</v>
       </c>
       <c r="M49" t="n">
-        <v>1.272418399724086</v>
+        <v>1.272326673447577</v>
       </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
@@ -2692,25 +2706,25 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="n">
-        <v>80.7061902235</v>
+        <v>80.7159652396</v>
       </c>
       <c r="H50" t="n">
-        <v>74.3349916019</v>
+        <v>74.34721478</v>
       </c>
       <c r="I50" t="n">
-        <v>0.6156649278851966</v>
+        <v>0.6155953871130601</v>
       </c>
       <c r="J50" t="n">
-        <v>0.1562337691523591</v>
+        <v>0.1562620377589187</v>
       </c>
       <c r="K50" t="n">
-        <v>0.2281013029624443</v>
+        <v>0.2281425751280212</v>
       </c>
       <c r="L50" t="n">
-        <v>2.075096086618034</v>
+        <v>2.074928736467201</v>
       </c>
       <c r="M50" t="n">
-        <v>0.6968026104195217</v>
+        <v>0.6969286884047772</v>
       </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
@@ -2731,25 +2745,25 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="n">
-        <v>74.3349916019</v>
+        <v>74.34721478</v>
       </c>
       <c r="H51" t="n">
-        <v>80.7061902235</v>
+        <v>80.7159652396</v>
       </c>
       <c r="I51" t="n">
-        <v>0.2448085550900511</v>
+        <v>0.2448494114911708</v>
       </c>
       <c r="J51" t="n">
-        <v>0.3977709544784742</v>
+        <v>0.3976704477317197</v>
       </c>
       <c r="K51" t="n">
-        <v>0.3574204904314747</v>
+        <v>0.3574801407771094</v>
       </c>
       <c r="L51" t="n">
-        <v>1.091846155701628</v>
+        <v>1.092028375250622</v>
       </c>
       <c r="M51" t="n">
-        <v>1.550733353866897</v>
+        <v>1.550491483972269</v>
       </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
@@ -2770,25 +2784,25 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="n">
-        <v>80.7061902235</v>
+        <v>80.7159652396</v>
       </c>
       <c r="H52" t="n">
-        <v>75.14862541559999</v>
+        <v>75.1604941675</v>
       </c>
       <c r="I52" t="n">
-        <v>0.5878185652113114</v>
+        <v>0.5877596279348123</v>
       </c>
       <c r="J52" t="n">
-        <v>0.1675534287758897</v>
+        <v>0.167577387018369</v>
       </c>
       <c r="K52" t="n">
-        <v>0.244628006012799</v>
+        <v>0.2446629850468187</v>
       </c>
       <c r="L52" t="n">
-        <v>2.008083701646733</v>
+        <v>2.007941868851256</v>
       </c>
       <c r="M52" t="n">
-        <v>0.7472882923404681</v>
+        <v>0.7473951461019255</v>
       </c>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
@@ -2808,14 +2822,14 @@
         </is>
       </c>
       <c r="D53" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" t="n">
         <v>4</v>
       </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Raków Częstochowa</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -2840,10 +2854,10 @@
         <v>1.479383578930095</v>
       </c>
       <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
         <v>3</v>
-      </c>
-      <c r="O53" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2862,25 +2876,25 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="n">
-        <v>80.7061902235</v>
+        <v>80.7159652396</v>
       </c>
       <c r="H54" t="n">
-        <v>74.9543426211</v>
+        <v>74.9662961455</v>
       </c>
       <c r="I54" t="n">
-        <v>0.5945264093895731</v>
+        <v>0.5944648500324979</v>
       </c>
       <c r="J54" t="n">
-        <v>0.164826662849767</v>
+        <v>0.1648516869786594</v>
       </c>
       <c r="K54" t="n">
-        <v>0.2406469277606598</v>
+        <v>0.2406834629888427</v>
       </c>
       <c r="L54" t="n">
-        <v>2.024226155929379</v>
+        <v>2.024078013086336</v>
       </c>
       <c r="M54" t="n">
-        <v>0.7351269163099607</v>
+        <v>0.7352385239248209</v>
       </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
@@ -2900,14 +2914,14 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E55" t="n">
         <v>1</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -2932,10 +2946,10 @@
         <v>1.495525684523714</v>
       </c>
       <c r="N55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2954,25 +2968,25 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="n">
-        <v>80.7061902235</v>
+        <v>80.7159652396</v>
       </c>
       <c r="H56" t="n">
-        <v>72.7814307125</v>
+        <v>72.7943262771</v>
       </c>
       <c r="I56" t="n">
-        <v>0.6666618224081298</v>
+        <v>0.6665751638349879</v>
       </c>
       <c r="J56" t="n">
-        <v>0.1355033242243375</v>
+        <v>0.1355385512865902</v>
       </c>
       <c r="K56" t="n">
-        <v>0.1978348533675327</v>
+        <v>0.1978862848784217</v>
       </c>
       <c r="L56" t="n">
-        <v>2.197820320591922</v>
+        <v>2.197611776383385</v>
       </c>
       <c r="M56" t="n">
-        <v>0.6043448260405452</v>
+        <v>0.6045019387381925</v>
       </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
@@ -3099,25 +3113,25 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="n">
-        <v>73.0786951976</v>
+        <v>73.09182851769999</v>
       </c>
       <c r="H59" t="n">
-        <v>80.7061902235</v>
+        <v>80.7159652396</v>
       </c>
       <c r="I59" t="n">
-        <v>0.2263341177303895</v>
+        <v>0.2263897714709243</v>
       </c>
       <c r="J59" t="n">
-        <v>0.4432180703832419</v>
+        <v>0.4430811621815262</v>
       </c>
       <c r="K59" t="n">
-        <v>0.3304478118863686</v>
+        <v>0.3305290663475495</v>
       </c>
       <c r="L59" t="n">
-        <v>1.009450165077537</v>
+        <v>1.009698380760323</v>
       </c>
       <c r="M59" t="n">
-        <v>1.660102023036095</v>
+        <v>1.659772552892128</v>
       </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
@@ -3138,25 +3152,25 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="n">
-        <v>80.7061902235</v>
+        <v>80.7159652396</v>
       </c>
       <c r="H60" t="n">
-        <v>74.6831184939</v>
+        <v>74.6951902152</v>
       </c>
       <c r="I60" t="n">
-        <v>0.6038315331838485</v>
+        <v>0.6037664055200546</v>
       </c>
       <c r="J60" t="n">
-        <v>0.1610440922016876</v>
+        <v>0.1610705668617664</v>
       </c>
       <c r="K60" t="n">
-        <v>0.2351243746144639</v>
+        <v>0.235163027618179</v>
       </c>
       <c r="L60" t="n">
-        <v>2.046618974166009</v>
+        <v>2.046462244178342</v>
       </c>
       <c r="M60" t="n">
-        <v>0.7182566512195268</v>
+        <v>0.7183747282034783</v>
       </c>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
@@ -3177,25 +3191,25 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="n">
-        <v>74.6831184939</v>
+        <v>74.6951902152</v>
       </c>
       <c r="H61" t="n">
-        <v>80.7061902235</v>
+        <v>80.7159652396</v>
       </c>
       <c r="I61" t="n">
-        <v>0.2498174967380201</v>
+        <v>0.249855730776893</v>
       </c>
       <c r="J61" t="n">
-        <v>0.3854489580244705</v>
+        <v>0.3853549022888434</v>
       </c>
       <c r="K61" t="n">
-        <v>0.3647335452375094</v>
+        <v>0.3647893669342637</v>
       </c>
       <c r="L61" t="n">
-        <v>1.11418603545157</v>
+        <v>1.114356559264943</v>
       </c>
       <c r="M61" t="n">
-        <v>1.521080419310921</v>
+        <v>1.520854073800794</v>
       </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
@@ -3269,25 +3283,25 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="n">
-        <v>75.466492378</v>
+        <v>75.47858874710001</v>
       </c>
       <c r="H63" t="n">
-        <v>80.7061902235</v>
+        <v>80.7159652396</v>
       </c>
       <c r="I63" t="n">
-        <v>0.260864865145834</v>
+        <v>0.2609023168256488</v>
       </c>
       <c r="J63" t="n">
-        <v>0.3582724317412481</v>
+        <v>0.358180300608904</v>
       </c>
       <c r="K63" t="n">
-        <v>0.3808627031129178</v>
+        <v>0.3809173825654472</v>
       </c>
       <c r="L63" t="n">
-        <v>1.16345729855042</v>
+        <v>1.163624333042394</v>
       </c>
       <c r="M63" t="n">
-        <v>1.455679998336662</v>
+        <v>1.455458284392159</v>
       </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
@@ -3308,25 +3322,25 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="n">
-        <v>80.7061902235</v>
+        <v>80.7159652396</v>
       </c>
       <c r="H64" t="n">
-        <v>73.0354932101</v>
+        <v>73.0486451666</v>
       </c>
       <c r="I64" t="n">
-        <v>0.6585480989977651</v>
+        <v>0.6584521745290223</v>
       </c>
       <c r="J64" t="n">
-        <v>0.1388015857732662</v>
+        <v>0.1388405794597471</v>
       </c>
       <c r="K64" t="n">
-        <v>0.2026503152289686</v>
+        <v>0.2027072460112307</v>
       </c>
       <c r="L64" t="n">
-        <v>2.178294612222264</v>
+        <v>2.178063769598297</v>
       </c>
       <c r="M64" t="n">
-        <v>0.6190550725487671</v>
+        <v>0.6192289843904719</v>
       </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
@@ -3347,25 +3361,25 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="n">
-        <v>73.0354932101</v>
+        <v>73.0486451666</v>
       </c>
       <c r="H65" t="n">
-        <v>80.7061902235</v>
+        <v>80.7159652396</v>
       </c>
       <c r="I65" t="n">
-        <v>0.2256900028542107</v>
+        <v>0.22574597459868</v>
       </c>
       <c r="J65" t="n">
-        <v>0.4448025929786419</v>
+        <v>0.4446649024872471</v>
       </c>
       <c r="K65" t="n">
-        <v>0.3295074041671475</v>
+        <v>0.3295891229140728</v>
       </c>
       <c r="L65" t="n">
-        <v>1.00657741272978</v>
+        <v>1.006827046710113</v>
       </c>
       <c r="M65" t="n">
-        <v>1.663915183103073</v>
+        <v>1.663583830375814</v>
       </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
@@ -3386,25 +3400,25 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="n">
-        <v>80.7061902235</v>
+        <v>80.7159652396</v>
       </c>
       <c r="H66" t="n">
-        <v>71.5055139725</v>
+        <v>71.5193230042</v>
       </c>
       <c r="I66" t="n">
-        <v>0.7058679162200039</v>
+        <v>0.7057598536531573</v>
       </c>
       <c r="J66" t="n">
-        <v>0.1195658877154455</v>
+        <v>0.1196098155881474</v>
       </c>
       <c r="K66" t="n">
-        <v>0.1745661960645505</v>
+        <v>0.1746303307586952</v>
       </c>
       <c r="L66" t="n">
-        <v>2.292169944724562</v>
+        <v>2.291909891718167</v>
       </c>
       <c r="M66" t="n">
-        <v>0.5332638592108871</v>
+        <v>0.5334597775231376</v>
       </c>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
@@ -3478,25 +3492,25 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="n">
-        <v>79.6344023087</v>
+        <v>79.6442897348</v>
       </c>
       <c r="H68" t="n">
-        <v>76.03565305799999</v>
+        <v>76.0471336523</v>
       </c>
       <c r="I68" t="n">
-        <v>0.5172430128308304</v>
+        <v>0.5172002896055169</v>
       </c>
       <c r="J68" t="n">
-        <v>0.1962426777110446</v>
+        <v>0.1962600448758061</v>
       </c>
       <c r="K68" t="n">
-        <v>0.2865143094581251</v>
+        <v>0.286539665518677</v>
       </c>
       <c r="L68" t="n">
-        <v>1.838243347950616</v>
+        <v>1.838140534335228</v>
       </c>
       <c r="M68" t="n">
-        <v>0.8752423425912588</v>
+        <v>0.8753198001460953</v>
       </c>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
@@ -3516,14 +3530,14 @@
         </is>
       </c>
       <c r="D69" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" t="n">
         <v>2</v>
       </c>
-      <c r="E69" t="n">
-        <v>1</v>
-      </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Pogoń Szczecin</t>
+          <t>Jagiellonia Białystok</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -3548,10 +3562,10 @@
         <v>1.327334398882579</v>
       </c>
       <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
         <v>3</v>
-      </c>
-      <c r="O69" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -3570,25 +3584,25 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="n">
-        <v>79.6344023087</v>
+        <v>79.6442897348</v>
       </c>
       <c r="H70" t="n">
-        <v>77.1973156457</v>
+        <v>77.2079182808</v>
       </c>
       <c r="I70" t="n">
-        <v>0.4757808719808119</v>
+        <v>0.4757694804995883</v>
       </c>
       <c r="J70" t="n">
-        <v>0.2130972065118651</v>
+        <v>0.2131018371952893</v>
       </c>
       <c r="K70" t="n">
-        <v>0.311121921507323</v>
+        <v>0.3111286823051224</v>
       </c>
       <c r="L70" t="n">
-        <v>1.738464537449759</v>
+        <v>1.738437123803888</v>
       </c>
       <c r="M70" t="n">
-        <v>0.9504135410429184</v>
+        <v>0.9504341938909904</v>
       </c>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
@@ -3661,10 +3675,10 @@
         </is>
       </c>
       <c r="D72" t="n">
+        <v>5</v>
+      </c>
+      <c r="E72" t="n">
         <v>2</v>
-      </c>
-      <c r="E72" t="n">
-        <v>1</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3715,25 +3729,25 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="n">
-        <v>76.5136495429</v>
+        <v>76.52528694980001</v>
       </c>
       <c r="H73" t="n">
-        <v>79.6344023087</v>
+        <v>79.6442897348</v>
       </c>
       <c r="I73" t="n">
-        <v>0.2882975916244627</v>
+        <v>0.2883241228824967</v>
       </c>
       <c r="J73" t="n">
-        <v>0.2907879246038219</v>
+        <v>0.2907226577090581</v>
       </c>
       <c r="K73" t="n">
-        <v>0.4209144837717155</v>
+        <v>0.4209532194084452</v>
       </c>
       <c r="L73" t="n">
-        <v>1.285807258645103</v>
+        <v>1.285925588055935</v>
       </c>
       <c r="M73" t="n">
-        <v>1.293278257583181</v>
+        <v>1.29312119253562</v>
       </c>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
@@ -3754,31 +3768,33 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="n">
-        <v>79.6344023087</v>
+        <v>79.6442897348</v>
       </c>
       <c r="H74" t="n">
-        <v>73.36393093540001</v>
+        <v>73.3765750681</v>
       </c>
       <c r="I74" t="n">
-        <v>0.6107994720777459</v>
+        <v>0.6107192812320582</v>
       </c>
       <c r="J74" t="n">
-        <v>0.1582115967163635</v>
+        <v>0.1582441946211145</v>
       </c>
       <c r="K74" t="n">
-        <v>0.2309889312058906</v>
+        <v>0.2310365241468272</v>
       </c>
       <c r="L74" t="n">
-        <v>2.063387347439128</v>
+        <v>2.063194367843002</v>
       </c>
       <c r="M74" t="n">
-        <v>0.705623721354981</v>
+        <v>0.7057691080101708</v>
       </c>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr"/>
+      <c r="A75" t="n">
+        <v>3</v>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Motor Lublin</t>
@@ -3789,9 +3805,17 @@
           <t>Jagiellonia Białystok</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Jagiellonia Białystok</t>
+        </is>
+      </c>
       <c r="G75" t="n">
         <v>73.36393093540001</v>
       </c>
@@ -3813,8 +3837,12 @@
       <c r="M75" t="n">
         <v>1.545641542397515</v>
       </c>
-      <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr"/>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr"/>
@@ -3832,25 +3860,25 @@
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="n">
-        <v>79.6344023087</v>
+        <v>79.6442897348</v>
       </c>
       <c r="H76" t="n">
-        <v>73.90964547350001</v>
+        <v>73.9220533151</v>
       </c>
       <c r="I76" t="n">
-        <v>0.59211480237215</v>
+        <v>0.5920414861240219</v>
       </c>
       <c r="J76" t="n">
-        <v>0.1658069909056301</v>
+        <v>0.1658367942585277</v>
       </c>
       <c r="K76" t="n">
-        <v>0.24207820672222</v>
+        <v>0.2421217196174505</v>
       </c>
       <c r="L76" t="n">
-        <v>2.01842261383867</v>
+        <v>2.018246177989516</v>
       </c>
       <c r="M76" t="n">
-        <v>0.7394991794391104</v>
+        <v>0.7396321023930337</v>
       </c>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
@@ -3871,25 +3899,25 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="n">
-        <v>73.90964547350001</v>
+        <v>73.9220533151</v>
       </c>
       <c r="H77" t="n">
-        <v>79.6344023087</v>
+        <v>79.6442897348</v>
       </c>
       <c r="I77" t="n">
-        <v>0.2534790504390017</v>
+        <v>0.2535201705954415</v>
       </c>
       <c r="J77" t="n">
-        <v>0.376441535920056</v>
+        <v>0.3763403803352138</v>
       </c>
       <c r="K77" t="n">
-        <v>0.3700794136409423</v>
+        <v>0.3701394490693447</v>
       </c>
       <c r="L77" t="n">
-        <v>1.130516564957947</v>
+        <v>1.130699960855669</v>
       </c>
       <c r="M77" t="n">
-        <v>1.49940402140111</v>
+        <v>1.499160590074986</v>
       </c>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
@@ -3910,25 +3938,25 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="n">
-        <v>79.6344023087</v>
+        <v>79.6442897348</v>
       </c>
       <c r="H78" t="n">
-        <v>77.89925171980001</v>
+        <v>77.9102779676</v>
       </c>
       <c r="I78" t="n">
-        <v>0.450851973589031</v>
+        <v>0.4508256829202515</v>
       </c>
       <c r="J78" t="n">
-        <v>0.2232309050451094</v>
+        <v>0.2232415923088408</v>
       </c>
       <c r="K78" t="n">
-        <v>0.3259171213658597</v>
+        <v>0.3259327247709076</v>
       </c>
       <c r="L78" t="n">
-        <v>1.678473042132953</v>
+        <v>1.678409773531662</v>
       </c>
       <c r="M78" t="n">
-        <v>0.9956098365011878</v>
+        <v>0.9956575016974301</v>
       </c>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
@@ -4002,25 +4030,25 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="n">
-        <v>79.6344023087</v>
+        <v>79.6442897348</v>
       </c>
       <c r="H80" t="n">
-        <v>74.3349916019</v>
+        <v>74.34721478</v>
       </c>
       <c r="I80" t="n">
-        <v>0.5773614187114323</v>
+        <v>0.5772937813011924</v>
       </c>
       <c r="J80" t="n">
-        <v>0.1718043013368161</v>
+        <v>0.1718317962190275</v>
       </c>
       <c r="K80" t="n">
-        <v>0.2508342799517515</v>
+        <v>0.2508744224797801</v>
       </c>
       <c r="L80" t="n">
-        <v>1.982918536086048</v>
+        <v>1.982755766383357</v>
       </c>
       <c r="M80" t="n">
-        <v>0.7662471839621998</v>
+        <v>0.7663698111368626</v>
       </c>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
@@ -4093,7 +4121,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E82" t="n">
         <v>1</v>
@@ -4147,25 +4175,25 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="n">
-        <v>75.14862541559999</v>
+        <v>75.1604941675</v>
       </c>
       <c r="H83" t="n">
-        <v>79.6344023087</v>
+        <v>79.6442897348</v>
       </c>
       <c r="I83" t="n">
-        <v>0.2706058182233901</v>
+        <v>0.2706375580521218</v>
       </c>
       <c r="J83" t="n">
-        <v>0.3343096871704606</v>
+        <v>0.3342316071917804</v>
       </c>
       <c r="K83" t="n">
-        <v>0.3950844946061495</v>
+        <v>0.3951308347560977</v>
       </c>
       <c r="L83" t="n">
-        <v>1.20690194927632</v>
+        <v>1.207043508912463</v>
       </c>
       <c r="M83" t="n">
-        <v>1.398013556117531</v>
+        <v>1.397825656331439</v>
       </c>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
@@ -4186,25 +4214,25 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="n">
-        <v>79.6344023087</v>
+        <v>79.6442897348</v>
       </c>
       <c r="H84" t="n">
-        <v>74.9543426211</v>
+        <v>74.9662961455</v>
       </c>
       <c r="I84" t="n">
-        <v>0.5556367347118454</v>
+        <v>0.5555778083500361</v>
       </c>
       <c r="J84" t="n">
-        <v>0.1806354736943718</v>
+        <v>0.1806594274999853</v>
       </c>
       <c r="K84" t="n">
-        <v>0.2637277915937828</v>
+        <v>0.2637627641499786</v>
       </c>
       <c r="L84" t="n">
-        <v>1.930637995729319</v>
+        <v>1.930496189200087</v>
       </c>
       <c r="M84" t="n">
-        <v>0.8056342126768983</v>
+        <v>0.8057410466499344</v>
       </c>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
@@ -4331,25 +4359,25 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="n">
-        <v>72.7814307125</v>
+        <v>72.7943262771</v>
       </c>
       <c r="H87" t="n">
-        <v>79.6344023087</v>
+        <v>79.6442897348</v>
       </c>
       <c r="I87" t="n">
-        <v>0.2371853718441312</v>
+        <v>0.2372351046222677</v>
       </c>
       <c r="J87" t="n">
-        <v>0.4165239852634371</v>
+        <v>0.4164016426292213</v>
       </c>
       <c r="K87" t="n">
-        <v>0.3462906428924316</v>
+        <v>0.3463632527485109</v>
       </c>
       <c r="L87" t="n">
-        <v>1.057846758424825</v>
+        <v>1.058068566615314</v>
       </c>
       <c r="M87" t="n">
-        <v>1.595862598682743</v>
+        <v>1.595568180636175</v>
       </c>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
@@ -4423,25 +4451,25 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="n">
-        <v>73.0786951976</v>
+        <v>73.09182851769999</v>
       </c>
       <c r="H89" t="n">
-        <v>79.6344023087</v>
+        <v>79.6442897348</v>
       </c>
       <c r="I89" t="n">
-        <v>0.2415318523724714</v>
+        <v>0.2415846583257988</v>
       </c>
       <c r="J89" t="n">
-        <v>0.4058316431637204</v>
+        <v>0.405701740518535</v>
       </c>
       <c r="K89" t="n">
-        <v>0.3526365044638082</v>
+        <v>0.3527136011556662</v>
       </c>
       <c r="L89" t="n">
-        <v>1.077232061581222</v>
+        <v>1.077467576133063</v>
       </c>
       <c r="M89" t="n">
-        <v>1.570131433954969</v>
+        <v>1.569818822711271</v>
       </c>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
@@ -4462,25 +4490,25 @@
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="n">
-        <v>79.6344023087</v>
+        <v>79.6442897348</v>
       </c>
       <c r="H90" t="n">
-        <v>74.6831184939</v>
+        <v>74.6951902152</v>
       </c>
       <c r="I90" t="n">
-        <v>0.5651816034448135</v>
+        <v>0.5651188024595213</v>
       </c>
       <c r="J90" t="n">
-        <v>0.1767554457541409</v>
+        <v>0.1767809746099507</v>
       </c>
       <c r="K90" t="n">
-        <v>0.2580629508010457</v>
+        <v>0.258100222930528</v>
       </c>
       <c r="L90" t="n">
-        <v>1.953607761135486</v>
+        <v>1.953456630309092</v>
       </c>
       <c r="M90" t="n">
-        <v>0.7883292880634682</v>
+        <v>0.7884431467603802</v>
       </c>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
@@ -4501,25 +4529,25 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="n">
-        <v>74.6831184939</v>
+        <v>74.6951902152</v>
       </c>
       <c r="H91" t="n">
-        <v>79.6344023087</v>
+        <v>79.6442897348</v>
       </c>
       <c r="I91" t="n">
-        <v>0.2642791084097913</v>
+        <v>0.2643143374322308</v>
       </c>
       <c r="J91" t="n">
-        <v>0.3498733933119135</v>
+        <v>0.3497867299167124</v>
       </c>
       <c r="K91" t="n">
-        <v>0.3858474982782952</v>
+        <v>0.3858989326510568</v>
       </c>
       <c r="L91" t="n">
-        <v>1.178684823507669</v>
+        <v>1.178841944947749</v>
       </c>
       <c r="M91" t="n">
-        <v>1.435467678214036</v>
+        <v>1.435259122401194</v>
       </c>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
@@ -4540,25 +4568,25 @@
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="n">
-        <v>79.6344023087</v>
+        <v>79.6442897348</v>
       </c>
       <c r="H92" t="n">
-        <v>75.466492378</v>
+        <v>75.47858874710001</v>
       </c>
       <c r="I92" t="n">
-        <v>0.5375064333191926</v>
+        <v>0.5374420312001339</v>
       </c>
       <c r="J92" t="n">
-        <v>0.1880055149108973</v>
+        <v>0.1880316946340919</v>
       </c>
       <c r="K92" t="n">
-        <v>0.2744880517699101</v>
+        <v>0.2745262741657742</v>
       </c>
       <c r="L92" t="n">
-        <v>1.887007351727488</v>
+        <v>1.886852367766176</v>
       </c>
       <c r="M92" t="n">
-        <v>0.838504596502602</v>
+        <v>0.83862135806805</v>
       </c>
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
@@ -4685,25 +4713,25 @@
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="n">
-        <v>73.0354932101</v>
+        <v>73.0486451666</v>
       </c>
       <c r="H95" t="n">
-        <v>79.6344023087</v>
+        <v>79.6442897348</v>
       </c>
       <c r="I95" t="n">
-        <v>0.2409023165734557</v>
+        <v>0.2409554576220284</v>
       </c>
       <c r="J95" t="n">
-        <v>0.4073803012292991</v>
+        <v>0.40724957424981</v>
       </c>
       <c r="K95" t="n">
-        <v>0.3517173821972453</v>
+        <v>0.3517949681281615</v>
       </c>
       <c r="L95" t="n">
-        <v>1.074424331917612</v>
+        <v>1.074661340994246</v>
       </c>
       <c r="M95" t="n">
-        <v>1.573858285885142</v>
+        <v>1.573543690877591</v>
       </c>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
@@ -4777,25 +4805,25 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="n">
-        <v>71.5055139725</v>
+        <v>71.5193230042</v>
       </c>
       <c r="H97" t="n">
-        <v>79.6344023087</v>
+        <v>79.6442897348</v>
       </c>
       <c r="I97" t="n">
-        <v>0.2182141986020147</v>
+        <v>0.218278798160875</v>
       </c>
       <c r="J97" t="n">
-        <v>0.4631930714390438</v>
+        <v>0.4630341565242474</v>
       </c>
       <c r="K97" t="n">
-        <v>0.3185927299589415</v>
+        <v>0.3186870453148775</v>
       </c>
       <c r="L97" t="n">
-        <v>0.9732353257649856</v>
+        <v>0.9735234397975026</v>
       </c>
       <c r="M97" t="n">
-        <v>1.708171944276073</v>
+        <v>1.70778951488762</v>
       </c>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
@@ -4816,25 +4844,25 @@
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="n">
-        <v>76.03565305799999</v>
+        <v>76.0471336523</v>
       </c>
       <c r="H98" t="n">
-        <v>77.1973156457</v>
+        <v>77.2079182808</v>
       </c>
       <c r="I98" t="n">
-        <v>0.3471424594925042</v>
+        <v>0.3471857538838397</v>
       </c>
       <c r="J98" t="n">
-        <v>0.2653892441087382</v>
+        <v>0.2653716447626668</v>
       </c>
       <c r="K98" t="n">
-        <v>0.3874682963987577</v>
+        <v>0.3874426013534935</v>
       </c>
       <c r="L98" t="n">
-        <v>1.42889567487627</v>
+        <v>1.428999863005013</v>
       </c>
       <c r="M98" t="n">
-        <v>1.183636028724972</v>
+        <v>1.183557535641494</v>
       </c>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
@@ -4854,7 +4882,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
@@ -4961,25 +4989,25 @@
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="n">
-        <v>76.5136495429</v>
+        <v>76.52528694980001</v>
       </c>
       <c r="H101" t="n">
-        <v>76.03565305799999</v>
+        <v>76.0471336523</v>
       </c>
       <c r="I101" t="n">
-        <v>0.4025971401304793</v>
+        <v>0.4026185221980962</v>
       </c>
       <c r="J101" t="n">
-        <v>0.2428466910038702</v>
+        <v>0.2428379991064649</v>
       </c>
       <c r="K101" t="n">
-        <v>0.3545561688656504</v>
+        <v>0.3545434786954388</v>
       </c>
       <c r="L101" t="n">
-        <v>1.562347589257088</v>
+        <v>1.562399045289728</v>
       </c>
       <c r="M101" t="n">
-        <v>1.083096241877261</v>
+        <v>1.083057476014833</v>
       </c>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
@@ -5053,25 +5081,25 @@
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="n">
-        <v>73.36393093540001</v>
+        <v>73.3765750681</v>
       </c>
       <c r="H103" t="n">
-        <v>76.03565305799999</v>
+        <v>76.0471336523</v>
       </c>
       <c r="I103" t="n">
-        <v>0.2967936048969861</v>
+        <v>0.2968433781141004</v>
       </c>
       <c r="J103" t="n">
-        <v>0.2858562581719569</v>
+        <v>0.2858360251568697</v>
       </c>
       <c r="K103" t="n">
-        <v>0.417350136931057</v>
+        <v>0.4173205967290298</v>
       </c>
       <c r="L103" t="n">
-        <v>1.307730951622015</v>
+        <v>1.307850731071331</v>
       </c>
       <c r="M103" t="n">
-        <v>1.274918911446928</v>
+        <v>1.274828672199639</v>
       </c>
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr"/>
@@ -5092,25 +5120,25 @@
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="n">
-        <v>76.03565305799999</v>
+        <v>76.0471336523</v>
       </c>
       <c r="H104" t="n">
-        <v>73.90964547350001</v>
+        <v>73.9220533151</v>
       </c>
       <c r="I104" t="n">
-        <v>0.4595991370279724</v>
+        <v>0.459582531078538</v>
       </c>
       <c r="J104" t="n">
-        <v>0.2196751475496047</v>
+        <v>0.2196818979355536</v>
       </c>
       <c r="K104" t="n">
-        <v>0.3207257154224228</v>
+        <v>0.3207355709859083</v>
       </c>
       <c r="L104" t="n">
-        <v>1.69952312650634</v>
+        <v>1.699483164221522</v>
       </c>
       <c r="M104" t="n">
-        <v>0.9797511580712368</v>
+        <v>0.9797812647925692</v>
       </c>
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
@@ -5131,25 +5159,25 @@
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="n">
-        <v>73.90964547350001</v>
+        <v>73.9220533151</v>
       </c>
       <c r="H105" t="n">
-        <v>76.03565305799999</v>
+        <v>76.0471336523</v>
       </c>
       <c r="I105" t="n">
-        <v>0.3139889614980964</v>
+        <v>0.3140327681379487</v>
       </c>
       <c r="J105" t="n">
-        <v>0.2788662758137819</v>
+        <v>0.2788484682366063</v>
       </c>
       <c r="K105" t="n">
-        <v>0.4071447626881216</v>
+        <v>0.4071187636254451</v>
       </c>
       <c r="L105" t="n">
-        <v>1.349111647182411</v>
+        <v>1.349217068039291</v>
       </c>
       <c r="M105" t="n">
-        <v>1.243743590129467</v>
+        <v>1.243664168335264</v>
       </c>
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr"/>
@@ -5223,25 +5251,25 @@
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="n">
-        <v>77.89925171980001</v>
+        <v>77.9102779676</v>
       </c>
       <c r="H107" t="n">
-        <v>76.03565305799999</v>
+        <v>76.0471336523</v>
       </c>
       <c r="I107" t="n">
-        <v>0.4529410978899988</v>
+        <v>0.4529406272184442</v>
       </c>
       <c r="J107" t="n">
-        <v>0.2223816675243908</v>
+        <v>0.2223818588542909</v>
       </c>
       <c r="K107" t="n">
-        <v>0.3246772345856105</v>
+        <v>0.3246775139272648</v>
       </c>
       <c r="L107" t="n">
-        <v>1.683500528255607</v>
+        <v>1.683499395582598</v>
       </c>
       <c r="M107" t="n">
-        <v>0.9918222371587828</v>
+        <v>0.9918230904901375</v>
       </c>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr"/>
@@ -5315,25 +5343,25 @@
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="n">
-        <v>74.3349916019</v>
+        <v>74.34721478</v>
       </c>
       <c r="H109" t="n">
-        <v>76.03565305799999</v>
+        <v>76.0471336523</v>
       </c>
       <c r="I109" t="n">
-        <v>0.3277582770908172</v>
+        <v>0.3277970414420071</v>
       </c>
       <c r="J109" t="n">
-        <v>0.2732689930525133</v>
+        <v>0.2732532351861759</v>
       </c>
       <c r="K109" t="n">
-        <v>0.3989727298566695</v>
+        <v>0.3989497233718169</v>
       </c>
       <c r="L109" t="n">
-        <v>1.382247561129121</v>
+        <v>1.382340847697838</v>
       </c>
       <c r="M109" t="n">
-        <v>1.218779709014209</v>
+        <v>1.218709428930345</v>
       </c>
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr"/>
@@ -5354,25 +5382,25 @@
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="n">
-        <v>76.03565305799999</v>
+        <v>76.0471336523</v>
       </c>
       <c r="H110" t="n">
-        <v>75.14862541559999</v>
+        <v>75.1604941675</v>
       </c>
       <c r="I110" t="n">
-        <v>0.4160636656772561</v>
+        <v>0.4160661322307742</v>
       </c>
       <c r="J110" t="n">
-        <v>0.2373724936271317</v>
+        <v>0.2373714909631</v>
       </c>
       <c r="K110" t="n">
-        <v>0.3465638406956122</v>
+        <v>0.3465623768061259</v>
       </c>
       <c r="L110" t="n">
-        <v>1.594754837727381</v>
+        <v>1.594760773498448</v>
       </c>
       <c r="M110" t="n">
-        <v>1.058681321577007</v>
+        <v>1.058676849695426</v>
       </c>
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr"/>
@@ -5446,25 +5474,25 @@
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="n">
-        <v>76.03565305799999</v>
+        <v>76.0471336523</v>
       </c>
       <c r="H112" t="n">
-        <v>74.9543426211</v>
+        <v>74.9662961455</v>
       </c>
       <c r="I112" t="n">
-        <v>0.4228221074018099</v>
+        <v>0.4228216295531313</v>
       </c>
       <c r="J112" t="n">
-        <v>0.2346251595927603</v>
+        <v>0.2346253538401905</v>
       </c>
       <c r="K112" t="n">
-        <v>0.3425527330054299</v>
+        <v>0.3425530166066781</v>
       </c>
       <c r="L112" t="n">
-        <v>1.611019055210859</v>
+        <v>1.611017905266072</v>
       </c>
       <c r="M112" t="n">
-        <v>1.046428211783711</v>
+        <v>1.04642907812725</v>
       </c>
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
@@ -5538,25 +5566,25 @@
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="n">
-        <v>76.03565305799999</v>
+        <v>76.0471336523</v>
       </c>
       <c r="H114" t="n">
-        <v>72.7814307125</v>
+        <v>72.7943262771</v>
       </c>
       <c r="I114" t="n">
-        <v>0.4998042506603617</v>
+        <v>0.4997701168619876</v>
       </c>
       <c r="J114" t="n">
-        <v>0.2033316054226172</v>
+        <v>0.2033454809504116</v>
       </c>
       <c r="K114" t="n">
-        <v>0.2968641439170211</v>
+        <v>0.2968844021876009</v>
       </c>
       <c r="L114" t="n">
-        <v>1.796276895898106</v>
+        <v>1.796194752773564</v>
       </c>
       <c r="M114" t="n">
-        <v>0.9068589601848726</v>
+        <v>0.9069208450388356</v>
       </c>
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr"/>
@@ -5683,25 +5711,25 @@
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="n">
-        <v>73.0786951976</v>
+        <v>73.09182851769999</v>
       </c>
       <c r="H117" t="n">
-        <v>76.03565305799999</v>
+        <v>76.0471336523</v>
       </c>
       <c r="I117" t="n">
-        <v>0.2886134747970303</v>
+        <v>0.2886395167766699</v>
       </c>
       <c r="J117" t="n">
-        <v>0.2900108519993057</v>
+        <v>0.2899467887293919</v>
       </c>
       <c r="K117" t="n">
-        <v>0.4213756732036641</v>
+        <v>0.4214136944939381</v>
       </c>
       <c r="L117" t="n">
-        <v>1.287216097594755</v>
+        <v>1.287332244823948</v>
       </c>
       <c r="M117" t="n">
-        <v>1.291408229201581</v>
+        <v>1.291254060682114</v>
       </c>
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
@@ -5722,25 +5750,25 @@
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="n">
-        <v>76.03565305799999</v>
+        <v>76.0471336523</v>
       </c>
       <c r="H118" t="n">
-        <v>74.6831184939</v>
+        <v>74.6951902152</v>
       </c>
       <c r="I118" t="n">
-        <v>0.4323050649287689</v>
+        <v>0.4323004404565669</v>
       </c>
       <c r="J118" t="n">
-        <v>0.2307702988094436</v>
+        <v>0.2307721786761923</v>
       </c>
       <c r="K118" t="n">
-        <v>0.3369246362617875</v>
+        <v>0.3369273808672408</v>
       </c>
       <c r="L118" t="n">
-        <v>1.633839831048094</v>
+        <v>1.633828702236942</v>
       </c>
       <c r="M118" t="n">
-        <v>1.029235532690118</v>
+        <v>1.029243916895818</v>
       </c>
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr"/>
@@ -5761,25 +5789,25 @@
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="n">
-        <v>74.6831184939</v>
+        <v>74.6951902152</v>
       </c>
       <c r="H119" t="n">
-        <v>76.03565305799999</v>
+        <v>76.0471336523</v>
       </c>
       <c r="I119" t="n">
-        <v>0.3392541152410018</v>
+        <v>0.3392885086216024</v>
       </c>
       <c r="J119" t="n">
-        <v>0.2685958881134139</v>
+        <v>0.2685819070643892</v>
       </c>
       <c r="K119" t="n">
-        <v>0.3921499966455843</v>
+        <v>0.3921295843140083</v>
       </c>
       <c r="L119" t="n">
-        <v>1.40991234236859</v>
+        <v>1.409995110178816</v>
       </c>
       <c r="M119" t="n">
-        <v>1.197937660985826</v>
+        <v>1.197875305507176</v>
       </c>
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr"/>
@@ -5800,25 +5828,25 @@
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="n">
-        <v>76.03565305799999</v>
+        <v>76.0471336523</v>
       </c>
       <c r="H120" t="n">
-        <v>75.466492378</v>
+        <v>75.47858874710001</v>
       </c>
       <c r="I120" t="n">
-        <v>0.4050749702875319</v>
+        <v>0.4050695807113939</v>
       </c>
       <c r="J120" t="n">
-        <v>0.241839442972548</v>
+        <v>0.2418416338571569</v>
       </c>
       <c r="K120" t="n">
-        <v>0.35308558673992</v>
+        <v>0.3530887854314491</v>
       </c>
       <c r="L120" t="n">
-        <v>1.568310497602516</v>
+        <v>1.568297527565631</v>
       </c>
       <c r="M120" t="n">
-        <v>1.078603915657564</v>
+        <v>1.07861368700292</v>
       </c>
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr"/>
@@ -5838,14 +5866,14 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Wisła Płock</t>
         </is>
       </c>
       <c r="G121" t="n">
@@ -5870,10 +5898,10 @@
         <v>1.14927571149792</v>
       </c>
       <c r="N121" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -5892,25 +5920,25 @@
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="n">
-        <v>76.03565305799999</v>
+        <v>76.0471336523</v>
       </c>
       <c r="H122" t="n">
-        <v>73.0354932101</v>
+        <v>73.0486451666</v>
       </c>
       <c r="I122" t="n">
-        <v>0.4907316518036687</v>
+        <v>0.4906883760901536</v>
       </c>
       <c r="J122" t="n">
-        <v>0.2070196537383461</v>
+        <v>0.2070372454918074</v>
       </c>
       <c r="K122" t="n">
-        <v>0.3022486944579852</v>
+        <v>0.3022743784180389</v>
       </c>
       <c r="L122" t="n">
-        <v>1.774443649868992</v>
+        <v>1.774339506688499</v>
       </c>
       <c r="M122" t="n">
-        <v>0.9233076556730235</v>
+        <v>0.9233861148934612</v>
       </c>
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr"/>
@@ -5933,7 +5961,7 @@
         <v>2</v>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -5984,25 +6012,25 @@
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="n">
-        <v>76.03565305799999</v>
+        <v>76.0471336523</v>
       </c>
       <c r="H124" t="n">
-        <v>71.5055139725</v>
+        <v>71.5193230042</v>
       </c>
       <c r="I124" t="n">
-        <v>0.5452485705334771</v>
+        <v>0.545182358831411</v>
       </c>
       <c r="J124" t="n">
-        <v>0.1848583046611882</v>
+        <v>0.1848852199872313</v>
       </c>
       <c r="K124" t="n">
-        <v>0.2698931248053348</v>
+        <v>0.2699324211813577</v>
       </c>
       <c r="L124" t="n">
-        <v>1.905638836405766</v>
+        <v>1.905479497675591</v>
       </c>
       <c r="M124" t="n">
-        <v>0.8244680387888994</v>
+        <v>0.8245880811430517</v>
       </c>
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr"/>
@@ -6025,11 +6053,11 @@
         <v>1</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Nieciecza</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="G125" t="n">
@@ -6054,10 +6082,10 @@
         <v>1.410511145134228</v>
       </c>
       <c r="N125" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -6076,25 +6104,25 @@
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="n">
-        <v>77.1973156457</v>
+        <v>77.2079182808</v>
       </c>
       <c r="H126" t="n">
-        <v>76.5136495429</v>
+        <v>76.52528694980001</v>
       </c>
       <c r="I126" t="n">
-        <v>0.4106286346139591</v>
+        <v>0.4106075220558129</v>
       </c>
       <c r="J126" t="n">
-        <v>0.2395818558479841</v>
+        <v>0.2395904381886939</v>
       </c>
       <c r="K126" t="n">
-        <v>0.3497895095380568</v>
+        <v>0.3498020397554931</v>
       </c>
       <c r="L126" t="n">
-        <v>1.581675413379934</v>
+        <v>1.581624605922932</v>
       </c>
       <c r="M126" t="n">
-        <v>1.068535077082009</v>
+        <v>1.068573354321575</v>
       </c>
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr"/>
@@ -6168,25 +6196,25 @@
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="n">
-        <v>77.1973156457</v>
+        <v>77.2079182808</v>
       </c>
       <c r="H128" t="n">
-        <v>73.36393093540001</v>
+        <v>73.3765750681</v>
       </c>
       <c r="I128" t="n">
-        <v>0.5221336640992258</v>
+        <v>0.5220760129917849</v>
       </c>
       <c r="J128" t="n">
-        <v>0.1942546080897457</v>
+        <v>0.1942780434992744</v>
       </c>
       <c r="K128" t="n">
-        <v>0.2836117278110286</v>
+        <v>0.2836459435089407</v>
       </c>
       <c r="L128" t="n">
-        <v>1.850012720108706</v>
+        <v>1.849873982484295</v>
       </c>
       <c r="M128" t="n">
-        <v>0.8663755520802656</v>
+        <v>0.866480074006764</v>
       </c>
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr"/>
@@ -6207,25 +6235,25 @@
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="n">
-        <v>73.36393093540001</v>
+        <v>73.3765750681</v>
       </c>
       <c r="H129" t="n">
-        <v>77.1973156457</v>
+        <v>77.2079182808</v>
       </c>
       <c r="I129" t="n">
-        <v>0.2780085111536036</v>
+        <v>0.2780404874355348</v>
       </c>
       <c r="J129" t="n">
-        <v>0.3160990625621352</v>
+        <v>0.3160204009085845</v>
       </c>
       <c r="K129" t="n">
-        <v>0.4058924262842613</v>
+        <v>0.4059391116558808</v>
       </c>
       <c r="L129" t="n">
-        <v>1.239917959745072</v>
+        <v>1.240060573962485</v>
       </c>
       <c r="M129" t="n">
-        <v>1.354189613970667</v>
+        <v>1.354000314381634</v>
       </c>
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr"/>
@@ -6248,7 +6276,7 @@
         <v>3</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -6299,25 +6327,25 @@
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="n">
-        <v>73.90964547350001</v>
+        <v>73.9220533151</v>
       </c>
       <c r="H131" t="n">
-        <v>77.1973156457</v>
+        <v>77.2079182808</v>
       </c>
       <c r="I131" t="n">
-        <v>0.2850250052627835</v>
+        <v>0.2850530084528756</v>
       </c>
       <c r="J131" t="n">
-        <v>0.2988384870535527</v>
+        <v>0.2987695992059259</v>
       </c>
       <c r="K131" t="n">
-        <v>0.4161365076836638</v>
+        <v>0.4161773923411984</v>
       </c>
       <c r="L131" t="n">
-        <v>1.271211523472014</v>
+        <v>1.271336417699825</v>
       </c>
       <c r="M131" t="n">
-        <v>1.312651968844322</v>
+        <v>1.312486189958976</v>
       </c>
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr"/>
@@ -6338,25 +6366,25 @@
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="n">
-        <v>77.1973156457</v>
+        <v>77.2079182808</v>
       </c>
       <c r="H132" t="n">
-        <v>77.89925171980001</v>
+        <v>77.9102779676</v>
       </c>
       <c r="I132" t="n">
-        <v>0.3637070316253759</v>
+        <v>0.3637070479144679</v>
       </c>
       <c r="J132" t="n">
-        <v>0.2586556782010667</v>
+        <v>0.2586556715794846</v>
       </c>
       <c r="K132" t="n">
-        <v>0.3776372901735574</v>
+        <v>0.3776372805060475</v>
       </c>
       <c r="L132" t="n">
-        <v>1.468758385049685</v>
+        <v>1.468758424249451</v>
       </c>
       <c r="M132" t="n">
-        <v>1.153604324776758</v>
+        <v>1.153604295244501</v>
       </c>
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr"/>
@@ -6376,7 +6404,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E133" t="n">
         <v>1</v>
@@ -6430,25 +6458,25 @@
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="n">
-        <v>77.1973156457</v>
+        <v>77.2079182808</v>
       </c>
       <c r="H134" t="n">
-        <v>74.3349916019</v>
+        <v>74.34721478</v>
       </c>
       <c r="I134" t="n">
-        <v>0.4874700246499263</v>
+        <v>0.4874273216617749</v>
       </c>
       <c r="J134" t="n">
-        <v>0.2083455184349893</v>
+        <v>0.2083628773732622</v>
       </c>
       <c r="K134" t="n">
-        <v>0.3041844569150844</v>
+        <v>0.3042098009649629</v>
       </c>
       <c r="L134" t="n">
-        <v>1.766594530864863</v>
+        <v>1.766491765950288</v>
       </c>
       <c r="M134" t="n">
-        <v>0.9292210122200524</v>
+        <v>0.9292984330847496</v>
       </c>
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr"/>
@@ -6469,25 +6497,25 @@
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="n">
-        <v>74.3349916019</v>
+        <v>74.34721478</v>
       </c>
       <c r="H135" t="n">
-        <v>77.1973156457</v>
+        <v>77.2079182808</v>
       </c>
       <c r="I135" t="n">
-        <v>0.2922888707645535</v>
+        <v>0.2923512113426857</v>
       </c>
       <c r="J135" t="n">
-        <v>0.2876874509087182</v>
+        <v>0.2876621092102903</v>
       </c>
       <c r="K135" t="n">
-        <v>0.4200236783267285</v>
+        <v>0.4199866794470239</v>
       </c>
       <c r="L135" t="n">
-        <v>1.296890290620389</v>
+        <v>1.297040313475081</v>
       </c>
       <c r="M135" t="n">
-        <v>1.283086031052883</v>
+        <v>1.282973007077895</v>
       </c>
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr"/>
@@ -6508,25 +6536,25 @@
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="n">
-        <v>77.1973156457</v>
+        <v>77.2079182808</v>
       </c>
       <c r="H136" t="n">
-        <v>75.14862541559999</v>
+        <v>75.1604941675</v>
       </c>
       <c r="I136" t="n">
-        <v>0.4585047112346798</v>
+        <v>0.4584748466660504</v>
       </c>
       <c r="J136" t="n">
-        <v>0.2201200360834635</v>
+        <v>0.2201321761520121</v>
       </c>
       <c r="K136" t="n">
-        <v>0.3213752526818567</v>
+        <v>0.3213929771819376</v>
       </c>
       <c r="L136" t="n">
-        <v>1.696889386385896</v>
+        <v>1.696817517180089</v>
       </c>
       <c r="M136" t="n">
-        <v>0.9817353609322472</v>
+        <v>0.9817895056379738</v>
       </c>
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr"/>
@@ -6653,25 +6681,25 @@
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="n">
-        <v>74.9543426211</v>
+        <v>74.9662961455</v>
       </c>
       <c r="H139" t="n">
-        <v>77.1973156457</v>
+        <v>77.2079182808</v>
       </c>
       <c r="I139" t="n">
-        <v>0.311680276138324</v>
+        <v>0.3117363349331432</v>
       </c>
       <c r="J139" t="n">
-        <v>0.2798047657974292</v>
+        <v>0.279781977669454</v>
       </c>
       <c r="K139" t="n">
-        <v>0.4085149580642468</v>
+        <v>0.4084816873974028</v>
       </c>
       <c r="L139" t="n">
-        <v>1.343555786479219</v>
+        <v>1.343690692196833</v>
       </c>
       <c r="M139" t="n">
-        <v>1.247929255456535</v>
+        <v>1.247827620405765</v>
       </c>
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr"/>
@@ -6692,25 +6720,25 @@
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="n">
-        <v>77.1973156457</v>
+        <v>77.2079182808</v>
       </c>
       <c r="H140" t="n">
-        <v>72.7814307125</v>
+        <v>72.7943262771</v>
       </c>
       <c r="I140" t="n">
-        <v>0.5428463764841438</v>
+        <v>0.5427801221246111</v>
       </c>
       <c r="J140" t="n">
-        <v>0.1858348063072587</v>
+        <v>0.1858617389737353</v>
       </c>
       <c r="K140" t="n">
-        <v>0.2713188172085976</v>
+        <v>0.2713581389016536</v>
       </c>
       <c r="L140" t="n">
-        <v>1.899857946661029</v>
+        <v>1.899698505275487</v>
       </c>
       <c r="M140" t="n">
-        <v>0.8288232361303737</v>
+        <v>0.8289433558228596</v>
       </c>
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr"/>
@@ -6784,25 +6812,25 @@
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="n">
-        <v>77.1973156457</v>
+        <v>77.2079182808</v>
       </c>
       <c r="H142" t="n">
-        <v>73.0786951976</v>
+        <v>73.09182851769999</v>
       </c>
       <c r="I142" t="n">
-        <v>0.5322901269400374</v>
+        <v>0.5322152050027082</v>
       </c>
       <c r="J142" t="n">
-        <v>0.1901259646585214</v>
+        <v>0.1901564207306064</v>
       </c>
       <c r="K142" t="n">
-        <v>0.2775839084014412</v>
+        <v>0.2776283742666854</v>
       </c>
       <c r="L142" t="n">
-        <v>1.874454289221553</v>
+        <v>1.87427398927481</v>
       </c>
       <c r="M142" t="n">
-        <v>0.8479618023770054</v>
+        <v>0.8480976364585047</v>
       </c>
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr"/>
@@ -6823,25 +6851,25 @@
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="n">
-        <v>73.0786951976</v>
+        <v>73.09182851769999</v>
       </c>
       <c r="H143" t="n">
-        <v>77.1973156457</v>
+        <v>77.2079182808</v>
       </c>
       <c r="I143" t="n">
-        <v>0.2742557329527653</v>
+        <v>0.2742946827985132</v>
       </c>
       <c r="J143" t="n">
-        <v>0.3253308969361972</v>
+        <v>0.3252350803156577</v>
       </c>
       <c r="K143" t="n">
-        <v>0.4004133701110374</v>
+        <v>0.4004702368858292</v>
       </c>
       <c r="L143" t="n">
-        <v>1.223180568969334</v>
+        <v>1.223354285281369</v>
       </c>
       <c r="M143" t="n">
-        <v>1.376406060919629</v>
+        <v>1.376175477832802</v>
       </c>
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr"/>
@@ -6862,25 +6890,25 @@
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="n">
-        <v>77.1973156457</v>
+        <v>77.2079182808</v>
       </c>
       <c r="H144" t="n">
-        <v>74.6831184939</v>
+        <v>74.6951902152</v>
       </c>
       <c r="I144" t="n">
-        <v>0.4750550244665958</v>
+        <v>0.4750177967541789</v>
       </c>
       <c r="J144" t="n">
-        <v>0.2133922664769936</v>
+        <v>0.2134073996934232</v>
       </c>
       <c r="K144" t="n">
-        <v>0.3115527090564107</v>
+        <v>0.3115748035523979</v>
       </c>
       <c r="L144" t="n">
-        <v>1.736717782456198</v>
+        <v>1.736628193814934</v>
       </c>
       <c r="M144" t="n">
-        <v>0.9517295084873916</v>
+        <v>0.9517970026326675</v>
       </c>
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr"/>
@@ -6954,25 +6982,25 @@
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="n">
-        <v>77.1973156457</v>
+        <v>77.2079182808</v>
       </c>
       <c r="H146" t="n">
-        <v>75.466492378</v>
+        <v>75.47858874710001</v>
       </c>
       <c r="I146" t="n">
-        <v>0.447253642058122</v>
+        <v>0.4472158664695814</v>
       </c>
       <c r="J146" t="n">
-        <v>0.2246936414397878</v>
+        <v>0.2247089973700889</v>
       </c>
       <c r="K146" t="n">
-        <v>0.3280527165020902</v>
+        <v>0.3280751361603297</v>
       </c>
       <c r="L146" t="n">
-        <v>1.669813642676456</v>
+        <v>1.669722735569074</v>
       </c>
       <c r="M146" t="n">
-        <v>1.002133640821454</v>
+        <v>1.002202128270596</v>
       </c>
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr"/>
@@ -7045,14 +7073,14 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E148" t="n">
         <v>0</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Legia Warszawa</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="G148" t="n">
@@ -7077,10 +7105,10 @@
         <v>0.8461499467916982</v>
       </c>
       <c r="N148" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -7099,25 +7127,25 @@
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="n">
-        <v>73.0354932101</v>
+        <v>73.0486451666</v>
       </c>
       <c r="H149" t="n">
-        <v>77.1973156457</v>
+        <v>77.2079182808</v>
       </c>
       <c r="I149" t="n">
-        <v>0.2736824015477517</v>
+        <v>0.2737216860588045</v>
       </c>
       <c r="J149" t="n">
-        <v>0.3267412921925309</v>
+        <v>0.3266446522953409</v>
       </c>
       <c r="K149" t="n">
-        <v>0.3995763062597174</v>
+        <v>0.3996336616458546</v>
       </c>
       <c r="L149" t="n">
-        <v>1.220623510902973</v>
+        <v>1.220798719822268</v>
       </c>
       <c r="M149" t="n">
-        <v>1.37980018283731</v>
+        <v>1.379567618531877</v>
       </c>
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr"/>
@@ -7137,14 +7165,14 @@
         </is>
       </c>
       <c r="D150" t="n">
+        <v>1</v>
+      </c>
+      <c r="E150" t="n">
         <v>2</v>
       </c>
-      <c r="E150" t="n">
-        <v>0</v>
-      </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Legia Warszawa</t>
+          <t>Nieciecza</t>
         </is>
       </c>
       <c r="G150" t="n">
@@ -7169,10 +7197,10 @@
         <v>0.749048776182347</v>
       </c>
       <c r="N150" t="n">
+        <v>0</v>
+      </c>
+      <c r="O150" t="n">
         <v>3</v>
-      </c>
-      <c r="O150" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -7191,25 +7219,25 @@
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="n">
-        <v>71.5055139725</v>
+        <v>71.5193230042</v>
       </c>
       <c r="H151" t="n">
-        <v>77.1973156457</v>
+        <v>77.2079182808</v>
       </c>
       <c r="I151" t="n">
-        <v>0.2526164495413739</v>
+        <v>0.2526677969328726</v>
       </c>
       <c r="J151" t="n">
-        <v>0.3785635341282203</v>
+        <v>0.3784372195451334</v>
       </c>
       <c r="K151" t="n">
-        <v>0.3688200163304059</v>
+        <v>0.368894983521994</v>
       </c>
       <c r="L151" t="n">
-        <v>1.126669364954527</v>
+        <v>1.126898374320612</v>
       </c>
       <c r="M151" t="n">
-        <v>1.504510618715067</v>
+        <v>1.504206642157394</v>
       </c>
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr"/>
@@ -7230,25 +7258,25 @@
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="n">
-        <v>76.5136495429</v>
+        <v>76.52528694980001</v>
       </c>
       <c r="H152" t="n">
-        <v>73.36393093540001</v>
+        <v>73.3765750681</v>
       </c>
       <c r="I152" t="n">
-        <v>0.4967548719809557</v>
+        <v>0.4967355431741882</v>
       </c>
       <c r="J152" t="n">
-        <v>0.2045711902516441</v>
+        <v>0.2045790474901674</v>
       </c>
       <c r="K152" t="n">
-        <v>0.2986739377674003</v>
+        <v>0.2986854093356444</v>
       </c>
       <c r="L152" t="n">
-        <v>1.788938553710268</v>
+        <v>1.788892038858209</v>
       </c>
       <c r="M152" t="n">
-        <v>0.9123875085223325</v>
+        <v>0.9124225518061465</v>
       </c>
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr"/>
@@ -7269,25 +7297,25 @@
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="n">
-        <v>73.36393093540001</v>
+        <v>73.3765750681</v>
       </c>
       <c r="H153" t="n">
-        <v>76.5136495429</v>
+        <v>76.52528694980001</v>
       </c>
       <c r="I153" t="n">
-        <v>0.2864332652889353</v>
+        <v>0.2864515450936353</v>
       </c>
       <c r="J153" t="n">
-        <v>0.2953741673892192</v>
+        <v>0.2953291990696572</v>
       </c>
       <c r="K153" t="n">
-        <v>0.4181925673218455</v>
+        <v>0.4182192558367075</v>
       </c>
       <c r="L153" t="n">
-        <v>1.277492363188651</v>
+        <v>1.277573891117613</v>
       </c>
       <c r="M153" t="n">
-        <v>1.304315069489503</v>
+        <v>1.304206853045679</v>
       </c>
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr"/>
@@ -7308,25 +7336,25 @@
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="n">
-        <v>76.5136495429</v>
+        <v>76.52528694980001</v>
       </c>
       <c r="H154" t="n">
-        <v>73.90964547350001</v>
+        <v>73.9220533151</v>
       </c>
       <c r="I154" t="n">
-        <v>0.4772806768535282</v>
+        <v>0.4772698086919077</v>
       </c>
       <c r="J154" t="n">
-        <v>0.2124875297343381</v>
+        <v>0.2124919476862164</v>
       </c>
       <c r="K154" t="n">
-        <v>0.3102317934121336</v>
+        <v>0.3102382436218759</v>
       </c>
       <c r="L154" t="n">
-        <v>1.742073823972718</v>
+        <v>1.742047669697599</v>
       </c>
       <c r="M154" t="n">
-        <v>0.947694382615148</v>
+        <v>0.947714086680525</v>
       </c>
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr"/>
@@ -7346,7 +7374,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E155" t="n">
         <v>3</v>
@@ -7402,11 +7430,11 @@
         <v>1</v>
       </c>
       <c r="E156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Cracovia</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="G156" t="n">
@@ -7431,10 +7459,10 @@
         <v>1.194904085981362</v>
       </c>
       <c r="N156" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -7453,25 +7481,25 @@
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="n">
-        <v>77.89925171980001</v>
+        <v>77.9102779676</v>
       </c>
       <c r="H157" t="n">
-        <v>76.5136495429</v>
+        <v>76.52528694980001</v>
       </c>
       <c r="I157" t="n">
-        <v>0.436081742094081</v>
+        <v>0.4360757660592947</v>
       </c>
       <c r="J157" t="n">
-        <v>0.229235064189398</v>
+        <v>0.2292374934718314</v>
       </c>
       <c r="K157" t="n">
-        <v>0.3346831937165211</v>
+        <v>0.3346867404688739</v>
       </c>
       <c r="L157" t="n">
-        <v>1.642928419998764</v>
+        <v>1.642914038646758</v>
       </c>
       <c r="M157" t="n">
-        <v>1.022388386284715</v>
+        <v>1.022399220884368</v>
       </c>
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr"/>
@@ -7492,25 +7520,25 @@
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="n">
-        <v>76.5136495429</v>
+        <v>76.52528694980001</v>
       </c>
       <c r="H158" t="n">
-        <v>74.3349916019</v>
+        <v>74.34721478</v>
       </c>
       <c r="I158" t="n">
-        <v>0.4621466568868288</v>
+        <v>0.462142385976464</v>
       </c>
       <c r="J158" t="n">
-        <v>0.2186395703712078</v>
+        <v>0.2186413065136325</v>
       </c>
       <c r="K158" t="n">
-        <v>0.3192137727419634</v>
+        <v>0.3192163075099034</v>
       </c>
       <c r="L158" t="n">
-        <v>1.70565374340245</v>
+        <v>1.705643465439296</v>
       </c>
       <c r="M158" t="n">
-        <v>0.9751324838555868</v>
+        <v>0.9751402270508009</v>
       </c>
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr"/>
@@ -7584,25 +7612,25 @@
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="n">
-        <v>76.5136495429</v>
+        <v>76.52528694980001</v>
       </c>
       <c r="H160" t="n">
-        <v>75.14862541559999</v>
+        <v>75.1604941675</v>
       </c>
       <c r="I160" t="n">
-        <v>0.4334136165095574</v>
+        <v>0.433421830763796</v>
       </c>
       <c r="J160" t="n">
-        <v>0.2303196680855457</v>
+        <v>0.2303163289578065</v>
       </c>
       <c r="K160" t="n">
-        <v>0.3362667154048968</v>
+        <v>0.3362618402783975</v>
       </c>
       <c r="L160" t="n">
-        <v>1.636507564933569</v>
+        <v>1.636527332569785</v>
       </c>
       <c r="M160" t="n">
-        <v>1.027225719661534</v>
+        <v>1.027210827151817</v>
       </c>
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr"/>
@@ -7623,25 +7651,25 @@
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="n">
-        <v>75.14862541559999</v>
+        <v>75.1604941675</v>
       </c>
       <c r="H161" t="n">
-        <v>76.5136495429</v>
+        <v>76.52528694980001</v>
       </c>
       <c r="I161" t="n">
-        <v>0.3394504665055998</v>
+        <v>0.3394730844939446</v>
       </c>
       <c r="J161" t="n">
-        <v>0.268516070526179</v>
+        <v>0.2685068762219737</v>
       </c>
       <c r="K161" t="n">
-        <v>0.3920334629682212</v>
+        <v>0.3920200392840816</v>
       </c>
       <c r="L161" t="n">
-        <v>1.410384862485021</v>
+        <v>1.410439292765915</v>
       </c>
       <c r="M161" t="n">
-        <v>1.197581674546758</v>
+        <v>1.197540667950003</v>
       </c>
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr"/>
@@ -7662,25 +7690,25 @@
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="n">
-        <v>76.5136495429</v>
+        <v>76.52528694980001</v>
       </c>
       <c r="H162" t="n">
-        <v>74.9543426211</v>
+        <v>74.9662961455</v>
       </c>
       <c r="I162" t="n">
-        <v>0.440241410548362</v>
+        <v>0.4402466693049388</v>
       </c>
       <c r="J162" t="n">
-        <v>0.2275441420535114</v>
+        <v>0.2275420043475859</v>
       </c>
       <c r="K162" t="n">
-        <v>0.3322144473981266</v>
+        <v>0.3322113263474754</v>
       </c>
       <c r="L162" t="n">
-        <v>1.652938679043213</v>
+        <v>1.652951334262292</v>
       </c>
       <c r="M162" t="n">
-        <v>1.014846873558661</v>
+        <v>1.014837339390233</v>
       </c>
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr"/>
@@ -7700,14 +7728,14 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E163" t="n">
         <v>0</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
       <c r="G163" t="n">
@@ -7732,10 +7760,10 @@
         <v>1.208534847955191</v>
       </c>
       <c r="N163" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -7807,25 +7835,25 @@
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="n">
-        <v>72.7814307125</v>
+        <v>72.7943262771</v>
       </c>
       <c r="H165" t="n">
-        <v>76.5136495429</v>
+        <v>76.52528694980001</v>
       </c>
       <c r="I165" t="n">
-        <v>0.2789840362040071</v>
+        <v>0.2790062142410696</v>
       </c>
       <c r="J165" t="n">
-        <v>0.3136992709381428</v>
+        <v>0.3136447129669688</v>
       </c>
       <c r="K165" t="n">
-        <v>0.4073166928578503</v>
+        <v>0.4073490727919617</v>
       </c>
       <c r="L165" t="n">
-        <v>1.244268801469872</v>
+        <v>1.244367715515171</v>
       </c>
       <c r="M165" t="n">
-        <v>1.348414505672278</v>
+        <v>1.348283211692868</v>
       </c>
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr"/>
@@ -7848,11 +7876,11 @@
         <v>2</v>
       </c>
       <c r="E166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Cracovia</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="G166" t="n">
@@ -7877,10 +7905,10 @@
         <v>0.8946128129039848</v>
       </c>
       <c r="N166" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -7899,25 +7927,25 @@
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="n">
-        <v>73.0786951976</v>
+        <v>73.09182851769999</v>
       </c>
       <c r="H167" t="n">
-        <v>76.5136495429</v>
+        <v>76.52528694980001</v>
       </c>
       <c r="I167" t="n">
-        <v>0.2828170681283122</v>
+        <v>0.2828419144071594</v>
       </c>
       <c r="J167" t="n">
-        <v>0.304270012404352</v>
+        <v>0.3042088905583879</v>
       </c>
       <c r="K167" t="n">
-        <v>0.4129129194673358</v>
+        <v>0.4129491950344527</v>
       </c>
       <c r="L167" t="n">
-        <v>1.261364123852272</v>
+        <v>1.261474938255931</v>
       </c>
       <c r="M167" t="n">
-        <v>1.325722956680392</v>
+        <v>1.325575866709616</v>
       </c>
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr"/>
@@ -7991,25 +8019,25 @@
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="n">
-        <v>74.6831184939</v>
+        <v>74.6951902152</v>
       </c>
       <c r="H169" t="n">
-        <v>76.5136495429</v>
+        <v>76.52528694980001</v>
       </c>
       <c r="I169" t="n">
-        <v>0.3241192594453615</v>
+        <v>0.3241479634831289</v>
       </c>
       <c r="J169" t="n">
-        <v>0.2747482685181458</v>
+        <v>0.2747366002101102</v>
       </c>
       <c r="K169" t="n">
-        <v>0.4011324720364928</v>
+        <v>0.4011154363067609</v>
       </c>
       <c r="L169" t="n">
-        <v>1.373490250372577</v>
+        <v>1.373559326756148</v>
       </c>
       <c r="M169" t="n">
-        <v>1.22537727759093</v>
+        <v>1.225325236937091</v>
       </c>
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr"/>
@@ -8030,25 +8058,25 @@
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="n">
-        <v>76.5136495429</v>
+        <v>76.52528694980001</v>
       </c>
       <c r="H170" t="n">
-        <v>75.466492378</v>
+        <v>75.47858874710001</v>
       </c>
       <c r="I170" t="n">
-        <v>0.4222980790714653</v>
+        <v>0.4222983067956156</v>
       </c>
       <c r="J170" t="n">
-        <v>0.2348381792392418</v>
+        <v>0.234838086668449</v>
       </c>
       <c r="K170" t="n">
-        <v>0.342863741689293</v>
+        <v>0.3428636065359355</v>
       </c>
       <c r="L170" t="n">
-        <v>1.609757978903689</v>
+        <v>1.609758526922782</v>
       </c>
       <c r="M170" t="n">
-        <v>1.047378279407018</v>
+        <v>1.047377866541282</v>
       </c>
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr"/>
@@ -8069,25 +8097,25 @@
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="n">
-        <v>75.466492378</v>
+        <v>75.47858874710001</v>
       </c>
       <c r="H171" t="n">
-        <v>76.5136495429</v>
+        <v>76.52528694980001</v>
       </c>
       <c r="I171" t="n">
-        <v>0.35011855429595</v>
+        <v>0.3501492012543762</v>
       </c>
       <c r="J171" t="n">
-        <v>0.2641794494731911</v>
+        <v>0.2641669913600097</v>
       </c>
       <c r="K171" t="n">
-        <v>0.3857019962308589</v>
+        <v>0.3856838073856142</v>
       </c>
       <c r="L171" t="n">
-        <v>1.436057659118709</v>
+        <v>1.436131411148743</v>
       </c>
       <c r="M171" t="n">
-        <v>1.178240344650432</v>
+        <v>1.178184781465643</v>
       </c>
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr"/>
@@ -8108,25 +8136,25 @@
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="n">
-        <v>76.5136495429</v>
+        <v>76.52528694980001</v>
       </c>
       <c r="H172" t="n">
-        <v>73.0354932101</v>
+        <v>73.0486451666</v>
       </c>
       <c r="I172" t="n">
-        <v>0.5084839308364213</v>
+        <v>0.5084464753855545</v>
       </c>
       <c r="J172" t="n">
-        <v>0.1998032801477962</v>
+        <v>0.1998185059408315</v>
       </c>
       <c r="K172" t="n">
-        <v>0.2917127890157824</v>
+        <v>0.291735018673614</v>
       </c>
       <c r="L172" t="n">
-        <v>1.817164581525046</v>
+        <v>1.817074444830277</v>
       </c>
       <c r="M172" t="n">
-        <v>0.891122629459171</v>
+        <v>0.8911905364961085</v>
       </c>
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr"/>
@@ -8146,10 +8174,10 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -8253,25 +8281,25 @@
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="n">
-        <v>71.5055139725</v>
+        <v>71.5193230042</v>
       </c>
       <c r="H175" t="n">
-        <v>76.5136495429</v>
+        <v>76.52528694980001</v>
       </c>
       <c r="I175" t="n">
-        <v>0.2618397185707566</v>
+        <v>0.2618759774705189</v>
       </c>
       <c r="J175" t="n">
-        <v>0.3558742923159389</v>
+        <v>0.3557850954225236</v>
       </c>
       <c r="K175" t="n">
-        <v>0.3822859891133045</v>
+        <v>0.3823389271069575</v>
       </c>
       <c r="L175" t="n">
-        <v>1.167805144825574</v>
+        <v>1.167966859518514</v>
       </c>
       <c r="M175" t="n">
-        <v>1.449908866061121</v>
+        <v>1.449694213374528</v>
       </c>
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr"/>
@@ -8345,25 +8373,25 @@
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="n">
-        <v>73.90964547350001</v>
+        <v>73.9220533151</v>
       </c>
       <c r="H177" t="n">
-        <v>73.36393093540001</v>
+        <v>73.3765750681</v>
       </c>
       <c r="I177" t="n">
-        <v>0.4013456647641059</v>
+        <v>0.4013545897861182</v>
       </c>
       <c r="J177" t="n">
-        <v>0.2433554208275992</v>
+        <v>0.2433517927698707</v>
       </c>
       <c r="K177" t="n">
-        <v>0.3552989144082948</v>
+        <v>0.3552936174440112</v>
       </c>
       <c r="L177" t="n">
-        <v>1.559335908700612</v>
+        <v>1.559357386802366</v>
       </c>
       <c r="M177" t="n">
-        <v>1.085365176891092</v>
+        <v>1.085348995753623</v>
       </c>
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr"/>
@@ -8384,25 +8412,25 @@
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="n">
-        <v>73.36393093540001</v>
+        <v>73.3765750681</v>
       </c>
       <c r="H178" t="n">
-        <v>77.89925171980001</v>
+        <v>77.9102779676</v>
       </c>
       <c r="I178" t="n">
-        <v>0.2690384818831829</v>
+        <v>0.2690660817577694</v>
       </c>
       <c r="J178" t="n">
-        <v>0.3381653345673701</v>
+        <v>0.3380974388758872</v>
       </c>
       <c r="K178" t="n">
-        <v>0.392796183549447</v>
+        <v>0.3928364793663434</v>
       </c>
       <c r="L178" t="n">
-        <v>1.199911629198996</v>
+        <v>1.200034724639652</v>
       </c>
       <c r="M178" t="n">
-        <v>1.407292187251557</v>
+        <v>1.407128795994005</v>
       </c>
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr"/>
@@ -8529,25 +8557,25 @@
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="n">
-        <v>74.3349916019</v>
+        <v>74.34721478</v>
       </c>
       <c r="H181" t="n">
-        <v>73.36393093540001</v>
+        <v>73.3765750681</v>
       </c>
       <c r="I181" t="n">
-        <v>0.4166193249808975</v>
+        <v>0.4166216850632528</v>
       </c>
       <c r="J181" t="n">
-        <v>0.2371466158614238</v>
+        <v>0.2371456564783526</v>
       </c>
       <c r="K181" t="n">
-        <v>0.3462340591576787</v>
+        <v>0.3462326584583947</v>
       </c>
       <c r="L181" t="n">
-        <v>1.596092034100371</v>
+        <v>1.596097713648153</v>
       </c>
       <c r="M181" t="n">
-        <v>1.05767390674195</v>
+        <v>1.057669627893453</v>
       </c>
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr"/>
@@ -8568,25 +8596,25 @@
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="n">
-        <v>73.36393093540001</v>
+        <v>73.3765750681</v>
       </c>
       <c r="H182" t="n">
-        <v>75.14862541559999</v>
+        <v>75.1604941675</v>
       </c>
       <c r="I182" t="n">
-        <v>0.3239023927087074</v>
+        <v>0.3239424736740477</v>
       </c>
       <c r="J182" t="n">
-        <v>0.2748364257281677</v>
+        <v>0.2748201326528262</v>
       </c>
       <c r="K182" t="n">
-        <v>0.4012611815631248</v>
+        <v>0.4012373936731262</v>
       </c>
       <c r="L182" t="n">
-        <v>1.372968359689247</v>
+        <v>1.373064814695269</v>
       </c>
       <c r="M182" t="n">
-        <v>1.225770458747628</v>
+        <v>1.225697791631605</v>
       </c>
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr"/>
@@ -8662,11 +8690,11 @@
         <v>2</v>
       </c>
       <c r="E184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Motor Lublin</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="G184" t="n">
@@ -8691,10 +8719,10 @@
         <v>1.213939991461449</v>
       </c>
       <c r="N184" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -8713,25 +8741,25 @@
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="n">
-        <v>74.9543426211</v>
+        <v>74.9662961455</v>
       </c>
       <c r="H185" t="n">
-        <v>73.36393093540001</v>
+        <v>73.3765750681</v>
       </c>
       <c r="I185" t="n">
-        <v>0.439140960524151</v>
+        <v>0.439133484839432</v>
       </c>
       <c r="J185" t="n">
-        <v>0.2279914794617272</v>
+        <v>0.2279945183579545</v>
       </c>
       <c r="K185" t="n">
-        <v>0.3328675600141217</v>
+        <v>0.3328719968026135</v>
       </c>
       <c r="L185" t="n">
-        <v>1.650290441586575</v>
+        <v>1.650272451320909</v>
       </c>
       <c r="M185" t="n">
-        <v>1.016841998399303</v>
+        <v>1.016855551876477</v>
       </c>
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr"/>
@@ -8805,25 +8833,25 @@
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="n">
-        <v>72.7814307125</v>
+        <v>72.7943262771</v>
       </c>
       <c r="H187" t="n">
-        <v>73.36393093540001</v>
+        <v>73.3765750681</v>
       </c>
       <c r="I187" t="n">
-        <v>0.3618180943108218</v>
+        <v>0.3618434037627664</v>
       </c>
       <c r="J187" t="n">
-        <v>0.2594235388980399</v>
+        <v>0.2594132505029405</v>
       </c>
       <c r="K187" t="n">
-        <v>0.3787583667911383</v>
+        <v>0.3787433457342931</v>
       </c>
       <c r="L187" t="n">
-        <v>1.464212649723604</v>
+        <v>1.464273557022592</v>
       </c>
       <c r="M187" t="n">
-        <v>1.157028983485258</v>
+        <v>1.156983097243114</v>
       </c>
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr"/>
@@ -8844,25 +8872,25 @@
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="n">
-        <v>73.36393093540001</v>
+        <v>73.3765750681</v>
       </c>
       <c r="H188" t="n">
-        <v>73.0786951976</v>
+        <v>73.09182851769999</v>
       </c>
       <c r="I188" t="n">
-        <v>0.3916954766089455</v>
+        <v>0.3916960408977038</v>
       </c>
       <c r="J188" t="n">
-        <v>0.247278261541079</v>
+        <v>0.247278032155405</v>
       </c>
       <c r="K188" t="n">
-        <v>0.3610262618499754</v>
+        <v>0.3610259269468912</v>
       </c>
       <c r="L188" t="n">
-        <v>1.536112691676812</v>
+        <v>1.536114049640003</v>
       </c>
       <c r="M188" t="n">
-        <v>1.102861046473212</v>
+        <v>1.102860023413106</v>
       </c>
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr"/>
@@ -8882,14 +8910,14 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E189" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Lechia Gdańsk</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="G189" t="n">
@@ -8914,10 +8942,10 @@
         <v>1.13796886700445</v>
       </c>
       <c r="N189" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -8936,25 +8964,25 @@
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="n">
-        <v>73.36393093540001</v>
+        <v>73.3765750681</v>
       </c>
       <c r="H190" t="n">
-        <v>74.6831184939</v>
+        <v>74.6951902152</v>
       </c>
       <c r="I190" t="n">
-        <v>0.3386324909605408</v>
+        <v>0.3386669873926909</v>
       </c>
       <c r="J190" t="n">
-        <v>0.2688485809103493</v>
+        <v>0.2688345579704509</v>
       </c>
       <c r="K190" t="n">
-        <v>0.39251892812911</v>
+        <v>0.3924984546368583</v>
       </c>
       <c r="L190" t="n">
-        <v>1.408416401010732</v>
+        <v>1.408499416814931</v>
       </c>
       <c r="M190" t="n">
-        <v>1.199064670860158</v>
+        <v>1.199002128548211</v>
       </c>
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr"/>
@@ -9030,11 +9058,11 @@
         <v>1</v>
       </c>
       <c r="E192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Motor Lublin</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="G192" t="n">
@@ -9059,10 +9087,10 @@
         <v>1.242801209568582</v>
       </c>
       <c r="N192" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -9081,25 +9109,25 @@
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="n">
-        <v>75.466492378</v>
+        <v>75.47858874710001</v>
       </c>
       <c r="H193" t="n">
-        <v>73.36393093540001</v>
+        <v>73.3765750681</v>
       </c>
       <c r="I193" t="n">
-        <v>0.4579599069447627</v>
+        <v>0.4579576406229941</v>
       </c>
       <c r="J193" t="n">
-        <v>0.2203415012419664</v>
+        <v>0.220342422510978</v>
       </c>
       <c r="K193" t="n">
-        <v>0.3216985918132709</v>
+        <v>0.3216999368660279</v>
       </c>
       <c r="L193" t="n">
-        <v>1.695578312647559</v>
+        <v>1.69557285873501</v>
       </c>
       <c r="M193" t="n">
-        <v>0.9827230955391701</v>
+        <v>0.9827272043989619</v>
       </c>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
@@ -9173,25 +9201,25 @@
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="n">
-        <v>73.0354932101</v>
+        <v>73.0486451666</v>
       </c>
       <c r="H195" t="n">
-        <v>73.36393093540001</v>
+        <v>73.3765750681</v>
       </c>
       <c r="I195" t="n">
-        <v>0.3705786156747751</v>
+        <v>0.3706130674424698</v>
       </c>
       <c r="J195" t="n">
-        <v>0.2558623513517174</v>
+        <v>0.2558483465681017</v>
       </c>
       <c r="K195" t="n">
-        <v>0.3735590329735075</v>
+        <v>0.3735385859894285</v>
       </c>
       <c r="L195" t="n">
-        <v>1.485294879997833</v>
+        <v>1.485377788316838</v>
       </c>
       <c r="M195" t="n">
-        <v>1.14114608702866</v>
+        <v>1.141083625693734</v>
       </c>
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr"/>
@@ -9265,25 +9293,25 @@
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="n">
-        <v>71.5055139725</v>
+        <v>71.5193230042</v>
       </c>
       <c r="H197" t="n">
-        <v>73.36393093540001</v>
+        <v>73.3765750681</v>
       </c>
       <c r="I197" t="n">
-        <v>0.3192878352301659</v>
+        <v>0.3193411568357032</v>
       </c>
       <c r="J197" t="n">
-        <v>0.2767122621015586</v>
+        <v>0.2766905866521531</v>
       </c>
       <c r="K197" t="n">
-        <v>0.4039999026682755</v>
+        <v>0.4039682565121436</v>
       </c>
       <c r="L197" t="n">
-        <v>1.361863408358773</v>
+        <v>1.361991727019253</v>
       </c>
       <c r="M197" t="n">
-        <v>1.234136688972951</v>
+        <v>1.234040016468603</v>
       </c>
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
@@ -9304,25 +9332,25 @@
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="n">
-        <v>73.90964547350001</v>
+        <v>73.9220533151</v>
       </c>
       <c r="H198" t="n">
-        <v>77.89925171980001</v>
+        <v>77.9102779676</v>
       </c>
       <c r="I198" t="n">
-        <v>0.2763154117502859</v>
+        <v>0.2763391510856381</v>
       </c>
       <c r="J198" t="n">
-        <v>0.3202640870942968</v>
+        <v>0.3202056883293303</v>
       </c>
       <c r="K198" t="n">
-        <v>0.4034205011554174</v>
+        <v>0.4034551605850316</v>
       </c>
       <c r="L198" t="n">
-        <v>1.232366736406275</v>
+        <v>1.232472613841946</v>
       </c>
       <c r="M198" t="n">
-        <v>1.364212762438308</v>
+        <v>1.364072225573023</v>
       </c>
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr"/>
@@ -9395,14 +9423,14 @@
         </is>
       </c>
       <c r="D200" t="n">
+        <v>1</v>
+      </c>
+      <c r="E200" t="n">
         <v>3</v>
       </c>
-      <c r="E200" t="n">
-        <v>0</v>
-      </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>GKS Katowice</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
       <c r="G200" t="n">
@@ -9427,10 +9455,10 @@
         <v>1.144416799484335</v>
       </c>
       <c r="N200" t="n">
+        <v>0</v>
+      </c>
+      <c r="O200" t="n">
         <v>3</v>
-      </c>
-      <c r="O200" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -9449,25 +9477,25 @@
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="n">
-        <v>74.3349916019</v>
+        <v>74.34721478</v>
       </c>
       <c r="H201" t="n">
-        <v>73.90964547350001</v>
+        <v>73.9220533151</v>
       </c>
       <c r="I201" t="n">
-        <v>0.3978033568659545</v>
+        <v>0.397813769502192</v>
       </c>
       <c r="J201" t="n">
-        <v>0.2447953833878234</v>
+        <v>0.2447911506088651</v>
       </c>
       <c r="K201" t="n">
-        <v>0.3574012597462221</v>
+        <v>0.3573950798889429</v>
       </c>
       <c r="L201" t="n">
-        <v>1.550811330344086</v>
+        <v>1.550836388395519</v>
       </c>
       <c r="M201" t="n">
-        <v>1.091787409909692</v>
+        <v>1.091768531715538</v>
       </c>
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr"/>
@@ -9541,25 +9569,25 @@
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr"/>
       <c r="G203" t="n">
-        <v>75.14862541559999</v>
+        <v>75.1604941675</v>
       </c>
       <c r="H203" t="n">
-        <v>73.90964547350001</v>
+        <v>73.9220533151</v>
       </c>
       <c r="I203" t="n">
-        <v>0.4270876446145934</v>
+        <v>0.4270853956356804</v>
       </c>
       <c r="J203" t="n">
-        <v>0.2328912013761815</v>
+        <v>0.2328921155952519</v>
       </c>
       <c r="K203" t="n">
-        <v>0.3400211540092251</v>
+        <v>0.3400224887690678</v>
       </c>
       <c r="L203" t="n">
-        <v>1.621284087853005</v>
+        <v>1.621278675676109</v>
       </c>
       <c r="M203" t="n">
-        <v>1.03869475813777</v>
+        <v>1.038698835554824</v>
       </c>
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr"/>
@@ -9633,25 +9661,25 @@
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="inlineStr"/>
       <c r="G205" t="n">
-        <v>74.9543426211</v>
+        <v>74.9662961455</v>
       </c>
       <c r="H205" t="n">
-        <v>73.90964547350001</v>
+        <v>73.9220533151</v>
       </c>
       <c r="I205" t="n">
-        <v>0.4200401997045191</v>
+        <v>0.4200410287940344</v>
       </c>
       <c r="J205" t="n">
-        <v>0.2357560163802768</v>
+        <v>0.2357556793520185</v>
       </c>
       <c r="K205" t="n">
-        <v>0.3442037839152041</v>
+        <v>0.344203291853947</v>
       </c>
       <c r="L205" t="n">
-        <v>1.604324383028761</v>
+        <v>1.60432637823605</v>
       </c>
       <c r="M205" t="n">
-        <v>1.051471833056035</v>
+        <v>1.051470329910003</v>
       </c>
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr"/>
@@ -9672,25 +9700,25 @@
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr"/>
       <c r="G206" t="n">
-        <v>73.90964547350001</v>
+        <v>73.9220533151</v>
       </c>
       <c r="H206" t="n">
-        <v>72.7814307125</v>
+        <v>72.7943262771</v>
       </c>
       <c r="I206" t="n">
-        <v>0.4214931208184031</v>
+        <v>0.4214934200639886</v>
       </c>
       <c r="J206" t="n">
-        <v>0.2351653980412995</v>
+        <v>0.2351652763967526</v>
       </c>
       <c r="K206" t="n">
-        <v>0.3433414811402973</v>
+        <v>0.3433413035392588</v>
       </c>
       <c r="L206" t="n">
-        <v>1.607820843595507</v>
+        <v>1.607821563731225</v>
       </c>
       <c r="M206" t="n">
-        <v>1.048837675264196</v>
+        <v>1.048837132729517</v>
       </c>
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr"/>
@@ -9710,7 +9738,7 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E207" t="n">
         <v>0</v>
@@ -9764,25 +9792,25 @@
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr"/>
       <c r="G208" t="n">
-        <v>73.90964547350001</v>
+        <v>73.9220533151</v>
       </c>
       <c r="H208" t="n">
-        <v>73.0786951976</v>
+        <v>73.09182851769999</v>
       </c>
       <c r="I208" t="n">
-        <v>0.4111742191295733</v>
+        <v>0.4111662929963352</v>
       </c>
       <c r="J208" t="n">
-        <v>0.2393600735245637</v>
+        <v>0.239363295529945</v>
       </c>
       <c r="K208" t="n">
-        <v>0.349465707345863</v>
+        <v>0.3494704114737198</v>
       </c>
       <c r="L208" t="n">
-        <v>1.582988364734583</v>
+        <v>1.582969290462725</v>
       </c>
       <c r="M208" t="n">
-        <v>1.067545927919554</v>
+        <v>1.067560298063555</v>
       </c>
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr"/>
@@ -9909,25 +9937,25 @@
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr"/>
       <c r="G211" t="n">
-        <v>74.6831184939</v>
+        <v>74.6951902152</v>
       </c>
       <c r="H211" t="n">
-        <v>73.90964547350001</v>
+        <v>73.9220533151</v>
       </c>
       <c r="I211" t="n">
-        <v>0.4102566441274531</v>
+        <v>0.4102617163147456</v>
       </c>
       <c r="J211" t="n">
-        <v>0.2397330714929053</v>
+        <v>0.2397310096281522</v>
       </c>
       <c r="K211" t="n">
-        <v>0.3500102843796417</v>
+        <v>0.3500072740571022</v>
       </c>
       <c r="L211" t="n">
-        <v>1.580780216762001</v>
+        <v>1.580792423001339</v>
       </c>
       <c r="M211" t="n">
-        <v>1.069209498858358</v>
+        <v>1.069200302941559</v>
       </c>
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr"/>
@@ -9948,25 +9976,25 @@
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="n">
-        <v>73.90964547350001</v>
+        <v>73.9220533151</v>
       </c>
       <c r="H212" t="n">
-        <v>75.466492378</v>
+        <v>75.47858874710001</v>
       </c>
       <c r="I212" t="n">
-        <v>0.3317618523110927</v>
+        <v>0.3317874360793792</v>
       </c>
       <c r="J212" t="n">
-        <v>0.2716415234507754</v>
+        <v>0.2716311235449678</v>
       </c>
       <c r="K212" t="n">
-        <v>0.396596624238132</v>
+        <v>0.396581440375653</v>
       </c>
       <c r="L212" t="n">
-        <v>1.39188218117141</v>
+        <v>1.391943748613791</v>
       </c>
       <c r="M212" t="n">
-        <v>1.211521194590458</v>
+        <v>1.211474811010556</v>
       </c>
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr"/>
@@ -9986,14 +10014,14 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Wisła Płock</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="G213" t="n">
@@ -10018,10 +10046,10 @@
         <v>1.017763886058253</v>
       </c>
       <c r="N213" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -10093,25 +10121,25 @@
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="n">
-        <v>73.0354932101</v>
+        <v>73.0486451666</v>
       </c>
       <c r="H215" t="n">
-        <v>73.90964547350001</v>
+        <v>73.9220533151</v>
       </c>
       <c r="I215" t="n">
-        <v>0.3525852770407866</v>
+        <v>0.3526266989479272</v>
       </c>
       <c r="J215" t="n">
-        <v>0.2631767166500867</v>
+        <v>0.2631598784764523</v>
       </c>
       <c r="K215" t="n">
-        <v>0.3842380063091266</v>
+        <v>0.3842134225756204</v>
       </c>
       <c r="L215" t="n">
-        <v>1.441993837431486</v>
+        <v>1.442093519419402</v>
       </c>
       <c r="M215" t="n">
-        <v>1.173768156259387</v>
+        <v>1.173693058004977</v>
       </c>
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr"/>
@@ -10132,25 +10160,25 @@
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr"/>
       <c r="G216" t="n">
-        <v>73.90964547350001</v>
+        <v>73.9220533151</v>
       </c>
       <c r="H216" t="n">
-        <v>71.5055139725</v>
+        <v>71.5193230042</v>
       </c>
       <c r="I216" t="n">
-        <v>0.4664571656668135</v>
+        <v>0.4664249942330884</v>
       </c>
       <c r="J216" t="n">
-        <v>0.2168873310297506</v>
+        <v>0.216900408848338</v>
       </c>
       <c r="K216" t="n">
-        <v>0.3166555033034358</v>
+        <v>0.3166745969185735</v>
       </c>
       <c r="L216" t="n">
-        <v>1.716027000303876</v>
+        <v>1.715949579617839</v>
       </c>
       <c r="M216" t="n">
-        <v>0.9673174963926876</v>
+        <v>0.9673758234635876</v>
       </c>
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr"/>
@@ -10170,14 +10198,14 @@
         </is>
       </c>
       <c r="D217" t="n">
+        <v>0</v>
+      </c>
+      <c r="E217" t="n">
         <v>3</v>
       </c>
-      <c r="E217" t="n">
-        <v>0</v>
-      </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Nieciecza</t>
+          <t>GKS Katowice</t>
         </is>
       </c>
       <c r="G217" t="n">
@@ -10202,10 +10230,10 @@
         <v>1.263462125330986</v>
       </c>
       <c r="N217" t="n">
+        <v>0</v>
+      </c>
+      <c r="O217" t="n">
         <v>3</v>
-      </c>
-      <c r="O217" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -10224,25 +10252,25 @@
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr"/>
       <c r="G218" t="n">
-        <v>77.89925171980001</v>
+        <v>77.9102779676</v>
       </c>
       <c r="H218" t="n">
-        <v>74.3349916019</v>
+        <v>74.34721478</v>
       </c>
       <c r="I218" t="n">
-        <v>0.513536003766951</v>
+        <v>0.5135090277844003</v>
       </c>
       <c r="J218" t="n">
-        <v>0.1977495919646541</v>
+        <v>0.1977605578112194</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2887144042683949</v>
+        <v>0.2887304144043803</v>
       </c>
       <c r="L218" t="n">
-        <v>1.829322415569248</v>
+        <v>1.829257497757581</v>
       </c>
       <c r="M218" t="n">
-        <v>0.8819631801623571</v>
+        <v>0.8820120878380385</v>
       </c>
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr"/>
@@ -10316,25 +10344,25 @@
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="n">
-        <v>77.89925171980001</v>
+        <v>77.9102779676</v>
       </c>
       <c r="H220" t="n">
-        <v>75.14862541559999</v>
+        <v>75.1604941675</v>
       </c>
       <c r="I220" t="n">
-        <v>0.4844859431148485</v>
+        <v>0.4844716192815087</v>
       </c>
       <c r="J220" t="n">
-        <v>0.2095585597094111</v>
+        <v>0.2095643824058907</v>
       </c>
       <c r="K220" t="n">
-        <v>0.3059554971757403</v>
+        <v>0.3059639983126005</v>
       </c>
       <c r="L220" t="n">
-        <v>1.759413326520286</v>
+        <v>1.759378856157126</v>
       </c>
       <c r="M220" t="n">
-        <v>0.9346311763039736</v>
+        <v>0.9346571455302727</v>
       </c>
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr"/>
@@ -10408,25 +10436,25 @@
       <c r="E222" t="inlineStr"/>
       <c r="F222" t="inlineStr"/>
       <c r="G222" t="n">
-        <v>77.89925171980001</v>
+        <v>77.9102779676</v>
       </c>
       <c r="H222" t="n">
-        <v>74.9543426211</v>
+        <v>74.9662961455</v>
       </c>
       <c r="I222" t="n">
-        <v>0.4914204749620519</v>
+        <v>0.4914031148464464</v>
       </c>
       <c r="J222" t="n">
-        <v>0.2067396443243691</v>
+        <v>0.2067467012819324</v>
       </c>
       <c r="K222" t="n">
-        <v>0.3018398807135789</v>
+        <v>0.3018501838716213</v>
       </c>
       <c r="L222" t="n">
-        <v>1.776101305599735</v>
+        <v>1.77605952841096</v>
       </c>
       <c r="M222" t="n">
-        <v>0.9220588136866863</v>
+        <v>0.9220902877174184</v>
       </c>
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr"/>
@@ -10447,25 +10475,25 @@
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr"/>
       <c r="G223" t="n">
-        <v>74.9543426211</v>
+        <v>74.9662961455</v>
       </c>
       <c r="H223" t="n">
-        <v>77.89925171980001</v>
+        <v>77.9102779676</v>
       </c>
       <c r="I223" t="n">
-        <v>0.290583440263317</v>
+        <v>0.2906248304878626</v>
       </c>
       <c r="J223" t="n">
-        <v>0.2883807153401151</v>
+        <v>0.2883638900455843</v>
       </c>
       <c r="K223" t="n">
-        <v>0.421035844396568</v>
+        <v>0.4210112794665531</v>
       </c>
       <c r="L223" t="n">
-        <v>1.292786165186519</v>
+        <v>1.292885770930141</v>
       </c>
       <c r="M223" t="n">
-        <v>1.286177990416913</v>
+        <v>1.286102949603306</v>
       </c>
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr"/>
@@ -10539,25 +10567,25 @@
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr"/>
       <c r="G225" t="n">
-        <v>72.7814307125</v>
+        <v>72.7943262771</v>
       </c>
       <c r="H225" t="n">
-        <v>77.89925171980001</v>
+        <v>77.9102779676</v>
       </c>
       <c r="I225" t="n">
-        <v>0.2610580634225608</v>
+        <v>0.261089888442381</v>
       </c>
       <c r="J225" t="n">
-        <v>0.3577971639805005</v>
+        <v>0.3577188744317427</v>
       </c>
       <c r="K225" t="n">
-        <v>0.3811447725969387</v>
+        <v>0.3811912371258763</v>
       </c>
       <c r="L225" t="n">
-        <v>1.164318962864621</v>
+        <v>1.164460902453019</v>
       </c>
       <c r="M225" t="n">
-        <v>1.45453626453844</v>
+        <v>1.454347860421104</v>
       </c>
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr"/>
@@ -10631,25 +10659,25 @@
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="n">
-        <v>73.0786951976</v>
+        <v>73.09182851769999</v>
       </c>
       <c r="H227" t="n">
-        <v>77.89925171980001</v>
+        <v>77.9102779676</v>
       </c>
       <c r="I227" t="n">
-        <v>0.2651569243004852</v>
+        <v>0.2651915943862528</v>
       </c>
       <c r="J227" t="n">
-        <v>0.3477139662208065</v>
+        <v>0.3476286778098182</v>
       </c>
       <c r="K227" t="n">
-        <v>0.3871291094787084</v>
+        <v>0.3871797278039291</v>
       </c>
       <c r="L227" t="n">
-        <v>1.182599882380164</v>
+        <v>1.182754510962687</v>
       </c>
       <c r="M227" t="n">
-        <v>1.430271008141128</v>
+        <v>1.430065761233384</v>
       </c>
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr"/>
@@ -10670,25 +10698,25 @@
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="n">
-        <v>77.89925171980001</v>
+        <v>77.9102779676</v>
       </c>
       <c r="H228" t="n">
-        <v>74.6831184939</v>
+        <v>74.6951902152</v>
       </c>
       <c r="I228" t="n">
-        <v>0.5011062069480489</v>
+        <v>0.501084620494947</v>
       </c>
       <c r="J228" t="n">
-        <v>0.2028023548991671</v>
+        <v>0.2028111298801029</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2960914381527839</v>
+        <v>0.2961042496249501</v>
       </c>
       <c r="L228" t="n">
-        <v>1.79941005899693</v>
+        <v>1.799358111109791</v>
       </c>
       <c r="M228" t="n">
-        <v>0.9044985028502852</v>
+        <v>0.9045376392652587</v>
       </c>
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr"/>
@@ -10708,14 +10736,14 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Górnik Zabrze</t>
+          <t>Zagłębie Lubin</t>
         </is>
       </c>
       <c r="G229" t="n">
@@ -10740,10 +10768,10 @@
         <v>1.30381361051906</v>
       </c>
       <c r="N229" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O229" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -10762,25 +10790,25 @@
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr"/>
       <c r="G230" t="n">
-        <v>77.89925171980001</v>
+        <v>77.9102779676</v>
       </c>
       <c r="H230" t="n">
-        <v>75.466492378</v>
+        <v>75.47858874710001</v>
       </c>
       <c r="I230" t="n">
-        <v>0.4731544110531038</v>
+        <v>0.4731320090379812</v>
       </c>
       <c r="J230" t="n">
-        <v>0.2141648735556489</v>
+        <v>0.2141739800658613</v>
       </c>
       <c r="K230" t="n">
-        <v>0.3126807153912474</v>
+        <v>0.3126940108961575</v>
       </c>
       <c r="L230" t="n">
-        <v>1.732143948550559</v>
+        <v>1.732090038010101</v>
       </c>
       <c r="M230" t="n">
-        <v>0.955175336058194</v>
+        <v>0.9552159510937415</v>
       </c>
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr"/>
@@ -10801,25 +10829,25 @@
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="inlineStr"/>
       <c r="G231" t="n">
-        <v>75.466492378</v>
+        <v>75.47858874710001</v>
       </c>
       <c r="H231" t="n">
-        <v>77.89925171980001</v>
+        <v>77.9102779676</v>
       </c>
       <c r="I231" t="n">
-        <v>0.3065153436760733</v>
+        <v>0.3065625341146861</v>
       </c>
       <c r="J231" t="n">
-        <v>0.2819043318389945</v>
+        <v>0.2818851487338674</v>
       </c>
       <c r="K231" t="n">
-        <v>0.4115803244849321</v>
+        <v>0.4115523171514465</v>
       </c>
       <c r="L231" t="n">
-        <v>1.331126355513152</v>
+        <v>1.331239919495505</v>
       </c>
       <c r="M231" t="n">
-        <v>1.257293320001916</v>
+        <v>1.257207763353049</v>
       </c>
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr"/>
@@ -10839,14 +10867,14 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E232" t="n">
         <v>1</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Górnik Zabrze</t>
         </is>
       </c>
       <c r="G232" t="n">
@@ -10871,10 +10899,10 @@
         <v>0.7994748875232711</v>
       </c>
       <c r="N232" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -10893,25 +10921,25 @@
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr"/>
       <c r="G233" t="n">
-        <v>73.0354932101</v>
+        <v>73.0486451666</v>
       </c>
       <c r="H233" t="n">
-        <v>77.89925171980001</v>
+        <v>77.9102779676</v>
       </c>
       <c r="I233" t="n">
-        <v>0.2645645620771362</v>
+        <v>0.264599555452028</v>
       </c>
       <c r="J233" t="n">
-        <v>0.3491711772902449</v>
+        <v>0.3490850935880114</v>
       </c>
       <c r="K233" t="n">
-        <v>0.3862642606326189</v>
+        <v>0.3863153509599607</v>
       </c>
       <c r="L233" t="n">
-        <v>1.179957946864028</v>
+        <v>1.180114017316045</v>
       </c>
       <c r="M233" t="n">
-        <v>1.433777792503354</v>
+        <v>1.433570631723995</v>
       </c>
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr"/>
@@ -10931,14 +10959,14 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Górnik Zabrze</t>
+          <t>Nieciecza</t>
         </is>
       </c>
       <c r="G234" t="n">
@@ -10963,10 +10991,10 @@
         <v>0.7038308529937485</v>
       </c>
       <c r="N234" t="n">
+        <v>0</v>
+      </c>
+      <c r="O234" t="n">
         <v>3</v>
-      </c>
-      <c r="O234" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -10985,25 +11013,25 @@
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr"/>
       <c r="G235" t="n">
-        <v>71.5055139725</v>
+        <v>71.5193230042</v>
       </c>
       <c r="H235" t="n">
-        <v>77.89925171980001</v>
+        <v>77.9102779676</v>
       </c>
       <c r="I235" t="n">
-        <v>0.2429168744292695</v>
+        <v>0.2429634478985257</v>
       </c>
       <c r="J235" t="n">
-        <v>0.4024244889039971</v>
+        <v>0.4023099181696268</v>
       </c>
       <c r="K235" t="n">
-        <v>0.3546586366667335</v>
+        <v>0.3547266339318475</v>
       </c>
       <c r="L235" t="n">
-        <v>1.083409259954542</v>
+        <v>1.083616977627424</v>
       </c>
       <c r="M235" t="n">
-        <v>1.561932103378725</v>
+        <v>1.561656388440728</v>
       </c>
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr"/>
@@ -11077,25 +11105,25 @@
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr"/>
       <c r="G237" t="n">
-        <v>75.14862541559999</v>
+        <v>75.1604941675</v>
       </c>
       <c r="H237" t="n">
-        <v>74.3349916019</v>
+        <v>74.34721478</v>
       </c>
       <c r="I237" t="n">
-        <v>0.4122898576195931</v>
+        <v>0.4122940226700318</v>
       </c>
       <c r="J237" t="n">
-        <v>0.2389065619432548</v>
+        <v>0.2389048688333204</v>
       </c>
       <c r="K237" t="n">
-        <v>0.348803580437152</v>
+        <v>0.3488011084966478</v>
       </c>
       <c r="L237" t="n">
-        <v>1.585673153295932</v>
+        <v>1.585683176506743</v>
       </c>
       <c r="M237" t="n">
-        <v>1.065523266266917</v>
+        <v>1.065515714996609</v>
       </c>
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr"/>
@@ -11116,25 +11144,25 @@
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="inlineStr"/>
       <c r="G238" t="n">
-        <v>74.3349916019</v>
+        <v>74.34721478</v>
       </c>
       <c r="H238" t="n">
-        <v>74.9543426211</v>
+        <v>74.9662961455</v>
       </c>
       <c r="I238" t="n">
-        <v>0.3626527937398028</v>
+        <v>0.3626778419902923</v>
       </c>
       <c r="J238" t="n">
-        <v>0.259084230187072</v>
+        <v>0.2590740479714259</v>
       </c>
       <c r="K238" t="n">
-        <v>0.3782629760731251</v>
+        <v>0.3782481100382818</v>
       </c>
       <c r="L238" t="n">
-        <v>1.466221357292534</v>
+        <v>1.466281636009159</v>
       </c>
       <c r="M238" t="n">
-        <v>1.155515666634341</v>
+        <v>1.155470253952559</v>
       </c>
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr"/>
@@ -11208,25 +11236,25 @@
       <c r="E240" t="inlineStr"/>
       <c r="F240" t="inlineStr"/>
       <c r="G240" t="n">
-        <v>74.3349916019</v>
+        <v>74.34721478</v>
       </c>
       <c r="H240" t="n">
-        <v>72.7814307125</v>
+        <v>72.7943262771</v>
       </c>
       <c r="I240" t="n">
-        <v>0.4369738553455133</v>
+        <v>0.4369674073434139</v>
       </c>
       <c r="J240" t="n">
-        <v>0.2288724165262141</v>
+        <v>0.2288750376652789</v>
       </c>
       <c r="K240" t="n">
-        <v>0.3341537281282725</v>
+        <v>0.3341575549913072</v>
       </c>
       <c r="L240" t="n">
-        <v>1.645075294164812</v>
+        <v>1.645059777021549</v>
       </c>
       <c r="M240" t="n">
-        <v>1.020770977706915</v>
+        <v>1.020782667987144</v>
       </c>
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr"/>
@@ -11247,25 +11275,25 @@
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr"/>
       <c r="G241" t="n">
-        <v>72.7814307125</v>
+        <v>72.7943262771</v>
       </c>
       <c r="H241" t="n">
-        <v>74.3349916019</v>
+        <v>74.34721478</v>
       </c>
       <c r="I241" t="n">
-        <v>0.330437997799328</v>
+        <v>0.3304755545584496</v>
       </c>
       <c r="J241" t="n">
-        <v>0.2721796756913301</v>
+        <v>0.2721644087160774</v>
       </c>
       <c r="K241" t="n">
-        <v>0.3973823265093419</v>
+        <v>0.397360036725473</v>
       </c>
       <c r="L241" t="n">
-        <v>1.388696319907326</v>
+        <v>1.388786700400822</v>
       </c>
       <c r="M241" t="n">
-        <v>1.213921353583332</v>
+        <v>1.213853262873705</v>
       </c>
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr"/>
@@ -11339,25 +11367,25 @@
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="inlineStr"/>
       <c r="G243" t="n">
-        <v>73.0786951976</v>
+        <v>73.09182851769999</v>
       </c>
       <c r="H243" t="n">
-        <v>74.3349916019</v>
+        <v>74.34721478</v>
       </c>
       <c r="I243" t="n">
-        <v>0.3402815655050777</v>
+        <v>0.3403276026941882</v>
       </c>
       <c r="J243" t="n">
-        <v>0.26817822540444</v>
+        <v>0.2681595110999235</v>
       </c>
       <c r="K243" t="n">
-        <v>0.3915402090904823</v>
+        <v>0.3915128862058883</v>
       </c>
       <c r="L243" t="n">
-        <v>1.412384905605715</v>
+        <v>1.412495694288453</v>
       </c>
       <c r="M243" t="n">
-        <v>1.196074885303802</v>
+        <v>1.195991419505659</v>
       </c>
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr"/>
@@ -11378,25 +11406,25 @@
       <c r="E244" t="inlineStr"/>
       <c r="F244" t="inlineStr"/>
       <c r="G244" t="n">
-        <v>74.3349916019</v>
+        <v>74.34721478</v>
       </c>
       <c r="H244" t="n">
-        <v>74.6831184939</v>
+        <v>74.6951902152</v>
       </c>
       <c r="I244" t="n">
-        <v>0.3716552315606205</v>
+        <v>0.3716765957162971</v>
       </c>
       <c r="J244" t="n">
-        <v>0.2554247026176339</v>
+        <v>0.2554160180015053</v>
       </c>
       <c r="K244" t="n">
-        <v>0.3729200658217455</v>
+        <v>0.3729073862821977</v>
       </c>
       <c r="L244" t="n">
-        <v>1.487885760503607</v>
+        <v>1.487937173431089</v>
       </c>
       <c r="M244" t="n">
-        <v>1.139194173674647</v>
+        <v>1.139155440286713</v>
       </c>
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr"/>
@@ -11470,25 +11498,25 @@
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="inlineStr"/>
       <c r="G246" t="n">
-        <v>74.3349916019</v>
+        <v>74.34721478</v>
       </c>
       <c r="H246" t="n">
-        <v>75.466492378</v>
+        <v>75.47858874710001</v>
       </c>
       <c r="I246" t="n">
-        <v>0.3459175555677269</v>
+        <v>0.3459374580651156</v>
       </c>
       <c r="J246" t="n">
-        <v>0.2658871725334443</v>
+        <v>0.2658790820873514</v>
       </c>
       <c r="K246" t="n">
-        <v>0.3881952718988287</v>
+        <v>0.3881834598475331</v>
       </c>
       <c r="L246" t="n">
-        <v>1.425947938602009</v>
+        <v>1.42599583404288</v>
       </c>
       <c r="M246" t="n">
-        <v>1.185856789499162</v>
+        <v>1.185820706109587</v>
       </c>
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr"/>
@@ -11508,7 +11536,7 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E247" t="n">
         <v>0</v>
@@ -11562,25 +11590,25 @@
       <c r="E248" t="inlineStr"/>
       <c r="F248" t="inlineStr"/>
       <c r="G248" t="n">
-        <v>74.3349916019</v>
+        <v>74.34721478</v>
       </c>
       <c r="H248" t="n">
-        <v>73.0354932101</v>
+        <v>73.0486451666</v>
       </c>
       <c r="I248" t="n">
-        <v>0.4280657230642629</v>
+        <v>0.4280503393065334</v>
       </c>
       <c r="J248" t="n">
-        <v>0.2324936085104622</v>
+        <v>0.2324998620705149</v>
       </c>
       <c r="K248" t="n">
-        <v>0.3394406684252749</v>
+        <v>0.3394497986229517</v>
       </c>
       <c r="L248" t="n">
-        <v>1.623637837618064</v>
+        <v>1.623600816542552</v>
       </c>
       <c r="M248" t="n">
-        <v>1.036921493956662</v>
+        <v>1.036949384834496</v>
       </c>
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr"/>
@@ -11653,10 +11681,10 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
@@ -11707,25 +11735,25 @@
       <c r="E251" t="inlineStr"/>
       <c r="F251" t="inlineStr"/>
       <c r="G251" t="n">
-        <v>71.5055139725</v>
+        <v>71.5193230042</v>
       </c>
       <c r="H251" t="n">
-        <v>74.3349916019</v>
+        <v>74.34721478</v>
       </c>
       <c r="I251" t="n">
-        <v>0.2899206410718216</v>
+        <v>0.2899835289868294</v>
       </c>
       <c r="J251" t="n">
-        <v>0.2886501459057636</v>
+        <v>0.2886245817126709</v>
       </c>
       <c r="K251" t="n">
-        <v>0.4214292130224148</v>
+        <v>0.4213918893004995</v>
       </c>
       <c r="L251" t="n">
-        <v>1.29119113623788</v>
+        <v>1.291342476260988</v>
       </c>
       <c r="M251" t="n">
-        <v>1.287379650739706</v>
+        <v>1.287265634438512</v>
       </c>
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr"/>
@@ -11745,7 +11773,7 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E252" t="n">
         <v>0</v>
@@ -11799,25 +11827,25 @@
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="inlineStr"/>
       <c r="G253" t="n">
-        <v>74.9543426211</v>
+        <v>74.9662961455</v>
       </c>
       <c r="H253" t="n">
-        <v>75.14862541559999</v>
+        <v>75.1604941675</v>
       </c>
       <c r="I253" t="n">
-        <v>0.3776333809220518</v>
+        <v>0.37765228104141</v>
       </c>
       <c r="J253" t="n">
-        <v>0.2529945606007919</v>
+        <v>0.2529868776254431</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3693720584771562</v>
+        <v>0.3693608413331469</v>
       </c>
       <c r="L253" t="n">
-        <v>1.502272201243312</v>
+        <v>1.502317684457377</v>
       </c>
       <c r="M253" t="n">
-        <v>1.128355740279532</v>
+        <v>1.128321474209476</v>
       </c>
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr"/>
@@ -11838,25 +11866,25 @@
       <c r="E254" t="inlineStr"/>
       <c r="F254" t="inlineStr"/>
       <c r="G254" t="n">
-        <v>75.14862541559999</v>
+        <v>75.1604941675</v>
       </c>
       <c r="H254" t="n">
-        <v>72.7814307125</v>
+        <v>72.7943262771</v>
       </c>
       <c r="I254" t="n">
-        <v>0.4669059638633204</v>
+        <v>0.4668863337676216</v>
       </c>
       <c r="J254" t="n">
-        <v>0.2167048927384877</v>
+        <v>0.2167128724521863</v>
       </c>
       <c r="K254" t="n">
-        <v>0.316389143398192</v>
+        <v>0.316400793780192</v>
       </c>
       <c r="L254" t="n">
-        <v>1.717107034988153</v>
+        <v>1.717059795083057</v>
       </c>
       <c r="M254" t="n">
-        <v>0.966503821613655</v>
+        <v>0.966539411136751</v>
       </c>
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr"/>
@@ -11877,25 +11905,25 @@
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="inlineStr"/>
       <c r="G255" t="n">
-        <v>72.7814307125</v>
+        <v>72.7943262771</v>
       </c>
       <c r="H255" t="n">
-        <v>75.14862541559999</v>
+        <v>75.1604941675</v>
       </c>
       <c r="I255" t="n">
-        <v>0.3052463573715544</v>
+        <v>0.3052930948396007</v>
       </c>
       <c r="J255" t="n">
-        <v>0.2824201799302624</v>
+        <v>0.2824011809595119</v>
       </c>
       <c r="K255" t="n">
-        <v>0.4123334626981832</v>
+        <v>0.4123057242008875</v>
       </c>
       <c r="L255" t="n">
-        <v>1.328072534812846</v>
+        <v>1.328185008719689</v>
       </c>
       <c r="M255" t="n">
-        <v>1.25959400248897</v>
+        <v>1.259509267079423</v>
       </c>
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr"/>
@@ -11915,7 +11943,7 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E256" t="n">
         <v>0</v>
@@ -11969,25 +11997,25 @@
       <c r="E257" t="inlineStr"/>
       <c r="F257" t="inlineStr"/>
       <c r="G257" t="n">
-        <v>73.0786951976</v>
+        <v>73.09182851769999</v>
       </c>
       <c r="H257" t="n">
-        <v>75.14862541559999</v>
+        <v>75.1604941675</v>
       </c>
       <c r="I257" t="n">
-        <v>0.3146921869169766</v>
+        <v>0.3147473340820434</v>
       </c>
       <c r="J257" t="n">
-        <v>0.2785804118223673</v>
+        <v>0.2785579942755921</v>
       </c>
       <c r="K257" t="n">
-        <v>0.4067274012606562</v>
+        <v>0.4066946716423644</v>
       </c>
       <c r="L257" t="n">
-        <v>1.350803962011586</v>
+        <v>1.350936673888495</v>
       </c>
       <c r="M257" t="n">
-        <v>1.242468636727758</v>
+        <v>1.242368654469141</v>
       </c>
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr"/>
@@ -12008,25 +12036,25 @@
       <c r="E258" t="inlineStr"/>
       <c r="F258" t="inlineStr"/>
       <c r="G258" t="n">
-        <v>75.14862541559999</v>
+        <v>75.1604941675</v>
       </c>
       <c r="H258" t="n">
-        <v>74.6831184939</v>
+        <v>74.6951902152</v>
       </c>
       <c r="I258" t="n">
-        <v>0.4002941472831683</v>
+        <v>0.4003034677945966</v>
       </c>
       <c r="J258" t="n">
-        <v>0.2437828669580616</v>
+        <v>0.2437790781322778</v>
       </c>
       <c r="K258" t="n">
-        <v>0.35592298575877</v>
+        <v>0.3559174540731256</v>
       </c>
       <c r="L258" t="n">
-        <v>1.556805427608275</v>
+        <v>1.556827857456915</v>
       </c>
       <c r="M258" t="n">
-        <v>1.087271586632955</v>
+        <v>1.087254688469959</v>
       </c>
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr"/>
@@ -12046,14 +12074,14 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E259" t="n">
         <v>1</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Zagłębie Lubin</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="G259" t="n">
@@ -12078,10 +12106,10 @@
         <v>1.144968390763188</v>
       </c>
       <c r="N259" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -12100,25 +12128,25 @@
       <c r="E260" t="inlineStr"/>
       <c r="F260" t="inlineStr"/>
       <c r="G260" t="n">
-        <v>75.14862541559999</v>
+        <v>75.1604941675</v>
       </c>
       <c r="H260" t="n">
-        <v>75.466492378</v>
+        <v>75.47858874710001</v>
       </c>
       <c r="I260" t="n">
-        <v>0.3737528855904306</v>
+        <v>0.3737611491033624</v>
       </c>
       <c r="J260" t="n">
-        <v>0.2545719977274672</v>
+        <v>0.254568638575869</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3716751166821021</v>
+        <v>0.3716702123207687</v>
       </c>
       <c r="L260" t="n">
-        <v>1.492933773453394</v>
+        <v>1.492953659630856</v>
       </c>
       <c r="M260" t="n">
-        <v>1.135391109864504</v>
+        <v>1.135376128048376</v>
       </c>
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr"/>
@@ -12192,25 +12220,25 @@
       <c r="E262" t="inlineStr"/>
       <c r="F262" t="inlineStr"/>
       <c r="G262" t="n">
-        <v>75.14862541559999</v>
+        <v>75.1604941675</v>
       </c>
       <c r="H262" t="n">
-        <v>73.0354932101</v>
+        <v>73.0486451666</v>
       </c>
       <c r="I262" t="n">
-        <v>0.4578838808088056</v>
+        <v>0.4578552124310504</v>
       </c>
       <c r="J262" t="n">
-        <v>0.2203724061752823</v>
+        <v>0.2203840599873779</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3217437130159121</v>
+        <v>0.3217607275815717</v>
       </c>
       <c r="L262" t="n">
-        <v>1.695395355442329</v>
+        <v>1.695326364874723</v>
       </c>
       <c r="M262" t="n">
-        <v>0.9828609315417589</v>
+        <v>0.9829129075437054</v>
       </c>
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr"/>
@@ -12284,25 +12312,25 @@
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="inlineStr"/>
       <c r="G264" t="n">
-        <v>75.14862541559999</v>
+        <v>75.1604941675</v>
       </c>
       <c r="H264" t="n">
-        <v>71.5055139725</v>
+        <v>71.5193230042</v>
       </c>
       <c r="I264" t="n">
-        <v>0.512423407110671</v>
+        <v>0.5123710989405798</v>
       </c>
       <c r="J264" t="n">
-        <v>0.1982018670281825</v>
+        <v>0.1982231305119594</v>
       </c>
       <c r="K264" t="n">
-        <v>0.2893747258611464</v>
+        <v>0.2894057705474608</v>
       </c>
       <c r="L264" t="n">
-        <v>1.826644947193159</v>
+        <v>1.8265190673692</v>
       </c>
       <c r="M264" t="n">
-        <v>0.883980326945694</v>
+        <v>0.884075162083339</v>
       </c>
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr"/>
@@ -12376,25 +12404,25 @@
       <c r="E266" t="inlineStr"/>
       <c r="F266" t="inlineStr"/>
       <c r="G266" t="n">
-        <v>74.9543426211</v>
+        <v>74.9662961455</v>
       </c>
       <c r="H266" t="n">
-        <v>72.7814307125</v>
+        <v>72.7943262771</v>
       </c>
       <c r="I266" t="n">
-        <v>0.4597287134569157</v>
+        <v>0.4597122531486899</v>
       </c>
       <c r="J266" t="n">
-        <v>0.2196224742045058</v>
+        <v>0.2196291653867115</v>
       </c>
       <c r="K266" t="n">
-        <v>0.3206488123385785</v>
+        <v>0.3206585814645987</v>
       </c>
       <c r="L266" t="n">
-        <v>1.699834952709326</v>
+        <v>1.699795340910669</v>
       </c>
       <c r="M266" t="n">
-        <v>0.9795162349520961</v>
+        <v>0.979546077624733</v>
       </c>
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr"/>
@@ -12468,25 +12496,25 @@
       <c r="E268" t="inlineStr"/>
       <c r="F268" t="inlineStr"/>
       <c r="G268" t="n">
-        <v>74.9543426211</v>
+        <v>74.9662961455</v>
       </c>
       <c r="H268" t="n">
-        <v>73.0786951976</v>
+        <v>73.09182851769999</v>
       </c>
       <c r="I268" t="n">
-        <v>0.4492005827315338</v>
+        <v>0.4491757824286515</v>
       </c>
       <c r="J268" t="n">
-        <v>0.223902202141653</v>
+        <v>0.2239122835655888</v>
       </c>
       <c r="K268" t="n">
-        <v>0.3268972151268133</v>
+        <v>0.3269119340057597</v>
       </c>
       <c r="L268" t="n">
-        <v>1.674498963321415</v>
+        <v>1.674439281291714</v>
       </c>
       <c r="M268" t="n">
-        <v>0.9986038215517721</v>
+        <v>0.9986487847025262</v>
       </c>
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr"/>
@@ -12506,7 +12534,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E269" t="n">
         <v>2</v>
@@ -12559,14 +12587,14 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E270" t="n">
         <v>1</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
       <c r="G270" t="n">
@@ -12591,10 +12619,10 @@
         <v>1.099530072154628</v>
       </c>
       <c r="N270" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -12613,25 +12641,25 @@
       <c r="E271" t="inlineStr"/>
       <c r="F271" t="inlineStr"/>
       <c r="G271" t="n">
-        <v>74.6831184939</v>
+        <v>74.6951902152</v>
       </c>
       <c r="H271" t="n">
-        <v>74.9543426211</v>
+        <v>74.9662961455</v>
       </c>
       <c r="I271" t="n">
-        <v>0.3746903590891076</v>
+        <v>0.3747104776197627</v>
       </c>
       <c r="J271" t="n">
-        <v>0.2541909109393872</v>
+        <v>0.2541827326748932</v>
       </c>
       <c r="K271" t="n">
-        <v>0.3711187299715053</v>
+        <v>0.3711067897053441</v>
       </c>
       <c r="L271" t="n">
-        <v>1.495189807238828</v>
+        <v>1.495238222564632</v>
       </c>
       <c r="M271" t="n">
-        <v>1.133691462789667</v>
+        <v>1.133654987730024</v>
       </c>
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr"/>
@@ -12705,25 +12733,25 @@
       <c r="E273" t="inlineStr"/>
       <c r="F273" t="inlineStr"/>
       <c r="G273" t="n">
-        <v>75.466492378</v>
+        <v>75.47858874710001</v>
       </c>
       <c r="H273" t="n">
-        <v>74.9543426211</v>
+        <v>74.9662961455</v>
       </c>
       <c r="I273" t="n">
-        <v>0.4023314704460423</v>
+        <v>0.4023529987329931</v>
       </c>
       <c r="J273" t="n">
-        <v>0.242954686810552</v>
+        <v>0.242945935474393</v>
       </c>
       <c r="K273" t="n">
-        <v>0.3547138427434058</v>
+        <v>0.3547010657926138</v>
       </c>
       <c r="L273" t="n">
-        <v>1.561708254081533</v>
+        <v>1.561760061991593</v>
       </c>
       <c r="M273" t="n">
-        <v>1.083577903175062</v>
+        <v>1.083538872215793</v>
       </c>
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr"/>
@@ -12744,25 +12772,25 @@
       <c r="E274" t="inlineStr"/>
       <c r="F274" t="inlineStr"/>
       <c r="G274" t="n">
-        <v>74.9543426211</v>
+        <v>74.9662961455</v>
       </c>
       <c r="H274" t="n">
-        <v>73.0354932101</v>
+        <v>73.0486451666</v>
       </c>
       <c r="I274" t="n">
-        <v>0.4507280582985427</v>
+        <v>0.4507025835544686</v>
       </c>
       <c r="J274" t="n">
-        <v>0.2232812771144136</v>
+        <v>0.2232916327014355</v>
       </c>
       <c r="K274" t="n">
-        <v>0.3259906645870438</v>
+        <v>0.3260057837440959</v>
       </c>
       <c r="L274" t="n">
-        <v>1.678174839482672</v>
+        <v>1.678113534407502</v>
       </c>
       <c r="M274" t="n">
-        <v>0.9958344959302845</v>
+        <v>0.9958806818484025</v>
       </c>
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr"/>
@@ -12889,25 +12917,25 @@
       <c r="E277" t="inlineStr"/>
       <c r="F277" t="inlineStr"/>
       <c r="G277" t="n">
-        <v>71.5055139725</v>
+        <v>71.5193230042</v>
       </c>
       <c r="H277" t="n">
-        <v>74.9543426211</v>
+        <v>74.9662961455</v>
       </c>
       <c r="I277" t="n">
-        <v>0.2818709050385318</v>
+        <v>0.2819006302399076</v>
       </c>
       <c r="J277" t="n">
-        <v>0.3065975736052116</v>
+        <v>0.3065244496098271</v>
       </c>
       <c r="K277" t="n">
-        <v>0.4115315213562565</v>
+        <v>0.4115749201502652</v>
       </c>
       <c r="L277" t="n">
-        <v>1.257144236471852</v>
+        <v>1.257276810869988</v>
       </c>
       <c r="M277" t="n">
-        <v>1.331324242171891</v>
+        <v>1.331148268979746</v>
       </c>
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr"/>
@@ -12928,25 +12956,25 @@
       <c r="E278" t="inlineStr"/>
       <c r="F278" t="inlineStr"/>
       <c r="G278" t="n">
-        <v>72.7814307125</v>
+        <v>72.7943262771</v>
       </c>
       <c r="H278" t="n">
-        <v>73.0786951976</v>
+        <v>73.09182851769999</v>
       </c>
       <c r="I278" t="n">
-        <v>0.3712789954183845</v>
+        <v>0.3712882682444418</v>
       </c>
       <c r="J278" t="n">
-        <v>0.2555776441388681</v>
+        <v>0.2555738746973814</v>
       </c>
       <c r="K278" t="n">
-        <v>0.3731433604427474</v>
+        <v>0.3731378570581769</v>
       </c>
       <c r="L278" t="n">
-        <v>1.486980346697901</v>
+        <v>1.487002661791502</v>
       </c>
       <c r="M278" t="n">
-        <v>1.139876292859352</v>
+        <v>1.139859481150321</v>
       </c>
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr"/>
@@ -12966,14 +12994,14 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E279" t="n">
         <v>1</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lechia Gdańsk</t>
         </is>
       </c>
       <c r="G279" t="n">
@@ -12998,10 +13026,10 @@
         <v>1.102515836715514</v>
       </c>
       <c r="N279" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -13073,25 +13101,25 @@
       <c r="E281" t="inlineStr"/>
       <c r="F281" t="inlineStr"/>
       <c r="G281" t="n">
-        <v>74.6831184939</v>
+        <v>74.6951902152</v>
       </c>
       <c r="H281" t="n">
-        <v>72.7814307125</v>
+        <v>72.7943262771</v>
       </c>
       <c r="I281" t="n">
-        <v>0.4497375910926658</v>
+        <v>0.4497255365214772</v>
       </c>
       <c r="J281" t="n">
-        <v>0.223683906059892</v>
+        <v>0.2236888062920824</v>
       </c>
       <c r="K281" t="n">
-        <v>0.3265785028474423</v>
+        <v>0.3265856571864403</v>
       </c>
       <c r="L281" t="n">
-        <v>1.67579127612544</v>
+        <v>1.675762266750872</v>
       </c>
       <c r="M281" t="n">
-        <v>0.9976302210271182</v>
+        <v>0.9976520760626875</v>
       </c>
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr"/>
@@ -13114,11 +13142,11 @@
         <v>1</v>
       </c>
       <c r="E282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>Widzew Łódź</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="G282" t="n">
@@ -13143,10 +13171,10 @@
         <v>1.275925404448987</v>
       </c>
       <c r="N282" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -13165,25 +13193,25 @@
       <c r="E283" t="inlineStr"/>
       <c r="F283" t="inlineStr"/>
       <c r="G283" t="n">
-        <v>75.466492378</v>
+        <v>75.47858874710001</v>
       </c>
       <c r="H283" t="n">
-        <v>72.7814307125</v>
+        <v>72.7943262771</v>
       </c>
       <c r="I283" t="n">
-        <v>0.4786769376399245</v>
+        <v>0.4786656959639991</v>
       </c>
       <c r="J283" t="n">
-        <v>0.2119199440488112</v>
+        <v>0.2119245138357727</v>
       </c>
       <c r="K283" t="n">
-        <v>0.3094031183112643</v>
+        <v>0.3094097902002282</v>
       </c>
       <c r="L283" t="n">
-        <v>1.745433931231038</v>
+        <v>1.745406878092225</v>
       </c>
       <c r="M283" t="n">
-        <v>0.9451629504576978</v>
+        <v>0.9451833317075464</v>
       </c>
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr"/>
@@ -13257,25 +13285,25 @@
       <c r="E285" t="inlineStr"/>
       <c r="F285" t="inlineStr"/>
       <c r="G285" t="n">
-        <v>73.0354932101</v>
+        <v>73.0486451666</v>
       </c>
       <c r="H285" t="n">
-        <v>72.7814307125</v>
+        <v>72.7943262771</v>
       </c>
       <c r="I285" t="n">
-        <v>0.3901882395459388</v>
+        <v>0.3902148373049018</v>
       </c>
       <c r="J285" t="n">
-        <v>0.2478909595341712</v>
+        <v>0.2478801474370319</v>
       </c>
       <c r="K285" t="n">
-        <v>0.36192080091989</v>
+        <v>0.3619050152580665</v>
       </c>
       <c r="L285" t="n">
-        <v>1.532485519557707</v>
+        <v>1.532549527172772</v>
       </c>
       <c r="M285" t="n">
-        <v>1.105593679522404</v>
+        <v>1.105545457569162</v>
       </c>
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr"/>
@@ -13296,25 +13324,25 @@
       <c r="E286" t="inlineStr"/>
       <c r="F286" t="inlineStr"/>
       <c r="G286" t="n">
-        <v>72.7814307125</v>
+        <v>72.7943262771</v>
       </c>
       <c r="H286" t="n">
-        <v>71.5055139725</v>
+        <v>71.5193230042</v>
       </c>
       <c r="I286" t="n">
-        <v>0.4250701937618589</v>
+        <v>0.42505631116903</v>
       </c>
       <c r="J286" t="n">
-        <v>0.2337113033488379</v>
+        <v>0.2337169466792561</v>
       </c>
       <c r="K286" t="n">
-        <v>0.3412185028893032</v>
+        <v>0.3412267421517139</v>
       </c>
       <c r="L286" t="n">
-        <v>1.61642908417488</v>
+        <v>1.616395675658804</v>
       </c>
       <c r="M286" t="n">
-        <v>1.042352412935817</v>
+        <v>1.042377582189482</v>
       </c>
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr"/>
@@ -13334,10 +13362,10 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E287" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
@@ -13388,25 +13416,25 @@
       <c r="E288" t="inlineStr"/>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="n">
-        <v>73.0786951976</v>
+        <v>73.09182851769999</v>
       </c>
       <c r="H288" t="n">
-        <v>74.6831184939</v>
+        <v>74.6951902152</v>
       </c>
       <c r="I288" t="n">
-        <v>0.3292073816703921</v>
+        <v>0.3292574467398268</v>
       </c>
       <c r="J288" t="n">
-        <v>0.2726799261502472</v>
+        <v>0.2726595744960054</v>
       </c>
       <c r="K288" t="n">
-        <v>0.3981126921793608</v>
+        <v>0.3980829787641679</v>
       </c>
       <c r="L288" t="n">
-        <v>1.385734837190537</v>
+        <v>1.385855318983648</v>
       </c>
       <c r="M288" t="n">
-        <v>1.216152470630102</v>
+        <v>1.216061702252184</v>
       </c>
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr"/>
@@ -13482,11 +13510,11 @@
         <v>1</v>
       </c>
       <c r="E290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>Lechia Gdańsk</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="G290" t="n">
@@ -13511,10 +13539,10 @@
         <v>1.25913906712957</v>
       </c>
       <c r="N290" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -13533,25 +13561,25 @@
       <c r="E291" t="inlineStr"/>
       <c r="F291" t="inlineStr"/>
       <c r="G291" t="n">
-        <v>75.466492378</v>
+        <v>75.47858874710001</v>
       </c>
       <c r="H291" t="n">
-        <v>73.0786951976</v>
+        <v>73.09182851769999</v>
       </c>
       <c r="I291" t="n">
-        <v>0.4680908339021292</v>
+        <v>0.4680711609661348</v>
       </c>
       <c r="J291" t="n">
-        <v>0.216223238251167</v>
+        <v>0.21623123537962</v>
       </c>
       <c r="K291" t="n">
-        <v>0.3156859278467038</v>
+        <v>0.3156976036542452</v>
       </c>
       <c r="L291" t="n">
-        <v>1.719958429553091</v>
+        <v>1.719911086552649</v>
       </c>
       <c r="M291" t="n">
-        <v>0.9643556426002048</v>
+        <v>0.9643913097931052</v>
       </c>
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr"/>
@@ -13625,25 +13653,25 @@
       <c r="E293" t="inlineStr"/>
       <c r="F293" t="inlineStr"/>
       <c r="G293" t="n">
-        <v>73.0354932101</v>
+        <v>73.0486451666</v>
       </c>
       <c r="H293" t="n">
-        <v>73.0786951976</v>
+        <v>73.09182851769999</v>
       </c>
       <c r="I293" t="n">
-        <v>0.380132142407586</v>
+        <v>0.3801504785842623</v>
       </c>
       <c r="J293" t="n">
-        <v>0.2519788038993553</v>
+        <v>0.2519713501689991</v>
       </c>
       <c r="K293" t="n">
-        <v>0.3678890536930587</v>
+        <v>0.3678781712467387</v>
       </c>
       <c r="L293" t="n">
-        <v>1.508285480915817</v>
+        <v>1.508329606999526</v>
       </c>
       <c r="M293" t="n">
-        <v>1.123825465391124</v>
+        <v>1.123792221753736</v>
       </c>
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr"/>
@@ -13664,25 +13692,25 @@
       <c r="E294" t="inlineStr"/>
       <c r="F294" t="inlineStr"/>
       <c r="G294" t="n">
-        <v>73.0786951976</v>
+        <v>73.09182851769999</v>
       </c>
       <c r="H294" t="n">
-        <v>71.5055139725</v>
+        <v>71.5193230042</v>
       </c>
       <c r="I294" t="n">
-        <v>0.4358975535213985</v>
+        <v>0.4358922711323965</v>
       </c>
       <c r="J294" t="n">
-        <v>0.2293099375929274</v>
+        <v>0.2293120849055299</v>
       </c>
       <c r="K294" t="n">
-        <v>0.334792508885674</v>
+        <v>0.3347956439620737</v>
       </c>
       <c r="L294" t="n">
-        <v>1.642485169449869</v>
+        <v>1.642472457359263</v>
       </c>
       <c r="M294" t="n">
-        <v>1.022722321664456</v>
+        <v>1.022731898678663</v>
       </c>
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr"/>
@@ -13703,25 +13731,25 @@
       <c r="E295" t="inlineStr"/>
       <c r="F295" t="inlineStr"/>
       <c r="G295" t="n">
-        <v>71.5055139725</v>
+        <v>71.5193230042</v>
       </c>
       <c r="H295" t="n">
-        <v>73.0786951976</v>
+        <v>73.09182851769999</v>
       </c>
       <c r="I295" t="n">
-        <v>0.3282085792404865</v>
+        <v>0.3282472625450633</v>
       </c>
       <c r="J295" t="n">
-        <v>0.2730859433981762</v>
+        <v>0.2730702184776166</v>
       </c>
       <c r="K295" t="n">
-        <v>0.3987054773613373</v>
+        <v>0.3986825189773202</v>
       </c>
       <c r="L295" t="n">
-        <v>1.383331215082797</v>
+        <v>1.38342430661251</v>
       </c>
       <c r="M295" t="n">
-        <v>1.217963307555866</v>
+        <v>1.21789317441017</v>
       </c>
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr"/>
@@ -13742,25 +13770,25 @@
       <c r="E296" t="inlineStr"/>
       <c r="F296" t="inlineStr"/>
       <c r="G296" t="n">
-        <v>74.6831184939</v>
+        <v>74.6951902152</v>
       </c>
       <c r="H296" t="n">
-        <v>75.466492378</v>
+        <v>75.47858874710001</v>
       </c>
       <c r="I296" t="n">
-        <v>0.3577113980800607</v>
+        <v>0.3577264379484819</v>
       </c>
       <c r="J296" t="n">
-        <v>0.2610929276097314</v>
+        <v>0.2610868138420805</v>
       </c>
       <c r="K296" t="n">
-        <v>0.3811956743102079</v>
+        <v>0.3811867482094376</v>
       </c>
       <c r="L296" t="n">
-        <v>1.45432986855039</v>
+        <v>1.454366062054883</v>
       </c>
       <c r="M296" t="n">
-        <v>1.164474457139402</v>
+        <v>1.164447189735679</v>
       </c>
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr"/>
@@ -13833,7 +13861,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E298" t="n">
         <v>0</v>
@@ -13887,25 +13915,25 @@
       <c r="E299" t="inlineStr"/>
       <c r="F299" t="inlineStr"/>
       <c r="G299" t="n">
-        <v>73.0354932101</v>
+        <v>73.0486451666</v>
       </c>
       <c r="H299" t="n">
-        <v>74.6831184939</v>
+        <v>74.6951902152</v>
       </c>
       <c r="I299" t="n">
-        <v>0.3277915241779758</v>
+        <v>0.3278420893073656</v>
       </c>
       <c r="J299" t="n">
-        <v>0.2732554779764326</v>
+        <v>0.2732349230457863</v>
       </c>
       <c r="K299" t="n">
-        <v>0.3989529978455916</v>
+        <v>0.398922987646848</v>
       </c>
       <c r="L299" t="n">
-        <v>1.382327570379519</v>
+        <v>1.382449255568945</v>
       </c>
       <c r="M299" t="n">
-        <v>1.218719431774889</v>
+        <v>1.218627756784207</v>
       </c>
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr"/>
@@ -13926,25 +13954,25 @@
       <c r="E300" t="inlineStr"/>
       <c r="F300" t="inlineStr"/>
       <c r="G300" t="n">
-        <v>74.6831184939</v>
+        <v>74.6951902152</v>
       </c>
       <c r="H300" t="n">
-        <v>71.5055139725</v>
+        <v>71.5193230042</v>
       </c>
       <c r="I300" t="n">
-        <v>0.4951358610103182</v>
+        <v>0.4950910638056146</v>
       </c>
       <c r="J300" t="n">
-        <v>0.2052293247925536</v>
+        <v>0.2052475350383681</v>
       </c>
       <c r="K300" t="n">
-        <v>0.2996348141971283</v>
+        <v>0.2996614011560174</v>
       </c>
       <c r="L300" t="n">
-        <v>1.785042397228083</v>
+        <v>1.784934592572861</v>
       </c>
       <c r="M300" t="n">
-        <v>0.915322788574789</v>
+        <v>0.9154040062711217</v>
       </c>
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr"/>
@@ -14018,25 +14046,25 @@
       <c r="E302" t="inlineStr"/>
       <c r="F302" t="inlineStr"/>
       <c r="G302" t="n">
-        <v>75.466492378</v>
+        <v>75.47858874710001</v>
       </c>
       <c r="H302" t="n">
-        <v>73.0354932101</v>
+        <v>73.0486451666</v>
       </c>
       <c r="I302" t="n">
-        <v>0.4696277758189689</v>
+        <v>0.4696074321906398</v>
       </c>
       <c r="J302" t="n">
-        <v>0.2155984651142403</v>
+        <v>0.2156067348818537</v>
       </c>
       <c r="K302" t="n">
-        <v>0.3147737590667908</v>
+        <v>0.3147858329275064</v>
       </c>
       <c r="L302" t="n">
-        <v>1.723657086523697</v>
+        <v>1.723608129499426</v>
       </c>
       <c r="M302" t="n">
-        <v>0.9615691544095117</v>
+        <v>0.9616060375730675</v>
       </c>
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr"/>
@@ -14163,25 +14191,25 @@
       <c r="E305" t="inlineStr"/>
       <c r="F305" t="inlineStr"/>
       <c r="G305" t="n">
-        <v>71.5055139725</v>
+        <v>71.5193230042</v>
       </c>
       <c r="H305" t="n">
-        <v>75.466492378</v>
+        <v>75.47858874710001</v>
       </c>
       <c r="I305" t="n">
-        <v>0.2754601280941281</v>
+        <v>0.2754888597437737</v>
       </c>
       <c r="J305" t="n">
-        <v>0.3223680848884448</v>
+        <v>0.3222974050303167</v>
       </c>
       <c r="K305" t="n">
-        <v>0.4021717870174271</v>
+        <v>0.4022137352259095</v>
       </c>
       <c r="L305" t="n">
-        <v>1.228552171299811</v>
+        <v>1.228680314457231</v>
       </c>
       <c r="M305" t="n">
-        <v>1.369276041682761</v>
+        <v>1.36910595031686</v>
       </c>
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr"/>
@@ -14202,25 +14230,25 @@
       <c r="E306" t="inlineStr"/>
       <c r="F306" t="inlineStr"/>
       <c r="G306" t="n">
-        <v>73.0354932101</v>
+        <v>73.0486451666</v>
       </c>
       <c r="H306" t="n">
-        <v>71.5055139725</v>
+        <v>71.5193230042</v>
       </c>
       <c r="I306" t="n">
-        <v>0.4343199375355512</v>
+        <v>0.4343153398081804</v>
       </c>
       <c r="J306" t="n">
-        <v>0.2299512449042475</v>
+        <v>0.2299531138991137</v>
       </c>
       <c r="K306" t="n">
-        <v>0.3357288175602013</v>
+        <v>0.3357315462927059</v>
       </c>
       <c r="L306" t="n">
-        <v>1.638688630166855</v>
+        <v>1.638677565717247</v>
       </c>
       <c r="M306" t="n">
-        <v>1.025582552272944</v>
+        <v>1.025590887990047</v>
       </c>
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr"/>
@@ -14241,25 +14269,25 @@
       <c r="E307" t="inlineStr"/>
       <c r="F307" t="inlineStr"/>
       <c r="G307" t="n">
-        <v>71.5055139725</v>
+        <v>71.5193230042</v>
       </c>
       <c r="H307" t="n">
-        <v>73.0354932101</v>
+        <v>73.0486451666</v>
       </c>
       <c r="I307" t="n">
-        <v>0.3295708059557295</v>
+        <v>0.3296089827500948</v>
       </c>
       <c r="J307" t="n">
-        <v>0.272532192700923</v>
+        <v>0.2725166736788233</v>
       </c>
       <c r="K307" t="n">
-        <v>0.3978970013433475</v>
+        <v>0.3978743435710819</v>
       </c>
       <c r="L307" t="n">
-        <v>1.386609419210536</v>
+        <v>1.386701291821366</v>
       </c>
       <c r="M307" t="n">
-        <v>1.215493579446117</v>
+        <v>1.215424364607552</v>
       </c>
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr"/>
